--- a/inch_taps_drills.xlsx
+++ b/inch_taps_drills.xlsx
@@ -699,8 +699,6 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="n"/>
       <c r="C6" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -731,10 +729,6 @@
           <t>.0635</t>
         </is>
       </c>
-      <c r="I6" s="4" t="n"/>
-      <c r="J6" s="4" t="n"/>
-      <c r="K6" s="4" t="n"/>
-      <c r="L6" s="4" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
@@ -799,8 +793,6 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
       <c r="C8" s="3" t="inlineStr">
         <is>
           <t>64</t>
@@ -831,10 +823,6 @@
           <t>.0760</t>
         </is>
       </c>
-      <c r="I8" s="3" t="n"/>
-      <c r="J8" s="3" t="n"/>
-      <c r="K8" s="3" t="n"/>
-      <c r="L8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -899,8 +887,6 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="4" t="n"/>
       <c r="C10" s="4" t="inlineStr">
         <is>
           <t>56</t>
@@ -931,10 +917,6 @@
           <t>.0890</t>
         </is>
       </c>
-      <c r="I10" s="4" t="n"/>
-      <c r="J10" s="4" t="n"/>
-      <c r="K10" s="4" t="n"/>
-      <c r="L10" s="4" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
@@ -999,8 +981,6 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n"/>
-      <c r="B12" s="3" t="n"/>
       <c r="C12" s="3" t="inlineStr">
         <is>
           <t>48</t>
@@ -1031,10 +1011,6 @@
           <t>.0980</t>
         </is>
       </c>
-      <c r="I12" s="3" t="n"/>
-      <c r="J12" s="3" t="n"/>
-      <c r="K12" s="3" t="n"/>
-      <c r="L12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -1099,8 +1075,6 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n"/>
-      <c r="B14" s="4" t="n"/>
       <c r="C14" s="4" t="inlineStr">
         <is>
           <t>44</t>
@@ -1131,10 +1105,6 @@
           <t>.1100</t>
         </is>
       </c>
-      <c r="I14" s="4" t="n"/>
-      <c r="J14" s="4" t="n"/>
-      <c r="K14" s="4" t="n"/>
-      <c r="L14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -1199,8 +1169,6 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="3" t="n"/>
       <c r="C16" s="3" t="inlineStr">
         <is>
           <t>40</t>
@@ -1231,10 +1199,6 @@
           <t>.1200</t>
         </is>
       </c>
-      <c r="I16" s="3" t="n"/>
-      <c r="J16" s="3" t="n"/>
-      <c r="K16" s="3" t="n"/>
-      <c r="L16" s="3" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -1299,8 +1263,6 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n"/>
-      <c r="B18" s="4" t="n"/>
       <c r="C18" s="4" t="inlineStr">
         <is>
           <t>36</t>
@@ -1331,10 +1293,6 @@
           <t>.1470</t>
         </is>
       </c>
-      <c r="I18" s="4" t="n"/>
-      <c r="J18" s="4" t="n"/>
-      <c r="K18" s="4" t="n"/>
-      <c r="L18" s="4" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -1399,8 +1357,6 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n"/>
-      <c r="B20" s="3" t="n"/>
       <c r="C20" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -1431,10 +1387,6 @@
           <t>.1695</t>
         </is>
       </c>
-      <c r="I20" s="3" t="n"/>
-      <c r="J20" s="3" t="n"/>
-      <c r="K20" s="3" t="n"/>
-      <c r="L20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1499,8 +1451,6 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n"/>
-      <c r="B22" s="4" t="n"/>
       <c r="C22" s="4" t="inlineStr">
         <is>
           <t>28</t>
@@ -1531,14 +1481,8 @@
           <t>.1935</t>
         </is>
       </c>
-      <c r="I22" s="4" t="n"/>
-      <c r="J22" s="4" t="n"/>
-      <c r="K22" s="4" t="n"/>
-      <c r="L22" s="4" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n"/>
-      <c r="B23" s="4" t="n"/>
       <c r="C23" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -1569,10 +1513,6 @@
           <t>.1960</t>
         </is>
       </c>
-      <c r="I23" s="4" t="n"/>
-      <c r="J23" s="4" t="n"/>
-      <c r="K23" s="4" t="n"/>
-      <c r="L23" s="4" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
@@ -1637,8 +1577,6 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n"/>
-      <c r="B25" s="3" t="n"/>
       <c r="C25" s="3" t="inlineStr">
         <is>
           <t>28</t>
@@ -1669,14 +1607,8 @@
           <t>.2280</t>
         </is>
       </c>
-      <c r="I25" s="3" t="n"/>
-      <c r="J25" s="3" t="n"/>
-      <c r="K25" s="3" t="n"/>
-      <c r="L25" s="3" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n"/>
-      <c r="B26" s="3" t="n"/>
       <c r="C26" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -1707,10 +1639,6 @@
           <t>.2280</t>
         </is>
       </c>
-      <c r="I26" s="3" t="n"/>
-      <c r="J26" s="3" t="n"/>
-      <c r="K26" s="3" t="n"/>
-      <c r="L26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -1775,8 +1703,6 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n"/>
-      <c r="B28" s="4" t="n"/>
       <c r="C28" s="4" t="inlineStr">
         <is>
           <t>24</t>
@@ -1807,14 +1733,8 @@
           <t>.2812</t>
         </is>
       </c>
-      <c r="I28" s="4" t="n"/>
-      <c r="J28" s="4" t="n"/>
-      <c r="K28" s="4" t="n"/>
-      <c r="L28" s="4" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="4" t="n"/>
       <c r="C29" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -1845,10 +1765,6 @@
           <t>.2900</t>
         </is>
       </c>
-      <c r="I29" s="4" t="n"/>
-      <c r="J29" s="4" t="n"/>
-      <c r="K29" s="4" t="n"/>
-      <c r="L29" s="4" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
@@ -1913,8 +1829,6 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n"/>
-      <c r="B31" s="3" t="n"/>
       <c r="C31" s="3" t="inlineStr">
         <is>
           <t>24</t>
@@ -1945,14 +1859,8 @@
           <t>.3480</t>
         </is>
       </c>
-      <c r="I31" s="3" t="n"/>
-      <c r="J31" s="3" t="n"/>
-      <c r="K31" s="3" t="n"/>
-      <c r="L31" s="3" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n"/>
-      <c r="B32" s="3" t="n"/>
       <c r="C32" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -1983,10 +1891,6 @@
           <t>.3580</t>
         </is>
       </c>
-      <c r="I32" s="3" t="n"/>
-      <c r="J32" s="3" t="n"/>
-      <c r="K32" s="3" t="n"/>
-      <c r="L32" s="3" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -2046,13 +1950,11 @@
       </c>
       <c r="L33" s="4" t="inlineStr">
         <is>
-          <t>.4687</t>
+          <t>.4688</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n"/>
-      <c r="B34" s="4" t="n"/>
       <c r="C34" s="4" t="inlineStr">
         <is>
           <t>20</t>
@@ -2083,14 +1985,8 @@
           <t>.4062</t>
         </is>
       </c>
-      <c r="I34" s="4" t="n"/>
-      <c r="J34" s="4" t="n"/>
-      <c r="K34" s="4" t="n"/>
-      <c r="L34" s="4" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n"/>
-      <c r="B35" s="4" t="n"/>
       <c r="C35" s="4" t="inlineStr">
         <is>
           <t>28</t>
@@ -2121,10 +2017,6 @@
           <t>.4130</t>
         </is>
       </c>
-      <c r="I35" s="4" t="n"/>
-      <c r="J35" s="4" t="n"/>
-      <c r="K35" s="4" t="n"/>
-      <c r="L35" s="4" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -2189,8 +2081,6 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n"/>
-      <c r="B37" s="3" t="n"/>
       <c r="C37" s="3" t="inlineStr">
         <is>
           <t>20</t>
@@ -2221,14 +2111,8 @@
           <t>.4688</t>
         </is>
       </c>
-      <c r="I37" s="3" t="n"/>
-      <c r="J37" s="3" t="n"/>
-      <c r="K37" s="3" t="n"/>
-      <c r="L37" s="3" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n"/>
-      <c r="B38" s="3" t="n"/>
       <c r="C38" s="3" t="inlineStr">
         <is>
           <t>28</t>
@@ -2259,10 +2143,6 @@
           <t>.4688</t>
         </is>
       </c>
-      <c r="I38" s="3" t="n"/>
-      <c r="J38" s="3" t="n"/>
-      <c r="K38" s="3" t="n"/>
-      <c r="L38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -2327,8 +2207,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n"/>
-      <c r="B40" s="4" t="n"/>
       <c r="C40" s="4" t="inlineStr">
         <is>
           <t>18</t>
@@ -2359,14 +2237,8 @@
           <t>.5312</t>
         </is>
       </c>
-      <c r="I40" s="4" t="n"/>
-      <c r="J40" s="4" t="n"/>
-      <c r="K40" s="4" t="n"/>
-      <c r="L40" s="4" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="n"/>
-      <c r="B41" s="4" t="n"/>
       <c r="C41" s="4" t="inlineStr">
         <is>
           <t>24</t>
@@ -2397,10 +2269,6 @@
           <t>.5312</t>
         </is>
       </c>
-      <c r="I41" s="4" t="n"/>
-      <c r="J41" s="4" t="n"/>
-      <c r="K41" s="4" t="n"/>
-      <c r="L41" s="4" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
@@ -2465,8 +2333,6 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n"/>
-      <c r="B43" s="3" t="n"/>
       <c r="C43" s="3" t="inlineStr">
         <is>
           <t>18</t>
@@ -2497,14 +2363,8 @@
           <t>.5938</t>
         </is>
       </c>
-      <c r="I43" s="3" t="n"/>
-      <c r="J43" s="3" t="n"/>
-      <c r="K43" s="3" t="n"/>
-      <c r="L43" s="3" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n"/>
-      <c r="B44" s="3" t="n"/>
       <c r="C44" s="3" t="inlineStr">
         <is>
           <t>24</t>
@@ -2535,10 +2395,6 @@
           <t>.5938</t>
         </is>
       </c>
-      <c r="I44" s="3" t="n"/>
-      <c r="J44" s="3" t="n"/>
-      <c r="K44" s="3" t="n"/>
-      <c r="L44" s="3" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -2665,8 +2521,6 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n"/>
-      <c r="B47" s="3" t="n"/>
       <c r="C47" s="3" t="inlineStr">
         <is>
           <t>16</t>
@@ -2697,14 +2551,8 @@
           <t>.7031</t>
         </is>
       </c>
-      <c r="I47" s="3" t="n"/>
-      <c r="J47" s="3" t="n"/>
-      <c r="K47" s="3" t="n"/>
-      <c r="L47" s="3" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n"/>
-      <c r="B48" s="3" t="n"/>
       <c r="C48" s="3" t="inlineStr">
         <is>
           <t>20</t>
@@ -2735,10 +2583,6 @@
           <t>.7188</t>
         </is>
       </c>
-      <c r="I48" s="3" t="n"/>
-      <c r="J48" s="3" t="n"/>
-      <c r="K48" s="3" t="n"/>
-      <c r="L48" s="3" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -2865,8 +2709,6 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n"/>
-      <c r="B51" s="3" t="n"/>
       <c r="C51" s="3" t="inlineStr">
         <is>
           <t>14</t>
@@ -2897,14 +2739,8 @@
           <t>.8281</t>
         </is>
       </c>
-      <c r="I51" s="3" t="n"/>
-      <c r="J51" s="3" t="n"/>
-      <c r="K51" s="3" t="n"/>
-      <c r="L51" s="3" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n"/>
-      <c r="B52" s="3" t="n"/>
       <c r="C52" s="3" t="inlineStr">
         <is>
           <t>20</t>
@@ -2935,10 +2771,6 @@
           <t>.8438</t>
         </is>
       </c>
-      <c r="I52" s="3" t="n"/>
-      <c r="J52" s="3" t="n"/>
-      <c r="K52" s="3" t="n"/>
-      <c r="L52" s="3" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
@@ -3065,8 +2897,6 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n"/>
-      <c r="B55" s="3" t="n"/>
       <c r="C55" s="3" t="inlineStr">
         <is>
           <t>12</t>
@@ -3097,14 +2927,8 @@
           <t>.9531</t>
         </is>
       </c>
-      <c r="I55" s="3" t="n"/>
-      <c r="J55" s="3" t="n"/>
-      <c r="K55" s="3" t="n"/>
-      <c r="L55" s="3" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="n"/>
-      <c r="B56" s="3" t="n"/>
       <c r="C56" s="3" t="inlineStr">
         <is>
           <t>20</t>
@@ -3135,10 +2959,6 @@
           <t>.9688</t>
         </is>
       </c>
-      <c r="I56" s="3" t="n"/>
-      <c r="J56" s="3" t="n"/>
-      <c r="K56" s="3" t="n"/>
-      <c r="L56" s="3" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="124">

--- a/inch_taps_drills.xlsx
+++ b/inch_taps_drills.xlsx
@@ -38,8 +38,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F5F5F5"/>
-        <bgColor rgb="00F5F5F5"/>
+        <fgColor rgb="00E2E2E2"/>
+        <bgColor rgb="00E2E2E2"/>
       </patternFill>
     </fill>
   </fills>

--- a/inch_taps_drills.xlsx
+++ b/inch_taps_drills.xlsx
@@ -699,6 +699,8 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="2" t="n"/>
       <c r="C6" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -729,6 +731,10 @@
           <t>.0635</t>
         </is>
       </c>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
@@ -793,6 +799,8 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="2" t="n"/>
       <c r="C8" s="3" t="inlineStr">
         <is>
           <t>64</t>
@@ -823,6 +831,10 @@
           <t>.0760</t>
         </is>
       </c>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -887,6 +899,8 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="2" t="n"/>
       <c r="C10" s="4" t="inlineStr">
         <is>
           <t>56</t>
@@ -917,6 +931,10 @@
           <t>.0890</t>
         </is>
       </c>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
@@ -981,6 +999,8 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
       <c r="C12" s="3" t="inlineStr">
         <is>
           <t>48</t>
@@ -1011,6 +1031,10 @@
           <t>.0980</t>
         </is>
       </c>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -1075,6 +1099,8 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="2" t="n"/>
       <c r="C14" s="4" t="inlineStr">
         <is>
           <t>44</t>
@@ -1105,6 +1131,10 @@
           <t>.1100</t>
         </is>
       </c>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -1169,6 +1199,8 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="2" t="n"/>
       <c r="C16" s="3" t="inlineStr">
         <is>
           <t>40</t>
@@ -1199,6 +1231,10 @@
           <t>.1200</t>
         </is>
       </c>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -1263,6 +1299,8 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" s="2" t="n"/>
+      <c r="B18" s="2" t="n"/>
       <c r="C18" s="4" t="inlineStr">
         <is>
           <t>36</t>
@@ -1293,6 +1331,10 @@
           <t>.1470</t>
         </is>
       </c>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -1357,6 +1399,8 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -1387,6 +1431,10 @@
           <t>.1695</t>
         </is>
       </c>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1451,6 +1499,8 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="2" t="n"/>
       <c r="C22" s="4" t="inlineStr">
         <is>
           <t>28</t>
@@ -1481,8 +1531,14 @@
           <t>.1935</t>
         </is>
       </c>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2" t="n"/>
     </row>
     <row r="23">
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
       <c r="C23" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -1513,6 +1569,10 @@
           <t>.1960</t>
         </is>
       </c>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="2" t="n"/>
+      <c r="K23" s="2" t="n"/>
+      <c r="L23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
@@ -1577,6 +1637,8 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="3" t="inlineStr">
         <is>
           <t>28</t>
@@ -1607,8 +1669,14 @@
           <t>.2280</t>
         </is>
       </c>
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
+      <c r="L25" s="2" t="n"/>
     </row>
     <row r="26">
+      <c r="A26" s="2" t="n"/>
+      <c r="B26" s="2" t="n"/>
       <c r="C26" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -1639,6 +1707,10 @@
           <t>.2280</t>
         </is>
       </c>
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="2" t="n"/>
+      <c r="K26" s="2" t="n"/>
+      <c r="L26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -1703,6 +1775,8 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="2" t="n"/>
       <c r="C28" s="4" t="inlineStr">
         <is>
           <t>24</t>
@@ -1733,8 +1807,14 @@
           <t>.2812</t>
         </is>
       </c>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+      <c r="K28" s="2" t="n"/>
+      <c r="L28" s="2" t="n"/>
     </row>
     <row r="29">
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="2" t="n"/>
       <c r="C29" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -1765,6 +1845,10 @@
           <t>.2900</t>
         </is>
       </c>
+      <c r="I29" s="2" t="n"/>
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
@@ -1829,6 +1913,8 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
       <c r="C31" s="3" t="inlineStr">
         <is>
           <t>24</t>
@@ -1859,8 +1945,14 @@
           <t>.3480</t>
         </is>
       </c>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
     </row>
     <row r="32">
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
       <c r="C32" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -1891,6 +1983,10 @@
           <t>.3580</t>
         </is>
       </c>
+      <c r="I32" s="2" t="n"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="n"/>
+      <c r="L32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -1955,6 +2051,8 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="2" t="n"/>
       <c r="C34" s="4" t="inlineStr">
         <is>
           <t>20</t>
@@ -1985,8 +2083,14 @@
           <t>.4062</t>
         </is>
       </c>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
+      <c r="L34" s="2" t="n"/>
     </row>
     <row r="35">
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
       <c r="C35" s="4" t="inlineStr">
         <is>
           <t>28</t>
@@ -2017,6 +2121,10 @@
           <t>.4130</t>
         </is>
       </c>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -2081,6 +2189,8 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
       <c r="C37" s="3" t="inlineStr">
         <is>
           <t>20</t>
@@ -2111,8 +2221,14 @@
           <t>.4688</t>
         </is>
       </c>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="2" t="n"/>
     </row>
     <row r="38">
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="2" t="n"/>
       <c r="C38" s="3" t="inlineStr">
         <is>
           <t>28</t>
@@ -2143,6 +2259,10 @@
           <t>.4688</t>
         </is>
       </c>
+      <c r="I38" s="2" t="n"/>
+      <c r="J38" s="2" t="n"/>
+      <c r="K38" s="2" t="n"/>
+      <c r="L38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -2207,6 +2327,8 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" s="2" t="n"/>
+      <c r="B40" s="2" t="n"/>
       <c r="C40" s="4" t="inlineStr">
         <is>
           <t>18</t>
@@ -2237,8 +2359,14 @@
           <t>.5312</t>
         </is>
       </c>
+      <c r="I40" s="2" t="n"/>
+      <c r="J40" s="2" t="n"/>
+      <c r="K40" s="2" t="n"/>
+      <c r="L40" s="2" t="n"/>
     </row>
     <row r="41">
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="4" t="inlineStr">
         <is>
           <t>24</t>
@@ -2269,6 +2397,10 @@
           <t>.5312</t>
         </is>
       </c>
+      <c r="I41" s="2" t="n"/>
+      <c r="J41" s="2" t="n"/>
+      <c r="K41" s="2" t="n"/>
+      <c r="L41" s="2" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
@@ -2333,6 +2465,8 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
       <c r="C43" s="3" t="inlineStr">
         <is>
           <t>18</t>
@@ -2363,8 +2497,14 @@
           <t>.5938</t>
         </is>
       </c>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
     </row>
     <row r="44">
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
       <c r="C44" s="3" t="inlineStr">
         <is>
           <t>24</t>
@@ -2395,6 +2535,10 @@
           <t>.5938</t>
         </is>
       </c>
+      <c r="I44" s="2" t="n"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
+      <c r="L44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -2521,6 +2665,8 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
       <c r="C47" s="3" t="inlineStr">
         <is>
           <t>16</t>
@@ -2551,8 +2697,14 @@
           <t>.7031</t>
         </is>
       </c>
+      <c r="I47" s="2" t="n"/>
+      <c r="J47" s="2" t="n"/>
+      <c r="K47" s="2" t="n"/>
+      <c r="L47" s="2" t="n"/>
     </row>
     <row r="48">
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
       <c r="C48" s="3" t="inlineStr">
         <is>
           <t>20</t>
@@ -2583,6 +2735,10 @@
           <t>.7188</t>
         </is>
       </c>
+      <c r="I48" s="2" t="n"/>
+      <c r="J48" s="2" t="n"/>
+      <c r="K48" s="2" t="n"/>
+      <c r="L48" s="2" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -2709,6 +2865,8 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" s="2" t="n"/>
+      <c r="B51" s="2" t="n"/>
       <c r="C51" s="3" t="inlineStr">
         <is>
           <t>14</t>
@@ -2739,8 +2897,14 @@
           <t>.8281</t>
         </is>
       </c>
+      <c r="I51" s="2" t="n"/>
+      <c r="J51" s="2" t="n"/>
+      <c r="K51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
     </row>
     <row r="52">
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="2" t="n"/>
       <c r="C52" s="3" t="inlineStr">
         <is>
           <t>20</t>
@@ -2771,6 +2935,10 @@
           <t>.8438</t>
         </is>
       </c>
+      <c r="I52" s="2" t="n"/>
+      <c r="J52" s="2" t="n"/>
+      <c r="K52" s="2" t="n"/>
+      <c r="L52" s="2" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
@@ -2897,6 +3065,8 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="2" t="n"/>
       <c r="C55" s="3" t="inlineStr">
         <is>
           <t>12</t>
@@ -2927,8 +3097,14 @@
           <t>.9531</t>
         </is>
       </c>
+      <c r="I55" s="2" t="n"/>
+      <c r="J55" s="2" t="n"/>
+      <c r="K55" s="2" t="n"/>
+      <c r="L55" s="2" t="n"/>
     </row>
     <row r="56">
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="2" t="n"/>
       <c r="C56" s="3" t="inlineStr">
         <is>
           <t>20</t>
@@ -2959,6 +3135,10 @@
           <t>.9688</t>
         </is>
       </c>
+      <c r="I56" s="2" t="n"/>
+      <c r="J56" s="2" t="n"/>
+      <c r="K56" s="2" t="n"/>
+      <c r="L56" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="124">

--- a/inch_taps_drills.xlsx
+++ b/inch_taps_drills.xlsx
@@ -436,7 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L56"/>
   <sheetViews>
@@ -3267,6 +3267,8 @@
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="L19:L20"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="1" verticalCentered="0" gridLines="0"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup orientation="portrait" paperSize="3" fitToHeight="1" fitToWidth="1"/>
 </worksheet>
 </file>
--- a/inch_taps_drills.xlsx
+++ b/inch_taps_drills.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,10 @@
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
     <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
+    <col width="11" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -497,6 +501,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>SHCS</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
     </row>
     <row r="2" ht="40" customHeight="1">
       <c r="A2" s="2" t="n"/>
@@ -527,6 +539,18 @@
         </is>
       </c>
       <c r="L2" s="2" t="n"/>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>Counterbore</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="2" t="n"/>
@@ -573,6 +597,22 @@
           <t>Dec. Eq.</t>
         </is>
       </c>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>Drill</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>Dia.</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>Depth</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -635,6 +675,26 @@
           <t>.0700</t>
         </is>
       </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>0.050</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>1/8</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>.125</t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>.0740</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -695,6 +755,26 @@
       <c r="L5" s="4" t="inlineStr">
         <is>
           <t>.0810</t>
+        </is>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>1/16</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="inlineStr">
+        <is>
+          <t>5/32</t>
+        </is>
+      </c>
+      <c r="O5" s="4" t="inlineStr">
+        <is>
+          <t>.1562</t>
+        </is>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
+        <is>
+          <t>.0870</t>
         </is>
       </c>
     </row>
@@ -735,6 +815,10 @@
       <c r="J6" s="2" t="n"/>
       <c r="K6" s="2" t="n"/>
       <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
@@ -795,6 +879,26 @@
       <c r="L7" s="3" t="inlineStr">
         <is>
           <t>.0960</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>5/64</t>
+        </is>
+      </c>
+      <c r="N7" s="3" t="inlineStr">
+        <is>
+          <t>3/16</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="inlineStr">
+        <is>
+          <t>.1875</t>
+        </is>
+      </c>
+      <c r="P7" s="3" t="inlineStr">
+        <is>
+          <t>.1020</t>
         </is>
       </c>
     </row>
@@ -835,6 +939,10 @@
       <c r="J8" s="2" t="n"/>
       <c r="K8" s="2" t="n"/>
       <c r="L8" s="2" t="n"/>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -895,6 +1003,26 @@
       <c r="L9" s="4" t="inlineStr">
         <is>
           <t>.1100</t>
+        </is>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>5/64</t>
+        </is>
+      </c>
+      <c r="N9" s="4" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="O9" s="4" t="inlineStr">
+        <is>
+          <t>.2188</t>
+        </is>
+      </c>
+      <c r="P9" s="4" t="inlineStr">
+        <is>
+          <t>.1150</t>
         </is>
       </c>
     </row>
@@ -935,6 +1063,10 @@
       <c r="J10" s="2" t="n"/>
       <c r="K10" s="2" t="n"/>
       <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
@@ -995,6 +1127,26 @@
       <c r="L11" s="3" t="inlineStr">
         <is>
           <t>.1285</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>3/32</t>
+        </is>
+      </c>
+      <c r="N11" s="3" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="O11" s="3" t="inlineStr">
+        <is>
+          <t>.2188</t>
+        </is>
+      </c>
+      <c r="P11" s="3" t="inlineStr">
+        <is>
+          <t>.1300</t>
         </is>
       </c>
     </row>
@@ -1035,6 +1187,10 @@
       <c r="J12" s="2" t="n"/>
       <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -1095,6 +1251,26 @@
       <c r="L13" s="4" t="inlineStr">
         <is>
           <t>.1360</t>
+        </is>
+      </c>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t>3/32</t>
+        </is>
+      </c>
+      <c r="N13" s="4" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="O13" s="4" t="inlineStr">
+        <is>
+          <t>.2500</t>
+        </is>
+      </c>
+      <c r="P13" s="4" t="inlineStr">
+        <is>
+          <t>.1450</t>
         </is>
       </c>
     </row>
@@ -1135,6 +1311,10 @@
       <c r="J14" s="2" t="n"/>
       <c r="K14" s="2" t="n"/>
       <c r="L14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -1195,6 +1375,26 @@
       <c r="L15" s="3" t="inlineStr">
         <is>
           <t>.1495</t>
+        </is>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>7/64</t>
+        </is>
+      </c>
+      <c r="N15" s="3" t="inlineStr">
+        <is>
+          <t>9/32</t>
+        </is>
+      </c>
+      <c r="O15" s="3" t="inlineStr">
+        <is>
+          <t>.2812</t>
+        </is>
+      </c>
+      <c r="P15" s="3" t="inlineStr">
+        <is>
+          <t>.1580</t>
         </is>
       </c>
     </row>
@@ -1235,6 +1435,10 @@
       <c r="J16" s="2" t="n"/>
       <c r="K16" s="2" t="n"/>
       <c r="L16" s="2" t="n"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -1295,6 +1499,26 @@
       <c r="L17" s="4" t="inlineStr">
         <is>
           <t>.1770</t>
+        </is>
+      </c>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>9/64</t>
+        </is>
+      </c>
+      <c r="N17" s="4" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t>.3125</t>
+        </is>
+      </c>
+      <c r="P17" s="4" t="inlineStr">
+        <is>
+          <t>.1880</t>
         </is>
       </c>
     </row>
@@ -1335,6 +1559,10 @@
       <c r="J18" s="2" t="n"/>
       <c r="K18" s="2" t="n"/>
       <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -1395,6 +1623,26 @@
       <c r="L19" s="3" t="inlineStr">
         <is>
           <t>.2010</t>
+        </is>
+      </c>
+      <c r="M19" s="3" t="inlineStr">
+        <is>
+          <t>5/32</t>
+        </is>
+      </c>
+      <c r="N19" s="3" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="O19" s="3" t="inlineStr">
+        <is>
+          <t>.3750</t>
+        </is>
+      </c>
+      <c r="P19" s="3" t="inlineStr">
+        <is>
+          <t>.2180</t>
         </is>
       </c>
     </row>
@@ -1435,6 +1683,10 @@
       <c r="J20" s="2" t="n"/>
       <c r="K20" s="2" t="n"/>
       <c r="L20" s="2" t="n"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1495,6 +1747,26 @@
       <c r="L21" s="4" t="inlineStr">
         <is>
           <t>.2280</t>
+        </is>
+      </c>
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t>5/32</t>
+        </is>
+      </c>
+      <c r="N21" s="4" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="O21" s="4" t="inlineStr">
+        <is>
+          <t>.3750</t>
+        </is>
+      </c>
+      <c r="P21" s="4" t="inlineStr">
+        <is>
+          <t>.2180</t>
         </is>
       </c>
     </row>
@@ -1535,6 +1807,10 @@
       <c r="J22" s="2" t="n"/>
       <c r="K22" s="2" t="n"/>
       <c r="L22" s="2" t="n"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n"/>
@@ -1573,6 +1849,10 @@
       <c r="J23" s="2" t="n"/>
       <c r="K23" s="2" t="n"/>
       <c r="L23" s="2" t="n"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="n"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
@@ -1633,6 +1913,26 @@
       <c r="L24" s="3" t="inlineStr">
         <is>
           <t>.2660</t>
+        </is>
+      </c>
+      <c r="M24" s="3" t="inlineStr">
+        <is>
+          <t>3/16</t>
+        </is>
+      </c>
+      <c r="N24" s="3" t="inlineStr">
+        <is>
+          <t>7/16</t>
+        </is>
+      </c>
+      <c r="O24" s="3" t="inlineStr">
+        <is>
+          <t>.4375</t>
+        </is>
+      </c>
+      <c r="P24" s="3" t="inlineStr">
+        <is>
+          <t>.2780</t>
         </is>
       </c>
     </row>
@@ -1673,6 +1973,10 @@
       <c r="J25" s="2" t="n"/>
       <c r="K25" s="2" t="n"/>
       <c r="L25" s="2" t="n"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
+      <c r="P25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n"/>
@@ -1711,6 +2015,10 @@
       <c r="J26" s="2" t="n"/>
       <c r="K26" s="2" t="n"/>
       <c r="L26" s="2" t="n"/>
+      <c r="M26" s="2" t="n"/>
+      <c r="N26" s="2" t="n"/>
+      <c r="O26" s="2" t="n"/>
+      <c r="P26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -1771,6 +2079,26 @@
       <c r="L27" s="4" t="inlineStr">
         <is>
           <t>.3320</t>
+        </is>
+      </c>
+      <c r="M27" s="4" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="N27" s="4" t="inlineStr">
+        <is>
+          <t>17/32</t>
+        </is>
+      </c>
+      <c r="O27" s="4" t="inlineStr">
+        <is>
+          <t>.5312</t>
+        </is>
+      </c>
+      <c r="P27" s="4" t="inlineStr">
+        <is>
+          <t>.3460</t>
         </is>
       </c>
     </row>
@@ -1811,6 +2139,10 @@
       <c r="J28" s="2" t="n"/>
       <c r="K28" s="2" t="n"/>
       <c r="L28" s="2" t="n"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="n"/>
+      <c r="O28" s="2" t="n"/>
+      <c r="P28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n"/>
@@ -1849,6 +2181,10 @@
       <c r="J29" s="2" t="n"/>
       <c r="K29" s="2" t="n"/>
       <c r="L29" s="2" t="n"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
+      <c r="P29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
@@ -1909,6 +2245,26 @@
       <c r="L30" s="3" t="inlineStr">
         <is>
           <t>.3970</t>
+        </is>
+      </c>
+      <c r="M30" s="3" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="N30" s="3" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="O30" s="3" t="inlineStr">
+        <is>
+          <t>.6250</t>
+        </is>
+      </c>
+      <c r="P30" s="3" t="inlineStr">
+        <is>
+          <t>.4150</t>
         </is>
       </c>
     </row>
@@ -1949,6 +2305,10 @@
       <c r="J31" s="2" t="n"/>
       <c r="K31" s="2" t="n"/>
       <c r="L31" s="2" t="n"/>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n"/>
@@ -1987,6 +2347,10 @@
       <c r="J32" s="2" t="n"/>
       <c r="K32" s="2" t="n"/>
       <c r="L32" s="2" t="n"/>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" s="2" t="n"/>
+      <c r="O32" s="2" t="n"/>
+      <c r="P32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -2047,6 +2411,26 @@
       <c r="L33" s="4" t="inlineStr">
         <is>
           <t>.4688</t>
+        </is>
+      </c>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="N33" s="4" t="inlineStr">
+        <is>
+          <t>23/32</t>
+        </is>
+      </c>
+      <c r="O33" s="4" t="inlineStr">
+        <is>
+          <t>.7188</t>
+        </is>
+      </c>
+      <c r="P33" s="4" t="inlineStr">
+        <is>
+          <t>.4830</t>
         </is>
       </c>
     </row>
@@ -2087,6 +2471,10 @@
       <c r="J34" s="2" t="n"/>
       <c r="K34" s="2" t="n"/>
       <c r="L34" s="2" t="n"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
+      <c r="P34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n"/>
@@ -2125,6 +2513,10 @@
       <c r="J35" s="2" t="n"/>
       <c r="K35" s="2" t="n"/>
       <c r="L35" s="2" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
+      <c r="P35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -2185,6 +2577,26 @@
       <c r="L36" s="3" t="inlineStr">
         <is>
           <t>.5312</t>
+        </is>
+      </c>
+      <c r="M36" s="3" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="N36" s="3" t="inlineStr">
+        <is>
+          <t>13/16</t>
+        </is>
+      </c>
+      <c r="O36" s="3" t="inlineStr">
+        <is>
+          <t>.8125</t>
+        </is>
+      </c>
+      <c r="P36" s="3" t="inlineStr">
+        <is>
+          <t>.5520</t>
         </is>
       </c>
     </row>
@@ -2225,6 +2637,10 @@
       <c r="J37" s="2" t="n"/>
       <c r="K37" s="2" t="n"/>
       <c r="L37" s="2" t="n"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
+      <c r="P37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n"/>
@@ -2263,6 +2679,10 @@
       <c r="J38" s="2" t="n"/>
       <c r="K38" s="2" t="n"/>
       <c r="L38" s="2" t="n"/>
+      <c r="M38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
+      <c r="O38" s="2" t="n"/>
+      <c r="P38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -2323,6 +2743,26 @@
       <c r="L39" s="4" t="inlineStr">
         <is>
           <t>.5938</t>
+        </is>
+      </c>
+      <c r="M39" s="4" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="N39" s="4" t="inlineStr">
+        <is>
+          <t>29/32</t>
+        </is>
+      </c>
+      <c r="O39" s="4" t="inlineStr">
+        <is>
+          <t>.9062</t>
+        </is>
+      </c>
+      <c r="P39" s="4" t="inlineStr">
+        <is>
+          <t>.5940</t>
         </is>
       </c>
     </row>
@@ -2363,6 +2803,10 @@
       <c r="J40" s="2" t="n"/>
       <c r="K40" s="2" t="n"/>
       <c r="L40" s="2" t="n"/>
+      <c r="M40" s="2" t="n"/>
+      <c r="N40" s="2" t="n"/>
+      <c r="O40" s="2" t="n"/>
+      <c r="P40" s="2" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n"/>
@@ -2401,6 +2845,10 @@
       <c r="J41" s="2" t="n"/>
       <c r="K41" s="2" t="n"/>
       <c r="L41" s="2" t="n"/>
+      <c r="M41" s="2" t="n"/>
+      <c r="N41" s="2" t="n"/>
+      <c r="O41" s="2" t="n"/>
+      <c r="P41" s="2" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
@@ -2461,6 +2909,26 @@
       <c r="L42" s="3" t="inlineStr">
         <is>
           <t>.6562</t>
+        </is>
+      </c>
+      <c r="M42" s="3" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="N42" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O42" s="3" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="P42" s="3" t="inlineStr">
+        <is>
+          <t>.6890</t>
         </is>
       </c>
     </row>
@@ -2501,6 +2969,10 @@
       <c r="J43" s="2" t="n"/>
       <c r="K43" s="2" t="n"/>
       <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n"/>
@@ -2539,6 +3011,10 @@
       <c r="J44" s="2" t="n"/>
       <c r="K44" s="2" t="n"/>
       <c r="L44" s="2" t="n"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -2601,6 +3077,10 @@
           <t>.7188</t>
         </is>
       </c>
+      <c r="M45" s="4" t="n"/>
+      <c r="N45" s="4" t="n"/>
+      <c r="O45" s="4" t="n"/>
+      <c r="P45" s="4" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
@@ -2661,6 +3141,26 @@
       <c r="L46" s="3" t="inlineStr">
         <is>
           <t>.7812</t>
+        </is>
+      </c>
+      <c r="M46" s="3" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="N46" s="3" t="inlineStr">
+        <is>
+          <t>1-3/16</t>
+        </is>
+      </c>
+      <c r="O46" s="3" t="inlineStr">
+        <is>
+          <t>1.1875</t>
+        </is>
+      </c>
+      <c r="P46" s="3" t="inlineStr">
+        <is>
+          <t>.8280</t>
         </is>
       </c>
     </row>
@@ -2701,6 +3201,10 @@
       <c r="J47" s="2" t="n"/>
       <c r="K47" s="2" t="n"/>
       <c r="L47" s="2" t="n"/>
+      <c r="M47" s="2" t="n"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="n"/>
+      <c r="P47" s="2" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n"/>
@@ -2739,6 +3243,10 @@
       <c r="J48" s="2" t="n"/>
       <c r="K48" s="2" t="n"/>
       <c r="L48" s="2" t="n"/>
+      <c r="M48" s="2" t="n"/>
+      <c r="N48" s="2" t="n"/>
+      <c r="O48" s="2" t="n"/>
+      <c r="P48" s="2" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -2801,6 +3309,10 @@
           <t>.8438</t>
         </is>
       </c>
+      <c r="M49" s="4" t="n"/>
+      <c r="N49" s="4" t="n"/>
+      <c r="O49" s="4" t="n"/>
+      <c r="P49" s="4" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
@@ -2861,6 +3373,26 @@
       <c r="L50" s="3" t="inlineStr">
         <is>
           <t>.9062</t>
+        </is>
+      </c>
+      <c r="M50" s="3" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="N50" s="3" t="inlineStr">
+        <is>
+          <t>1-3/8</t>
+        </is>
+      </c>
+      <c r="O50" s="3" t="inlineStr">
+        <is>
+          <t>1.3750</t>
+        </is>
+      </c>
+      <c r="P50" s="3" t="inlineStr">
+        <is>
+          <t>.9630</t>
         </is>
       </c>
     </row>
@@ -2901,6 +3433,10 @@
       <c r="J51" s="2" t="n"/>
       <c r="K51" s="2" t="n"/>
       <c r="L51" s="2" t="n"/>
+      <c r="M51" s="2" t="n"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="n"/>
+      <c r="P51" s="2" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n"/>
@@ -2939,6 +3475,10 @@
       <c r="J52" s="2" t="n"/>
       <c r="K52" s="2" t="n"/>
       <c r="L52" s="2" t="n"/>
+      <c r="M52" s="2" t="n"/>
+      <c r="N52" s="2" t="n"/>
+      <c r="O52" s="2" t="n"/>
+      <c r="P52" s="2" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
@@ -3001,6 +3541,10 @@
           <t>.9688</t>
         </is>
       </c>
+      <c r="M53" s="4" t="n"/>
+      <c r="N53" s="4" t="n"/>
+      <c r="O53" s="4" t="n"/>
+      <c r="P53" s="4" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
@@ -3061,6 +3605,26 @@
       <c r="L54" s="3" t="inlineStr">
         <is>
           <t>1.0313</t>
+        </is>
+      </c>
+      <c r="M54" s="3" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="N54" s="3" t="inlineStr">
+        <is>
+          <t>1-5/8</t>
+        </is>
+      </c>
+      <c r="O54" s="3" t="inlineStr">
+        <is>
+          <t>1.6250</t>
+        </is>
+      </c>
+      <c r="P54" s="3" t="inlineStr">
+        <is>
+          <t>1.1000</t>
         </is>
       </c>
     </row>
@@ -3101,6 +3665,10 @@
       <c r="J55" s="2" t="n"/>
       <c r="K55" s="2" t="n"/>
       <c r="L55" s="2" t="n"/>
+      <c r="M55" s="2" t="n"/>
+      <c r="N55" s="2" t="n"/>
+      <c r="O55" s="2" t="n"/>
+      <c r="P55" s="2" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n"/>
@@ -3139,52 +3707,85 @@
       <c r="J56" s="2" t="n"/>
       <c r="K56" s="2" t="n"/>
       <c r="L56" s="2" t="n"/>
+      <c r="M56" s="2" t="n"/>
+      <c r="N56" s="2" t="n"/>
+      <c r="O56" s="2" t="n"/>
+      <c r="P56" s="2" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="124">
+  <mergeCells count="203">
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="J50:J52"/>
     <mergeCell ref="L50:L52"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="J9:J10"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="P42:P44"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N5:N6"/>
     <mergeCell ref="L36:L38"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="P30:P32"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="K24:K26"/>
+    <mergeCell ref="P7:P8"/>
     <mergeCell ref="K33:K35"/>
+    <mergeCell ref="P54:P56"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="M17:M18"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="O17:O18"/>
     <mergeCell ref="B21:B23"/>
+    <mergeCell ref="O33:O35"/>
     <mergeCell ref="E1:H1"/>
+    <mergeCell ref="N46:N48"/>
+    <mergeCell ref="P46:P48"/>
     <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="O19:O20"/>
     <mergeCell ref="K9:K10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="O9:O10"/>
     <mergeCell ref="J24:J26"/>
     <mergeCell ref="L24:L26"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="A42:A44"/>
+    <mergeCell ref="O5:O6"/>
     <mergeCell ref="I39:I41"/>
+    <mergeCell ref="P9:P10"/>
     <mergeCell ref="K39:K41"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="M13:M14"/>
     <mergeCell ref="J33:J35"/>
     <mergeCell ref="J42:J44"/>
     <mergeCell ref="I46:I48"/>
+    <mergeCell ref="N36:N38"/>
+    <mergeCell ref="N13:N14"/>
     <mergeCell ref="A17:A18"/>
+    <mergeCell ref="P13:P14"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="K21:K23"/>
+    <mergeCell ref="O24:O26"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="A54:A56"/>
+    <mergeCell ref="N15:N16"/>
     <mergeCell ref="I19:I20"/>
+    <mergeCell ref="P15:P16"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="K19:K20"/>
     <mergeCell ref="K50:K52"/>
@@ -3192,54 +3793,96 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J30:J32"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="N21:N23"/>
     <mergeCell ref="L30:L32"/>
     <mergeCell ref="L39:L41"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="N39:N41"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="L7:L8"/>
+    <mergeCell ref="O50:O52"/>
     <mergeCell ref="J54:J56"/>
     <mergeCell ref="I11:I12"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M27:M29"/>
     <mergeCell ref="I33:I35"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="I42:I44"/>
-    <mergeCell ref="L54:L56"/>
     <mergeCell ref="K42:K44"/>
+    <mergeCell ref="M36:M38"/>
+    <mergeCell ref="M30:M32"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M33:M35"/>
+    <mergeCell ref="O27:O29"/>
     <mergeCell ref="J46:J48"/>
     <mergeCell ref="B24:B26"/>
+    <mergeCell ref="M42:M44"/>
     <mergeCell ref="L46:L48"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="M15:M16"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="P33:P35"/>
     <mergeCell ref="L27:L29"/>
     <mergeCell ref="B50:B52"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="N19:N20"/>
     <mergeCell ref="A36:A38"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="N50:N52"/>
     <mergeCell ref="I54:I56"/>
+    <mergeCell ref="P50:P52"/>
     <mergeCell ref="K54:K56"/>
     <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="N9:N10"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O7:O8"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="O54:O56"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="P36:P38"/>
     <mergeCell ref="J5:J6"/>
+    <mergeCell ref="M54:M56"/>
     <mergeCell ref="J36:J38"/>
+    <mergeCell ref="O46:O48"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="I24:I26"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="I24:I26"/>
     <mergeCell ref="J13:J14"/>
+    <mergeCell ref="P39:P41"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="A33:A35"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M24:M26"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="I50:I52"/>
     <mergeCell ref="J21:J23"/>
+    <mergeCell ref="N54:N56"/>
     <mergeCell ref="L21:L23"/>
     <mergeCell ref="J39:J41"/>
+    <mergeCell ref="N24:N26"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="P24:P26"/>
     <mergeCell ref="J7:J8"/>
+    <mergeCell ref="M50:M52"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="I27:I29"/>
@@ -3250,22 +3893,30 @@
     <mergeCell ref="K36:K38"/>
     <mergeCell ref="K30:K32"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="M39:M41"/>
     <mergeCell ref="I13:I14"/>
+    <mergeCell ref="O39:O41"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B27:B29"/>
+    <mergeCell ref="O36:O38"/>
+    <mergeCell ref="O13:O14"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="L33:L35"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="N33:N35"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="L42:L44"/>
     <mergeCell ref="A46:A48"/>
+    <mergeCell ref="N42:N44"/>
     <mergeCell ref="K46:K48"/>
+    <mergeCell ref="M46:M48"/>
     <mergeCell ref="J27:J29"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>

--- a/inch_taps_drills.xlsx
+++ b/inch_taps_drills.xlsx
@@ -3723,7 +3723,6 @@
     <mergeCell ref="M21:M23"/>
     <mergeCell ref="O21:O23"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="P42:P44"/>
     <mergeCell ref="J11:J12"/>
@@ -3743,7 +3742,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="L19:L20"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="O33:O35"/>
@@ -3753,6 +3751,7 @@
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="L54:L56"/>
     <mergeCell ref="O19:O20"/>
+    <mergeCell ref="B1:B3"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="O9:O10"/>
@@ -3791,6 +3790,7 @@
     <mergeCell ref="K50:K52"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C1:C3"/>
     <mergeCell ref="J30:J32"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="N21:N23"/>
@@ -3799,7 +3799,6 @@
     <mergeCell ref="P21:P23"/>
     <mergeCell ref="N39:N41"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="O50:O52"/>
     <mergeCell ref="J54:J56"/>
@@ -3836,13 +3835,14 @@
     <mergeCell ref="N19:N20"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="P19:P20"/>
+    <mergeCell ref="A1:A3"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="N50:N52"/>
+    <mergeCell ref="P50:P52"/>
     <mergeCell ref="I54:I56"/>
-    <mergeCell ref="P50:P52"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="K54:K56"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="A13:A14"/>
@@ -3874,12 +3874,12 @@
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="I50:I52"/>
+    <mergeCell ref="D1:D3"/>
     <mergeCell ref="J21:J23"/>
     <mergeCell ref="N54:N56"/>
     <mergeCell ref="L21:L23"/>
     <mergeCell ref="J39:J41"/>
     <mergeCell ref="N24:N26"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="P24:P26"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="M50:M52"/>
@@ -3916,7 +3916,7 @@
     <mergeCell ref="M46:M48"/>
     <mergeCell ref="J27:J29"/>
     <mergeCell ref="O15:O16"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="L19:L20"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>

--- a/inch_taps_drills.xlsx
+++ b/inch_taps_drills.xlsx
@@ -441,7 +441,8 @@
   <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>

--- a/inch_taps_drills.xlsx
+++ b/inch_taps_drills.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -463,6 +463,8 @@
     <col width="11" customWidth="1" min="14" max="14"/>
     <col width="11" customWidth="1" min="15" max="15"/>
     <col width="11" customWidth="1" min="16" max="16"/>
+    <col width="11" customWidth="1" min="17" max="17"/>
+    <col width="11" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -504,12 +506,18 @@
       <c r="L1" s="2" t="n"/>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>SHCS</t>
+          <t>Socket Head Cap Screws</t>
         </is>
       </c>
       <c r="N1" s="2" t="n"/>
       <c r="O1" s="2" t="n"/>
       <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Flat Head Cap Screws</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="n"/>
     </row>
     <row r="2" ht="40" customHeight="1">
       <c r="A2" s="2" t="n"/>
@@ -552,6 +560,16 @@
       </c>
       <c r="O2" s="2" t="n"/>
       <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>Countersink Depth</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="2" t="n"/>
@@ -601,12 +619,12 @@
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>Drill</t>
+          <t>Drill Size</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>Dia.</t>
+          <t>Dec. Eq.</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
@@ -614,6 +632,8 @@
           <t>Depth</t>
         </is>
       </c>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -696,6 +716,16 @@
           <t>.0740</t>
         </is>
       </c>
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>0.035</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
+        <is>
+          <t>.0440</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -776,6 +806,16 @@
       <c r="P5" s="4" t="inlineStr">
         <is>
           <t>.0870</t>
+        </is>
+      </c>
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>1/20</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="inlineStr">
+        <is>
+          <t>.0540</t>
         </is>
       </c>
     </row>
@@ -820,6 +860,8 @@
       <c r="N6" s="2" t="n"/>
       <c r="O6" s="2" t="n"/>
       <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
+      <c r="R6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
@@ -900,6 +942,16 @@
       <c r="P7" s="3" t="inlineStr">
         <is>
           <t>.1020</t>
+        </is>
+      </c>
+      <c r="Q7" s="3" t="inlineStr">
+        <is>
+          <t>1/20</t>
+        </is>
+      </c>
+      <c r="R7" s="3" t="inlineStr">
+        <is>
+          <t>.0640</t>
         </is>
       </c>
     </row>
@@ -944,6 +996,8 @@
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="2" t="n"/>
       <c r="P8" s="2" t="n"/>
+      <c r="Q8" s="2" t="n"/>
+      <c r="R8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -1024,6 +1078,16 @@
       <c r="P9" s="4" t="inlineStr">
         <is>
           <t>.1150</t>
+        </is>
+      </c>
+      <c r="Q9" s="4" t="inlineStr">
+        <is>
+          <t>1/16</t>
+        </is>
+      </c>
+      <c r="R9" s="4" t="inlineStr">
+        <is>
+          <t>.0730</t>
         </is>
       </c>
     </row>
@@ -1068,6 +1132,8 @@
       <c r="N10" s="2" t="n"/>
       <c r="O10" s="2" t="n"/>
       <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
+      <c r="R10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
@@ -1148,6 +1214,16 @@
       <c r="P11" s="3" t="inlineStr">
         <is>
           <t>.1300</t>
+        </is>
+      </c>
+      <c r="Q11" s="3" t="inlineStr">
+        <is>
+          <t>1/16</t>
+        </is>
+      </c>
+      <c r="R11" s="3" t="inlineStr">
+        <is>
+          <t>.0830</t>
         </is>
       </c>
     </row>
@@ -1192,6 +1268,8 @@
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="2" t="n"/>
       <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+      <c r="R12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -1272,6 +1350,16 @@
       <c r="P13" s="4" t="inlineStr">
         <is>
           <t>.1450</t>
+        </is>
+      </c>
+      <c r="Q13" s="4" t="inlineStr">
+        <is>
+          <t>5/64</t>
+        </is>
+      </c>
+      <c r="R13" s="4" t="inlineStr">
+        <is>
+          <t>.0900</t>
         </is>
       </c>
     </row>
@@ -1316,6 +1404,8 @@
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="2" t="n"/>
       <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n"/>
+      <c r="R14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -1396,6 +1486,16 @@
       <c r="P15" s="3" t="inlineStr">
         <is>
           <t>.1580</t>
+        </is>
+      </c>
+      <c r="Q15" s="3" t="inlineStr">
+        <is>
+          <t>5/64</t>
+        </is>
+      </c>
+      <c r="R15" s="3" t="inlineStr">
+        <is>
+          <t>.0970</t>
         </is>
       </c>
     </row>
@@ -1440,6 +1540,8 @@
       <c r="N16" s="2" t="n"/>
       <c r="O16" s="2" t="n"/>
       <c r="P16" s="2" t="n"/>
+      <c r="Q16" s="2" t="n"/>
+      <c r="R16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -1520,6 +1622,16 @@
       <c r="P17" s="4" t="inlineStr">
         <is>
           <t>.1880</t>
+        </is>
+      </c>
+      <c r="Q17" s="4" t="inlineStr">
+        <is>
+          <t>3/32</t>
+        </is>
+      </c>
+      <c r="R17" s="4" t="inlineStr">
+        <is>
+          <t>.1120</t>
         </is>
       </c>
     </row>
@@ -1564,6 +1676,8 @@
       <c r="N18" s="2" t="n"/>
       <c r="O18" s="2" t="n"/>
       <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
+      <c r="R18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -1644,6 +1758,16 @@
       <c r="P19" s="3" t="inlineStr">
         <is>
           <t>.2180</t>
+        </is>
+      </c>
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>1/8</t>
+        </is>
+      </c>
+      <c r="R19" s="3" t="inlineStr">
+        <is>
+          <t>.1270</t>
         </is>
       </c>
     </row>
@@ -1688,6 +1812,8 @@
       <c r="N20" s="2" t="n"/>
       <c r="O20" s="2" t="n"/>
       <c r="P20" s="2" t="n"/>
+      <c r="Q20" s="2" t="n"/>
+      <c r="R20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1768,6 +1894,16 @@
       <c r="P21" s="4" t="inlineStr">
         <is>
           <t>.2180</t>
+        </is>
+      </c>
+      <c r="Q21" s="4" t="inlineStr">
+        <is>
+          <t>1/8</t>
+        </is>
+      </c>
+      <c r="R21" s="4" t="inlineStr">
+        <is>
+          <t>.1350</t>
         </is>
       </c>
     </row>
@@ -1812,6 +1948,8 @@
       <c r="N22" s="2" t="n"/>
       <c r="O22" s="2" t="n"/>
       <c r="P22" s="2" t="n"/>
+      <c r="Q22" s="2" t="n"/>
+      <c r="R22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n"/>
@@ -1854,6 +1992,8 @@
       <c r="N23" s="2" t="n"/>
       <c r="O23" s="2" t="n"/>
       <c r="P23" s="2" t="n"/>
+      <c r="Q23" s="2" t="n"/>
+      <c r="R23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
@@ -1934,6 +2074,16 @@
       <c r="P24" s="3" t="inlineStr">
         <is>
           <t>.2780</t>
+        </is>
+      </c>
+      <c r="Q24" s="3" t="inlineStr">
+        <is>
+          <t>5/32</t>
+        </is>
+      </c>
+      <c r="R24" s="3" t="inlineStr">
+        <is>
+          <t>.1610</t>
         </is>
       </c>
     </row>
@@ -1978,6 +2128,8 @@
       <c r="N25" s="2" t="n"/>
       <c r="O25" s="2" t="n"/>
       <c r="P25" s="2" t="n"/>
+      <c r="Q25" s="2" t="n"/>
+      <c r="R25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n"/>
@@ -2020,6 +2172,8 @@
       <c r="N26" s="2" t="n"/>
       <c r="O26" s="2" t="n"/>
       <c r="P26" s="2" t="n"/>
+      <c r="Q26" s="2" t="n"/>
+      <c r="R26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -2100,6 +2254,16 @@
       <c r="P27" s="4" t="inlineStr">
         <is>
           <t>.3460</t>
+        </is>
+      </c>
+      <c r="Q27" s="4" t="inlineStr">
+        <is>
+          <t>3/16</t>
+        </is>
+      </c>
+      <c r="R27" s="4" t="inlineStr">
+        <is>
+          <t>.1980</t>
         </is>
       </c>
     </row>
@@ -2144,6 +2308,8 @@
       <c r="N28" s="2" t="n"/>
       <c r="O28" s="2" t="n"/>
       <c r="P28" s="2" t="n"/>
+      <c r="Q28" s="2" t="n"/>
+      <c r="R28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n"/>
@@ -2186,6 +2352,8 @@
       <c r="N29" s="2" t="n"/>
       <c r="O29" s="2" t="n"/>
       <c r="P29" s="2" t="n"/>
+      <c r="Q29" s="2" t="n"/>
+      <c r="R29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
@@ -2266,6 +2434,16 @@
       <c r="P30" s="3" t="inlineStr">
         <is>
           <t>.4150</t>
+        </is>
+      </c>
+      <c r="Q30" s="3" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="R30" s="3" t="inlineStr">
+        <is>
+          <t>.2340</t>
         </is>
       </c>
     </row>
@@ -2310,6 +2488,8 @@
       <c r="N31" s="2" t="n"/>
       <c r="O31" s="2" t="n"/>
       <c r="P31" s="2" t="n"/>
+      <c r="Q31" s="2" t="n"/>
+      <c r="R31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n"/>
@@ -2352,6 +2532,8 @@
       <c r="N32" s="2" t="n"/>
       <c r="O32" s="2" t="n"/>
       <c r="P32" s="2" t="n"/>
+      <c r="Q32" s="2" t="n"/>
+      <c r="R32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -2432,6 +2614,16 @@
       <c r="P33" s="4" t="inlineStr">
         <is>
           <t>.4830</t>
+        </is>
+      </c>
+      <c r="Q33" s="4" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="R33" s="4" t="inlineStr">
+        <is>
+          <t>.2340</t>
         </is>
       </c>
     </row>
@@ -2476,6 +2668,8 @@
       <c r="N34" s="2" t="n"/>
       <c r="O34" s="2" t="n"/>
       <c r="P34" s="2" t="n"/>
+      <c r="Q34" s="2" t="n"/>
+      <c r="R34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n"/>
@@ -2518,6 +2712,8 @@
       <c r="N35" s="2" t="n"/>
       <c r="O35" s="2" t="n"/>
       <c r="P35" s="2" t="n"/>
+      <c r="Q35" s="2" t="n"/>
+      <c r="R35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -2598,6 +2794,16 @@
       <c r="P36" s="3" t="inlineStr">
         <is>
           <t>.5520</t>
+        </is>
+      </c>
+      <c r="Q36" s="3" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="R36" s="3" t="inlineStr">
+        <is>
+          <t>.2510</t>
         </is>
       </c>
     </row>
@@ -2642,6 +2848,8 @@
       <c r="N37" s="2" t="n"/>
       <c r="O37" s="2" t="n"/>
       <c r="P37" s="2" t="n"/>
+      <c r="Q37" s="2" t="n"/>
+      <c r="R37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n"/>
@@ -2684,6 +2892,8 @@
       <c r="N38" s="2" t="n"/>
       <c r="O38" s="2" t="n"/>
       <c r="P38" s="2" t="n"/>
+      <c r="Q38" s="2" t="n"/>
+      <c r="R38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -2766,6 +2976,8 @@
           <t>.5940</t>
         </is>
       </c>
+      <c r="Q39" s="4" t="n"/>
+      <c r="R39" s="4" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n"/>
@@ -2808,6 +3020,8 @@
       <c r="N40" s="2" t="n"/>
       <c r="O40" s="2" t="n"/>
       <c r="P40" s="2" t="n"/>
+      <c r="Q40" s="2" t="n"/>
+      <c r="R40" s="2" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n"/>
@@ -2850,6 +3064,8 @@
       <c r="N41" s="2" t="n"/>
       <c r="O41" s="2" t="n"/>
       <c r="P41" s="2" t="n"/>
+      <c r="Q41" s="2" t="n"/>
+      <c r="R41" s="2" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
@@ -2930,6 +3146,16 @@
       <c r="P42" s="3" t="inlineStr">
         <is>
           <t>.6890</t>
+        </is>
+      </c>
+      <c r="Q42" s="3" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="R42" s="3" t="inlineStr">
+        <is>
+          <t>.3240</t>
         </is>
       </c>
     </row>
@@ -2974,6 +3200,8 @@
       <c r="N43" s="2" t="n"/>
       <c r="O43" s="2" t="n"/>
       <c r="P43" s="2" t="n"/>
+      <c r="Q43" s="2" t="n"/>
+      <c r="R43" s="2" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n"/>
@@ -3016,6 +3244,8 @@
       <c r="N44" s="2" t="n"/>
       <c r="O44" s="2" t="n"/>
       <c r="P44" s="2" t="n"/>
+      <c r="Q44" s="2" t="n"/>
+      <c r="R44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -3082,6 +3312,8 @@
       <c r="N45" s="4" t="n"/>
       <c r="O45" s="4" t="n"/>
       <c r="P45" s="4" t="n"/>
+      <c r="Q45" s="4" t="n"/>
+      <c r="R45" s="4" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
@@ -3162,6 +3394,16 @@
       <c r="P46" s="3" t="inlineStr">
         <is>
           <t>.8280</t>
+        </is>
+      </c>
+      <c r="Q46" s="3" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="R46" s="3" t="inlineStr">
+        <is>
+          <t>.3960</t>
         </is>
       </c>
     </row>
@@ -3206,6 +3448,8 @@
       <c r="N47" s="2" t="n"/>
       <c r="O47" s="2" t="n"/>
       <c r="P47" s="2" t="n"/>
+      <c r="Q47" s="2" t="n"/>
+      <c r="R47" s="2" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n"/>
@@ -3248,6 +3492,8 @@
       <c r="N48" s="2" t="n"/>
       <c r="O48" s="2" t="n"/>
       <c r="P48" s="2" t="n"/>
+      <c r="Q48" s="2" t="n"/>
+      <c r="R48" s="2" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -3314,6 +3560,8 @@
       <c r="N49" s="4" t="n"/>
       <c r="O49" s="4" t="n"/>
       <c r="P49" s="4" t="n"/>
+      <c r="Q49" s="4" t="n"/>
+      <c r="R49" s="4" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
@@ -3394,6 +3642,16 @@
       <c r="P50" s="3" t="inlineStr">
         <is>
           <t>.9630</t>
+        </is>
+      </c>
+      <c r="Q50" s="3" t="inlineStr">
+        <is>
+          <t>9/16</t>
+        </is>
+      </c>
+      <c r="R50" s="3" t="inlineStr">
+        <is>
+          <t>.4680</t>
         </is>
       </c>
     </row>
@@ -3438,6 +3696,8 @@
       <c r="N51" s="2" t="n"/>
       <c r="O51" s="2" t="n"/>
       <c r="P51" s="2" t="n"/>
+      <c r="Q51" s="2" t="n"/>
+      <c r="R51" s="2" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n"/>
@@ -3480,6 +3740,8 @@
       <c r="N52" s="2" t="n"/>
       <c r="O52" s="2" t="n"/>
       <c r="P52" s="2" t="n"/>
+      <c r="Q52" s="2" t="n"/>
+      <c r="R52" s="2" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
@@ -3546,6 +3808,8 @@
       <c r="N53" s="4" t="n"/>
       <c r="O53" s="4" t="n"/>
       <c r="P53" s="4" t="n"/>
+      <c r="Q53" s="4" t="n"/>
+      <c r="R53" s="4" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
@@ -3626,6 +3890,16 @@
       <c r="P54" s="3" t="inlineStr">
         <is>
           <t>1.1000</t>
+        </is>
+      </c>
+      <c r="Q54" s="3" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="R54" s="3" t="inlineStr">
+        <is>
+          <t>.5400</t>
         </is>
       </c>
     </row>
@@ -3670,6 +3944,8 @@
       <c r="N55" s="2" t="n"/>
       <c r="O55" s="2" t="n"/>
       <c r="P55" s="2" t="n"/>
+      <c r="Q55" s="2" t="n"/>
+      <c r="R55" s="2" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n"/>
@@ -3712,19 +3988,23 @@
       <c r="N56" s="2" t="n"/>
       <c r="O56" s="2" t="n"/>
       <c r="P56" s="2" t="n"/>
+      <c r="Q56" s="2" t="n"/>
+      <c r="R56" s="2" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="203">
+  <mergeCells count="244">
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="J50:J52"/>
     <mergeCell ref="L50:L52"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R13:R14"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="M21:M23"/>
     <mergeCell ref="O21:O23"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="M7:M8"/>
+    <mergeCell ref="R15:R16"/>
     <mergeCell ref="P42:P44"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="B36:B38"/>
@@ -3734,6 +4014,7 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="N30:N32"/>
     <mergeCell ref="P30:P32"/>
+    <mergeCell ref="R39:R41"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="K24:K26"/>
@@ -3745,8 +4026,12 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="B21:B23"/>
+    <mergeCell ref="Q17:Q18"/>
     <mergeCell ref="O33:O35"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q33:Q35"/>
     <mergeCell ref="E1:H1"/>
+    <mergeCell ref="Q42:Q44"/>
     <mergeCell ref="N46:N48"/>
     <mergeCell ref="P46:P48"/>
     <mergeCell ref="A50:A52"/>
@@ -3756,32 +4041,43 @@
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="O9:O10"/>
+    <mergeCell ref="R21:R23"/>
     <mergeCell ref="J24:J26"/>
     <mergeCell ref="L24:L26"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="A42:A44"/>
+    <mergeCell ref="R19:R20"/>
     <mergeCell ref="O5:O6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R50:R52"/>
     <mergeCell ref="I39:I41"/>
     <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q30:Q32"/>
     <mergeCell ref="K39:K41"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="Q46:Q48"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="M13:M14"/>
+    <mergeCell ref="R17:R18"/>
     <mergeCell ref="J33:J35"/>
     <mergeCell ref="J42:J44"/>
     <mergeCell ref="I46:I48"/>
+    <mergeCell ref="M46:M48"/>
     <mergeCell ref="N36:N38"/>
     <mergeCell ref="N13:N14"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="P13:P14"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="P13:P14"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="K21:K23"/>
     <mergeCell ref="O24:O26"/>
     <mergeCell ref="B46:B48"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="Q24:Q26"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="I19:I20"/>
@@ -3799,6 +4095,7 @@
     <mergeCell ref="L39:L41"/>
     <mergeCell ref="P21:P23"/>
     <mergeCell ref="N39:N41"/>
+    <mergeCell ref="R54:R56"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="O50:O52"/>
@@ -3817,21 +4114,27 @@
     <mergeCell ref="M30:M32"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="R7:R8"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="M33:M35"/>
     <mergeCell ref="O27:O29"/>
     <mergeCell ref="J46:J48"/>
     <mergeCell ref="B24:B26"/>
+    <mergeCell ref="Q27:Q29"/>
     <mergeCell ref="M42:M44"/>
+    <mergeCell ref="O42:O44"/>
     <mergeCell ref="L46:L48"/>
-    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="Q36:Q38"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="N17:N18"/>
     <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q19:Q20"/>
     <mergeCell ref="P33:P35"/>
+    <mergeCell ref="R33:R35"/>
     <mergeCell ref="L27:L29"/>
     <mergeCell ref="B50:B52"/>
+    <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="N27:N29"/>
     <mergeCell ref="N19:N20"/>
     <mergeCell ref="A36:A38"/>
@@ -3847,20 +4150,28 @@
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="Q21:Q23"/>
     <mergeCell ref="O30:O32"/>
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="B42:B44"/>
+    <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="O54:O56"/>
     <mergeCell ref="N11:N12"/>
+    <mergeCell ref="Q54:Q56"/>
     <mergeCell ref="P5:P6"/>
+    <mergeCell ref="R9:R10"/>
     <mergeCell ref="P27:P29"/>
+    <mergeCell ref="R5:R6"/>
     <mergeCell ref="P36:P38"/>
     <mergeCell ref="J5:J6"/>
+    <mergeCell ref="R30:R32"/>
     <mergeCell ref="M54:M56"/>
+    <mergeCell ref="R11:R12"/>
     <mergeCell ref="J36:J38"/>
     <mergeCell ref="O46:O48"/>
+    <mergeCell ref="R42:R44"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="A27:A29"/>
@@ -3872,7 +4183,9 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="M24:M26"/>
     <mergeCell ref="J15:J16"/>
+    <mergeCell ref="R46:R48"/>
     <mergeCell ref="L15:L16"/>
+    <mergeCell ref="Q50:Q52"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="I50:I52"/>
     <mergeCell ref="D1:D3"/>
@@ -3880,6 +4193,7 @@
     <mergeCell ref="N54:N56"/>
     <mergeCell ref="L21:L23"/>
     <mergeCell ref="J39:J41"/>
+    <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="N24:N26"/>
     <mergeCell ref="P24:P26"/>
     <mergeCell ref="J7:J8"/>
@@ -3899,11 +4213,15 @@
     <mergeCell ref="O39:O41"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="K7:K8"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R24:R26"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="O36:O38"/>
+    <mergeCell ref="Q39:Q41"/>
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="J17:J18"/>
+    <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="A15:A16"/>
@@ -3913,9 +4231,10 @@
     <mergeCell ref="L42:L44"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="N42:N44"/>
+    <mergeCell ref="R27:R29"/>
     <mergeCell ref="K46:K48"/>
-    <mergeCell ref="M46:M48"/>
     <mergeCell ref="J27:J29"/>
+    <mergeCell ref="R36:R38"/>
     <mergeCell ref="O15:O16"/>
     <mergeCell ref="L19:L20"/>
   </mergeCells>

--- a/inch_taps_drills.xlsx
+++ b/inch_taps_drills.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tap &amp; Drill Sizes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Letter Landscape 1pg" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabloid Landscape 1pg" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabloid Landscape 2x2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4240,6 +4242,7630 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="3" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup orientation="landscape" paperSize="1" fitToHeight="1" fitToWidth="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
+    <col width="11" customWidth="1" min="16" max="16"/>
+    <col width="11" customWidth="1" min="17" max="17"/>
+    <col width="11" customWidth="1" min="18" max="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Screw Size</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Major Diameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TPI</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Minor Diameter</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tap Drill</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Clearance Drill</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Socket Head Cap Screws</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Flat Head Cap Screws</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="n"/>
+    </row>
+    <row r="2" ht="40" customHeight="1">
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>75% Thread for Aluminum, Brass, Plastics</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>50% Thread for Stainless, Cast Iron &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Close Fit</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>Free Fit</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>Counterbore</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>Countersink Depth</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Drill Size</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Dec. Eq.</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>Drill Size</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>Dec. Eq.</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>Drill Size</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Dec. Eq.</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Drill Size</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>Dec. Eq.</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>Drill Size</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>Dec. Eq.</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>Depth</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>.0600</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>.0447</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>3/64</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>.0469</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>.0520</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>.0635</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>.0700</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>0.050</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>1/8</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>.125</t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>.0740</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>0.035</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
+        <is>
+          <t>.0440</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>.0730</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>.0538</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>.0595</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>1/16</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>.0625</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>.0760</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>.0810</t>
+        </is>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>1/16</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="inlineStr">
+        <is>
+          <t>5/32</t>
+        </is>
+      </c>
+      <c r="O5" s="4" t="inlineStr">
+        <is>
+          <t>.1562</t>
+        </is>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
+        <is>
+          <t>.0870</t>
+        </is>
+      </c>
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>1/20</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="inlineStr">
+        <is>
+          <t>.0540</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>.0560</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>.0595</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>.0635</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
+      <c r="R6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>.0860</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>.0641</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>.0700</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>.0730</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>.0890</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>.0960</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>5/64</t>
+        </is>
+      </c>
+      <c r="N7" s="3" t="inlineStr">
+        <is>
+          <t>3/16</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="inlineStr">
+        <is>
+          <t>.1875</t>
+        </is>
+      </c>
+      <c r="P7" s="3" t="inlineStr">
+        <is>
+          <t>.1020</t>
+        </is>
+      </c>
+      <c r="Q7" s="3" t="inlineStr">
+        <is>
+          <t>1/20</t>
+        </is>
+      </c>
+      <c r="R7" s="3" t="inlineStr">
+        <is>
+          <t>.0640</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>.0668</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>.0700</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>.0760</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="n"/>
+      <c r="Q8" s="2" t="n"/>
+      <c r="R8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>.0990</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>.0734</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>.0785</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>.0860</t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>.1040</t>
+        </is>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>.1100</t>
+        </is>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>5/64</t>
+        </is>
+      </c>
+      <c r="N9" s="4" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="O9" s="4" t="inlineStr">
+        <is>
+          <t>.2188</t>
+        </is>
+      </c>
+      <c r="P9" s="4" t="inlineStr">
+        <is>
+          <t>.1150</t>
+        </is>
+      </c>
+      <c r="Q9" s="4" t="inlineStr">
+        <is>
+          <t>1/16</t>
+        </is>
+      </c>
+      <c r="R9" s="4" t="inlineStr">
+        <is>
+          <t>.0730</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>.0771</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>.0820</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>.0890</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
+      <c r="R10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>.1120</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>.0813</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>.0890</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>.0960</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>.1160</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>.1285</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>3/32</t>
+        </is>
+      </c>
+      <c r="N11" s="3" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="O11" s="3" t="inlineStr">
+        <is>
+          <t>.2188</t>
+        </is>
+      </c>
+      <c r="P11" s="3" t="inlineStr">
+        <is>
+          <t>.1300</t>
+        </is>
+      </c>
+      <c r="Q11" s="3" t="inlineStr">
+        <is>
+          <t>1/16</t>
+        </is>
+      </c>
+      <c r="R11" s="3" t="inlineStr">
+        <is>
+          <t>.0830</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>.0864</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>.0935</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>.0980</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+      <c r="R12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>.125</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>.0943</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>.1015</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>7/64</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>.1094</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>.1285</t>
+        </is>
+      </c>
+      <c r="K13" s="4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L13" s="4" t="inlineStr">
+        <is>
+          <t>.1360</t>
+        </is>
+      </c>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t>3/32</t>
+        </is>
+      </c>
+      <c r="N13" s="4" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="O13" s="4" t="inlineStr">
+        <is>
+          <t>.2500</t>
+        </is>
+      </c>
+      <c r="P13" s="4" t="inlineStr">
+        <is>
+          <t>.1450</t>
+        </is>
+      </c>
+      <c r="Q13" s="4" t="inlineStr">
+        <is>
+          <t>5/64</t>
+        </is>
+      </c>
+      <c r="R13" s="4" t="inlineStr">
+        <is>
+          <t>.0900</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>.0971</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>.1040</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>.1100</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n"/>
+      <c r="R14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>.138</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>.0997</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>.1065</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>.1160</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>.1440</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
+        <is>
+          <t>.1495</t>
+        </is>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>7/64</t>
+        </is>
+      </c>
+      <c r="N15" s="3" t="inlineStr">
+        <is>
+          <t>9/32</t>
+        </is>
+      </c>
+      <c r="O15" s="3" t="inlineStr">
+        <is>
+          <t>.2812</t>
+        </is>
+      </c>
+      <c r="P15" s="3" t="inlineStr">
+        <is>
+          <t>.1580</t>
+        </is>
+      </c>
+      <c r="Q15" s="3" t="inlineStr">
+        <is>
+          <t>5/64</t>
+        </is>
+      </c>
+      <c r="R15" s="3" t="inlineStr">
+        <is>
+          <t>.0970</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>.1073</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>.1130</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>.1200</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
+      <c r="Q16" s="2" t="n"/>
+      <c r="R16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>.1640</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>.1257</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>.1360</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>.1440</t>
+        </is>
+      </c>
+      <c r="I17" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
+        <is>
+          <t>.1695</t>
+        </is>
+      </c>
+      <c r="K17" s="4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L17" s="4" t="inlineStr">
+        <is>
+          <t>.1770</t>
+        </is>
+      </c>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>9/64</t>
+        </is>
+      </c>
+      <c r="N17" s="4" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t>.3125</t>
+        </is>
+      </c>
+      <c r="P17" s="4" t="inlineStr">
+        <is>
+          <t>.1880</t>
+        </is>
+      </c>
+      <c r="Q17" s="4" t="inlineStr">
+        <is>
+          <t>3/32</t>
+        </is>
+      </c>
+      <c r="R17" s="4" t="inlineStr">
+        <is>
+          <t>.1120</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n"/>
+      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>.1299</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>.1360</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>.1470</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
+      <c r="R18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>.1900</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>.1389</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>.1495</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>.1610</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>.1960</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L19" s="3" t="inlineStr">
+        <is>
+          <t>.2010</t>
+        </is>
+      </c>
+      <c r="M19" s="3" t="inlineStr">
+        <is>
+          <t>5/32</t>
+        </is>
+      </c>
+      <c r="N19" s="3" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="O19" s="3" t="inlineStr">
+        <is>
+          <t>.3750</t>
+        </is>
+      </c>
+      <c r="P19" s="3" t="inlineStr">
+        <is>
+          <t>.2180</t>
+        </is>
+      </c>
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>1/8</t>
+        </is>
+      </c>
+      <c r="R19" s="3" t="inlineStr">
+        <is>
+          <t>.1270</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>.1517</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>.1590</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>.1695</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
+      <c r="Q20" s="2" t="n"/>
+      <c r="R20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>.2160</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>.1649</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>.1770</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>.1890</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>.2210</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
+          <t>.2280</t>
+        </is>
+      </c>
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t>5/32</t>
+        </is>
+      </c>
+      <c r="N21" s="4" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="O21" s="4" t="inlineStr">
+        <is>
+          <t>.3750</t>
+        </is>
+      </c>
+      <c r="P21" s="4" t="inlineStr">
+        <is>
+          <t>.2180</t>
+        </is>
+      </c>
+      <c r="Q21" s="4" t="inlineStr">
+        <is>
+          <t>1/8</t>
+        </is>
+      </c>
+      <c r="R21" s="4" t="inlineStr">
+        <is>
+          <t>.1350</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>.1722</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>.1820</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>.1935</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2" t="n"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="n"/>
+      <c r="Q22" s="2" t="n"/>
+      <c r="R22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>.1777</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>.1850</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>.1960</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="2" t="n"/>
+      <c r="K23" s="2" t="n"/>
+      <c r="L23" s="2" t="n"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="n"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="n"/>
+      <c r="Q23" s="2" t="n"/>
+      <c r="R23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>.2500</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>.1887</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>.2010</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>.2188</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>.2570</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L24" s="3" t="inlineStr">
+        <is>
+          <t>.2660</t>
+        </is>
+      </c>
+      <c r="M24" s="3" t="inlineStr">
+        <is>
+          <t>3/16</t>
+        </is>
+      </c>
+      <c r="N24" s="3" t="inlineStr">
+        <is>
+          <t>7/16</t>
+        </is>
+      </c>
+      <c r="O24" s="3" t="inlineStr">
+        <is>
+          <t>.4375</t>
+        </is>
+      </c>
+      <c r="P24" s="3" t="inlineStr">
+        <is>
+          <t>.2780</t>
+        </is>
+      </c>
+      <c r="Q24" s="3" t="inlineStr">
+        <is>
+          <t>5/32</t>
+        </is>
+      </c>
+      <c r="R24" s="3" t="inlineStr">
+        <is>
+          <t>.1610</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>.2062</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>.2130</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>.2280</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
+      <c r="L25" s="2" t="n"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
+      <c r="P25" s="2" t="n"/>
+      <c r="Q25" s="2" t="n"/>
+      <c r="R25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n"/>
+      <c r="B26" s="2" t="n"/>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>.2117</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>.2188</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>.2280</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="2" t="n"/>
+      <c r="K26" s="2" t="n"/>
+      <c r="L26" s="2" t="n"/>
+      <c r="M26" s="2" t="n"/>
+      <c r="N26" s="2" t="n"/>
+      <c r="O26" s="2" t="n"/>
+      <c r="P26" s="2" t="n"/>
+      <c r="Q26" s="2" t="n"/>
+      <c r="R26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>.3125</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>.2443</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>.2570</t>
+        </is>
+      </c>
+      <c r="G27" s="4" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="H27" s="4" t="inlineStr">
+        <is>
+          <t>.2770</t>
+        </is>
+      </c>
+      <c r="I27" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J27" s="4" t="inlineStr">
+        <is>
+          <t>.3230</t>
+        </is>
+      </c>
+      <c r="K27" s="4" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="L27" s="4" t="inlineStr">
+        <is>
+          <t>.3320</t>
+        </is>
+      </c>
+      <c r="M27" s="4" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="N27" s="4" t="inlineStr">
+        <is>
+          <t>17/32</t>
+        </is>
+      </c>
+      <c r="O27" s="4" t="inlineStr">
+        <is>
+          <t>.5312</t>
+        </is>
+      </c>
+      <c r="P27" s="4" t="inlineStr">
+        <is>
+          <t>.3460</t>
+        </is>
+      </c>
+      <c r="Q27" s="4" t="inlineStr">
+        <is>
+          <t>3/16</t>
+        </is>
+      </c>
+      <c r="R27" s="4" t="inlineStr">
+        <is>
+          <t>.1980</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="2" t="n"/>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>.2614</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>.2720</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>9/32</t>
+        </is>
+      </c>
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>.2812</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+      <c r="K28" s="2" t="n"/>
+      <c r="L28" s="2" t="n"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="n"/>
+      <c r="O28" s="2" t="n"/>
+      <c r="P28" s="2" t="n"/>
+      <c r="Q28" s="2" t="n"/>
+      <c r="R28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="2" t="n"/>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>.2742</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>9/32</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>.2812</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>.2900</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="n"/>
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
+      <c r="P29" s="2" t="n"/>
+      <c r="Q29" s="2" t="n"/>
+      <c r="R29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>.3750</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>.2983</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>.3125</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>.3320</t>
+        </is>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>.3860</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L30" s="3" t="inlineStr">
+        <is>
+          <t>.3970</t>
+        </is>
+      </c>
+      <c r="M30" s="3" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="N30" s="3" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="O30" s="3" t="inlineStr">
+        <is>
+          <t>.6250</t>
+        </is>
+      </c>
+      <c r="P30" s="3" t="inlineStr">
+        <is>
+          <t>.4150</t>
+        </is>
+      </c>
+      <c r="Q30" s="3" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="R30" s="3" t="inlineStr">
+        <is>
+          <t>.2340</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>.3239</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>.3320</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t>.3480</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="2" t="n"/>
+      <c r="Q31" s="2" t="n"/>
+      <c r="R31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>.3367</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>11/32</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>.3438</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="inlineStr">
+        <is>
+          <t>.3580</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="n"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="n"/>
+      <c r="L32" s="2" t="n"/>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" s="2" t="n"/>
+      <c r="O32" s="2" t="n"/>
+      <c r="P32" s="2" t="n"/>
+      <c r="Q32" s="2" t="n"/>
+      <c r="R32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>7/16</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>.4375</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>.3499</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>.3680</t>
+        </is>
+      </c>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>25/64</t>
+        </is>
+      </c>
+      <c r="H33" s="4" t="inlineStr">
+        <is>
+          <t>.3906</t>
+        </is>
+      </c>
+      <c r="I33" s="4" t="inlineStr">
+        <is>
+          <t>29/64</t>
+        </is>
+      </c>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t>.4531</t>
+        </is>
+      </c>
+      <c r="K33" s="4" t="inlineStr">
+        <is>
+          <t>15/32</t>
+        </is>
+      </c>
+      <c r="L33" s="4" t="inlineStr">
+        <is>
+          <t>.4688</t>
+        </is>
+      </c>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="N33" s="4" t="inlineStr">
+        <is>
+          <t>23/32</t>
+        </is>
+      </c>
+      <c r="O33" s="4" t="inlineStr">
+        <is>
+          <t>.7188</t>
+        </is>
+      </c>
+      <c r="P33" s="4" t="inlineStr">
+        <is>
+          <t>.4830</t>
+        </is>
+      </c>
+      <c r="Q33" s="4" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="R33" s="4" t="inlineStr">
+        <is>
+          <t>.2340</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="2" t="n"/>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>.3762</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>25/64</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>.3906</t>
+        </is>
+      </c>
+      <c r="G34" s="4" t="inlineStr">
+        <is>
+          <t>13/32</t>
+        </is>
+      </c>
+      <c r="H34" s="4" t="inlineStr">
+        <is>
+          <t>.4062</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
+      <c r="L34" s="2" t="n"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
+      <c r="P34" s="2" t="n"/>
+      <c r="Q34" s="2" t="n"/>
+      <c r="R34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>.3937</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="inlineStr">
+        <is>
+          <t>.4040</t>
+        </is>
+      </c>
+      <c r="G35" s="4" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="H35" s="4" t="inlineStr">
+        <is>
+          <t>.4130</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
+      <c r="P35" s="2" t="n"/>
+      <c r="Q35" s="2" t="n"/>
+      <c r="R35" s="2" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>.5000</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>.4056</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>27/64</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>.4219</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>29/64</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>.4531</t>
+        </is>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>33/64</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>.5156</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>17/32</t>
+        </is>
+      </c>
+      <c r="L36" s="3" t="inlineStr">
+        <is>
+          <t>.5312</t>
+        </is>
+      </c>
+      <c r="M36" s="3" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="N36" s="3" t="inlineStr">
+        <is>
+          <t>13/16</t>
+        </is>
+      </c>
+      <c r="O36" s="3" t="inlineStr">
+        <is>
+          <t>.8125</t>
+        </is>
+      </c>
+      <c r="P36" s="3" t="inlineStr">
+        <is>
+          <t>.5520</t>
+        </is>
+      </c>
+      <c r="Q36" s="3" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="R36" s="3" t="inlineStr">
+        <is>
+          <t>.2510</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>.4387</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>29/64</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>.4531</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>15/32</t>
+        </is>
+      </c>
+      <c r="H37" s="3" t="inlineStr">
+        <is>
+          <t>.4688</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="2" t="n"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
+      <c r="P37" s="2" t="n"/>
+      <c r="Q37" s="2" t="n"/>
+      <c r="R37" s="2" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="2" t="n"/>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>.4562</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>15/32</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>.4688</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>15/32</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="inlineStr">
+        <is>
+          <t>.4688</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="n"/>
+      <c r="J38" s="2" t="n"/>
+      <c r="K38" s="2" t="n"/>
+      <c r="L38" s="2" t="n"/>
+      <c r="M38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
+      <c r="O38" s="2" t="n"/>
+      <c r="P38" s="2" t="n"/>
+      <c r="Q38" s="2" t="n"/>
+      <c r="R38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>9/16</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>.5625</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>.4603</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>31/64</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>.4844</t>
+        </is>
+      </c>
+      <c r="G39" s="4" t="inlineStr">
+        <is>
+          <t>33/64</t>
+        </is>
+      </c>
+      <c r="H39" s="4" t="inlineStr">
+        <is>
+          <t>.5156</t>
+        </is>
+      </c>
+      <c r="I39" s="4" t="inlineStr">
+        <is>
+          <t>37/64</t>
+        </is>
+      </c>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>.5781</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
+        <is>
+          <t>19/32</t>
+        </is>
+      </c>
+      <c r="L39" s="4" t="inlineStr">
+        <is>
+          <t>.5938</t>
+        </is>
+      </c>
+      <c r="M39" s="4" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="N39" s="4" t="inlineStr">
+        <is>
+          <t>29/32</t>
+        </is>
+      </c>
+      <c r="O39" s="4" t="inlineStr">
+        <is>
+          <t>.9062</t>
+        </is>
+      </c>
+      <c r="P39" s="4" t="inlineStr">
+        <is>
+          <t>.5940</t>
+        </is>
+      </c>
+      <c r="Q39" s="4" t="n"/>
+      <c r="R39" s="4" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n"/>
+      <c r="B40" s="2" t="n"/>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>.4943</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>33/64</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
+        <is>
+          <t>.5156</t>
+        </is>
+      </c>
+      <c r="G40" s="4" t="inlineStr">
+        <is>
+          <t>17/32</t>
+        </is>
+      </c>
+      <c r="H40" s="4" t="inlineStr">
+        <is>
+          <t>.5312</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="n"/>
+      <c r="J40" s="2" t="n"/>
+      <c r="K40" s="2" t="n"/>
+      <c r="L40" s="2" t="n"/>
+      <c r="M40" s="2" t="n"/>
+      <c r="N40" s="2" t="n"/>
+      <c r="O40" s="2" t="n"/>
+      <c r="P40" s="2" t="n"/>
+      <c r="Q40" s="2" t="n"/>
+      <c r="R40" s="2" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>.5114</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>33/64</t>
+        </is>
+      </c>
+      <c r="F41" s="4" t="inlineStr">
+        <is>
+          <t>.5156</t>
+        </is>
+      </c>
+      <c r="G41" s="4" t="inlineStr">
+        <is>
+          <t>17/32</t>
+        </is>
+      </c>
+      <c r="H41" s="4" t="inlineStr">
+        <is>
+          <t>.5312</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="n"/>
+      <c r="J41" s="2" t="n"/>
+      <c r="K41" s="2" t="n"/>
+      <c r="L41" s="2" t="n"/>
+      <c r="M41" s="2" t="n"/>
+      <c r="N41" s="2" t="n"/>
+      <c r="O41" s="2" t="n"/>
+      <c r="P41" s="2" t="n"/>
+      <c r="Q41" s="2" t="n"/>
+      <c r="R41" s="2" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>.6250</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>.5135</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>17/32</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>.5312</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>9/16</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>.5625</t>
+        </is>
+      </c>
+      <c r="I42" s="3" t="inlineStr">
+        <is>
+          <t>41/64</t>
+        </is>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>.6406</t>
+        </is>
+      </c>
+      <c r="K42" s="3" t="inlineStr">
+        <is>
+          <t>21/32</t>
+        </is>
+      </c>
+      <c r="L42" s="3" t="inlineStr">
+        <is>
+          <t>.6562</t>
+        </is>
+      </c>
+      <c r="M42" s="3" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="N42" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O42" s="3" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="P42" s="3" t="inlineStr">
+        <is>
+          <t>.6890</t>
+        </is>
+      </c>
+      <c r="Q42" s="3" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="R42" s="3" t="inlineStr">
+        <is>
+          <t>.3240</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>.5568</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>37/64</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>.5781</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t>19/32</t>
+        </is>
+      </c>
+      <c r="H43" s="3" t="inlineStr">
+        <is>
+          <t>.5938</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
+      <c r="Q43" s="2" t="n"/>
+      <c r="R43" s="2" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>.5739</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>37/64</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>.5781</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>19/32</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="inlineStr">
+        <is>
+          <t>.5938</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="n"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
+      <c r="L44" s="2" t="n"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="n"/>
+      <c r="Q44" s="2" t="n"/>
+      <c r="R44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>11/16</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>.6875</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>.6364</t>
+        </is>
+      </c>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>41/64</t>
+        </is>
+      </c>
+      <c r="F45" s="4" t="inlineStr">
+        <is>
+          <t>.6406</t>
+        </is>
+      </c>
+      <c r="G45" s="4" t="inlineStr">
+        <is>
+          <t>21/32</t>
+        </is>
+      </c>
+      <c r="H45" s="4" t="inlineStr">
+        <is>
+          <t>.6562</t>
+        </is>
+      </c>
+      <c r="I45" s="4" t="inlineStr">
+        <is>
+          <t>45/64</t>
+        </is>
+      </c>
+      <c r="J45" s="4" t="inlineStr">
+        <is>
+          <t>.7031</t>
+        </is>
+      </c>
+      <c r="K45" s="4" t="inlineStr">
+        <is>
+          <t>23/32</t>
+        </is>
+      </c>
+      <c r="L45" s="4" t="inlineStr">
+        <is>
+          <t>.7188</t>
+        </is>
+      </c>
+      <c r="M45" s="4" t="n"/>
+      <c r="N45" s="4" t="n"/>
+      <c r="O45" s="4" t="n"/>
+      <c r="P45" s="4" t="n"/>
+      <c r="Q45" s="4" t="n"/>
+      <c r="R45" s="4" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>.7500</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>.6273</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>21/32</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>.6562</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>11/16</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="inlineStr">
+        <is>
+          <t>.6875</t>
+        </is>
+      </c>
+      <c r="I46" s="3" t="inlineStr">
+        <is>
+          <t>49/64</t>
+        </is>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>.7656</t>
+        </is>
+      </c>
+      <c r="K46" s="3" t="inlineStr">
+        <is>
+          <t>25/32</t>
+        </is>
+      </c>
+      <c r="L46" s="3" t="inlineStr">
+        <is>
+          <t>.7812</t>
+        </is>
+      </c>
+      <c r="M46" s="3" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="N46" s="3" t="inlineStr">
+        <is>
+          <t>1-3/16</t>
+        </is>
+      </c>
+      <c r="O46" s="3" t="inlineStr">
+        <is>
+          <t>1.1875</t>
+        </is>
+      </c>
+      <c r="P46" s="3" t="inlineStr">
+        <is>
+          <t>.8280</t>
+        </is>
+      </c>
+      <c r="Q46" s="3" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="R46" s="3" t="inlineStr">
+        <is>
+          <t>.3960</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>.6733</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>11/16</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>.6875</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>45/64</t>
+        </is>
+      </c>
+      <c r="H47" s="3" t="inlineStr">
+        <is>
+          <t>.7031</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="n"/>
+      <c r="J47" s="2" t="n"/>
+      <c r="K47" s="2" t="n"/>
+      <c r="L47" s="2" t="n"/>
+      <c r="M47" s="2" t="n"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="n"/>
+      <c r="P47" s="2" t="n"/>
+      <c r="Q47" s="2" t="n"/>
+      <c r="R47" s="2" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>.6887</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>45/64</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>.7031</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>23/32</t>
+        </is>
+      </c>
+      <c r="H48" s="3" t="inlineStr">
+        <is>
+          <t>.7188</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="n"/>
+      <c r="J48" s="2" t="n"/>
+      <c r="K48" s="2" t="n"/>
+      <c r="L48" s="2" t="n"/>
+      <c r="M48" s="2" t="n"/>
+      <c r="N48" s="2" t="n"/>
+      <c r="O48" s="2" t="n"/>
+      <c r="P48" s="2" t="n"/>
+      <c r="Q48" s="2" t="n"/>
+      <c r="R48" s="2" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>13/16</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>.8125</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>.7512</t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>49/64</t>
+        </is>
+      </c>
+      <c r="F49" s="4" t="inlineStr">
+        <is>
+          <t>.7656</t>
+        </is>
+      </c>
+      <c r="G49" s="4" t="inlineStr">
+        <is>
+          <t>25/32</t>
+        </is>
+      </c>
+      <c r="H49" s="4" t="inlineStr">
+        <is>
+          <t>.7812</t>
+        </is>
+      </c>
+      <c r="I49" s="4" t="inlineStr">
+        <is>
+          <t>53/64</t>
+        </is>
+      </c>
+      <c r="J49" s="4" t="inlineStr">
+        <is>
+          <t>.8281</t>
+        </is>
+      </c>
+      <c r="K49" s="4" t="inlineStr">
+        <is>
+          <t>27/32</t>
+        </is>
+      </c>
+      <c r="L49" s="4" t="inlineStr">
+        <is>
+          <t>.8438</t>
+        </is>
+      </c>
+      <c r="M49" s="4" t="n"/>
+      <c r="N49" s="4" t="n"/>
+      <c r="O49" s="4" t="n"/>
+      <c r="P49" s="4" t="n"/>
+      <c r="Q49" s="4" t="n"/>
+      <c r="R49" s="4" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>.8750</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>.7387</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>49/64</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>.7656</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>51/64</t>
+        </is>
+      </c>
+      <c r="H50" s="3" t="inlineStr">
+        <is>
+          <t>.7969</t>
+        </is>
+      </c>
+      <c r="I50" s="3" t="inlineStr">
+        <is>
+          <t>57/64</t>
+        </is>
+      </c>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>.8906</t>
+        </is>
+      </c>
+      <c r="K50" s="3" t="inlineStr">
+        <is>
+          <t>29/32</t>
+        </is>
+      </c>
+      <c r="L50" s="3" t="inlineStr">
+        <is>
+          <t>.9062</t>
+        </is>
+      </c>
+      <c r="M50" s="3" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="N50" s="3" t="inlineStr">
+        <is>
+          <t>1-3/8</t>
+        </is>
+      </c>
+      <c r="O50" s="3" t="inlineStr">
+        <is>
+          <t>1.3750</t>
+        </is>
+      </c>
+      <c r="P50" s="3" t="inlineStr">
+        <is>
+          <t>.9630</t>
+        </is>
+      </c>
+      <c r="Q50" s="3" t="inlineStr">
+        <is>
+          <t>9/16</t>
+        </is>
+      </c>
+      <c r="R50" s="3" t="inlineStr">
+        <is>
+          <t>.4680</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n"/>
+      <c r="B51" s="2" t="n"/>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>.7874</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>13/16</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>.8125</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="inlineStr">
+        <is>
+          <t>53/64</t>
+        </is>
+      </c>
+      <c r="H51" s="3" t="inlineStr">
+        <is>
+          <t>.8281</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="n"/>
+      <c r="J51" s="2" t="n"/>
+      <c r="K51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
+      <c r="M51" s="2" t="n"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="n"/>
+      <c r="P51" s="2" t="n"/>
+      <c r="Q51" s="2" t="n"/>
+      <c r="R51" s="2" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="2" t="n"/>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>.8137</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>53/64</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>.8281</t>
+        </is>
+      </c>
+      <c r="G52" s="3" t="inlineStr">
+        <is>
+          <t>27/32</t>
+        </is>
+      </c>
+      <c r="H52" s="3" t="inlineStr">
+        <is>
+          <t>.8438</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="n"/>
+      <c r="J52" s="2" t="n"/>
+      <c r="K52" s="2" t="n"/>
+      <c r="L52" s="2" t="n"/>
+      <c r="M52" s="2" t="n"/>
+      <c r="N52" s="2" t="n"/>
+      <c r="O52" s="2" t="n"/>
+      <c r="P52" s="2" t="n"/>
+      <c r="Q52" s="2" t="n"/>
+      <c r="R52" s="2" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>15/16</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>.9375</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>.8762</t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>57/64</t>
+        </is>
+      </c>
+      <c r="F53" s="4" t="inlineStr">
+        <is>
+          <t>.8906</t>
+        </is>
+      </c>
+      <c r="G53" s="4" t="inlineStr">
+        <is>
+          <t>29/32</t>
+        </is>
+      </c>
+      <c r="H53" s="4" t="inlineStr">
+        <is>
+          <t>.9062</t>
+        </is>
+      </c>
+      <c r="I53" s="4" t="inlineStr">
+        <is>
+          <t>61/64</t>
+        </is>
+      </c>
+      <c r="J53" s="4" t="inlineStr">
+        <is>
+          <t>.9531</t>
+        </is>
+      </c>
+      <c r="K53" s="4" t="inlineStr">
+        <is>
+          <t>31/32</t>
+        </is>
+      </c>
+      <c r="L53" s="4" t="inlineStr">
+        <is>
+          <t>.9688</t>
+        </is>
+      </c>
+      <c r="M53" s="4" t="n"/>
+      <c r="N53" s="4" t="n"/>
+      <c r="O53" s="4" t="n"/>
+      <c r="P53" s="4" t="n"/>
+      <c r="Q53" s="4" t="n"/>
+      <c r="R53" s="4" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>.8466</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>.8750</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="inlineStr">
+        <is>
+          <t>59/64</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>.9219</t>
+        </is>
+      </c>
+      <c r="I54" s="3" t="inlineStr">
+        <is>
+          <t>1-1/64</t>
+        </is>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>1.0156</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr">
+        <is>
+          <t>1-1/32</t>
+        </is>
+      </c>
+      <c r="L54" s="3" t="inlineStr">
+        <is>
+          <t>1.0313</t>
+        </is>
+      </c>
+      <c r="M54" s="3" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="N54" s="3" t="inlineStr">
+        <is>
+          <t>1-5/8</t>
+        </is>
+      </c>
+      <c r="O54" s="3" t="inlineStr">
+        <is>
+          <t>1.6250</t>
+        </is>
+      </c>
+      <c r="P54" s="3" t="inlineStr">
+        <is>
+          <t>1.1000</t>
+        </is>
+      </c>
+      <c r="Q54" s="3" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="R54" s="3" t="inlineStr">
+        <is>
+          <t>.5400</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="2" t="n"/>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>.8978</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>15/16</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>.9375</t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="inlineStr">
+        <is>
+          <t>61/64</t>
+        </is>
+      </c>
+      <c r="H55" s="3" t="inlineStr">
+        <is>
+          <t>.9531</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="n"/>
+      <c r="J55" s="2" t="n"/>
+      <c r="K55" s="2" t="n"/>
+      <c r="L55" s="2" t="n"/>
+      <c r="M55" s="2" t="n"/>
+      <c r="N55" s="2" t="n"/>
+      <c r="O55" s="2" t="n"/>
+      <c r="P55" s="2" t="n"/>
+      <c r="Q55" s="2" t="n"/>
+      <c r="R55" s="2" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="2" t="n"/>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>.9387</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>61/64</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>.9531</t>
+        </is>
+      </c>
+      <c r="G56" s="3" t="inlineStr">
+        <is>
+          <t>31/32</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="inlineStr">
+        <is>
+          <t>.9688</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="n"/>
+      <c r="J56" s="2" t="n"/>
+      <c r="K56" s="2" t="n"/>
+      <c r="L56" s="2" t="n"/>
+      <c r="M56" s="2" t="n"/>
+      <c r="N56" s="2" t="n"/>
+      <c r="O56" s="2" t="n"/>
+      <c r="P56" s="2" t="n"/>
+      <c r="Q56" s="2" t="n"/>
+      <c r="R56" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="244">
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="P42:P44"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="P54:P56"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="O33:O35"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q33:Q35"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="Q42:Q44"/>
+    <mergeCell ref="N46:N48"/>
+    <mergeCell ref="P46:P48"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R50:R52"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="Q46:Q48"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="M46:M48"/>
+    <mergeCell ref="N36:N38"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="O24:O26"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="R54:R56"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="O50:O52"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="M36:M38"/>
+    <mergeCell ref="M30:M32"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M33:M35"/>
+    <mergeCell ref="O27:O29"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="Q36:Q38"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="P33:P35"/>
+    <mergeCell ref="R33:R35"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="N50:N52"/>
+    <mergeCell ref="P50:P52"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="O54:O56"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="Q54:Q56"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="P36:P38"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="M54:M56"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="O46:O48"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="R46:R48"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="Q50:Q52"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="N54:N56"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="N24:N26"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="M50:M52"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="K36:K38"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="M39:M41"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="O36:O38"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="L33:L35"/>
+    <mergeCell ref="N33:N35"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="N42:N44"/>
+    <mergeCell ref="R27:R29"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="R36:R38"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="L19:L20"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="0" gridLines="0"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup orientation="landscape" paperSize="3" fitToHeight="1" fitToWidth="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
+    <col width="11" customWidth="1" min="16" max="16"/>
+    <col width="11" customWidth="1" min="17" max="17"/>
+    <col width="11" customWidth="1" min="18" max="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Screw Size</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Major Diameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TPI</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Minor Diameter</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tap Drill</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Clearance Drill</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Socket Head Cap Screws</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Flat Head Cap Screws</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="n"/>
+    </row>
+    <row r="2" ht="40" customHeight="1">
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>75% Thread for Aluminum, Brass, Plastics</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>50% Thread for Stainless, Cast Iron &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Close Fit</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>Free Fit</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>Counterbore</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>Countersink Depth</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Drill Size</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Dec. Eq.</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>Drill Size</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>Dec. Eq.</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>Drill Size</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Dec. Eq.</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Drill Size</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>Dec. Eq.</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>Drill Size</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>Dec. Eq.</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>Depth</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>.0600</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>.0447</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>3/64</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>.0469</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>.0520</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>.0635</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>.0700</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>0.050</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>1/8</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>.125</t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>.0740</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>0.035</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
+        <is>
+          <t>.0440</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>.0730</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>.0538</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>.0595</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>1/16</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>.0625</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>.0760</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>.0810</t>
+        </is>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>1/16</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="inlineStr">
+        <is>
+          <t>5/32</t>
+        </is>
+      </c>
+      <c r="O5" s="4" t="inlineStr">
+        <is>
+          <t>.1562</t>
+        </is>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
+        <is>
+          <t>.0870</t>
+        </is>
+      </c>
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>1/20</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="inlineStr">
+        <is>
+          <t>.0540</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>.0560</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>.0595</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>.0635</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
+      <c r="R6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>.0860</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>.0641</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>.0700</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>.0730</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>.0890</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>.0960</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>5/64</t>
+        </is>
+      </c>
+      <c r="N7" s="3" t="inlineStr">
+        <is>
+          <t>3/16</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="inlineStr">
+        <is>
+          <t>.1875</t>
+        </is>
+      </c>
+      <c r="P7" s="3" t="inlineStr">
+        <is>
+          <t>.1020</t>
+        </is>
+      </c>
+      <c r="Q7" s="3" t="inlineStr">
+        <is>
+          <t>1/20</t>
+        </is>
+      </c>
+      <c r="R7" s="3" t="inlineStr">
+        <is>
+          <t>.0640</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>.0668</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>.0700</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>.0760</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="n"/>
+      <c r="Q8" s="2" t="n"/>
+      <c r="R8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>.0990</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>.0734</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>.0785</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>.0860</t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>.1040</t>
+        </is>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>.1100</t>
+        </is>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>5/64</t>
+        </is>
+      </c>
+      <c r="N9" s="4" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="O9" s="4" t="inlineStr">
+        <is>
+          <t>.2188</t>
+        </is>
+      </c>
+      <c r="P9" s="4" t="inlineStr">
+        <is>
+          <t>.1150</t>
+        </is>
+      </c>
+      <c r="Q9" s="4" t="inlineStr">
+        <is>
+          <t>1/16</t>
+        </is>
+      </c>
+      <c r="R9" s="4" t="inlineStr">
+        <is>
+          <t>.0730</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>.0771</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>.0820</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>.0890</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
+      <c r="R10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>.1120</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>.0813</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>.0890</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>.0960</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>.1160</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>.1285</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>3/32</t>
+        </is>
+      </c>
+      <c r="N11" s="3" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="O11" s="3" t="inlineStr">
+        <is>
+          <t>.2188</t>
+        </is>
+      </c>
+      <c r="P11" s="3" t="inlineStr">
+        <is>
+          <t>.1300</t>
+        </is>
+      </c>
+      <c r="Q11" s="3" t="inlineStr">
+        <is>
+          <t>1/16</t>
+        </is>
+      </c>
+      <c r="R11" s="3" t="inlineStr">
+        <is>
+          <t>.0830</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>.0864</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>.0935</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>.0980</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+      <c r="R12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>.125</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>.0943</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>.1015</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>7/64</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>.1094</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>.1285</t>
+        </is>
+      </c>
+      <c r="K13" s="4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L13" s="4" t="inlineStr">
+        <is>
+          <t>.1360</t>
+        </is>
+      </c>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t>3/32</t>
+        </is>
+      </c>
+      <c r="N13" s="4" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="O13" s="4" t="inlineStr">
+        <is>
+          <t>.2500</t>
+        </is>
+      </c>
+      <c r="P13" s="4" t="inlineStr">
+        <is>
+          <t>.1450</t>
+        </is>
+      </c>
+      <c r="Q13" s="4" t="inlineStr">
+        <is>
+          <t>5/64</t>
+        </is>
+      </c>
+      <c r="R13" s="4" t="inlineStr">
+        <is>
+          <t>.0900</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>.0971</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>.1040</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>.1100</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n"/>
+      <c r="R14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>.138</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>.0997</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>.1065</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>.1160</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>.1440</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
+        <is>
+          <t>.1495</t>
+        </is>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>7/64</t>
+        </is>
+      </c>
+      <c r="N15" s="3" t="inlineStr">
+        <is>
+          <t>9/32</t>
+        </is>
+      </c>
+      <c r="O15" s="3" t="inlineStr">
+        <is>
+          <t>.2812</t>
+        </is>
+      </c>
+      <c r="P15" s="3" t="inlineStr">
+        <is>
+          <t>.1580</t>
+        </is>
+      </c>
+      <c r="Q15" s="3" t="inlineStr">
+        <is>
+          <t>5/64</t>
+        </is>
+      </c>
+      <c r="R15" s="3" t="inlineStr">
+        <is>
+          <t>.0970</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>.1073</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>.1130</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>.1200</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
+      <c r="Q16" s="2" t="n"/>
+      <c r="R16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>.1640</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>.1257</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>.1360</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>.1440</t>
+        </is>
+      </c>
+      <c r="I17" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
+        <is>
+          <t>.1695</t>
+        </is>
+      </c>
+      <c r="K17" s="4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L17" s="4" t="inlineStr">
+        <is>
+          <t>.1770</t>
+        </is>
+      </c>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>9/64</t>
+        </is>
+      </c>
+      <c r="N17" s="4" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t>.3125</t>
+        </is>
+      </c>
+      <c r="P17" s="4" t="inlineStr">
+        <is>
+          <t>.1880</t>
+        </is>
+      </c>
+      <c r="Q17" s="4" t="inlineStr">
+        <is>
+          <t>3/32</t>
+        </is>
+      </c>
+      <c r="R17" s="4" t="inlineStr">
+        <is>
+          <t>.1120</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n"/>
+      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>.1299</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>.1360</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>.1470</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
+      <c r="R18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>.1900</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>.1389</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>.1495</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>.1610</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>.1960</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L19" s="3" t="inlineStr">
+        <is>
+          <t>.2010</t>
+        </is>
+      </c>
+      <c r="M19" s="3" t="inlineStr">
+        <is>
+          <t>5/32</t>
+        </is>
+      </c>
+      <c r="N19" s="3" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="O19" s="3" t="inlineStr">
+        <is>
+          <t>.3750</t>
+        </is>
+      </c>
+      <c r="P19" s="3" t="inlineStr">
+        <is>
+          <t>.2180</t>
+        </is>
+      </c>
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>1/8</t>
+        </is>
+      </c>
+      <c r="R19" s="3" t="inlineStr">
+        <is>
+          <t>.1270</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>.1517</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>.1590</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>.1695</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
+      <c r="Q20" s="2" t="n"/>
+      <c r="R20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>.2160</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>.1649</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>.1770</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>.1890</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>.2210</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
+          <t>.2280</t>
+        </is>
+      </c>
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t>5/32</t>
+        </is>
+      </c>
+      <c r="N21" s="4" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="O21" s="4" t="inlineStr">
+        <is>
+          <t>.3750</t>
+        </is>
+      </c>
+      <c r="P21" s="4" t="inlineStr">
+        <is>
+          <t>.2180</t>
+        </is>
+      </c>
+      <c r="Q21" s="4" t="inlineStr">
+        <is>
+          <t>1/8</t>
+        </is>
+      </c>
+      <c r="R21" s="4" t="inlineStr">
+        <is>
+          <t>.1350</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>.1722</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>.1820</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>.1935</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2" t="n"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="n"/>
+      <c r="Q22" s="2" t="n"/>
+      <c r="R22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>.1777</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>.1850</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>.1960</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="2" t="n"/>
+      <c r="K23" s="2" t="n"/>
+      <c r="L23" s="2" t="n"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="n"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="n"/>
+      <c r="Q23" s="2" t="n"/>
+      <c r="R23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>.2500</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>.1887</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>.2010</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>.2188</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>.2570</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L24" s="3" t="inlineStr">
+        <is>
+          <t>.2660</t>
+        </is>
+      </c>
+      <c r="M24" s="3" t="inlineStr">
+        <is>
+          <t>3/16</t>
+        </is>
+      </c>
+      <c r="N24" s="3" t="inlineStr">
+        <is>
+          <t>7/16</t>
+        </is>
+      </c>
+      <c r="O24" s="3" t="inlineStr">
+        <is>
+          <t>.4375</t>
+        </is>
+      </c>
+      <c r="P24" s="3" t="inlineStr">
+        <is>
+          <t>.2780</t>
+        </is>
+      </c>
+      <c r="Q24" s="3" t="inlineStr">
+        <is>
+          <t>5/32</t>
+        </is>
+      </c>
+      <c r="R24" s="3" t="inlineStr">
+        <is>
+          <t>.1610</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>.2062</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>.2130</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>.2280</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
+      <c r="L25" s="2" t="n"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
+      <c r="P25" s="2" t="n"/>
+      <c r="Q25" s="2" t="n"/>
+      <c r="R25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n"/>
+      <c r="B26" s="2" t="n"/>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>.2117</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>.2188</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>.2280</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="2" t="n"/>
+      <c r="K26" s="2" t="n"/>
+      <c r="L26" s="2" t="n"/>
+      <c r="M26" s="2" t="n"/>
+      <c r="N26" s="2" t="n"/>
+      <c r="O26" s="2" t="n"/>
+      <c r="P26" s="2" t="n"/>
+      <c r="Q26" s="2" t="n"/>
+      <c r="R26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>.3125</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>.2443</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>.2570</t>
+        </is>
+      </c>
+      <c r="G27" s="4" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="H27" s="4" t="inlineStr">
+        <is>
+          <t>.2770</t>
+        </is>
+      </c>
+      <c r="I27" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J27" s="4" t="inlineStr">
+        <is>
+          <t>.3230</t>
+        </is>
+      </c>
+      <c r="K27" s="4" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="L27" s="4" t="inlineStr">
+        <is>
+          <t>.3320</t>
+        </is>
+      </c>
+      <c r="M27" s="4" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="N27" s="4" t="inlineStr">
+        <is>
+          <t>17/32</t>
+        </is>
+      </c>
+      <c r="O27" s="4" t="inlineStr">
+        <is>
+          <t>.5312</t>
+        </is>
+      </c>
+      <c r="P27" s="4" t="inlineStr">
+        <is>
+          <t>.3460</t>
+        </is>
+      </c>
+      <c r="Q27" s="4" t="inlineStr">
+        <is>
+          <t>3/16</t>
+        </is>
+      </c>
+      <c r="R27" s="4" t="inlineStr">
+        <is>
+          <t>.1980</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="2" t="n"/>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>.2614</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>.2720</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>9/32</t>
+        </is>
+      </c>
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>.2812</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+      <c r="K28" s="2" t="n"/>
+      <c r="L28" s="2" t="n"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="n"/>
+      <c r="O28" s="2" t="n"/>
+      <c r="P28" s="2" t="n"/>
+      <c r="Q28" s="2" t="n"/>
+      <c r="R28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="2" t="n"/>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>.2742</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>9/32</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>.2812</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>.2900</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="n"/>
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
+      <c r="P29" s="2" t="n"/>
+      <c r="Q29" s="2" t="n"/>
+      <c r="R29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>.3750</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>.2983</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>.3125</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>.3320</t>
+        </is>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>.3860</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L30" s="3" t="inlineStr">
+        <is>
+          <t>.3970</t>
+        </is>
+      </c>
+      <c r="M30" s="3" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="N30" s="3" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="O30" s="3" t="inlineStr">
+        <is>
+          <t>.6250</t>
+        </is>
+      </c>
+      <c r="P30" s="3" t="inlineStr">
+        <is>
+          <t>.4150</t>
+        </is>
+      </c>
+      <c r="Q30" s="3" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="R30" s="3" t="inlineStr">
+        <is>
+          <t>.2340</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>.3239</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>.3320</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t>.3480</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="2" t="n"/>
+      <c r="Q31" s="2" t="n"/>
+      <c r="R31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>.3367</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>11/32</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>.3438</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="inlineStr">
+        <is>
+          <t>.3580</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="n"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="n"/>
+      <c r="L32" s="2" t="n"/>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" s="2" t="n"/>
+      <c r="O32" s="2" t="n"/>
+      <c r="P32" s="2" t="n"/>
+      <c r="Q32" s="2" t="n"/>
+      <c r="R32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>7/16</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>.4375</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>.3499</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>.3680</t>
+        </is>
+      </c>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>25/64</t>
+        </is>
+      </c>
+      <c r="H33" s="4" t="inlineStr">
+        <is>
+          <t>.3906</t>
+        </is>
+      </c>
+      <c r="I33" s="4" t="inlineStr">
+        <is>
+          <t>29/64</t>
+        </is>
+      </c>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t>.4531</t>
+        </is>
+      </c>
+      <c r="K33" s="4" t="inlineStr">
+        <is>
+          <t>15/32</t>
+        </is>
+      </c>
+      <c r="L33" s="4" t="inlineStr">
+        <is>
+          <t>.4688</t>
+        </is>
+      </c>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="N33" s="4" t="inlineStr">
+        <is>
+          <t>23/32</t>
+        </is>
+      </c>
+      <c r="O33" s="4" t="inlineStr">
+        <is>
+          <t>.7188</t>
+        </is>
+      </c>
+      <c r="P33" s="4" t="inlineStr">
+        <is>
+          <t>.4830</t>
+        </is>
+      </c>
+      <c r="Q33" s="4" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="R33" s="4" t="inlineStr">
+        <is>
+          <t>.2340</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="2" t="n"/>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>.3762</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>25/64</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>.3906</t>
+        </is>
+      </c>
+      <c r="G34" s="4" t="inlineStr">
+        <is>
+          <t>13/32</t>
+        </is>
+      </c>
+      <c r="H34" s="4" t="inlineStr">
+        <is>
+          <t>.4062</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
+      <c r="L34" s="2" t="n"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
+      <c r="P34" s="2" t="n"/>
+      <c r="Q34" s="2" t="n"/>
+      <c r="R34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>.3937</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="inlineStr">
+        <is>
+          <t>.4040</t>
+        </is>
+      </c>
+      <c r="G35" s="4" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="H35" s="4" t="inlineStr">
+        <is>
+          <t>.4130</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
+      <c r="P35" s="2" t="n"/>
+      <c r="Q35" s="2" t="n"/>
+      <c r="R35" s="2" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>.5000</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>.4056</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>27/64</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>.4219</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>29/64</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>.4531</t>
+        </is>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>33/64</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>.5156</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>17/32</t>
+        </is>
+      </c>
+      <c r="L36" s="3" t="inlineStr">
+        <is>
+          <t>.5312</t>
+        </is>
+      </c>
+      <c r="M36" s="3" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="N36" s="3" t="inlineStr">
+        <is>
+          <t>13/16</t>
+        </is>
+      </c>
+      <c r="O36" s="3" t="inlineStr">
+        <is>
+          <t>.8125</t>
+        </is>
+      </c>
+      <c r="P36" s="3" t="inlineStr">
+        <is>
+          <t>.5520</t>
+        </is>
+      </c>
+      <c r="Q36" s="3" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="R36" s="3" t="inlineStr">
+        <is>
+          <t>.2510</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>.4387</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>29/64</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>.4531</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>15/32</t>
+        </is>
+      </c>
+      <c r="H37" s="3" t="inlineStr">
+        <is>
+          <t>.4688</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="2" t="n"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
+      <c r="P37" s="2" t="n"/>
+      <c r="Q37" s="2" t="n"/>
+      <c r="R37" s="2" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="2" t="n"/>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>.4562</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>15/32</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>.4688</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>15/32</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="inlineStr">
+        <is>
+          <t>.4688</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="n"/>
+      <c r="J38" s="2" t="n"/>
+      <c r="K38" s="2" t="n"/>
+      <c r="L38" s="2" t="n"/>
+      <c r="M38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
+      <c r="O38" s="2" t="n"/>
+      <c r="P38" s="2" t="n"/>
+      <c r="Q38" s="2" t="n"/>
+      <c r="R38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>9/16</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>.5625</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>.4603</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>31/64</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>.4844</t>
+        </is>
+      </c>
+      <c r="G39" s="4" t="inlineStr">
+        <is>
+          <t>33/64</t>
+        </is>
+      </c>
+      <c r="H39" s="4" t="inlineStr">
+        <is>
+          <t>.5156</t>
+        </is>
+      </c>
+      <c r="I39" s="4" t="inlineStr">
+        <is>
+          <t>37/64</t>
+        </is>
+      </c>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>.5781</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
+        <is>
+          <t>19/32</t>
+        </is>
+      </c>
+      <c r="L39" s="4" t="inlineStr">
+        <is>
+          <t>.5938</t>
+        </is>
+      </c>
+      <c r="M39" s="4" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="N39" s="4" t="inlineStr">
+        <is>
+          <t>29/32</t>
+        </is>
+      </c>
+      <c r="O39" s="4" t="inlineStr">
+        <is>
+          <t>.9062</t>
+        </is>
+      </c>
+      <c r="P39" s="4" t="inlineStr">
+        <is>
+          <t>.5940</t>
+        </is>
+      </c>
+      <c r="Q39" s="4" t="n"/>
+      <c r="R39" s="4" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n"/>
+      <c r="B40" s="2" t="n"/>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>.4943</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>33/64</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
+        <is>
+          <t>.5156</t>
+        </is>
+      </c>
+      <c r="G40" s="4" t="inlineStr">
+        <is>
+          <t>17/32</t>
+        </is>
+      </c>
+      <c r="H40" s="4" t="inlineStr">
+        <is>
+          <t>.5312</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="n"/>
+      <c r="J40" s="2" t="n"/>
+      <c r="K40" s="2" t="n"/>
+      <c r="L40" s="2" t="n"/>
+      <c r="M40" s="2" t="n"/>
+      <c r="N40" s="2" t="n"/>
+      <c r="O40" s="2" t="n"/>
+      <c r="P40" s="2" t="n"/>
+      <c r="Q40" s="2" t="n"/>
+      <c r="R40" s="2" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>.5114</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>33/64</t>
+        </is>
+      </c>
+      <c r="F41" s="4" t="inlineStr">
+        <is>
+          <t>.5156</t>
+        </is>
+      </c>
+      <c r="G41" s="4" t="inlineStr">
+        <is>
+          <t>17/32</t>
+        </is>
+      </c>
+      <c r="H41" s="4" t="inlineStr">
+        <is>
+          <t>.5312</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="n"/>
+      <c r="J41" s="2" t="n"/>
+      <c r="K41" s="2" t="n"/>
+      <c r="L41" s="2" t="n"/>
+      <c r="M41" s="2" t="n"/>
+      <c r="N41" s="2" t="n"/>
+      <c r="O41" s="2" t="n"/>
+      <c r="P41" s="2" t="n"/>
+      <c r="Q41" s="2" t="n"/>
+      <c r="R41" s="2" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>.6250</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>.5135</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>17/32</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>.5312</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>9/16</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>.5625</t>
+        </is>
+      </c>
+      <c r="I42" s="3" t="inlineStr">
+        <is>
+          <t>41/64</t>
+        </is>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>.6406</t>
+        </is>
+      </c>
+      <c r="K42" s="3" t="inlineStr">
+        <is>
+          <t>21/32</t>
+        </is>
+      </c>
+      <c r="L42" s="3" t="inlineStr">
+        <is>
+          <t>.6562</t>
+        </is>
+      </c>
+      <c r="M42" s="3" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="N42" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O42" s="3" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="P42" s="3" t="inlineStr">
+        <is>
+          <t>.6890</t>
+        </is>
+      </c>
+      <c r="Q42" s="3" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="R42" s="3" t="inlineStr">
+        <is>
+          <t>.3240</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>.5568</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>37/64</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>.5781</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t>19/32</t>
+        </is>
+      </c>
+      <c r="H43" s="3" t="inlineStr">
+        <is>
+          <t>.5938</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
+      <c r="Q43" s="2" t="n"/>
+      <c r="R43" s="2" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>.5739</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>37/64</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>.5781</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>19/32</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="inlineStr">
+        <is>
+          <t>.5938</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="n"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
+      <c r="L44" s="2" t="n"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="n"/>
+      <c r="Q44" s="2" t="n"/>
+      <c r="R44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>11/16</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>.6875</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>.6364</t>
+        </is>
+      </c>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>41/64</t>
+        </is>
+      </c>
+      <c r="F45" s="4" t="inlineStr">
+        <is>
+          <t>.6406</t>
+        </is>
+      </c>
+      <c r="G45" s="4" t="inlineStr">
+        <is>
+          <t>21/32</t>
+        </is>
+      </c>
+      <c r="H45" s="4" t="inlineStr">
+        <is>
+          <t>.6562</t>
+        </is>
+      </c>
+      <c r="I45" s="4" t="inlineStr">
+        <is>
+          <t>45/64</t>
+        </is>
+      </c>
+      <c r="J45" s="4" t="inlineStr">
+        <is>
+          <t>.7031</t>
+        </is>
+      </c>
+      <c r="K45" s="4" t="inlineStr">
+        <is>
+          <t>23/32</t>
+        </is>
+      </c>
+      <c r="L45" s="4" t="inlineStr">
+        <is>
+          <t>.7188</t>
+        </is>
+      </c>
+      <c r="M45" s="4" t="n"/>
+      <c r="N45" s="4" t="n"/>
+      <c r="O45" s="4" t="n"/>
+      <c r="P45" s="4" t="n"/>
+      <c r="Q45" s="4" t="n"/>
+      <c r="R45" s="4" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>.7500</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>.6273</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>21/32</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>.6562</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>11/16</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="inlineStr">
+        <is>
+          <t>.6875</t>
+        </is>
+      </c>
+      <c r="I46" s="3" t="inlineStr">
+        <is>
+          <t>49/64</t>
+        </is>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>.7656</t>
+        </is>
+      </c>
+      <c r="K46" s="3" t="inlineStr">
+        <is>
+          <t>25/32</t>
+        </is>
+      </c>
+      <c r="L46" s="3" t="inlineStr">
+        <is>
+          <t>.7812</t>
+        </is>
+      </c>
+      <c r="M46" s="3" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="N46" s="3" t="inlineStr">
+        <is>
+          <t>1-3/16</t>
+        </is>
+      </c>
+      <c r="O46" s="3" t="inlineStr">
+        <is>
+          <t>1.1875</t>
+        </is>
+      </c>
+      <c r="P46" s="3" t="inlineStr">
+        <is>
+          <t>.8280</t>
+        </is>
+      </c>
+      <c r="Q46" s="3" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="R46" s="3" t="inlineStr">
+        <is>
+          <t>.3960</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>.6733</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>11/16</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>.6875</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>45/64</t>
+        </is>
+      </c>
+      <c r="H47" s="3" t="inlineStr">
+        <is>
+          <t>.7031</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="n"/>
+      <c r="J47" s="2" t="n"/>
+      <c r="K47" s="2" t="n"/>
+      <c r="L47" s="2" t="n"/>
+      <c r="M47" s="2" t="n"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="n"/>
+      <c r="P47" s="2" t="n"/>
+      <c r="Q47" s="2" t="n"/>
+      <c r="R47" s="2" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>.6887</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>45/64</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>.7031</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>23/32</t>
+        </is>
+      </c>
+      <c r="H48" s="3" t="inlineStr">
+        <is>
+          <t>.7188</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="n"/>
+      <c r="J48" s="2" t="n"/>
+      <c r="K48" s="2" t="n"/>
+      <c r="L48" s="2" t="n"/>
+      <c r="M48" s="2" t="n"/>
+      <c r="N48" s="2" t="n"/>
+      <c r="O48" s="2" t="n"/>
+      <c r="P48" s="2" t="n"/>
+      <c r="Q48" s="2" t="n"/>
+      <c r="R48" s="2" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>13/16</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>.8125</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>.7512</t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>49/64</t>
+        </is>
+      </c>
+      <c r="F49" s="4" t="inlineStr">
+        <is>
+          <t>.7656</t>
+        </is>
+      </c>
+      <c r="G49" s="4" t="inlineStr">
+        <is>
+          <t>25/32</t>
+        </is>
+      </c>
+      <c r="H49" s="4" t="inlineStr">
+        <is>
+          <t>.7812</t>
+        </is>
+      </c>
+      <c r="I49" s="4" t="inlineStr">
+        <is>
+          <t>53/64</t>
+        </is>
+      </c>
+      <c r="J49" s="4" t="inlineStr">
+        <is>
+          <t>.8281</t>
+        </is>
+      </c>
+      <c r="K49" s="4" t="inlineStr">
+        <is>
+          <t>27/32</t>
+        </is>
+      </c>
+      <c r="L49" s="4" t="inlineStr">
+        <is>
+          <t>.8438</t>
+        </is>
+      </c>
+      <c r="M49" s="4" t="n"/>
+      <c r="N49" s="4" t="n"/>
+      <c r="O49" s="4" t="n"/>
+      <c r="P49" s="4" t="n"/>
+      <c r="Q49" s="4" t="n"/>
+      <c r="R49" s="4" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>.8750</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>.7387</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>49/64</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>.7656</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>51/64</t>
+        </is>
+      </c>
+      <c r="H50" s="3" t="inlineStr">
+        <is>
+          <t>.7969</t>
+        </is>
+      </c>
+      <c r="I50" s="3" t="inlineStr">
+        <is>
+          <t>57/64</t>
+        </is>
+      </c>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>.8906</t>
+        </is>
+      </c>
+      <c r="K50" s="3" t="inlineStr">
+        <is>
+          <t>29/32</t>
+        </is>
+      </c>
+      <c r="L50" s="3" t="inlineStr">
+        <is>
+          <t>.9062</t>
+        </is>
+      </c>
+      <c r="M50" s="3" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="N50" s="3" t="inlineStr">
+        <is>
+          <t>1-3/8</t>
+        </is>
+      </c>
+      <c r="O50" s="3" t="inlineStr">
+        <is>
+          <t>1.3750</t>
+        </is>
+      </c>
+      <c r="P50" s="3" t="inlineStr">
+        <is>
+          <t>.9630</t>
+        </is>
+      </c>
+      <c r="Q50" s="3" t="inlineStr">
+        <is>
+          <t>9/16</t>
+        </is>
+      </c>
+      <c r="R50" s="3" t="inlineStr">
+        <is>
+          <t>.4680</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n"/>
+      <c r="B51" s="2" t="n"/>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>.7874</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>13/16</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>.8125</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="inlineStr">
+        <is>
+          <t>53/64</t>
+        </is>
+      </c>
+      <c r="H51" s="3" t="inlineStr">
+        <is>
+          <t>.8281</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="n"/>
+      <c r="J51" s="2" t="n"/>
+      <c r="K51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
+      <c r="M51" s="2" t="n"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="n"/>
+      <c r="P51" s="2" t="n"/>
+      <c r="Q51" s="2" t="n"/>
+      <c r="R51" s="2" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="2" t="n"/>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>.8137</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>53/64</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>.8281</t>
+        </is>
+      </c>
+      <c r="G52" s="3" t="inlineStr">
+        <is>
+          <t>27/32</t>
+        </is>
+      </c>
+      <c r="H52" s="3" t="inlineStr">
+        <is>
+          <t>.8438</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="n"/>
+      <c r="J52" s="2" t="n"/>
+      <c r="K52" s="2" t="n"/>
+      <c r="L52" s="2" t="n"/>
+      <c r="M52" s="2" t="n"/>
+      <c r="N52" s="2" t="n"/>
+      <c r="O52" s="2" t="n"/>
+      <c r="P52" s="2" t="n"/>
+      <c r="Q52" s="2" t="n"/>
+      <c r="R52" s="2" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>15/16</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>.9375</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>.8762</t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>57/64</t>
+        </is>
+      </c>
+      <c r="F53" s="4" t="inlineStr">
+        <is>
+          <t>.8906</t>
+        </is>
+      </c>
+      <c r="G53" s="4" t="inlineStr">
+        <is>
+          <t>29/32</t>
+        </is>
+      </c>
+      <c r="H53" s="4" t="inlineStr">
+        <is>
+          <t>.9062</t>
+        </is>
+      </c>
+      <c r="I53" s="4" t="inlineStr">
+        <is>
+          <t>61/64</t>
+        </is>
+      </c>
+      <c r="J53" s="4" t="inlineStr">
+        <is>
+          <t>.9531</t>
+        </is>
+      </c>
+      <c r="K53" s="4" t="inlineStr">
+        <is>
+          <t>31/32</t>
+        </is>
+      </c>
+      <c r="L53" s="4" t="inlineStr">
+        <is>
+          <t>.9688</t>
+        </is>
+      </c>
+      <c r="M53" s="4" t="n"/>
+      <c r="N53" s="4" t="n"/>
+      <c r="O53" s="4" t="n"/>
+      <c r="P53" s="4" t="n"/>
+      <c r="Q53" s="4" t="n"/>
+      <c r="R53" s="4" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>.8466</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>.8750</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="inlineStr">
+        <is>
+          <t>59/64</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>.9219</t>
+        </is>
+      </c>
+      <c r="I54" s="3" t="inlineStr">
+        <is>
+          <t>1-1/64</t>
+        </is>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>1.0156</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr">
+        <is>
+          <t>1-1/32</t>
+        </is>
+      </c>
+      <c r="L54" s="3" t="inlineStr">
+        <is>
+          <t>1.0313</t>
+        </is>
+      </c>
+      <c r="M54" s="3" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="N54" s="3" t="inlineStr">
+        <is>
+          <t>1-5/8</t>
+        </is>
+      </c>
+      <c r="O54" s="3" t="inlineStr">
+        <is>
+          <t>1.6250</t>
+        </is>
+      </c>
+      <c r="P54" s="3" t="inlineStr">
+        <is>
+          <t>1.1000</t>
+        </is>
+      </c>
+      <c r="Q54" s="3" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="R54" s="3" t="inlineStr">
+        <is>
+          <t>.5400</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="2" t="n"/>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>.8978</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>15/16</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>.9375</t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="inlineStr">
+        <is>
+          <t>61/64</t>
+        </is>
+      </c>
+      <c r="H55" s="3" t="inlineStr">
+        <is>
+          <t>.9531</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="n"/>
+      <c r="J55" s="2" t="n"/>
+      <c r="K55" s="2" t="n"/>
+      <c r="L55" s="2" t="n"/>
+      <c r="M55" s="2" t="n"/>
+      <c r="N55" s="2" t="n"/>
+      <c r="O55" s="2" t="n"/>
+      <c r="P55" s="2" t="n"/>
+      <c r="Q55" s="2" t="n"/>
+      <c r="R55" s="2" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="2" t="n"/>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>.9387</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>61/64</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>.9531</t>
+        </is>
+      </c>
+      <c r="G56" s="3" t="inlineStr">
+        <is>
+          <t>31/32</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="inlineStr">
+        <is>
+          <t>.9688</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="n"/>
+      <c r="J56" s="2" t="n"/>
+      <c r="K56" s="2" t="n"/>
+      <c r="L56" s="2" t="n"/>
+      <c r="M56" s="2" t="n"/>
+      <c r="N56" s="2" t="n"/>
+      <c r="O56" s="2" t="n"/>
+      <c r="P56" s="2" t="n"/>
+      <c r="Q56" s="2" t="n"/>
+      <c r="R56" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="244">
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="P42:P44"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="P54:P56"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="O33:O35"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q33:Q35"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="Q42:Q44"/>
+    <mergeCell ref="N46:N48"/>
+    <mergeCell ref="P46:P48"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R50:R52"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="Q46:Q48"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="M46:M48"/>
+    <mergeCell ref="N36:N38"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="O24:O26"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="R54:R56"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="O50:O52"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="M36:M38"/>
+    <mergeCell ref="M30:M32"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M33:M35"/>
+    <mergeCell ref="O27:O29"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="Q36:Q38"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="P33:P35"/>
+    <mergeCell ref="R33:R35"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="N50:N52"/>
+    <mergeCell ref="P50:P52"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="O54:O56"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="Q54:Q56"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="P36:P38"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="M54:M56"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="O46:O48"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="R46:R48"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="Q50:Q52"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="N54:N56"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="N24:N26"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="M50:M52"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="K36:K38"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="M39:M41"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="O36:O38"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="L33:L35"/>
+    <mergeCell ref="N33:N35"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="N42:N44"/>
+    <mergeCell ref="R27:R29"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="R36:R38"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="L19:L20"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="0" gridLines="0"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup orientation="landscape" paperSize="3" fitToHeight="2" fitToWidth="2"/>
 </worksheet>
 </file>
--- a/inch_taps_drills.xlsx
+++ b/inch_taps_drills.xlsx
@@ -10,6 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Letter Landscape 1pg" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabloid Landscape 1pg" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabloid Landscape 2x2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="24x36 Landscape 1pg" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="36x48 Landscape 1pg" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11868,4 +11870,7628 @@
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="landscape" paperSize="3" fitToHeight="2" fitToWidth="2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
+    <col width="11" customWidth="1" min="16" max="16"/>
+    <col width="11" customWidth="1" min="17" max="17"/>
+    <col width="11" customWidth="1" min="18" max="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Screw Size</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Major Diameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TPI</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Minor Diameter</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tap Drill</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Clearance Drill</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Socket Head Cap Screws</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Flat Head Cap Screws</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="n"/>
+    </row>
+    <row r="2" ht="40" customHeight="1">
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>75% Thread for Aluminum, Brass, Plastics</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>50% Thread for Stainless, Cast Iron &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Close Fit</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>Free Fit</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>Counterbore</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>Countersink Depth</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Drill Size</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Dec. Eq.</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>Drill Size</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>Dec. Eq.</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>Drill Size</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Dec. Eq.</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Drill Size</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>Dec. Eq.</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>Drill Size</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>Dec. Eq.</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>Depth</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>.0600</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>.0447</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>3/64</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>.0469</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>.0520</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>.0635</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>.0700</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>0.050</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>1/8</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>.125</t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>.0740</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>0.035</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
+        <is>
+          <t>.0440</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>.0730</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>.0538</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>.0595</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>1/16</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>.0625</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>.0760</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>.0810</t>
+        </is>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>1/16</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="inlineStr">
+        <is>
+          <t>5/32</t>
+        </is>
+      </c>
+      <c r="O5" s="4" t="inlineStr">
+        <is>
+          <t>.1562</t>
+        </is>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
+        <is>
+          <t>.0870</t>
+        </is>
+      </c>
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>1/20</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="inlineStr">
+        <is>
+          <t>.0540</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>.0560</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>.0595</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>.0635</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
+      <c r="R6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>.0860</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>.0641</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>.0700</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>.0730</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>.0890</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>.0960</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>5/64</t>
+        </is>
+      </c>
+      <c r="N7" s="3" t="inlineStr">
+        <is>
+          <t>3/16</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="inlineStr">
+        <is>
+          <t>.1875</t>
+        </is>
+      </c>
+      <c r="P7" s="3" t="inlineStr">
+        <is>
+          <t>.1020</t>
+        </is>
+      </c>
+      <c r="Q7" s="3" t="inlineStr">
+        <is>
+          <t>1/20</t>
+        </is>
+      </c>
+      <c r="R7" s="3" t="inlineStr">
+        <is>
+          <t>.0640</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>.0668</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>.0700</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>.0760</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="n"/>
+      <c r="Q8" s="2" t="n"/>
+      <c r="R8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>.0990</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>.0734</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>.0785</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>.0860</t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>.1040</t>
+        </is>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>.1100</t>
+        </is>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>5/64</t>
+        </is>
+      </c>
+      <c r="N9" s="4" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="O9" s="4" t="inlineStr">
+        <is>
+          <t>.2188</t>
+        </is>
+      </c>
+      <c r="P9" s="4" t="inlineStr">
+        <is>
+          <t>.1150</t>
+        </is>
+      </c>
+      <c r="Q9" s="4" t="inlineStr">
+        <is>
+          <t>1/16</t>
+        </is>
+      </c>
+      <c r="R9" s="4" t="inlineStr">
+        <is>
+          <t>.0730</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>.0771</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>.0820</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>.0890</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
+      <c r="R10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>.1120</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>.0813</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>.0890</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>.0960</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>.1160</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>.1285</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>3/32</t>
+        </is>
+      </c>
+      <c r="N11" s="3" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="O11" s="3" t="inlineStr">
+        <is>
+          <t>.2188</t>
+        </is>
+      </c>
+      <c r="P11" s="3" t="inlineStr">
+        <is>
+          <t>.1300</t>
+        </is>
+      </c>
+      <c r="Q11" s="3" t="inlineStr">
+        <is>
+          <t>1/16</t>
+        </is>
+      </c>
+      <c r="R11" s="3" t="inlineStr">
+        <is>
+          <t>.0830</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>.0864</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>.0935</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>.0980</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+      <c r="R12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>.125</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>.0943</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>.1015</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>7/64</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>.1094</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>.1285</t>
+        </is>
+      </c>
+      <c r="K13" s="4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L13" s="4" t="inlineStr">
+        <is>
+          <t>.1360</t>
+        </is>
+      </c>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t>3/32</t>
+        </is>
+      </c>
+      <c r="N13" s="4" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="O13" s="4" t="inlineStr">
+        <is>
+          <t>.2500</t>
+        </is>
+      </c>
+      <c r="P13" s="4" t="inlineStr">
+        <is>
+          <t>.1450</t>
+        </is>
+      </c>
+      <c r="Q13" s="4" t="inlineStr">
+        <is>
+          <t>5/64</t>
+        </is>
+      </c>
+      <c r="R13" s="4" t="inlineStr">
+        <is>
+          <t>.0900</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>.0971</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>.1040</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>.1100</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n"/>
+      <c r="R14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>.138</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>.0997</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>.1065</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>.1160</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>.1440</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
+        <is>
+          <t>.1495</t>
+        </is>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>7/64</t>
+        </is>
+      </c>
+      <c r="N15" s="3" t="inlineStr">
+        <is>
+          <t>9/32</t>
+        </is>
+      </c>
+      <c r="O15" s="3" t="inlineStr">
+        <is>
+          <t>.2812</t>
+        </is>
+      </c>
+      <c r="P15" s="3" t="inlineStr">
+        <is>
+          <t>.1580</t>
+        </is>
+      </c>
+      <c r="Q15" s="3" t="inlineStr">
+        <is>
+          <t>5/64</t>
+        </is>
+      </c>
+      <c r="R15" s="3" t="inlineStr">
+        <is>
+          <t>.0970</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>.1073</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>.1130</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>.1200</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
+      <c r="Q16" s="2" t="n"/>
+      <c r="R16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>.1640</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>.1257</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>.1360</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>.1440</t>
+        </is>
+      </c>
+      <c r="I17" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
+        <is>
+          <t>.1695</t>
+        </is>
+      </c>
+      <c r="K17" s="4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L17" s="4" t="inlineStr">
+        <is>
+          <t>.1770</t>
+        </is>
+      </c>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>9/64</t>
+        </is>
+      </c>
+      <c r="N17" s="4" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t>.3125</t>
+        </is>
+      </c>
+      <c r="P17" s="4" t="inlineStr">
+        <is>
+          <t>.1880</t>
+        </is>
+      </c>
+      <c r="Q17" s="4" t="inlineStr">
+        <is>
+          <t>3/32</t>
+        </is>
+      </c>
+      <c r="R17" s="4" t="inlineStr">
+        <is>
+          <t>.1120</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n"/>
+      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>.1299</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>.1360</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>.1470</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
+      <c r="R18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>.1900</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>.1389</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>.1495</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>.1610</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>.1960</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L19" s="3" t="inlineStr">
+        <is>
+          <t>.2010</t>
+        </is>
+      </c>
+      <c r="M19" s="3" t="inlineStr">
+        <is>
+          <t>5/32</t>
+        </is>
+      </c>
+      <c r="N19" s="3" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="O19" s="3" t="inlineStr">
+        <is>
+          <t>.3750</t>
+        </is>
+      </c>
+      <c r="P19" s="3" t="inlineStr">
+        <is>
+          <t>.2180</t>
+        </is>
+      </c>
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>1/8</t>
+        </is>
+      </c>
+      <c r="R19" s="3" t="inlineStr">
+        <is>
+          <t>.1270</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>.1517</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>.1590</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>.1695</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
+      <c r="Q20" s="2" t="n"/>
+      <c r="R20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>.2160</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>.1649</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>.1770</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>.1890</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>.2210</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
+          <t>.2280</t>
+        </is>
+      </c>
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t>5/32</t>
+        </is>
+      </c>
+      <c r="N21" s="4" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="O21" s="4" t="inlineStr">
+        <is>
+          <t>.3750</t>
+        </is>
+      </c>
+      <c r="P21" s="4" t="inlineStr">
+        <is>
+          <t>.2180</t>
+        </is>
+      </c>
+      <c r="Q21" s="4" t="inlineStr">
+        <is>
+          <t>1/8</t>
+        </is>
+      </c>
+      <c r="R21" s="4" t="inlineStr">
+        <is>
+          <t>.1350</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>.1722</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>.1820</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>.1935</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2" t="n"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="n"/>
+      <c r="Q22" s="2" t="n"/>
+      <c r="R22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>.1777</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>.1850</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>.1960</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="2" t="n"/>
+      <c r="K23" s="2" t="n"/>
+      <c r="L23" s="2" t="n"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="n"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="n"/>
+      <c r="Q23" s="2" t="n"/>
+      <c r="R23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>.2500</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>.1887</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>.2010</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>.2188</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>.2570</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L24" s="3" t="inlineStr">
+        <is>
+          <t>.2660</t>
+        </is>
+      </c>
+      <c r="M24" s="3" t="inlineStr">
+        <is>
+          <t>3/16</t>
+        </is>
+      </c>
+      <c r="N24" s="3" t="inlineStr">
+        <is>
+          <t>7/16</t>
+        </is>
+      </c>
+      <c r="O24" s="3" t="inlineStr">
+        <is>
+          <t>.4375</t>
+        </is>
+      </c>
+      <c r="P24" s="3" t="inlineStr">
+        <is>
+          <t>.2780</t>
+        </is>
+      </c>
+      <c r="Q24" s="3" t="inlineStr">
+        <is>
+          <t>5/32</t>
+        </is>
+      </c>
+      <c r="R24" s="3" t="inlineStr">
+        <is>
+          <t>.1610</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>.2062</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>.2130</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>.2280</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
+      <c r="L25" s="2" t="n"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
+      <c r="P25" s="2" t="n"/>
+      <c r="Q25" s="2" t="n"/>
+      <c r="R25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n"/>
+      <c r="B26" s="2" t="n"/>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>.2117</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>.2188</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>.2280</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="2" t="n"/>
+      <c r="K26" s="2" t="n"/>
+      <c r="L26" s="2" t="n"/>
+      <c r="M26" s="2" t="n"/>
+      <c r="N26" s="2" t="n"/>
+      <c r="O26" s="2" t="n"/>
+      <c r="P26" s="2" t="n"/>
+      <c r="Q26" s="2" t="n"/>
+      <c r="R26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>.3125</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>.2443</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>.2570</t>
+        </is>
+      </c>
+      <c r="G27" s="4" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="H27" s="4" t="inlineStr">
+        <is>
+          <t>.2770</t>
+        </is>
+      </c>
+      <c r="I27" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J27" s="4" t="inlineStr">
+        <is>
+          <t>.3230</t>
+        </is>
+      </c>
+      <c r="K27" s="4" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="L27" s="4" t="inlineStr">
+        <is>
+          <t>.3320</t>
+        </is>
+      </c>
+      <c r="M27" s="4" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="N27" s="4" t="inlineStr">
+        <is>
+          <t>17/32</t>
+        </is>
+      </c>
+      <c r="O27" s="4" t="inlineStr">
+        <is>
+          <t>.5312</t>
+        </is>
+      </c>
+      <c r="P27" s="4" t="inlineStr">
+        <is>
+          <t>.3460</t>
+        </is>
+      </c>
+      <c r="Q27" s="4" t="inlineStr">
+        <is>
+          <t>3/16</t>
+        </is>
+      </c>
+      <c r="R27" s="4" t="inlineStr">
+        <is>
+          <t>.1980</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="2" t="n"/>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>.2614</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>.2720</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>9/32</t>
+        </is>
+      </c>
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>.2812</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+      <c r="K28" s="2" t="n"/>
+      <c r="L28" s="2" t="n"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="n"/>
+      <c r="O28" s="2" t="n"/>
+      <c r="P28" s="2" t="n"/>
+      <c r="Q28" s="2" t="n"/>
+      <c r="R28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="2" t="n"/>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>.2742</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>9/32</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>.2812</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>.2900</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="n"/>
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
+      <c r="P29" s="2" t="n"/>
+      <c r="Q29" s="2" t="n"/>
+      <c r="R29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>.3750</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>.2983</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>.3125</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>.3320</t>
+        </is>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>.3860</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L30" s="3" t="inlineStr">
+        <is>
+          <t>.3970</t>
+        </is>
+      </c>
+      <c r="M30" s="3" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="N30" s="3" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="O30" s="3" t="inlineStr">
+        <is>
+          <t>.6250</t>
+        </is>
+      </c>
+      <c r="P30" s="3" t="inlineStr">
+        <is>
+          <t>.4150</t>
+        </is>
+      </c>
+      <c r="Q30" s="3" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="R30" s="3" t="inlineStr">
+        <is>
+          <t>.2340</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>.3239</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>.3320</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t>.3480</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="2" t="n"/>
+      <c r="Q31" s="2" t="n"/>
+      <c r="R31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>.3367</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>11/32</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>.3438</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="inlineStr">
+        <is>
+          <t>.3580</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="n"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="n"/>
+      <c r="L32" s="2" t="n"/>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" s="2" t="n"/>
+      <c r="O32" s="2" t="n"/>
+      <c r="P32" s="2" t="n"/>
+      <c r="Q32" s="2" t="n"/>
+      <c r="R32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>7/16</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>.4375</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>.3499</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>.3680</t>
+        </is>
+      </c>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>25/64</t>
+        </is>
+      </c>
+      <c r="H33" s="4" t="inlineStr">
+        <is>
+          <t>.3906</t>
+        </is>
+      </c>
+      <c r="I33" s="4" t="inlineStr">
+        <is>
+          <t>29/64</t>
+        </is>
+      </c>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t>.4531</t>
+        </is>
+      </c>
+      <c r="K33" s="4" t="inlineStr">
+        <is>
+          <t>15/32</t>
+        </is>
+      </c>
+      <c r="L33" s="4" t="inlineStr">
+        <is>
+          <t>.4688</t>
+        </is>
+      </c>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="N33" s="4" t="inlineStr">
+        <is>
+          <t>23/32</t>
+        </is>
+      </c>
+      <c r="O33" s="4" t="inlineStr">
+        <is>
+          <t>.7188</t>
+        </is>
+      </c>
+      <c r="P33" s="4" t="inlineStr">
+        <is>
+          <t>.4830</t>
+        </is>
+      </c>
+      <c r="Q33" s="4" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="R33" s="4" t="inlineStr">
+        <is>
+          <t>.2340</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="2" t="n"/>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>.3762</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>25/64</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>.3906</t>
+        </is>
+      </c>
+      <c r="G34" s="4" t="inlineStr">
+        <is>
+          <t>13/32</t>
+        </is>
+      </c>
+      <c r="H34" s="4" t="inlineStr">
+        <is>
+          <t>.4062</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
+      <c r="L34" s="2" t="n"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
+      <c r="P34" s="2" t="n"/>
+      <c r="Q34" s="2" t="n"/>
+      <c r="R34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>.3937</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="inlineStr">
+        <is>
+          <t>.4040</t>
+        </is>
+      </c>
+      <c r="G35" s="4" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="H35" s="4" t="inlineStr">
+        <is>
+          <t>.4130</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
+      <c r="P35" s="2" t="n"/>
+      <c r="Q35" s="2" t="n"/>
+      <c r="R35" s="2" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>.5000</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>.4056</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>27/64</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>.4219</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>29/64</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>.4531</t>
+        </is>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>33/64</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>.5156</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>17/32</t>
+        </is>
+      </c>
+      <c r="L36" s="3" t="inlineStr">
+        <is>
+          <t>.5312</t>
+        </is>
+      </c>
+      <c r="M36" s="3" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="N36" s="3" t="inlineStr">
+        <is>
+          <t>13/16</t>
+        </is>
+      </c>
+      <c r="O36" s="3" t="inlineStr">
+        <is>
+          <t>.8125</t>
+        </is>
+      </c>
+      <c r="P36" s="3" t="inlineStr">
+        <is>
+          <t>.5520</t>
+        </is>
+      </c>
+      <c r="Q36" s="3" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="R36" s="3" t="inlineStr">
+        <is>
+          <t>.2510</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>.4387</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>29/64</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>.4531</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>15/32</t>
+        </is>
+      </c>
+      <c r="H37" s="3" t="inlineStr">
+        <is>
+          <t>.4688</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="2" t="n"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
+      <c r="P37" s="2" t="n"/>
+      <c r="Q37" s="2" t="n"/>
+      <c r="R37" s="2" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="2" t="n"/>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>.4562</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>15/32</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>.4688</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>15/32</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="inlineStr">
+        <is>
+          <t>.4688</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="n"/>
+      <c r="J38" s="2" t="n"/>
+      <c r="K38" s="2" t="n"/>
+      <c r="L38" s="2" t="n"/>
+      <c r="M38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
+      <c r="O38" s="2" t="n"/>
+      <c r="P38" s="2" t="n"/>
+      <c r="Q38" s="2" t="n"/>
+      <c r="R38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>9/16</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>.5625</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>.4603</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>31/64</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>.4844</t>
+        </is>
+      </c>
+      <c r="G39" s="4" t="inlineStr">
+        <is>
+          <t>33/64</t>
+        </is>
+      </c>
+      <c r="H39" s="4" t="inlineStr">
+        <is>
+          <t>.5156</t>
+        </is>
+      </c>
+      <c r="I39" s="4" t="inlineStr">
+        <is>
+          <t>37/64</t>
+        </is>
+      </c>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>.5781</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
+        <is>
+          <t>19/32</t>
+        </is>
+      </c>
+      <c r="L39" s="4" t="inlineStr">
+        <is>
+          <t>.5938</t>
+        </is>
+      </c>
+      <c r="M39" s="4" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="N39" s="4" t="inlineStr">
+        <is>
+          <t>29/32</t>
+        </is>
+      </c>
+      <c r="O39" s="4" t="inlineStr">
+        <is>
+          <t>.9062</t>
+        </is>
+      </c>
+      <c r="P39" s="4" t="inlineStr">
+        <is>
+          <t>.5940</t>
+        </is>
+      </c>
+      <c r="Q39" s="4" t="n"/>
+      <c r="R39" s="4" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n"/>
+      <c r="B40" s="2" t="n"/>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>.4943</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>33/64</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
+        <is>
+          <t>.5156</t>
+        </is>
+      </c>
+      <c r="G40" s="4" t="inlineStr">
+        <is>
+          <t>17/32</t>
+        </is>
+      </c>
+      <c r="H40" s="4" t="inlineStr">
+        <is>
+          <t>.5312</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="n"/>
+      <c r="J40" s="2" t="n"/>
+      <c r="K40" s="2" t="n"/>
+      <c r="L40" s="2" t="n"/>
+      <c r="M40" s="2" t="n"/>
+      <c r="N40" s="2" t="n"/>
+      <c r="O40" s="2" t="n"/>
+      <c r="P40" s="2" t="n"/>
+      <c r="Q40" s="2" t="n"/>
+      <c r="R40" s="2" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>.5114</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>33/64</t>
+        </is>
+      </c>
+      <c r="F41" s="4" t="inlineStr">
+        <is>
+          <t>.5156</t>
+        </is>
+      </c>
+      <c r="G41" s="4" t="inlineStr">
+        <is>
+          <t>17/32</t>
+        </is>
+      </c>
+      <c r="H41" s="4" t="inlineStr">
+        <is>
+          <t>.5312</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="n"/>
+      <c r="J41" s="2" t="n"/>
+      <c r="K41" s="2" t="n"/>
+      <c r="L41" s="2" t="n"/>
+      <c r="M41" s="2" t="n"/>
+      <c r="N41" s="2" t="n"/>
+      <c r="O41" s="2" t="n"/>
+      <c r="P41" s="2" t="n"/>
+      <c r="Q41" s="2" t="n"/>
+      <c r="R41" s="2" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>.6250</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>.5135</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>17/32</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>.5312</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>9/16</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>.5625</t>
+        </is>
+      </c>
+      <c r="I42" s="3" t="inlineStr">
+        <is>
+          <t>41/64</t>
+        </is>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>.6406</t>
+        </is>
+      </c>
+      <c r="K42" s="3" t="inlineStr">
+        <is>
+          <t>21/32</t>
+        </is>
+      </c>
+      <c r="L42" s="3" t="inlineStr">
+        <is>
+          <t>.6562</t>
+        </is>
+      </c>
+      <c r="M42" s="3" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="N42" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O42" s="3" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="P42" s="3" t="inlineStr">
+        <is>
+          <t>.6890</t>
+        </is>
+      </c>
+      <c r="Q42" s="3" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="R42" s="3" t="inlineStr">
+        <is>
+          <t>.3240</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>.5568</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>37/64</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>.5781</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t>19/32</t>
+        </is>
+      </c>
+      <c r="H43" s="3" t="inlineStr">
+        <is>
+          <t>.5938</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
+      <c r="Q43" s="2" t="n"/>
+      <c r="R43" s="2" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>.5739</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>37/64</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>.5781</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>19/32</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="inlineStr">
+        <is>
+          <t>.5938</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="n"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
+      <c r="L44" s="2" t="n"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="n"/>
+      <c r="Q44" s="2" t="n"/>
+      <c r="R44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>11/16</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>.6875</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>.6364</t>
+        </is>
+      </c>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>41/64</t>
+        </is>
+      </c>
+      <c r="F45" s="4" t="inlineStr">
+        <is>
+          <t>.6406</t>
+        </is>
+      </c>
+      <c r="G45" s="4" t="inlineStr">
+        <is>
+          <t>21/32</t>
+        </is>
+      </c>
+      <c r="H45" s="4" t="inlineStr">
+        <is>
+          <t>.6562</t>
+        </is>
+      </c>
+      <c r="I45" s="4" t="inlineStr">
+        <is>
+          <t>45/64</t>
+        </is>
+      </c>
+      <c r="J45" s="4" t="inlineStr">
+        <is>
+          <t>.7031</t>
+        </is>
+      </c>
+      <c r="K45" s="4" t="inlineStr">
+        <is>
+          <t>23/32</t>
+        </is>
+      </c>
+      <c r="L45" s="4" t="inlineStr">
+        <is>
+          <t>.7188</t>
+        </is>
+      </c>
+      <c r="M45" s="4" t="n"/>
+      <c r="N45" s="4" t="n"/>
+      <c r="O45" s="4" t="n"/>
+      <c r="P45" s="4" t="n"/>
+      <c r="Q45" s="4" t="n"/>
+      <c r="R45" s="4" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>.7500</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>.6273</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>21/32</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>.6562</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>11/16</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="inlineStr">
+        <is>
+          <t>.6875</t>
+        </is>
+      </c>
+      <c r="I46" s="3" t="inlineStr">
+        <is>
+          <t>49/64</t>
+        </is>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>.7656</t>
+        </is>
+      </c>
+      <c r="K46" s="3" t="inlineStr">
+        <is>
+          <t>25/32</t>
+        </is>
+      </c>
+      <c r="L46" s="3" t="inlineStr">
+        <is>
+          <t>.7812</t>
+        </is>
+      </c>
+      <c r="M46" s="3" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="N46" s="3" t="inlineStr">
+        <is>
+          <t>1-3/16</t>
+        </is>
+      </c>
+      <c r="O46" s="3" t="inlineStr">
+        <is>
+          <t>1.1875</t>
+        </is>
+      </c>
+      <c r="P46" s="3" t="inlineStr">
+        <is>
+          <t>.8280</t>
+        </is>
+      </c>
+      <c r="Q46" s="3" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="R46" s="3" t="inlineStr">
+        <is>
+          <t>.3960</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>.6733</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>11/16</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>.6875</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>45/64</t>
+        </is>
+      </c>
+      <c r="H47" s="3" t="inlineStr">
+        <is>
+          <t>.7031</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="n"/>
+      <c r="J47" s="2" t="n"/>
+      <c r="K47" s="2" t="n"/>
+      <c r="L47" s="2" t="n"/>
+      <c r="M47" s="2" t="n"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="n"/>
+      <c r="P47" s="2" t="n"/>
+      <c r="Q47" s="2" t="n"/>
+      <c r="R47" s="2" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>.6887</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>45/64</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>.7031</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>23/32</t>
+        </is>
+      </c>
+      <c r="H48" s="3" t="inlineStr">
+        <is>
+          <t>.7188</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="n"/>
+      <c r="J48" s="2" t="n"/>
+      <c r="K48" s="2" t="n"/>
+      <c r="L48" s="2" t="n"/>
+      <c r="M48" s="2" t="n"/>
+      <c r="N48" s="2" t="n"/>
+      <c r="O48" s="2" t="n"/>
+      <c r="P48" s="2" t="n"/>
+      <c r="Q48" s="2" t="n"/>
+      <c r="R48" s="2" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>13/16</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>.8125</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>.7512</t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>49/64</t>
+        </is>
+      </c>
+      <c r="F49" s="4" t="inlineStr">
+        <is>
+          <t>.7656</t>
+        </is>
+      </c>
+      <c r="G49" s="4" t="inlineStr">
+        <is>
+          <t>25/32</t>
+        </is>
+      </c>
+      <c r="H49" s="4" t="inlineStr">
+        <is>
+          <t>.7812</t>
+        </is>
+      </c>
+      <c r="I49" s="4" t="inlineStr">
+        <is>
+          <t>53/64</t>
+        </is>
+      </c>
+      <c r="J49" s="4" t="inlineStr">
+        <is>
+          <t>.8281</t>
+        </is>
+      </c>
+      <c r="K49" s="4" t="inlineStr">
+        <is>
+          <t>27/32</t>
+        </is>
+      </c>
+      <c r="L49" s="4" t="inlineStr">
+        <is>
+          <t>.8438</t>
+        </is>
+      </c>
+      <c r="M49" s="4" t="n"/>
+      <c r="N49" s="4" t="n"/>
+      <c r="O49" s="4" t="n"/>
+      <c r="P49" s="4" t="n"/>
+      <c r="Q49" s="4" t="n"/>
+      <c r="R49" s="4" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>.8750</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>.7387</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>49/64</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>.7656</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>51/64</t>
+        </is>
+      </c>
+      <c r="H50" s="3" t="inlineStr">
+        <is>
+          <t>.7969</t>
+        </is>
+      </c>
+      <c r="I50" s="3" t="inlineStr">
+        <is>
+          <t>57/64</t>
+        </is>
+      </c>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>.8906</t>
+        </is>
+      </c>
+      <c r="K50" s="3" t="inlineStr">
+        <is>
+          <t>29/32</t>
+        </is>
+      </c>
+      <c r="L50" s="3" t="inlineStr">
+        <is>
+          <t>.9062</t>
+        </is>
+      </c>
+      <c r="M50" s="3" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="N50" s="3" t="inlineStr">
+        <is>
+          <t>1-3/8</t>
+        </is>
+      </c>
+      <c r="O50" s="3" t="inlineStr">
+        <is>
+          <t>1.3750</t>
+        </is>
+      </c>
+      <c r="P50" s="3" t="inlineStr">
+        <is>
+          <t>.9630</t>
+        </is>
+      </c>
+      <c r="Q50" s="3" t="inlineStr">
+        <is>
+          <t>9/16</t>
+        </is>
+      </c>
+      <c r="R50" s="3" t="inlineStr">
+        <is>
+          <t>.4680</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n"/>
+      <c r="B51" s="2" t="n"/>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>.7874</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>13/16</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>.8125</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="inlineStr">
+        <is>
+          <t>53/64</t>
+        </is>
+      </c>
+      <c r="H51" s="3" t="inlineStr">
+        <is>
+          <t>.8281</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="n"/>
+      <c r="J51" s="2" t="n"/>
+      <c r="K51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
+      <c r="M51" s="2" t="n"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="n"/>
+      <c r="P51" s="2" t="n"/>
+      <c r="Q51" s="2" t="n"/>
+      <c r="R51" s="2" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="2" t="n"/>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>.8137</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>53/64</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>.8281</t>
+        </is>
+      </c>
+      <c r="G52" s="3" t="inlineStr">
+        <is>
+          <t>27/32</t>
+        </is>
+      </c>
+      <c r="H52" s="3" t="inlineStr">
+        <is>
+          <t>.8438</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="n"/>
+      <c r="J52" s="2" t="n"/>
+      <c r="K52" s="2" t="n"/>
+      <c r="L52" s="2" t="n"/>
+      <c r="M52" s="2" t="n"/>
+      <c r="N52" s="2" t="n"/>
+      <c r="O52" s="2" t="n"/>
+      <c r="P52" s="2" t="n"/>
+      <c r="Q52" s="2" t="n"/>
+      <c r="R52" s="2" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>15/16</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>.9375</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>.8762</t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>57/64</t>
+        </is>
+      </c>
+      <c r="F53" s="4" t="inlineStr">
+        <is>
+          <t>.8906</t>
+        </is>
+      </c>
+      <c r="G53" s="4" t="inlineStr">
+        <is>
+          <t>29/32</t>
+        </is>
+      </c>
+      <c r="H53" s="4" t="inlineStr">
+        <is>
+          <t>.9062</t>
+        </is>
+      </c>
+      <c r="I53" s="4" t="inlineStr">
+        <is>
+          <t>61/64</t>
+        </is>
+      </c>
+      <c r="J53" s="4" t="inlineStr">
+        <is>
+          <t>.9531</t>
+        </is>
+      </c>
+      <c r="K53" s="4" t="inlineStr">
+        <is>
+          <t>31/32</t>
+        </is>
+      </c>
+      <c r="L53" s="4" t="inlineStr">
+        <is>
+          <t>.9688</t>
+        </is>
+      </c>
+      <c r="M53" s="4" t="n"/>
+      <c r="N53" s="4" t="n"/>
+      <c r="O53" s="4" t="n"/>
+      <c r="P53" s="4" t="n"/>
+      <c r="Q53" s="4" t="n"/>
+      <c r="R53" s="4" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>.8466</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>.8750</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="inlineStr">
+        <is>
+          <t>59/64</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>.9219</t>
+        </is>
+      </c>
+      <c r="I54" s="3" t="inlineStr">
+        <is>
+          <t>1-1/64</t>
+        </is>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>1.0156</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr">
+        <is>
+          <t>1-1/32</t>
+        </is>
+      </c>
+      <c r="L54" s="3" t="inlineStr">
+        <is>
+          <t>1.0313</t>
+        </is>
+      </c>
+      <c r="M54" s="3" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="N54" s="3" t="inlineStr">
+        <is>
+          <t>1-5/8</t>
+        </is>
+      </c>
+      <c r="O54" s="3" t="inlineStr">
+        <is>
+          <t>1.6250</t>
+        </is>
+      </c>
+      <c r="P54" s="3" t="inlineStr">
+        <is>
+          <t>1.1000</t>
+        </is>
+      </c>
+      <c r="Q54" s="3" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="R54" s="3" t="inlineStr">
+        <is>
+          <t>.5400</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="2" t="n"/>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>.8978</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>15/16</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>.9375</t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="inlineStr">
+        <is>
+          <t>61/64</t>
+        </is>
+      </c>
+      <c r="H55" s="3" t="inlineStr">
+        <is>
+          <t>.9531</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="n"/>
+      <c r="J55" s="2" t="n"/>
+      <c r="K55" s="2" t="n"/>
+      <c r="L55" s="2" t="n"/>
+      <c r="M55" s="2" t="n"/>
+      <c r="N55" s="2" t="n"/>
+      <c r="O55" s="2" t="n"/>
+      <c r="P55" s="2" t="n"/>
+      <c r="Q55" s="2" t="n"/>
+      <c r="R55" s="2" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="2" t="n"/>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>.9387</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>61/64</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>.9531</t>
+        </is>
+      </c>
+      <c r="G56" s="3" t="inlineStr">
+        <is>
+          <t>31/32</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="inlineStr">
+        <is>
+          <t>.9688</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="n"/>
+      <c r="J56" s="2" t="n"/>
+      <c r="K56" s="2" t="n"/>
+      <c r="L56" s="2" t="n"/>
+      <c r="M56" s="2" t="n"/>
+      <c r="N56" s="2" t="n"/>
+      <c r="O56" s="2" t="n"/>
+      <c r="P56" s="2" t="n"/>
+      <c r="Q56" s="2" t="n"/>
+      <c r="R56" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="244">
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="P42:P44"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="P54:P56"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="O33:O35"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q33:Q35"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="Q42:Q44"/>
+    <mergeCell ref="N46:N48"/>
+    <mergeCell ref="P46:P48"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R50:R52"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="Q46:Q48"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="M46:M48"/>
+    <mergeCell ref="N36:N38"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="O24:O26"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="R54:R56"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="O50:O52"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="M36:M38"/>
+    <mergeCell ref="M30:M32"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M33:M35"/>
+    <mergeCell ref="O27:O29"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="Q36:Q38"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="P33:P35"/>
+    <mergeCell ref="R33:R35"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="N50:N52"/>
+    <mergeCell ref="P50:P52"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="O54:O56"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="Q54:Q56"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="P36:P38"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="M54:M56"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="O46:O48"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="R46:R48"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="Q50:Q52"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="N54:N56"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="N24:N26"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="M50:M52"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="K36:K38"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="M39:M41"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="O36:O38"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="L33:L35"/>
+    <mergeCell ref="N33:N35"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="N42:N44"/>
+    <mergeCell ref="R27:R29"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="R36:R38"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="L19:L20"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="0" gridLines="0"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup orientation="landscape" paperSize="0" fitToHeight="1" fitToWidth="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
+    <col width="11" customWidth="1" min="16" max="16"/>
+    <col width="11" customWidth="1" min="17" max="17"/>
+    <col width="11" customWidth="1" min="18" max="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Screw Size</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Major Diameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TPI</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Minor Diameter</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tap Drill</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Clearance Drill</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Socket Head Cap Screws</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Flat Head Cap Screws</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="n"/>
+    </row>
+    <row r="2" ht="40" customHeight="1">
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>75% Thread for Aluminum, Brass, Plastics</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>50% Thread for Stainless, Cast Iron &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Close Fit</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>Free Fit</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>Counterbore</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>Countersink Depth</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Drill Size</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Dec. Eq.</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>Drill Size</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>Dec. Eq.</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>Drill Size</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Dec. Eq.</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Drill Size</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>Dec. Eq.</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>Drill Size</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>Dec. Eq.</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>Depth</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>.0600</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>.0447</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>3/64</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>.0469</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>.0520</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>.0635</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>.0700</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>0.050</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>1/8</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>.125</t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>.0740</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>0.035</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
+        <is>
+          <t>.0440</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>.0730</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>.0538</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>.0595</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>1/16</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>.0625</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>.0760</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>.0810</t>
+        </is>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>1/16</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="inlineStr">
+        <is>
+          <t>5/32</t>
+        </is>
+      </c>
+      <c r="O5" s="4" t="inlineStr">
+        <is>
+          <t>.1562</t>
+        </is>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
+        <is>
+          <t>.0870</t>
+        </is>
+      </c>
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>1/20</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="inlineStr">
+        <is>
+          <t>.0540</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>.0560</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>.0595</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>.0635</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
+      <c r="R6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>.0860</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>.0641</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>.0700</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>.0730</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>.0890</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>.0960</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>5/64</t>
+        </is>
+      </c>
+      <c r="N7" s="3" t="inlineStr">
+        <is>
+          <t>3/16</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="inlineStr">
+        <is>
+          <t>.1875</t>
+        </is>
+      </c>
+      <c r="P7" s="3" t="inlineStr">
+        <is>
+          <t>.1020</t>
+        </is>
+      </c>
+      <c r="Q7" s="3" t="inlineStr">
+        <is>
+          <t>1/20</t>
+        </is>
+      </c>
+      <c r="R7" s="3" t="inlineStr">
+        <is>
+          <t>.0640</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>.0668</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>.0700</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>.0760</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="n"/>
+      <c r="Q8" s="2" t="n"/>
+      <c r="R8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>.0990</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>.0734</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>.0785</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>.0860</t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>.1040</t>
+        </is>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>.1100</t>
+        </is>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>5/64</t>
+        </is>
+      </c>
+      <c r="N9" s="4" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="O9" s="4" t="inlineStr">
+        <is>
+          <t>.2188</t>
+        </is>
+      </c>
+      <c r="P9" s="4" t="inlineStr">
+        <is>
+          <t>.1150</t>
+        </is>
+      </c>
+      <c r="Q9" s="4" t="inlineStr">
+        <is>
+          <t>1/16</t>
+        </is>
+      </c>
+      <c r="R9" s="4" t="inlineStr">
+        <is>
+          <t>.0730</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>.0771</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>.0820</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>.0890</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
+      <c r="R10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>.1120</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>.0813</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>.0890</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>.0960</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>.1160</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>.1285</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>3/32</t>
+        </is>
+      </c>
+      <c r="N11" s="3" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="O11" s="3" t="inlineStr">
+        <is>
+          <t>.2188</t>
+        </is>
+      </c>
+      <c r="P11" s="3" t="inlineStr">
+        <is>
+          <t>.1300</t>
+        </is>
+      </c>
+      <c r="Q11" s="3" t="inlineStr">
+        <is>
+          <t>1/16</t>
+        </is>
+      </c>
+      <c r="R11" s="3" t="inlineStr">
+        <is>
+          <t>.0830</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>.0864</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>.0935</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>.0980</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+      <c r="R12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>.125</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>.0943</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>.1015</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>7/64</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>.1094</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>.1285</t>
+        </is>
+      </c>
+      <c r="K13" s="4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L13" s="4" t="inlineStr">
+        <is>
+          <t>.1360</t>
+        </is>
+      </c>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t>3/32</t>
+        </is>
+      </c>
+      <c r="N13" s="4" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="O13" s="4" t="inlineStr">
+        <is>
+          <t>.2500</t>
+        </is>
+      </c>
+      <c r="P13" s="4" t="inlineStr">
+        <is>
+          <t>.1450</t>
+        </is>
+      </c>
+      <c r="Q13" s="4" t="inlineStr">
+        <is>
+          <t>5/64</t>
+        </is>
+      </c>
+      <c r="R13" s="4" t="inlineStr">
+        <is>
+          <t>.0900</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>.0971</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>.1040</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>.1100</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n"/>
+      <c r="R14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>.138</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>.0997</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>.1065</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>.1160</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>.1440</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
+        <is>
+          <t>.1495</t>
+        </is>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>7/64</t>
+        </is>
+      </c>
+      <c r="N15" s="3" t="inlineStr">
+        <is>
+          <t>9/32</t>
+        </is>
+      </c>
+      <c r="O15" s="3" t="inlineStr">
+        <is>
+          <t>.2812</t>
+        </is>
+      </c>
+      <c r="P15" s="3" t="inlineStr">
+        <is>
+          <t>.1580</t>
+        </is>
+      </c>
+      <c r="Q15" s="3" t="inlineStr">
+        <is>
+          <t>5/64</t>
+        </is>
+      </c>
+      <c r="R15" s="3" t="inlineStr">
+        <is>
+          <t>.0970</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>.1073</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>.1130</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>.1200</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
+      <c r="Q16" s="2" t="n"/>
+      <c r="R16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>.1640</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>.1257</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>.1360</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>.1440</t>
+        </is>
+      </c>
+      <c r="I17" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
+        <is>
+          <t>.1695</t>
+        </is>
+      </c>
+      <c r="K17" s="4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L17" s="4" t="inlineStr">
+        <is>
+          <t>.1770</t>
+        </is>
+      </c>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>9/64</t>
+        </is>
+      </c>
+      <c r="N17" s="4" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t>.3125</t>
+        </is>
+      </c>
+      <c r="P17" s="4" t="inlineStr">
+        <is>
+          <t>.1880</t>
+        </is>
+      </c>
+      <c r="Q17" s="4" t="inlineStr">
+        <is>
+          <t>3/32</t>
+        </is>
+      </c>
+      <c r="R17" s="4" t="inlineStr">
+        <is>
+          <t>.1120</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n"/>
+      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>.1299</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>.1360</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>.1470</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
+      <c r="R18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>.1900</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>.1389</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>.1495</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>.1610</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>.1960</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L19" s="3" t="inlineStr">
+        <is>
+          <t>.2010</t>
+        </is>
+      </c>
+      <c r="M19" s="3" t="inlineStr">
+        <is>
+          <t>5/32</t>
+        </is>
+      </c>
+      <c r="N19" s="3" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="O19" s="3" t="inlineStr">
+        <is>
+          <t>.3750</t>
+        </is>
+      </c>
+      <c r="P19" s="3" t="inlineStr">
+        <is>
+          <t>.2180</t>
+        </is>
+      </c>
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>1/8</t>
+        </is>
+      </c>
+      <c r="R19" s="3" t="inlineStr">
+        <is>
+          <t>.1270</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>.1517</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>.1590</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>.1695</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
+      <c r="Q20" s="2" t="n"/>
+      <c r="R20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>.2160</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>.1649</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>.1770</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>.1890</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>.2210</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
+          <t>.2280</t>
+        </is>
+      </c>
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t>5/32</t>
+        </is>
+      </c>
+      <c r="N21" s="4" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="O21" s="4" t="inlineStr">
+        <is>
+          <t>.3750</t>
+        </is>
+      </c>
+      <c r="P21" s="4" t="inlineStr">
+        <is>
+          <t>.2180</t>
+        </is>
+      </c>
+      <c r="Q21" s="4" t="inlineStr">
+        <is>
+          <t>1/8</t>
+        </is>
+      </c>
+      <c r="R21" s="4" t="inlineStr">
+        <is>
+          <t>.1350</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>.1722</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>.1820</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>.1935</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2" t="n"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="n"/>
+      <c r="Q22" s="2" t="n"/>
+      <c r="R22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>.1777</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>.1850</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>.1960</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="2" t="n"/>
+      <c r="K23" s="2" t="n"/>
+      <c r="L23" s="2" t="n"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="n"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="n"/>
+      <c r="Q23" s="2" t="n"/>
+      <c r="R23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>.2500</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>.1887</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>.2010</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>.2188</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>.2570</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L24" s="3" t="inlineStr">
+        <is>
+          <t>.2660</t>
+        </is>
+      </c>
+      <c r="M24" s="3" t="inlineStr">
+        <is>
+          <t>3/16</t>
+        </is>
+      </c>
+      <c r="N24" s="3" t="inlineStr">
+        <is>
+          <t>7/16</t>
+        </is>
+      </c>
+      <c r="O24" s="3" t="inlineStr">
+        <is>
+          <t>.4375</t>
+        </is>
+      </c>
+      <c r="P24" s="3" t="inlineStr">
+        <is>
+          <t>.2780</t>
+        </is>
+      </c>
+      <c r="Q24" s="3" t="inlineStr">
+        <is>
+          <t>5/32</t>
+        </is>
+      </c>
+      <c r="R24" s="3" t="inlineStr">
+        <is>
+          <t>.1610</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>.2062</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>.2130</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>.2280</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
+      <c r="L25" s="2" t="n"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
+      <c r="P25" s="2" t="n"/>
+      <c r="Q25" s="2" t="n"/>
+      <c r="R25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n"/>
+      <c r="B26" s="2" t="n"/>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>.2117</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>.2188</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>.2280</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="2" t="n"/>
+      <c r="K26" s="2" t="n"/>
+      <c r="L26" s="2" t="n"/>
+      <c r="M26" s="2" t="n"/>
+      <c r="N26" s="2" t="n"/>
+      <c r="O26" s="2" t="n"/>
+      <c r="P26" s="2" t="n"/>
+      <c r="Q26" s="2" t="n"/>
+      <c r="R26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>.3125</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>.2443</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>.2570</t>
+        </is>
+      </c>
+      <c r="G27" s="4" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="H27" s="4" t="inlineStr">
+        <is>
+          <t>.2770</t>
+        </is>
+      </c>
+      <c r="I27" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J27" s="4" t="inlineStr">
+        <is>
+          <t>.3230</t>
+        </is>
+      </c>
+      <c r="K27" s="4" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="L27" s="4" t="inlineStr">
+        <is>
+          <t>.3320</t>
+        </is>
+      </c>
+      <c r="M27" s="4" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="N27" s="4" t="inlineStr">
+        <is>
+          <t>17/32</t>
+        </is>
+      </c>
+      <c r="O27" s="4" t="inlineStr">
+        <is>
+          <t>.5312</t>
+        </is>
+      </c>
+      <c r="P27" s="4" t="inlineStr">
+        <is>
+          <t>.3460</t>
+        </is>
+      </c>
+      <c r="Q27" s="4" t="inlineStr">
+        <is>
+          <t>3/16</t>
+        </is>
+      </c>
+      <c r="R27" s="4" t="inlineStr">
+        <is>
+          <t>.1980</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="2" t="n"/>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>.2614</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>.2720</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>9/32</t>
+        </is>
+      </c>
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>.2812</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+      <c r="K28" s="2" t="n"/>
+      <c r="L28" s="2" t="n"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="n"/>
+      <c r="O28" s="2" t="n"/>
+      <c r="P28" s="2" t="n"/>
+      <c r="Q28" s="2" t="n"/>
+      <c r="R28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="2" t="n"/>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>.2742</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>9/32</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>.2812</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>.2900</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="n"/>
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
+      <c r="P29" s="2" t="n"/>
+      <c r="Q29" s="2" t="n"/>
+      <c r="R29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>.3750</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>.2983</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>.3125</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>.3320</t>
+        </is>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>.3860</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L30" s="3" t="inlineStr">
+        <is>
+          <t>.3970</t>
+        </is>
+      </c>
+      <c r="M30" s="3" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="N30" s="3" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="O30" s="3" t="inlineStr">
+        <is>
+          <t>.6250</t>
+        </is>
+      </c>
+      <c r="P30" s="3" t="inlineStr">
+        <is>
+          <t>.4150</t>
+        </is>
+      </c>
+      <c r="Q30" s="3" t="inlineStr">
+        <is>
+          <t>7/32</t>
+        </is>
+      </c>
+      <c r="R30" s="3" t="inlineStr">
+        <is>
+          <t>.2340</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>.3239</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>.3320</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t>.3480</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="2" t="n"/>
+      <c r="Q31" s="2" t="n"/>
+      <c r="R31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>.3367</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>11/32</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>.3438</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="inlineStr">
+        <is>
+          <t>.3580</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="n"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="n"/>
+      <c r="L32" s="2" t="n"/>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" s="2" t="n"/>
+      <c r="O32" s="2" t="n"/>
+      <c r="P32" s="2" t="n"/>
+      <c r="Q32" s="2" t="n"/>
+      <c r="R32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>7/16</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>.4375</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>.3499</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>.3680</t>
+        </is>
+      </c>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>25/64</t>
+        </is>
+      </c>
+      <c r="H33" s="4" t="inlineStr">
+        <is>
+          <t>.3906</t>
+        </is>
+      </c>
+      <c r="I33" s="4" t="inlineStr">
+        <is>
+          <t>29/64</t>
+        </is>
+      </c>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t>.4531</t>
+        </is>
+      </c>
+      <c r="K33" s="4" t="inlineStr">
+        <is>
+          <t>15/32</t>
+        </is>
+      </c>
+      <c r="L33" s="4" t="inlineStr">
+        <is>
+          <t>.4688</t>
+        </is>
+      </c>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="N33" s="4" t="inlineStr">
+        <is>
+          <t>23/32</t>
+        </is>
+      </c>
+      <c r="O33" s="4" t="inlineStr">
+        <is>
+          <t>.7188</t>
+        </is>
+      </c>
+      <c r="P33" s="4" t="inlineStr">
+        <is>
+          <t>.4830</t>
+        </is>
+      </c>
+      <c r="Q33" s="4" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="R33" s="4" t="inlineStr">
+        <is>
+          <t>.2340</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="2" t="n"/>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>.3762</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>25/64</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>.3906</t>
+        </is>
+      </c>
+      <c r="G34" s="4" t="inlineStr">
+        <is>
+          <t>13/32</t>
+        </is>
+      </c>
+      <c r="H34" s="4" t="inlineStr">
+        <is>
+          <t>.4062</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
+      <c r="L34" s="2" t="n"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
+      <c r="P34" s="2" t="n"/>
+      <c r="Q34" s="2" t="n"/>
+      <c r="R34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>.3937</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="inlineStr">
+        <is>
+          <t>.4040</t>
+        </is>
+      </c>
+      <c r="G35" s="4" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="H35" s="4" t="inlineStr">
+        <is>
+          <t>.4130</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
+      <c r="P35" s="2" t="n"/>
+      <c r="Q35" s="2" t="n"/>
+      <c r="R35" s="2" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>.5000</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>.4056</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>27/64</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>.4219</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>29/64</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>.4531</t>
+        </is>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>33/64</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>.5156</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>17/32</t>
+        </is>
+      </c>
+      <c r="L36" s="3" t="inlineStr">
+        <is>
+          <t>.5312</t>
+        </is>
+      </c>
+      <c r="M36" s="3" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="N36" s="3" t="inlineStr">
+        <is>
+          <t>13/16</t>
+        </is>
+      </c>
+      <c r="O36" s="3" t="inlineStr">
+        <is>
+          <t>.8125</t>
+        </is>
+      </c>
+      <c r="P36" s="3" t="inlineStr">
+        <is>
+          <t>.5520</t>
+        </is>
+      </c>
+      <c r="Q36" s="3" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="R36" s="3" t="inlineStr">
+        <is>
+          <t>.2510</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>.4387</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>29/64</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>.4531</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>15/32</t>
+        </is>
+      </c>
+      <c r="H37" s="3" t="inlineStr">
+        <is>
+          <t>.4688</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="2" t="n"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
+      <c r="P37" s="2" t="n"/>
+      <c r="Q37" s="2" t="n"/>
+      <c r="R37" s="2" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="2" t="n"/>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>.4562</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>15/32</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>.4688</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>15/32</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="inlineStr">
+        <is>
+          <t>.4688</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="n"/>
+      <c r="J38" s="2" t="n"/>
+      <c r="K38" s="2" t="n"/>
+      <c r="L38" s="2" t="n"/>
+      <c r="M38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
+      <c r="O38" s="2" t="n"/>
+      <c r="P38" s="2" t="n"/>
+      <c r="Q38" s="2" t="n"/>
+      <c r="R38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>9/16</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>.5625</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>.4603</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>31/64</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>.4844</t>
+        </is>
+      </c>
+      <c r="G39" s="4" t="inlineStr">
+        <is>
+          <t>33/64</t>
+        </is>
+      </c>
+      <c r="H39" s="4" t="inlineStr">
+        <is>
+          <t>.5156</t>
+        </is>
+      </c>
+      <c r="I39" s="4" t="inlineStr">
+        <is>
+          <t>37/64</t>
+        </is>
+      </c>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>.5781</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
+        <is>
+          <t>19/32</t>
+        </is>
+      </c>
+      <c r="L39" s="4" t="inlineStr">
+        <is>
+          <t>.5938</t>
+        </is>
+      </c>
+      <c r="M39" s="4" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="N39" s="4" t="inlineStr">
+        <is>
+          <t>29/32</t>
+        </is>
+      </c>
+      <c r="O39" s="4" t="inlineStr">
+        <is>
+          <t>.9062</t>
+        </is>
+      </c>
+      <c r="P39" s="4" t="inlineStr">
+        <is>
+          <t>.5940</t>
+        </is>
+      </c>
+      <c r="Q39" s="4" t="n"/>
+      <c r="R39" s="4" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n"/>
+      <c r="B40" s="2" t="n"/>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>.4943</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>33/64</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
+        <is>
+          <t>.5156</t>
+        </is>
+      </c>
+      <c r="G40" s="4" t="inlineStr">
+        <is>
+          <t>17/32</t>
+        </is>
+      </c>
+      <c r="H40" s="4" t="inlineStr">
+        <is>
+          <t>.5312</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="n"/>
+      <c r="J40" s="2" t="n"/>
+      <c r="K40" s="2" t="n"/>
+      <c r="L40" s="2" t="n"/>
+      <c r="M40" s="2" t="n"/>
+      <c r="N40" s="2" t="n"/>
+      <c r="O40" s="2" t="n"/>
+      <c r="P40" s="2" t="n"/>
+      <c r="Q40" s="2" t="n"/>
+      <c r="R40" s="2" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>.5114</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>33/64</t>
+        </is>
+      </c>
+      <c r="F41" s="4" t="inlineStr">
+        <is>
+          <t>.5156</t>
+        </is>
+      </c>
+      <c r="G41" s="4" t="inlineStr">
+        <is>
+          <t>17/32</t>
+        </is>
+      </c>
+      <c r="H41" s="4" t="inlineStr">
+        <is>
+          <t>.5312</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="n"/>
+      <c r="J41" s="2" t="n"/>
+      <c r="K41" s="2" t="n"/>
+      <c r="L41" s="2" t="n"/>
+      <c r="M41" s="2" t="n"/>
+      <c r="N41" s="2" t="n"/>
+      <c r="O41" s="2" t="n"/>
+      <c r="P41" s="2" t="n"/>
+      <c r="Q41" s="2" t="n"/>
+      <c r="R41" s="2" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>.6250</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>.5135</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>17/32</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>.5312</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>9/16</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>.5625</t>
+        </is>
+      </c>
+      <c r="I42" s="3" t="inlineStr">
+        <is>
+          <t>41/64</t>
+        </is>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>.6406</t>
+        </is>
+      </c>
+      <c r="K42" s="3" t="inlineStr">
+        <is>
+          <t>21/32</t>
+        </is>
+      </c>
+      <c r="L42" s="3" t="inlineStr">
+        <is>
+          <t>.6562</t>
+        </is>
+      </c>
+      <c r="M42" s="3" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="N42" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O42" s="3" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="P42" s="3" t="inlineStr">
+        <is>
+          <t>.6890</t>
+        </is>
+      </c>
+      <c r="Q42" s="3" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="R42" s="3" t="inlineStr">
+        <is>
+          <t>.3240</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>.5568</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>37/64</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>.5781</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t>19/32</t>
+        </is>
+      </c>
+      <c r="H43" s="3" t="inlineStr">
+        <is>
+          <t>.5938</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
+      <c r="Q43" s="2" t="n"/>
+      <c r="R43" s="2" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>.5739</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>37/64</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>.5781</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>19/32</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="inlineStr">
+        <is>
+          <t>.5938</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="n"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
+      <c r="L44" s="2" t="n"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="n"/>
+      <c r="Q44" s="2" t="n"/>
+      <c r="R44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>11/16</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>.6875</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>.6364</t>
+        </is>
+      </c>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>41/64</t>
+        </is>
+      </c>
+      <c r="F45" s="4" t="inlineStr">
+        <is>
+          <t>.6406</t>
+        </is>
+      </c>
+      <c r="G45" s="4" t="inlineStr">
+        <is>
+          <t>21/32</t>
+        </is>
+      </c>
+      <c r="H45" s="4" t="inlineStr">
+        <is>
+          <t>.6562</t>
+        </is>
+      </c>
+      <c r="I45" s="4" t="inlineStr">
+        <is>
+          <t>45/64</t>
+        </is>
+      </c>
+      <c r="J45" s="4" t="inlineStr">
+        <is>
+          <t>.7031</t>
+        </is>
+      </c>
+      <c r="K45" s="4" t="inlineStr">
+        <is>
+          <t>23/32</t>
+        </is>
+      </c>
+      <c r="L45" s="4" t="inlineStr">
+        <is>
+          <t>.7188</t>
+        </is>
+      </c>
+      <c r="M45" s="4" t="n"/>
+      <c r="N45" s="4" t="n"/>
+      <c r="O45" s="4" t="n"/>
+      <c r="P45" s="4" t="n"/>
+      <c r="Q45" s="4" t="n"/>
+      <c r="R45" s="4" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>.7500</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>.6273</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>21/32</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>.6562</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>11/16</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="inlineStr">
+        <is>
+          <t>.6875</t>
+        </is>
+      </c>
+      <c r="I46" s="3" t="inlineStr">
+        <is>
+          <t>49/64</t>
+        </is>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>.7656</t>
+        </is>
+      </c>
+      <c r="K46" s="3" t="inlineStr">
+        <is>
+          <t>25/32</t>
+        </is>
+      </c>
+      <c r="L46" s="3" t="inlineStr">
+        <is>
+          <t>.7812</t>
+        </is>
+      </c>
+      <c r="M46" s="3" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="N46" s="3" t="inlineStr">
+        <is>
+          <t>1-3/16</t>
+        </is>
+      </c>
+      <c r="O46" s="3" t="inlineStr">
+        <is>
+          <t>1.1875</t>
+        </is>
+      </c>
+      <c r="P46" s="3" t="inlineStr">
+        <is>
+          <t>.8280</t>
+        </is>
+      </c>
+      <c r="Q46" s="3" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="R46" s="3" t="inlineStr">
+        <is>
+          <t>.3960</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>.6733</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>11/16</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>.6875</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>45/64</t>
+        </is>
+      </c>
+      <c r="H47" s="3" t="inlineStr">
+        <is>
+          <t>.7031</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="n"/>
+      <c r="J47" s="2" t="n"/>
+      <c r="K47" s="2" t="n"/>
+      <c r="L47" s="2" t="n"/>
+      <c r="M47" s="2" t="n"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="n"/>
+      <c r="P47" s="2" t="n"/>
+      <c r="Q47" s="2" t="n"/>
+      <c r="R47" s="2" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>.6887</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>45/64</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>.7031</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>23/32</t>
+        </is>
+      </c>
+      <c r="H48" s="3" t="inlineStr">
+        <is>
+          <t>.7188</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="n"/>
+      <c r="J48" s="2" t="n"/>
+      <c r="K48" s="2" t="n"/>
+      <c r="L48" s="2" t="n"/>
+      <c r="M48" s="2" t="n"/>
+      <c r="N48" s="2" t="n"/>
+      <c r="O48" s="2" t="n"/>
+      <c r="P48" s="2" t="n"/>
+      <c r="Q48" s="2" t="n"/>
+      <c r="R48" s="2" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>13/16</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>.8125</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>.7512</t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>49/64</t>
+        </is>
+      </c>
+      <c r="F49" s="4" t="inlineStr">
+        <is>
+          <t>.7656</t>
+        </is>
+      </c>
+      <c r="G49" s="4" t="inlineStr">
+        <is>
+          <t>25/32</t>
+        </is>
+      </c>
+      <c r="H49" s="4" t="inlineStr">
+        <is>
+          <t>.7812</t>
+        </is>
+      </c>
+      <c r="I49" s="4" t="inlineStr">
+        <is>
+          <t>53/64</t>
+        </is>
+      </c>
+      <c r="J49" s="4" t="inlineStr">
+        <is>
+          <t>.8281</t>
+        </is>
+      </c>
+      <c r="K49" s="4" t="inlineStr">
+        <is>
+          <t>27/32</t>
+        </is>
+      </c>
+      <c r="L49" s="4" t="inlineStr">
+        <is>
+          <t>.8438</t>
+        </is>
+      </c>
+      <c r="M49" s="4" t="n"/>
+      <c r="N49" s="4" t="n"/>
+      <c r="O49" s="4" t="n"/>
+      <c r="P49" s="4" t="n"/>
+      <c r="Q49" s="4" t="n"/>
+      <c r="R49" s="4" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>.8750</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>.7387</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>49/64</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>.7656</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>51/64</t>
+        </is>
+      </c>
+      <c r="H50" s="3" t="inlineStr">
+        <is>
+          <t>.7969</t>
+        </is>
+      </c>
+      <c r="I50" s="3" t="inlineStr">
+        <is>
+          <t>57/64</t>
+        </is>
+      </c>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>.8906</t>
+        </is>
+      </c>
+      <c r="K50" s="3" t="inlineStr">
+        <is>
+          <t>29/32</t>
+        </is>
+      </c>
+      <c r="L50" s="3" t="inlineStr">
+        <is>
+          <t>.9062</t>
+        </is>
+      </c>
+      <c r="M50" s="3" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="N50" s="3" t="inlineStr">
+        <is>
+          <t>1-3/8</t>
+        </is>
+      </c>
+      <c r="O50" s="3" t="inlineStr">
+        <is>
+          <t>1.3750</t>
+        </is>
+      </c>
+      <c r="P50" s="3" t="inlineStr">
+        <is>
+          <t>.9630</t>
+        </is>
+      </c>
+      <c r="Q50" s="3" t="inlineStr">
+        <is>
+          <t>9/16</t>
+        </is>
+      </c>
+      <c r="R50" s="3" t="inlineStr">
+        <is>
+          <t>.4680</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n"/>
+      <c r="B51" s="2" t="n"/>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>.7874</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>13/16</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>.8125</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="inlineStr">
+        <is>
+          <t>53/64</t>
+        </is>
+      </c>
+      <c r="H51" s="3" t="inlineStr">
+        <is>
+          <t>.8281</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="n"/>
+      <c r="J51" s="2" t="n"/>
+      <c r="K51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
+      <c r="M51" s="2" t="n"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="n"/>
+      <c r="P51" s="2" t="n"/>
+      <c r="Q51" s="2" t="n"/>
+      <c r="R51" s="2" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="2" t="n"/>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>.8137</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>53/64</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>.8281</t>
+        </is>
+      </c>
+      <c r="G52" s="3" t="inlineStr">
+        <is>
+          <t>27/32</t>
+        </is>
+      </c>
+      <c r="H52" s="3" t="inlineStr">
+        <is>
+          <t>.8438</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="n"/>
+      <c r="J52" s="2" t="n"/>
+      <c r="K52" s="2" t="n"/>
+      <c r="L52" s="2" t="n"/>
+      <c r="M52" s="2" t="n"/>
+      <c r="N52" s="2" t="n"/>
+      <c r="O52" s="2" t="n"/>
+      <c r="P52" s="2" t="n"/>
+      <c r="Q52" s="2" t="n"/>
+      <c r="R52" s="2" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>15/16</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>.9375</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>.8762</t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>57/64</t>
+        </is>
+      </c>
+      <c r="F53" s="4" t="inlineStr">
+        <is>
+          <t>.8906</t>
+        </is>
+      </c>
+      <c r="G53" s="4" t="inlineStr">
+        <is>
+          <t>29/32</t>
+        </is>
+      </c>
+      <c r="H53" s="4" t="inlineStr">
+        <is>
+          <t>.9062</t>
+        </is>
+      </c>
+      <c r="I53" s="4" t="inlineStr">
+        <is>
+          <t>61/64</t>
+        </is>
+      </c>
+      <c r="J53" s="4" t="inlineStr">
+        <is>
+          <t>.9531</t>
+        </is>
+      </c>
+      <c r="K53" s="4" t="inlineStr">
+        <is>
+          <t>31/32</t>
+        </is>
+      </c>
+      <c r="L53" s="4" t="inlineStr">
+        <is>
+          <t>.9688</t>
+        </is>
+      </c>
+      <c r="M53" s="4" t="n"/>
+      <c r="N53" s="4" t="n"/>
+      <c r="O53" s="4" t="n"/>
+      <c r="P53" s="4" t="n"/>
+      <c r="Q53" s="4" t="n"/>
+      <c r="R53" s="4" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>.8466</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>.8750</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="inlineStr">
+        <is>
+          <t>59/64</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>.9219</t>
+        </is>
+      </c>
+      <c r="I54" s="3" t="inlineStr">
+        <is>
+          <t>1-1/64</t>
+        </is>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>1.0156</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr">
+        <is>
+          <t>1-1/32</t>
+        </is>
+      </c>
+      <c r="L54" s="3" t="inlineStr">
+        <is>
+          <t>1.0313</t>
+        </is>
+      </c>
+      <c r="M54" s="3" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="N54" s="3" t="inlineStr">
+        <is>
+          <t>1-5/8</t>
+        </is>
+      </c>
+      <c r="O54" s="3" t="inlineStr">
+        <is>
+          <t>1.6250</t>
+        </is>
+      </c>
+      <c r="P54" s="3" t="inlineStr">
+        <is>
+          <t>1.1000</t>
+        </is>
+      </c>
+      <c r="Q54" s="3" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="R54" s="3" t="inlineStr">
+        <is>
+          <t>.5400</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="2" t="n"/>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>.8978</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>15/16</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>.9375</t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="inlineStr">
+        <is>
+          <t>61/64</t>
+        </is>
+      </c>
+      <c r="H55" s="3" t="inlineStr">
+        <is>
+          <t>.9531</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="n"/>
+      <c r="J55" s="2" t="n"/>
+      <c r="K55" s="2" t="n"/>
+      <c r="L55" s="2" t="n"/>
+      <c r="M55" s="2" t="n"/>
+      <c r="N55" s="2" t="n"/>
+      <c r="O55" s="2" t="n"/>
+      <c r="P55" s="2" t="n"/>
+      <c r="Q55" s="2" t="n"/>
+      <c r="R55" s="2" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="2" t="n"/>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>.9387</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>61/64</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>.9531</t>
+        </is>
+      </c>
+      <c r="G56" s="3" t="inlineStr">
+        <is>
+          <t>31/32</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="inlineStr">
+        <is>
+          <t>.9688</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="n"/>
+      <c r="J56" s="2" t="n"/>
+      <c r="K56" s="2" t="n"/>
+      <c r="L56" s="2" t="n"/>
+      <c r="M56" s="2" t="n"/>
+      <c r="N56" s="2" t="n"/>
+      <c r="O56" s="2" t="n"/>
+      <c r="P56" s="2" t="n"/>
+      <c r="Q56" s="2" t="n"/>
+      <c r="R56" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="244">
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="P42:P44"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="P54:P56"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="O33:O35"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q33:Q35"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="Q42:Q44"/>
+    <mergeCell ref="N46:N48"/>
+    <mergeCell ref="P46:P48"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R50:R52"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="Q46:Q48"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="M46:M48"/>
+    <mergeCell ref="N36:N38"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="O24:O26"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="R54:R56"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="O50:O52"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="M36:M38"/>
+    <mergeCell ref="M30:M32"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M33:M35"/>
+    <mergeCell ref="O27:O29"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="Q36:Q38"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="P33:P35"/>
+    <mergeCell ref="R33:R35"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="N50:N52"/>
+    <mergeCell ref="P50:P52"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="O54:O56"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="Q54:Q56"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="P36:P38"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="M54:M56"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="O46:O48"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="R46:R48"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="Q50:Q52"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="N54:N56"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="N24:N26"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="M50:M52"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="K36:K38"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="M39:M41"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="O36:O38"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="L33:L35"/>
+    <mergeCell ref="N33:N35"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="N42:N44"/>
+    <mergeCell ref="R27:R29"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="R36:R38"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="L19:L20"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="0" gridLines="0"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup orientation="landscape" paperSize="0" fitToHeight="1" fitToWidth="1"/>
+</worksheet>
 </file>
--- a/inch_taps_drills.xlsx
+++ b/inch_taps_drills.xlsx
@@ -11876,7 +11876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:R56"/>
   <sheetViews>
@@ -11887,24 +11887,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="11" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="11" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
-    <col width="11" customWidth="1" min="15" max="15"/>
-    <col width="11" customWidth="1" min="16" max="16"/>
-    <col width="11" customWidth="1" min="17" max="17"/>
-    <col width="11" customWidth="1" min="18" max="18"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="27.5" customWidth="1" min="5" max="5"/>
+    <col width="27.5" customWidth="1" min="6" max="6"/>
+    <col width="27.5" customWidth="1" min="7" max="7"/>
+    <col width="27.5" customWidth="1" min="8" max="8"/>
+    <col width="27.5" customWidth="1" min="9" max="9"/>
+    <col width="27.5" customWidth="1" min="10" max="10"/>
+    <col width="27.5" customWidth="1" min="11" max="11"/>
+    <col width="27.5" customWidth="1" min="12" max="12"/>
+    <col width="27.5" customWidth="1" min="13" max="13"/>
+    <col width="27.5" customWidth="1" min="14" max="14"/>
+    <col width="27.5" customWidth="1" min="15" max="15"/>
+    <col width="27.5" customWidth="1" min="16" max="16"/>
+    <col width="27.5" customWidth="1" min="17" max="17"/>
+    <col width="27.5" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -15680,7 +15680,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="landscape" paperSize="0" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup orientation="portrait" paperSize="0" paperHeight="24in" paperWidth="36in"/>
 </worksheet>
 </file>
 
@@ -15688,7 +15688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:R56"/>
   <sheetViews>
@@ -15699,24 +15699,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="11" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="11" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
-    <col width="11" customWidth="1" min="15" max="15"/>
-    <col width="11" customWidth="1" min="16" max="16"/>
-    <col width="11" customWidth="1" min="17" max="17"/>
-    <col width="11" customWidth="1" min="18" max="18"/>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="38.5" customWidth="1" min="5" max="5"/>
+    <col width="38.5" customWidth="1" min="6" max="6"/>
+    <col width="38.5" customWidth="1" min="7" max="7"/>
+    <col width="38.5" customWidth="1" min="8" max="8"/>
+    <col width="38.5" customWidth="1" min="9" max="9"/>
+    <col width="38.5" customWidth="1" min="10" max="10"/>
+    <col width="38.5" customWidth="1" min="11" max="11"/>
+    <col width="38.5" customWidth="1" min="12" max="12"/>
+    <col width="38.5" customWidth="1" min="13" max="13"/>
+    <col width="38.5" customWidth="1" min="14" max="14"/>
+    <col width="38.5" customWidth="1" min="15" max="15"/>
+    <col width="38.5" customWidth="1" min="16" max="16"/>
+    <col width="38.5" customWidth="1" min="17" max="17"/>
+    <col width="38.5" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -19492,6 +19492,6 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="landscape" paperSize="0" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup orientation="portrait" paperSize="0" paperHeight="36in" paperWidth="48in"/>
 </worksheet>
 </file>
--- a/inch_taps_drills.xlsx
+++ b/inch_taps_drills.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,6 +31,24 @@
     </font>
     <font>
       <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <sz val="26"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="30"/>
+    </font>
+    <font>
+      <sz val="36"/>
     </font>
   </fonts>
   <fills count="3">
@@ -65,16 +83,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -639,7 +675,7 @@
       <c r="Q3" s="2" t="n"/>
       <c r="R3" s="2" t="n"/>
     </row>
-    <row r="4">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -731,7 +767,7 @@
         </is>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
         <is>
           <t>1</t>
@@ -823,7 +859,7 @@
         </is>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="2" t="n"/>
       <c r="B6" s="2" t="n"/>
       <c r="C6" s="4" t="inlineStr">
@@ -867,7 +903,7 @@
       <c r="Q6" s="2" t="n"/>
       <c r="R6" s="2" t="n"/>
     </row>
-    <row r="7">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
         <is>
           <t>2</t>
@@ -959,7 +995,7 @@
         </is>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="2" t="n"/>
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="3" t="inlineStr">
@@ -1003,7 +1039,7 @@
       <c r="Q8" s="2" t="n"/>
       <c r="R8" s="2" t="n"/>
     </row>
-    <row r="9">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="4" t="inlineStr">
         <is>
           <t>3</t>
@@ -1095,7 +1131,7 @@
         </is>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="2" t="n"/>
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="4" t="inlineStr">
@@ -1139,7 +1175,7 @@
       <c r="Q10" s="2" t="n"/>
       <c r="R10" s="2" t="n"/>
     </row>
-    <row r="11">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" s="3" t="inlineStr">
         <is>
           <t>4</t>
@@ -1231,7 +1267,7 @@
         </is>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" s="2" t="n"/>
       <c r="B12" s="2" t="n"/>
       <c r="C12" s="3" t="inlineStr">
@@ -1275,7 +1311,7 @@
       <c r="Q12" s="2" t="n"/>
       <c r="R12" s="2" t="n"/>
     </row>
-    <row r="13">
+    <row r="13" ht="15" customHeight="1">
       <c r="A13" s="4" t="inlineStr">
         <is>
           <t>5</t>
@@ -1367,7 +1403,7 @@
         </is>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15" customHeight="1">
       <c r="A14" s="2" t="n"/>
       <c r="B14" s="2" t="n"/>
       <c r="C14" s="4" t="inlineStr">
@@ -1411,7 +1447,7 @@
       <c r="Q14" s="2" t="n"/>
       <c r="R14" s="2" t="n"/>
     </row>
-    <row r="15">
+    <row r="15" ht="15" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
         <is>
           <t>6</t>
@@ -1503,7 +1539,7 @@
         </is>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15" customHeight="1">
       <c r="A16" s="2" t="n"/>
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="3" t="inlineStr">
@@ -1547,7 +1583,7 @@
       <c r="Q16" s="2" t="n"/>
       <c r="R16" s="2" t="n"/>
     </row>
-    <row r="17">
+    <row r="17" ht="15" customHeight="1">
       <c r="A17" s="4" t="inlineStr">
         <is>
           <t>8</t>
@@ -1639,7 +1675,7 @@
         </is>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15" customHeight="1">
       <c r="A18" s="2" t="n"/>
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="4" t="inlineStr">
@@ -1683,7 +1719,7 @@
       <c r="Q18" s="2" t="n"/>
       <c r="R18" s="2" t="n"/>
     </row>
-    <row r="19">
+    <row r="19" ht="15" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
           <t>10</t>
@@ -1775,7 +1811,7 @@
         </is>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15" customHeight="1">
       <c r="A20" s="2" t="n"/>
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="3" t="inlineStr">
@@ -1819,7 +1855,7 @@
       <c r="Q20" s="2" t="n"/>
       <c r="R20" s="2" t="n"/>
     </row>
-    <row r="21">
+    <row r="21" ht="15" customHeight="1">
       <c r="A21" s="4" t="inlineStr">
         <is>
           <t>12</t>
@@ -1911,7 +1947,7 @@
         </is>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15" customHeight="1">
       <c r="A22" s="2" t="n"/>
       <c r="B22" s="2" t="n"/>
       <c r="C22" s="4" t="inlineStr">
@@ -1955,7 +1991,7 @@
       <c r="Q22" s="2" t="n"/>
       <c r="R22" s="2" t="n"/>
     </row>
-    <row r="23">
+    <row r="23" ht="15" customHeight="1">
       <c r="A23" s="2" t="n"/>
       <c r="B23" s="2" t="n"/>
       <c r="C23" s="4" t="inlineStr">
@@ -1999,7 +2035,7 @@
       <c r="Q23" s="2" t="n"/>
       <c r="R23" s="2" t="n"/>
     </row>
-    <row r="24">
+    <row r="24" ht="15" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
           <t>1/4</t>
@@ -2091,7 +2127,7 @@
         </is>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="15" customHeight="1">
       <c r="A25" s="2" t="n"/>
       <c r="B25" s="2" t="n"/>
       <c r="C25" s="3" t="inlineStr">
@@ -2135,7 +2171,7 @@
       <c r="Q25" s="2" t="n"/>
       <c r="R25" s="2" t="n"/>
     </row>
-    <row r="26">
+    <row r="26" ht="15" customHeight="1">
       <c r="A26" s="2" t="n"/>
       <c r="B26" s="2" t="n"/>
       <c r="C26" s="3" t="inlineStr">
@@ -2179,7 +2215,7 @@
       <c r="Q26" s="2" t="n"/>
       <c r="R26" s="2" t="n"/>
     </row>
-    <row r="27">
+    <row r="27" ht="15" customHeight="1">
       <c r="A27" s="4" t="inlineStr">
         <is>
           <t>5/16</t>
@@ -2271,7 +2307,7 @@
         </is>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="15" customHeight="1">
       <c r="A28" s="2" t="n"/>
       <c r="B28" s="2" t="n"/>
       <c r="C28" s="4" t="inlineStr">
@@ -2315,7 +2351,7 @@
       <c r="Q28" s="2" t="n"/>
       <c r="R28" s="2" t="n"/>
     </row>
-    <row r="29">
+    <row r="29" ht="15" customHeight="1">
       <c r="A29" s="2" t="n"/>
       <c r="B29" s="2" t="n"/>
       <c r="C29" s="4" t="inlineStr">
@@ -2359,7 +2395,7 @@
       <c r="Q29" s="2" t="n"/>
       <c r="R29" s="2" t="n"/>
     </row>
-    <row r="30">
+    <row r="30" ht="15" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
         <is>
           <t>3/8</t>
@@ -2451,7 +2487,7 @@
         </is>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="15" customHeight="1">
       <c r="A31" s="2" t="n"/>
       <c r="B31" s="2" t="n"/>
       <c r="C31" s="3" t="inlineStr">
@@ -2495,7 +2531,7 @@
       <c r="Q31" s="2" t="n"/>
       <c r="R31" s="2" t="n"/>
     </row>
-    <row r="32">
+    <row r="32" ht="15" customHeight="1">
       <c r="A32" s="2" t="n"/>
       <c r="B32" s="2" t="n"/>
       <c r="C32" s="3" t="inlineStr">
@@ -2539,7 +2575,7 @@
       <c r="Q32" s="2" t="n"/>
       <c r="R32" s="2" t="n"/>
     </row>
-    <row r="33">
+    <row r="33" ht="15" customHeight="1">
       <c r="A33" s="4" t="inlineStr">
         <is>
           <t>7/16</t>
@@ -2631,7 +2667,7 @@
         </is>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="15" customHeight="1">
       <c r="A34" s="2" t="n"/>
       <c r="B34" s="2" t="n"/>
       <c r="C34" s="4" t="inlineStr">
@@ -2675,7 +2711,7 @@
       <c r="Q34" s="2" t="n"/>
       <c r="R34" s="2" t="n"/>
     </row>
-    <row r="35">
+    <row r="35" ht="15" customHeight="1">
       <c r="A35" s="2" t="n"/>
       <c r="B35" s="2" t="n"/>
       <c r="C35" s="4" t="inlineStr">
@@ -2719,7 +2755,7 @@
       <c r="Q35" s="2" t="n"/>
       <c r="R35" s="2" t="n"/>
     </row>
-    <row r="36">
+    <row r="36" ht="15" customHeight="1">
       <c r="A36" s="3" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -2811,7 +2847,7 @@
         </is>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="15" customHeight="1">
       <c r="A37" s="2" t="n"/>
       <c r="B37" s="2" t="n"/>
       <c r="C37" s="3" t="inlineStr">
@@ -2855,7 +2891,7 @@
       <c r="Q37" s="2" t="n"/>
       <c r="R37" s="2" t="n"/>
     </row>
-    <row r="38">
+    <row r="38" ht="15" customHeight="1">
       <c r="A38" s="2" t="n"/>
       <c r="B38" s="2" t="n"/>
       <c r="C38" s="3" t="inlineStr">
@@ -2899,7 +2935,7 @@
       <c r="Q38" s="2" t="n"/>
       <c r="R38" s="2" t="n"/>
     </row>
-    <row r="39">
+    <row r="39" ht="15" customHeight="1">
       <c r="A39" s="4" t="inlineStr">
         <is>
           <t>9/16</t>
@@ -2983,7 +3019,7 @@
       <c r="Q39" s="4" t="n"/>
       <c r="R39" s="4" t="n"/>
     </row>
-    <row r="40">
+    <row r="40" ht="15" customHeight="1">
       <c r="A40" s="2" t="n"/>
       <c r="B40" s="2" t="n"/>
       <c r="C40" s="4" t="inlineStr">
@@ -3027,7 +3063,7 @@
       <c r="Q40" s="2" t="n"/>
       <c r="R40" s="2" t="n"/>
     </row>
-    <row r="41">
+    <row r="41" ht="15" customHeight="1">
       <c r="A41" s="2" t="n"/>
       <c r="B41" s="2" t="n"/>
       <c r="C41" s="4" t="inlineStr">
@@ -3071,7 +3107,7 @@
       <c r="Q41" s="2" t="n"/>
       <c r="R41" s="2" t="n"/>
     </row>
-    <row r="42">
+    <row r="42" ht="15" customHeight="1">
       <c r="A42" s="3" t="inlineStr">
         <is>
           <t>5/8</t>
@@ -3163,7 +3199,7 @@
         </is>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="15" customHeight="1">
       <c r="A43" s="2" t="n"/>
       <c r="B43" s="2" t="n"/>
       <c r="C43" s="3" t="inlineStr">
@@ -3207,7 +3243,7 @@
       <c r="Q43" s="2" t="n"/>
       <c r="R43" s="2" t="n"/>
     </row>
-    <row r="44">
+    <row r="44" ht="15" customHeight="1">
       <c r="A44" s="2" t="n"/>
       <c r="B44" s="2" t="n"/>
       <c r="C44" s="3" t="inlineStr">
@@ -3251,7 +3287,7 @@
       <c r="Q44" s="2" t="n"/>
       <c r="R44" s="2" t="n"/>
     </row>
-    <row r="45">
+    <row r="45" ht="15" customHeight="1">
       <c r="A45" s="4" t="inlineStr">
         <is>
           <t>11/16</t>
@@ -3319,7 +3355,7 @@
       <c r="Q45" s="4" t="n"/>
       <c r="R45" s="4" t="n"/>
     </row>
-    <row r="46">
+    <row r="46" ht="15" customHeight="1">
       <c r="A46" s="3" t="inlineStr">
         <is>
           <t>3/4</t>
@@ -3411,7 +3447,7 @@
         </is>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="15" customHeight="1">
       <c r="A47" s="2" t="n"/>
       <c r="B47" s="2" t="n"/>
       <c r="C47" s="3" t="inlineStr">
@@ -3455,7 +3491,7 @@
       <c r="Q47" s="2" t="n"/>
       <c r="R47" s="2" t="n"/>
     </row>
-    <row r="48">
+    <row r="48" ht="15" customHeight="1">
       <c r="A48" s="2" t="n"/>
       <c r="B48" s="2" t="n"/>
       <c r="C48" s="3" t="inlineStr">
@@ -3499,7 +3535,7 @@
       <c r="Q48" s="2" t="n"/>
       <c r="R48" s="2" t="n"/>
     </row>
-    <row r="49">
+    <row r="49" ht="15" customHeight="1">
       <c r="A49" s="4" t="inlineStr">
         <is>
           <t>13/16</t>
@@ -3567,7 +3603,7 @@
       <c r="Q49" s="4" t="n"/>
       <c r="R49" s="4" t="n"/>
     </row>
-    <row r="50">
+    <row r="50" ht="15" customHeight="1">
       <c r="A50" s="3" t="inlineStr">
         <is>
           <t>7/8</t>
@@ -3659,7 +3695,7 @@
         </is>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="15" customHeight="1">
       <c r="A51" s="2" t="n"/>
       <c r="B51" s="2" t="n"/>
       <c r="C51" s="3" t="inlineStr">
@@ -3703,7 +3739,7 @@
       <c r="Q51" s="2" t="n"/>
       <c r="R51" s="2" t="n"/>
     </row>
-    <row r="52">
+    <row r="52" ht="15" customHeight="1">
       <c r="A52" s="2" t="n"/>
       <c r="B52" s="2" t="n"/>
       <c r="C52" s="3" t="inlineStr">
@@ -3747,7 +3783,7 @@
       <c r="Q52" s="2" t="n"/>
       <c r="R52" s="2" t="n"/>
     </row>
-    <row r="53">
+    <row r="53" ht="15" customHeight="1">
       <c r="A53" s="4" t="inlineStr">
         <is>
           <t>15/16</t>
@@ -3815,7 +3851,7 @@
       <c r="Q53" s="4" t="n"/>
       <c r="R53" s="4" t="n"/>
     </row>
-    <row r="54">
+    <row r="54" ht="15" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
           <t>1</t>
@@ -3907,7 +3943,7 @@
         </is>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="15" customHeight="1">
       <c r="A55" s="2" t="n"/>
       <c r="B55" s="2" t="n"/>
       <c r="C55" s="3" t="inlineStr">
@@ -3951,7 +3987,7 @@
       <c r="Q55" s="2" t="n"/>
       <c r="R55" s="2" t="n"/>
     </row>
-    <row r="56">
+    <row r="56" ht="15" customHeight="1">
       <c r="A56" s="2" t="n"/>
       <c r="B56" s="2" t="n"/>
       <c r="C56" s="3" t="inlineStr">
@@ -4451,7 +4487,7 @@
       <c r="Q3" s="2" t="n"/>
       <c r="R3" s="2" t="n"/>
     </row>
-    <row r="4">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -4543,7 +4579,7 @@
         </is>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
         <is>
           <t>1</t>
@@ -4635,7 +4671,7 @@
         </is>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="2" t="n"/>
       <c r="B6" s="2" t="n"/>
       <c r="C6" s="4" t="inlineStr">
@@ -4679,7 +4715,7 @@
       <c r="Q6" s="2" t="n"/>
       <c r="R6" s="2" t="n"/>
     </row>
-    <row r="7">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
         <is>
           <t>2</t>
@@ -4771,7 +4807,7 @@
         </is>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="2" t="n"/>
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="3" t="inlineStr">
@@ -4815,7 +4851,7 @@
       <c r="Q8" s="2" t="n"/>
       <c r="R8" s="2" t="n"/>
     </row>
-    <row r="9">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="4" t="inlineStr">
         <is>
           <t>3</t>
@@ -4907,7 +4943,7 @@
         </is>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="2" t="n"/>
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="4" t="inlineStr">
@@ -4951,7 +4987,7 @@
       <c r="Q10" s="2" t="n"/>
       <c r="R10" s="2" t="n"/>
     </row>
-    <row r="11">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" s="3" t="inlineStr">
         <is>
           <t>4</t>
@@ -5043,7 +5079,7 @@
         </is>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" s="2" t="n"/>
       <c r="B12" s="2" t="n"/>
       <c r="C12" s="3" t="inlineStr">
@@ -5087,7 +5123,7 @@
       <c r="Q12" s="2" t="n"/>
       <c r="R12" s="2" t="n"/>
     </row>
-    <row r="13">
+    <row r="13" ht="15" customHeight="1">
       <c r="A13" s="4" t="inlineStr">
         <is>
           <t>5</t>
@@ -5179,7 +5215,7 @@
         </is>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15" customHeight="1">
       <c r="A14" s="2" t="n"/>
       <c r="B14" s="2" t="n"/>
       <c r="C14" s="4" t="inlineStr">
@@ -5223,7 +5259,7 @@
       <c r="Q14" s="2" t="n"/>
       <c r="R14" s="2" t="n"/>
     </row>
-    <row r="15">
+    <row r="15" ht="15" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
         <is>
           <t>6</t>
@@ -5315,7 +5351,7 @@
         </is>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15" customHeight="1">
       <c r="A16" s="2" t="n"/>
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="3" t="inlineStr">
@@ -5359,7 +5395,7 @@
       <c r="Q16" s="2" t="n"/>
       <c r="R16" s="2" t="n"/>
     </row>
-    <row r="17">
+    <row r="17" ht="15" customHeight="1">
       <c r="A17" s="4" t="inlineStr">
         <is>
           <t>8</t>
@@ -5451,7 +5487,7 @@
         </is>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15" customHeight="1">
       <c r="A18" s="2" t="n"/>
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="4" t="inlineStr">
@@ -5495,7 +5531,7 @@
       <c r="Q18" s="2" t="n"/>
       <c r="R18" s="2" t="n"/>
     </row>
-    <row r="19">
+    <row r="19" ht="15" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
           <t>10</t>
@@ -5587,7 +5623,7 @@
         </is>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15" customHeight="1">
       <c r="A20" s="2" t="n"/>
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="3" t="inlineStr">
@@ -5631,7 +5667,7 @@
       <c r="Q20" s="2" t="n"/>
       <c r="R20" s="2" t="n"/>
     </row>
-    <row r="21">
+    <row r="21" ht="15" customHeight="1">
       <c r="A21" s="4" t="inlineStr">
         <is>
           <t>12</t>
@@ -5723,7 +5759,7 @@
         </is>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15" customHeight="1">
       <c r="A22" s="2" t="n"/>
       <c r="B22" s="2" t="n"/>
       <c r="C22" s="4" t="inlineStr">
@@ -5767,7 +5803,7 @@
       <c r="Q22" s="2" t="n"/>
       <c r="R22" s="2" t="n"/>
     </row>
-    <row r="23">
+    <row r="23" ht="15" customHeight="1">
       <c r="A23" s="2" t="n"/>
       <c r="B23" s="2" t="n"/>
       <c r="C23" s="4" t="inlineStr">
@@ -5811,7 +5847,7 @@
       <c r="Q23" s="2" t="n"/>
       <c r="R23" s="2" t="n"/>
     </row>
-    <row r="24">
+    <row r="24" ht="15" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
           <t>1/4</t>
@@ -5903,7 +5939,7 @@
         </is>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="15" customHeight="1">
       <c r="A25" s="2" t="n"/>
       <c r="B25" s="2" t="n"/>
       <c r="C25" s="3" t="inlineStr">
@@ -5947,7 +5983,7 @@
       <c r="Q25" s="2" t="n"/>
       <c r="R25" s="2" t="n"/>
     </row>
-    <row r="26">
+    <row r="26" ht="15" customHeight="1">
       <c r="A26" s="2" t="n"/>
       <c r="B26" s="2" t="n"/>
       <c r="C26" s="3" t="inlineStr">
@@ -5991,7 +6027,7 @@
       <c r="Q26" s="2" t="n"/>
       <c r="R26" s="2" t="n"/>
     </row>
-    <row r="27">
+    <row r="27" ht="15" customHeight="1">
       <c r="A27" s="4" t="inlineStr">
         <is>
           <t>5/16</t>
@@ -6083,7 +6119,7 @@
         </is>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="15" customHeight="1">
       <c r="A28" s="2" t="n"/>
       <c r="B28" s="2" t="n"/>
       <c r="C28" s="4" t="inlineStr">
@@ -6127,7 +6163,7 @@
       <c r="Q28" s="2" t="n"/>
       <c r="R28" s="2" t="n"/>
     </row>
-    <row r="29">
+    <row r="29" ht="15" customHeight="1">
       <c r="A29" s="2" t="n"/>
       <c r="B29" s="2" t="n"/>
       <c r="C29" s="4" t="inlineStr">
@@ -6171,7 +6207,7 @@
       <c r="Q29" s="2" t="n"/>
       <c r="R29" s="2" t="n"/>
     </row>
-    <row r="30">
+    <row r="30" ht="15" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
         <is>
           <t>3/8</t>
@@ -6263,7 +6299,7 @@
         </is>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="15" customHeight="1">
       <c r="A31" s="2" t="n"/>
       <c r="B31" s="2" t="n"/>
       <c r="C31" s="3" t="inlineStr">
@@ -6307,7 +6343,7 @@
       <c r="Q31" s="2" t="n"/>
       <c r="R31" s="2" t="n"/>
     </row>
-    <row r="32">
+    <row r="32" ht="15" customHeight="1">
       <c r="A32" s="2" t="n"/>
       <c r="B32" s="2" t="n"/>
       <c r="C32" s="3" t="inlineStr">
@@ -6351,7 +6387,7 @@
       <c r="Q32" s="2" t="n"/>
       <c r="R32" s="2" t="n"/>
     </row>
-    <row r="33">
+    <row r="33" ht="15" customHeight="1">
       <c r="A33" s="4" t="inlineStr">
         <is>
           <t>7/16</t>
@@ -6443,7 +6479,7 @@
         </is>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="15" customHeight="1">
       <c r="A34" s="2" t="n"/>
       <c r="B34" s="2" t="n"/>
       <c r="C34" s="4" t="inlineStr">
@@ -6487,7 +6523,7 @@
       <c r="Q34" s="2" t="n"/>
       <c r="R34" s="2" t="n"/>
     </row>
-    <row r="35">
+    <row r="35" ht="15" customHeight="1">
       <c r="A35" s="2" t="n"/>
       <c r="B35" s="2" t="n"/>
       <c r="C35" s="4" t="inlineStr">
@@ -6531,7 +6567,7 @@
       <c r="Q35" s="2" t="n"/>
       <c r="R35" s="2" t="n"/>
     </row>
-    <row r="36">
+    <row r="36" ht="15" customHeight="1">
       <c r="A36" s="3" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -6623,7 +6659,7 @@
         </is>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="15" customHeight="1">
       <c r="A37" s="2" t="n"/>
       <c r="B37" s="2" t="n"/>
       <c r="C37" s="3" t="inlineStr">
@@ -6667,7 +6703,7 @@
       <c r="Q37" s="2" t="n"/>
       <c r="R37" s="2" t="n"/>
     </row>
-    <row r="38">
+    <row r="38" ht="15" customHeight="1">
       <c r="A38" s="2" t="n"/>
       <c r="B38" s="2" t="n"/>
       <c r="C38" s="3" t="inlineStr">
@@ -6711,7 +6747,7 @@
       <c r="Q38" s="2" t="n"/>
       <c r="R38" s="2" t="n"/>
     </row>
-    <row r="39">
+    <row r="39" ht="15" customHeight="1">
       <c r="A39" s="4" t="inlineStr">
         <is>
           <t>9/16</t>
@@ -6795,7 +6831,7 @@
       <c r="Q39" s="4" t="n"/>
       <c r="R39" s="4" t="n"/>
     </row>
-    <row r="40">
+    <row r="40" ht="15" customHeight="1">
       <c r="A40" s="2" t="n"/>
       <c r="B40" s="2" t="n"/>
       <c r="C40" s="4" t="inlineStr">
@@ -6839,7 +6875,7 @@
       <c r="Q40" s="2" t="n"/>
       <c r="R40" s="2" t="n"/>
     </row>
-    <row r="41">
+    <row r="41" ht="15" customHeight="1">
       <c r="A41" s="2" t="n"/>
       <c r="B41" s="2" t="n"/>
       <c r="C41" s="4" t="inlineStr">
@@ -6883,7 +6919,7 @@
       <c r="Q41" s="2" t="n"/>
       <c r="R41" s="2" t="n"/>
     </row>
-    <row r="42">
+    <row r="42" ht="15" customHeight="1">
       <c r="A42" s="3" t="inlineStr">
         <is>
           <t>5/8</t>
@@ -6975,7 +7011,7 @@
         </is>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="15" customHeight="1">
       <c r="A43" s="2" t="n"/>
       <c r="B43" s="2" t="n"/>
       <c r="C43" s="3" t="inlineStr">
@@ -7019,7 +7055,7 @@
       <c r="Q43" s="2" t="n"/>
       <c r="R43" s="2" t="n"/>
     </row>
-    <row r="44">
+    <row r="44" ht="15" customHeight="1">
       <c r="A44" s="2" t="n"/>
       <c r="B44" s="2" t="n"/>
       <c r="C44" s="3" t="inlineStr">
@@ -7063,7 +7099,7 @@
       <c r="Q44" s="2" t="n"/>
       <c r="R44" s="2" t="n"/>
     </row>
-    <row r="45">
+    <row r="45" ht="15" customHeight="1">
       <c r="A45" s="4" t="inlineStr">
         <is>
           <t>11/16</t>
@@ -7131,7 +7167,7 @@
       <c r="Q45" s="4" t="n"/>
       <c r="R45" s="4" t="n"/>
     </row>
-    <row r="46">
+    <row r="46" ht="15" customHeight="1">
       <c r="A46" s="3" t="inlineStr">
         <is>
           <t>3/4</t>
@@ -7223,7 +7259,7 @@
         </is>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="15" customHeight="1">
       <c r="A47" s="2" t="n"/>
       <c r="B47" s="2" t="n"/>
       <c r="C47" s="3" t="inlineStr">
@@ -7267,7 +7303,7 @@
       <c r="Q47" s="2" t="n"/>
       <c r="R47" s="2" t="n"/>
     </row>
-    <row r="48">
+    <row r="48" ht="15" customHeight="1">
       <c r="A48" s="2" t="n"/>
       <c r="B48" s="2" t="n"/>
       <c r="C48" s="3" t="inlineStr">
@@ -7311,7 +7347,7 @@
       <c r="Q48" s="2" t="n"/>
       <c r="R48" s="2" t="n"/>
     </row>
-    <row r="49">
+    <row r="49" ht="15" customHeight="1">
       <c r="A49" s="4" t="inlineStr">
         <is>
           <t>13/16</t>
@@ -7379,7 +7415,7 @@
       <c r="Q49" s="4" t="n"/>
       <c r="R49" s="4" t="n"/>
     </row>
-    <row r="50">
+    <row r="50" ht="15" customHeight="1">
       <c r="A50" s="3" t="inlineStr">
         <is>
           <t>7/8</t>
@@ -7471,7 +7507,7 @@
         </is>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="15" customHeight="1">
       <c r="A51" s="2" t="n"/>
       <c r="B51" s="2" t="n"/>
       <c r="C51" s="3" t="inlineStr">
@@ -7515,7 +7551,7 @@
       <c r="Q51" s="2" t="n"/>
       <c r="R51" s="2" t="n"/>
     </row>
-    <row r="52">
+    <row r="52" ht="15" customHeight="1">
       <c r="A52" s="2" t="n"/>
       <c r="B52" s="2" t="n"/>
       <c r="C52" s="3" t="inlineStr">
@@ -7559,7 +7595,7 @@
       <c r="Q52" s="2" t="n"/>
       <c r="R52" s="2" t="n"/>
     </row>
-    <row r="53">
+    <row r="53" ht="15" customHeight="1">
       <c r="A53" s="4" t="inlineStr">
         <is>
           <t>15/16</t>
@@ -7627,7 +7663,7 @@
       <c r="Q53" s="4" t="n"/>
       <c r="R53" s="4" t="n"/>
     </row>
-    <row r="54">
+    <row r="54" ht="15" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
           <t>1</t>
@@ -7719,7 +7755,7 @@
         </is>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="15" customHeight="1">
       <c r="A55" s="2" t="n"/>
       <c r="B55" s="2" t="n"/>
       <c r="C55" s="3" t="inlineStr">
@@ -7763,7 +7799,7 @@
       <c r="Q55" s="2" t="n"/>
       <c r="R55" s="2" t="n"/>
     </row>
-    <row r="56">
+    <row r="56" ht="15" customHeight="1">
       <c r="A56" s="2" t="n"/>
       <c r="B56" s="2" t="n"/>
       <c r="C56" s="3" t="inlineStr">
@@ -8263,7 +8299,7 @@
       <c r="Q3" s="2" t="n"/>
       <c r="R3" s="2" t="n"/>
     </row>
-    <row r="4">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -8355,7 +8391,7 @@
         </is>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
         <is>
           <t>1</t>
@@ -8447,7 +8483,7 @@
         </is>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="2" t="n"/>
       <c r="B6" s="2" t="n"/>
       <c r="C6" s="4" t="inlineStr">
@@ -8491,7 +8527,7 @@
       <c r="Q6" s="2" t="n"/>
       <c r="R6" s="2" t="n"/>
     </row>
-    <row r="7">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
         <is>
           <t>2</t>
@@ -8583,7 +8619,7 @@
         </is>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="2" t="n"/>
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="3" t="inlineStr">
@@ -8627,7 +8663,7 @@
       <c r="Q8" s="2" t="n"/>
       <c r="R8" s="2" t="n"/>
     </row>
-    <row r="9">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="4" t="inlineStr">
         <is>
           <t>3</t>
@@ -8719,7 +8755,7 @@
         </is>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="2" t="n"/>
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="4" t="inlineStr">
@@ -8763,7 +8799,7 @@
       <c r="Q10" s="2" t="n"/>
       <c r="R10" s="2" t="n"/>
     </row>
-    <row r="11">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" s="3" t="inlineStr">
         <is>
           <t>4</t>
@@ -8855,7 +8891,7 @@
         </is>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" s="2" t="n"/>
       <c r="B12" s="2" t="n"/>
       <c r="C12" s="3" t="inlineStr">
@@ -8899,7 +8935,7 @@
       <c r="Q12" s="2" t="n"/>
       <c r="R12" s="2" t="n"/>
     </row>
-    <row r="13">
+    <row r="13" ht="15" customHeight="1">
       <c r="A13" s="4" t="inlineStr">
         <is>
           <t>5</t>
@@ -8991,7 +9027,7 @@
         </is>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15" customHeight="1">
       <c r="A14" s="2" t="n"/>
       <c r="B14" s="2" t="n"/>
       <c r="C14" s="4" t="inlineStr">
@@ -9035,7 +9071,7 @@
       <c r="Q14" s="2" t="n"/>
       <c r="R14" s="2" t="n"/>
     </row>
-    <row r="15">
+    <row r="15" ht="15" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
         <is>
           <t>6</t>
@@ -9127,7 +9163,7 @@
         </is>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15" customHeight="1">
       <c r="A16" s="2" t="n"/>
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="3" t="inlineStr">
@@ -9171,7 +9207,7 @@
       <c r="Q16" s="2" t="n"/>
       <c r="R16" s="2" t="n"/>
     </row>
-    <row r="17">
+    <row r="17" ht="15" customHeight="1">
       <c r="A17" s="4" t="inlineStr">
         <is>
           <t>8</t>
@@ -9263,7 +9299,7 @@
         </is>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15" customHeight="1">
       <c r="A18" s="2" t="n"/>
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="4" t="inlineStr">
@@ -9307,7 +9343,7 @@
       <c r="Q18" s="2" t="n"/>
       <c r="R18" s="2" t="n"/>
     </row>
-    <row r="19">
+    <row r="19" ht="15" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
           <t>10</t>
@@ -9399,7 +9435,7 @@
         </is>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15" customHeight="1">
       <c r="A20" s="2" t="n"/>
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="3" t="inlineStr">
@@ -9443,7 +9479,7 @@
       <c r="Q20" s="2" t="n"/>
       <c r="R20" s="2" t="n"/>
     </row>
-    <row r="21">
+    <row r="21" ht="15" customHeight="1">
       <c r="A21" s="4" t="inlineStr">
         <is>
           <t>12</t>
@@ -9535,7 +9571,7 @@
         </is>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15" customHeight="1">
       <c r="A22" s="2" t="n"/>
       <c r="B22" s="2" t="n"/>
       <c r="C22" s="4" t="inlineStr">
@@ -9579,7 +9615,7 @@
       <c r="Q22" s="2" t="n"/>
       <c r="R22" s="2" t="n"/>
     </row>
-    <row r="23">
+    <row r="23" ht="15" customHeight="1">
       <c r="A23" s="2" t="n"/>
       <c r="B23" s="2" t="n"/>
       <c r="C23" s="4" t="inlineStr">
@@ -9623,7 +9659,7 @@
       <c r="Q23" s="2" t="n"/>
       <c r="R23" s="2" t="n"/>
     </row>
-    <row r="24">
+    <row r="24" ht="15" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
           <t>1/4</t>
@@ -9715,7 +9751,7 @@
         </is>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="15" customHeight="1">
       <c r="A25" s="2" t="n"/>
       <c r="B25" s="2" t="n"/>
       <c r="C25" s="3" t="inlineStr">
@@ -9759,7 +9795,7 @@
       <c r="Q25" s="2" t="n"/>
       <c r="R25" s="2" t="n"/>
     </row>
-    <row r="26">
+    <row r="26" ht="15" customHeight="1">
       <c r="A26" s="2" t="n"/>
       <c r="B26" s="2" t="n"/>
       <c r="C26" s="3" t="inlineStr">
@@ -9803,7 +9839,7 @@
       <c r="Q26" s="2" t="n"/>
       <c r="R26" s="2" t="n"/>
     </row>
-    <row r="27">
+    <row r="27" ht="15" customHeight="1">
       <c r="A27" s="4" t="inlineStr">
         <is>
           <t>5/16</t>
@@ -9895,7 +9931,7 @@
         </is>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="15" customHeight="1">
       <c r="A28" s="2" t="n"/>
       <c r="B28" s="2" t="n"/>
       <c r="C28" s="4" t="inlineStr">
@@ -9939,7 +9975,7 @@
       <c r="Q28" s="2" t="n"/>
       <c r="R28" s="2" t="n"/>
     </row>
-    <row r="29">
+    <row r="29" ht="15" customHeight="1">
       <c r="A29" s="2" t="n"/>
       <c r="B29" s="2" t="n"/>
       <c r="C29" s="4" t="inlineStr">
@@ -9983,7 +10019,7 @@
       <c r="Q29" s="2" t="n"/>
       <c r="R29" s="2" t="n"/>
     </row>
-    <row r="30">
+    <row r="30" ht="15" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
         <is>
           <t>3/8</t>
@@ -10075,7 +10111,7 @@
         </is>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="15" customHeight="1">
       <c r="A31" s="2" t="n"/>
       <c r="B31" s="2" t="n"/>
       <c r="C31" s="3" t="inlineStr">
@@ -10119,7 +10155,7 @@
       <c r="Q31" s="2" t="n"/>
       <c r="R31" s="2" t="n"/>
     </row>
-    <row r="32">
+    <row r="32" ht="15" customHeight="1">
       <c r="A32" s="2" t="n"/>
       <c r="B32" s="2" t="n"/>
       <c r="C32" s="3" t="inlineStr">
@@ -10163,7 +10199,7 @@
       <c r="Q32" s="2" t="n"/>
       <c r="R32" s="2" t="n"/>
     </row>
-    <row r="33">
+    <row r="33" ht="15" customHeight="1">
       <c r="A33" s="4" t="inlineStr">
         <is>
           <t>7/16</t>
@@ -10255,7 +10291,7 @@
         </is>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="15" customHeight="1">
       <c r="A34" s="2" t="n"/>
       <c r="B34" s="2" t="n"/>
       <c r="C34" s="4" t="inlineStr">
@@ -10299,7 +10335,7 @@
       <c r="Q34" s="2" t="n"/>
       <c r="R34" s="2" t="n"/>
     </row>
-    <row r="35">
+    <row r="35" ht="15" customHeight="1">
       <c r="A35" s="2" t="n"/>
       <c r="B35" s="2" t="n"/>
       <c r="C35" s="4" t="inlineStr">
@@ -10343,7 +10379,7 @@
       <c r="Q35" s="2" t="n"/>
       <c r="R35" s="2" t="n"/>
     </row>
-    <row r="36">
+    <row r="36" ht="15" customHeight="1">
       <c r="A36" s="3" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -10435,7 +10471,7 @@
         </is>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="15" customHeight="1">
       <c r="A37" s="2" t="n"/>
       <c r="B37" s="2" t="n"/>
       <c r="C37" s="3" t="inlineStr">
@@ -10479,7 +10515,7 @@
       <c r="Q37" s="2" t="n"/>
       <c r="R37" s="2" t="n"/>
     </row>
-    <row r="38">
+    <row r="38" ht="15" customHeight="1">
       <c r="A38" s="2" t="n"/>
       <c r="B38" s="2" t="n"/>
       <c r="C38" s="3" t="inlineStr">
@@ -10523,7 +10559,7 @@
       <c r="Q38" s="2" t="n"/>
       <c r="R38" s="2" t="n"/>
     </row>
-    <row r="39">
+    <row r="39" ht="15" customHeight="1">
       <c r="A39" s="4" t="inlineStr">
         <is>
           <t>9/16</t>
@@ -10607,7 +10643,7 @@
       <c r="Q39" s="4" t="n"/>
       <c r="R39" s="4" t="n"/>
     </row>
-    <row r="40">
+    <row r="40" ht="15" customHeight="1">
       <c r="A40" s="2" t="n"/>
       <c r="B40" s="2" t="n"/>
       <c r="C40" s="4" t="inlineStr">
@@ -10651,7 +10687,7 @@
       <c r="Q40" s="2" t="n"/>
       <c r="R40" s="2" t="n"/>
     </row>
-    <row r="41">
+    <row r="41" ht="15" customHeight="1">
       <c r="A41" s="2" t="n"/>
       <c r="B41" s="2" t="n"/>
       <c r="C41" s="4" t="inlineStr">
@@ -10695,7 +10731,7 @@
       <c r="Q41" s="2" t="n"/>
       <c r="R41" s="2" t="n"/>
     </row>
-    <row r="42">
+    <row r="42" ht="15" customHeight="1">
       <c r="A42" s="3" t="inlineStr">
         <is>
           <t>5/8</t>
@@ -10787,7 +10823,7 @@
         </is>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="15" customHeight="1">
       <c r="A43" s="2" t="n"/>
       <c r="B43" s="2" t="n"/>
       <c r="C43" s="3" t="inlineStr">
@@ -10831,7 +10867,7 @@
       <c r="Q43" s="2" t="n"/>
       <c r="R43" s="2" t="n"/>
     </row>
-    <row r="44">
+    <row r="44" ht="15" customHeight="1">
       <c r="A44" s="2" t="n"/>
       <c r="B44" s="2" t="n"/>
       <c r="C44" s="3" t="inlineStr">
@@ -10875,7 +10911,7 @@
       <c r="Q44" s="2" t="n"/>
       <c r="R44" s="2" t="n"/>
     </row>
-    <row r="45">
+    <row r="45" ht="15" customHeight="1">
       <c r="A45" s="4" t="inlineStr">
         <is>
           <t>11/16</t>
@@ -10943,7 +10979,7 @@
       <c r="Q45" s="4" t="n"/>
       <c r="R45" s="4" t="n"/>
     </row>
-    <row r="46">
+    <row r="46" ht="15" customHeight="1">
       <c r="A46" s="3" t="inlineStr">
         <is>
           <t>3/4</t>
@@ -11035,7 +11071,7 @@
         </is>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="15" customHeight="1">
       <c r="A47" s="2" t="n"/>
       <c r="B47" s="2" t="n"/>
       <c r="C47" s="3" t="inlineStr">
@@ -11079,7 +11115,7 @@
       <c r="Q47" s="2" t="n"/>
       <c r="R47" s="2" t="n"/>
     </row>
-    <row r="48">
+    <row r="48" ht="15" customHeight="1">
       <c r="A48" s="2" t="n"/>
       <c r="B48" s="2" t="n"/>
       <c r="C48" s="3" t="inlineStr">
@@ -11123,7 +11159,7 @@
       <c r="Q48" s="2" t="n"/>
       <c r="R48" s="2" t="n"/>
     </row>
-    <row r="49">
+    <row r="49" ht="15" customHeight="1">
       <c r="A49" s="4" t="inlineStr">
         <is>
           <t>13/16</t>
@@ -11191,7 +11227,7 @@
       <c r="Q49" s="4" t="n"/>
       <c r="R49" s="4" t="n"/>
     </row>
-    <row r="50">
+    <row r="50" ht="15" customHeight="1">
       <c r="A50" s="3" t="inlineStr">
         <is>
           <t>7/8</t>
@@ -11283,7 +11319,7 @@
         </is>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="15" customHeight="1">
       <c r="A51" s="2" t="n"/>
       <c r="B51" s="2" t="n"/>
       <c r="C51" s="3" t="inlineStr">
@@ -11327,7 +11363,7 @@
       <c r="Q51" s="2" t="n"/>
       <c r="R51" s="2" t="n"/>
     </row>
-    <row r="52">
+    <row r="52" ht="15" customHeight="1">
       <c r="A52" s="2" t="n"/>
       <c r="B52" s="2" t="n"/>
       <c r="C52" s="3" t="inlineStr">
@@ -11371,7 +11407,7 @@
       <c r="Q52" s="2" t="n"/>
       <c r="R52" s="2" t="n"/>
     </row>
-    <row r="53">
+    <row r="53" ht="15" customHeight="1">
       <c r="A53" s="4" t="inlineStr">
         <is>
           <t>15/16</t>
@@ -11439,7 +11475,7 @@
       <c r="Q53" s="4" t="n"/>
       <c r="R53" s="4" t="n"/>
     </row>
-    <row r="54">
+    <row r="54" ht="15" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
           <t>1</t>
@@ -11531,7 +11567,7 @@
         </is>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="15" customHeight="1">
       <c r="A55" s="2" t="n"/>
       <c r="B55" s="2" t="n"/>
       <c r="C55" s="3" t="inlineStr">
@@ -11575,7 +11611,7 @@
       <c r="Q55" s="2" t="n"/>
       <c r="R55" s="2" t="n"/>
     </row>
-    <row r="56">
+    <row r="56" ht="15" customHeight="1">
       <c r="A56" s="2" t="n"/>
       <c r="B56" s="2" t="n"/>
       <c r="C56" s="3" t="inlineStr">
@@ -11887,48 +11923,48 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="27.5" customWidth="1" min="5" max="5"/>
-    <col width="27.5" customWidth="1" min="6" max="6"/>
-    <col width="27.5" customWidth="1" min="7" max="7"/>
-    <col width="27.5" customWidth="1" min="8" max="8"/>
-    <col width="27.5" customWidth="1" min="9" max="9"/>
-    <col width="27.5" customWidth="1" min="10" max="10"/>
-    <col width="27.5" customWidth="1" min="11" max="11"/>
-    <col width="27.5" customWidth="1" min="12" max="12"/>
-    <col width="27.5" customWidth="1" min="13" max="13"/>
-    <col width="27.5" customWidth="1" min="14" max="14"/>
-    <col width="27.5" customWidth="1" min="15" max="15"/>
-    <col width="27.5" customWidth="1" min="16" max="16"/>
-    <col width="27.5" customWidth="1" min="17" max="17"/>
-    <col width="27.5" customWidth="1" min="18" max="18"/>
+    <col width="18.5" customWidth="1" min="1" max="1"/>
+    <col width="18.5" customWidth="1" min="2" max="2"/>
+    <col width="18.5" customWidth="1" min="3" max="3"/>
+    <col width="18.5" customWidth="1" min="4" max="4"/>
+    <col width="20.35" customWidth="1" min="5" max="5"/>
+    <col width="20.35" customWidth="1" min="6" max="6"/>
+    <col width="20.35" customWidth="1" min="7" max="7"/>
+    <col width="20.35" customWidth="1" min="8" max="8"/>
+    <col width="20.35" customWidth="1" min="9" max="9"/>
+    <col width="20.35" customWidth="1" min="10" max="10"/>
+    <col width="20.35" customWidth="1" min="11" max="11"/>
+    <col width="20.35" customWidth="1" min="12" max="12"/>
+    <col width="20.35" customWidth="1" min="13" max="13"/>
+    <col width="20.35" customWidth="1" min="14" max="14"/>
+    <col width="20.35" customWidth="1" min="15" max="15"/>
+    <col width="20.35" customWidth="1" min="16" max="16"/>
+    <col width="20.35" customWidth="1" min="17" max="17"/>
+    <col width="20.35" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="55.5" customHeight="1">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Screw Size</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Major Diameter</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>TPI</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Minor Diameter</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Tap Drill</t>
         </is>
@@ -11936,7 +11972,7 @@
       <c r="F1" s="2" t="n"/>
       <c r="G1" s="2" t="n"/>
       <c r="H1" s="2" t="n"/>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Clearance Drill</t>
         </is>
@@ -11944,7 +11980,7 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="5" t="inlineStr">
         <is>
           <t>Socket Head Cap Screws</t>
         </is>
@@ -11952,122 +11988,122 @@
       <c r="N1" s="2" t="n"/>
       <c r="O1" s="2" t="n"/>
       <c r="P1" s="2" t="n"/>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="5" t="inlineStr">
         <is>
           <t>Flat Head Cap Screws</t>
         </is>
       </c>
       <c r="R1" s="2" t="n"/>
     </row>
-    <row r="2" ht="40" customHeight="1">
+    <row r="2" ht="74" customHeight="1">
       <c r="A2" s="2" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="2" t="n"/>
       <c r="D2" s="2" t="n"/>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>75% Thread for Aluminum, Brass, Plastics</t>
         </is>
       </c>
       <c r="F2" s="2" t="n"/>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>50% Thread for Stainless, Cast Iron &amp; Iron</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>Close Fit</t>
         </is>
       </c>
       <c r="J2" s="2" t="n"/>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>Free Fit</t>
         </is>
       </c>
       <c r="L2" s="2" t="n"/>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="M2" s="5" t="inlineStr">
         <is>
           <t>Hex</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>Counterbore</t>
         </is>
       </c>
       <c r="O2" s="2" t="n"/>
       <c r="P2" s="2" t="n"/>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>Hex</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>Countersink Depth</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
+    <row r="3" ht="37" customHeight="1">
       <c r="A3" s="2" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Drill Size</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Dec. Eq.</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>Drill Size</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>Dec. Eq.</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>Drill Size</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>Dec. Eq.</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>Drill Size</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <t>Dec. Eq.</t>
         </is>
       </c>
       <c r="M3" s="2" t="n"/>
-      <c r="N3" s="1" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>Drill Size</t>
         </is>
       </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>Dec. Eq.</t>
         </is>
       </c>
-      <c r="P3" s="1" t="inlineStr">
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>Depth</t>
         </is>
@@ -12075,219 +12111,219 @@
       <c r="Q3" s="2" t="n"/>
       <c r="R3" s="2" t="n"/>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+    <row r="4" ht="27.75" customHeight="1">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>.0600</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>.0447</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>3/64</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>.0469</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="H4" s="6" t="inlineStr">
         <is>
           <t>.0520</t>
         </is>
       </c>
-      <c r="I4" s="3" t="inlineStr">
+      <c r="I4" s="6" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J4" s="6" t="inlineStr">
         <is>
           <t>.0635</t>
         </is>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="K4" s="6" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="L4" s="6" t="inlineStr">
         <is>
           <t>.0700</t>
         </is>
       </c>
-      <c r="M4" s="3" t="inlineStr">
+      <c r="M4" s="6" t="inlineStr">
         <is>
           <t>0.050</t>
         </is>
       </c>
-      <c r="N4" s="3" t="inlineStr">
+      <c r="N4" s="6" t="inlineStr">
         <is>
           <t>1/8</t>
         </is>
       </c>
-      <c r="O4" s="3" t="inlineStr">
+      <c r="O4" s="6" t="inlineStr">
         <is>
           <t>.125</t>
         </is>
       </c>
-      <c r="P4" s="3" t="inlineStr">
+      <c r="P4" s="6" t="inlineStr">
         <is>
           <t>.0740</t>
         </is>
       </c>
-      <c r="Q4" s="3" t="inlineStr">
+      <c r="Q4" s="6" t="inlineStr">
         <is>
           <t>0.035</t>
         </is>
       </c>
-      <c r="R4" s="3" t="inlineStr">
+      <c r="R4" s="6" t="inlineStr">
         <is>
           <t>.0440</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row r="5" ht="27.75" customHeight="1">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="7" t="inlineStr">
         <is>
           <t>.0730</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>.0538</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="7" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="7" t="inlineStr">
         <is>
           <t>.0595</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G5" s="7" t="inlineStr">
         <is>
           <t>1/16</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="H5" s="7" t="inlineStr">
         <is>
           <t>.0625</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="I5" s="7" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="7" t="inlineStr">
         <is>
           <t>.0760</t>
         </is>
       </c>
-      <c r="K5" s="4" t="inlineStr">
+      <c r="K5" s="7" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="L5" s="4" t="inlineStr">
+      <c r="L5" s="7" t="inlineStr">
         <is>
           <t>.0810</t>
         </is>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="M5" s="7" t="inlineStr">
         <is>
           <t>1/16</t>
         </is>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="N5" s="7" t="inlineStr">
         <is>
           <t>5/32</t>
         </is>
       </c>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="O5" s="7" t="inlineStr">
         <is>
           <t>.1562</t>
         </is>
       </c>
-      <c r="P5" s="4" t="inlineStr">
+      <c r="P5" s="7" t="inlineStr">
         <is>
           <t>.0870</t>
         </is>
       </c>
-      <c r="Q5" s="4" t="inlineStr">
+      <c r="Q5" s="7" t="inlineStr">
         <is>
           <t>1/20</t>
         </is>
       </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="R5" s="7" t="inlineStr">
         <is>
           <t>.0540</t>
         </is>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="27.75" customHeight="1">
       <c r="A6" s="2" t="n"/>
       <c r="B6" s="2" t="n"/>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>.0560</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="7" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="7" t="inlineStr">
         <is>
           <t>.0595</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="7" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H6" s="7" t="inlineStr">
         <is>
           <t>.0635</t>
         </is>
@@ -12303,127 +12339,127 @@
       <c r="Q6" s="2" t="n"/>
       <c r="R6" s="2" t="n"/>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+    <row r="7" ht="27.75" customHeight="1">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>.0860</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>.0641</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>.0700</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="6" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="H7" s="6" t="inlineStr">
         <is>
           <t>.0730</t>
         </is>
       </c>
-      <c r="I7" s="3" t="inlineStr">
+      <c r="I7" s="6" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J7" s="6" t="inlineStr">
         <is>
           <t>.0890</t>
         </is>
       </c>
-      <c r="K7" s="3" t="inlineStr">
+      <c r="K7" s="6" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="L7" s="6" t="inlineStr">
         <is>
           <t>.0960</t>
         </is>
       </c>
-      <c r="M7" s="3" t="inlineStr">
+      <c r="M7" s="6" t="inlineStr">
         <is>
           <t>5/64</t>
         </is>
       </c>
-      <c r="N7" s="3" t="inlineStr">
+      <c r="N7" s="6" t="inlineStr">
         <is>
           <t>3/16</t>
         </is>
       </c>
-      <c r="O7" s="3" t="inlineStr">
+      <c r="O7" s="6" t="inlineStr">
         <is>
           <t>.1875</t>
         </is>
       </c>
-      <c r="P7" s="3" t="inlineStr">
+      <c r="P7" s="6" t="inlineStr">
         <is>
           <t>.1020</t>
         </is>
       </c>
-      <c r="Q7" s="3" t="inlineStr">
+      <c r="Q7" s="6" t="inlineStr">
         <is>
           <t>1/20</t>
         </is>
       </c>
-      <c r="R7" s="3" t="inlineStr">
+      <c r="R7" s="6" t="inlineStr">
         <is>
           <t>.0640</t>
         </is>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="27.75" customHeight="1">
       <c r="A8" s="2" t="n"/>
       <c r="B8" s="2" t="n"/>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>.0668</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>.0700</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G8" s="6" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="H8" s="3" t="inlineStr">
+      <c r="H8" s="6" t="inlineStr">
         <is>
           <t>.0760</t>
         </is>
@@ -12439,127 +12475,127 @@
       <c r="Q8" s="2" t="n"/>
       <c r="R8" s="2" t="n"/>
     </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+    <row r="9" ht="27.75" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
         <is>
           <t>.0990</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="7" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="7" t="inlineStr">
         <is>
           <t>.0734</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="7" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr">
         <is>
           <t>.0785</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="H9" s="4" t="inlineStr">
+      <c r="H9" s="7" t="inlineStr">
         <is>
           <t>.0860</t>
         </is>
       </c>
-      <c r="I9" s="4" t="inlineStr">
+      <c r="I9" s="7" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="7" t="inlineStr">
         <is>
           <t>.1040</t>
         </is>
       </c>
-      <c r="K9" s="4" t="inlineStr">
+      <c r="K9" s="7" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="L9" s="4" t="inlineStr">
+      <c r="L9" s="7" t="inlineStr">
         <is>
           <t>.1100</t>
         </is>
       </c>
-      <c r="M9" s="4" t="inlineStr">
+      <c r="M9" s="7" t="inlineStr">
         <is>
           <t>5/64</t>
         </is>
       </c>
-      <c r="N9" s="4" t="inlineStr">
+      <c r="N9" s="7" t="inlineStr">
         <is>
           <t>7/32</t>
         </is>
       </c>
-      <c r="O9" s="4" t="inlineStr">
+      <c r="O9" s="7" t="inlineStr">
         <is>
           <t>.2188</t>
         </is>
       </c>
-      <c r="P9" s="4" t="inlineStr">
+      <c r="P9" s="7" t="inlineStr">
         <is>
           <t>.1150</t>
         </is>
       </c>
-      <c r="Q9" s="4" t="inlineStr">
+      <c r="Q9" s="7" t="inlineStr">
         <is>
           <t>1/16</t>
         </is>
       </c>
-      <c r="R9" s="4" t="inlineStr">
+      <c r="R9" s="7" t="inlineStr">
         <is>
           <t>.0730</t>
         </is>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="27.75" customHeight="1">
       <c r="A10" s="2" t="n"/>
       <c r="B10" s="2" t="n"/>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="7" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D10" s="7" t="inlineStr">
         <is>
           <t>.0771</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="7" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="7" t="inlineStr">
         <is>
           <t>.0820</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="H10" s="4" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr">
         <is>
           <t>.0890</t>
         </is>
@@ -12575,127 +12611,127 @@
       <c r="Q10" s="2" t="n"/>
       <c r="R10" s="2" t="n"/>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+    <row r="11" ht="27.75" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>.1120</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>.0813</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
         <is>
           <t>.0890</t>
         </is>
       </c>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="G11" s="6" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="H11" s="3" t="inlineStr">
+      <c r="H11" s="6" t="inlineStr">
         <is>
           <t>.0960</t>
         </is>
       </c>
-      <c r="I11" s="3" t="inlineStr">
+      <c r="I11" s="6" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="J11" s="3" t="inlineStr">
+      <c r="J11" s="6" t="inlineStr">
         <is>
           <t>.1160</t>
         </is>
       </c>
-      <c r="K11" s="3" t="inlineStr">
+      <c r="K11" s="6" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="L11" s="3" t="inlineStr">
+      <c r="L11" s="6" t="inlineStr">
         <is>
           <t>.1285</t>
         </is>
       </c>
-      <c r="M11" s="3" t="inlineStr">
+      <c r="M11" s="6" t="inlineStr">
         <is>
           <t>3/32</t>
         </is>
       </c>
-      <c r="N11" s="3" t="inlineStr">
+      <c r="N11" s="6" t="inlineStr">
         <is>
           <t>7/32</t>
         </is>
       </c>
-      <c r="O11" s="3" t="inlineStr">
+      <c r="O11" s="6" t="inlineStr">
         <is>
           <t>.2188</t>
         </is>
       </c>
-      <c r="P11" s="3" t="inlineStr">
+      <c r="P11" s="6" t="inlineStr">
         <is>
           <t>.1300</t>
         </is>
       </c>
-      <c r="Q11" s="3" t="inlineStr">
+      <c r="Q11" s="6" t="inlineStr">
         <is>
           <t>1/16</t>
         </is>
       </c>
-      <c r="R11" s="3" t="inlineStr">
+      <c r="R11" s="6" t="inlineStr">
         <is>
           <t>.0830</t>
         </is>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="27.75" customHeight="1">
       <c r="A12" s="2" t="n"/>
       <c r="B12" s="2" t="n"/>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t>.0864</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="6" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F12" s="6" t="inlineStr">
         <is>
           <t>.0935</t>
         </is>
       </c>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="G12" s="6" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H12" s="3" t="inlineStr">
+      <c r="H12" s="6" t="inlineStr">
         <is>
           <t>.0980</t>
         </is>
@@ -12711,127 +12747,127 @@
       <c r="Q12" s="2" t="n"/>
       <c r="R12" s="2" t="n"/>
     </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+    <row r="13" ht="27.75" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="7" t="inlineStr">
         <is>
           <t>.125</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="7" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D13" s="7" t="inlineStr">
         <is>
           <t>.0943</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="7" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="7" t="inlineStr">
         <is>
           <t>.1015</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="G13" s="7" t="inlineStr">
         <is>
           <t>7/64</t>
         </is>
       </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr">
         <is>
           <t>.1094</t>
         </is>
       </c>
-      <c r="I13" s="4" t="inlineStr">
+      <c r="I13" s="7" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="7" t="inlineStr">
         <is>
           <t>.1285</t>
         </is>
       </c>
-      <c r="K13" s="4" t="inlineStr">
+      <c r="K13" s="7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="L13" s="4" t="inlineStr">
+      <c r="L13" s="7" t="inlineStr">
         <is>
           <t>.1360</t>
         </is>
       </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="M13" s="7" t="inlineStr">
         <is>
           <t>3/32</t>
         </is>
       </c>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="N13" s="7" t="inlineStr">
         <is>
           <t>1/4</t>
         </is>
       </c>
-      <c r="O13" s="4" t="inlineStr">
+      <c r="O13" s="7" t="inlineStr">
         <is>
           <t>.2500</t>
         </is>
       </c>
-      <c r="P13" s="4" t="inlineStr">
+      <c r="P13" s="7" t="inlineStr">
         <is>
           <t>.1450</t>
         </is>
       </c>
-      <c r="Q13" s="4" t="inlineStr">
+      <c r="Q13" s="7" t="inlineStr">
         <is>
           <t>5/64</t>
         </is>
       </c>
-      <c r="R13" s="4" t="inlineStr">
+      <c r="R13" s="7" t="inlineStr">
         <is>
           <t>.0900</t>
         </is>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="27.75" customHeight="1">
       <c r="A14" s="2" t="n"/>
       <c r="B14" s="2" t="n"/>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="7" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D14" s="7" t="inlineStr">
         <is>
           <t>.0971</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="7" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="7" t="inlineStr">
         <is>
           <t>.1040</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="G14" s="7" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="H14" s="4" t="inlineStr">
+      <c r="H14" s="7" t="inlineStr">
         <is>
           <t>.1100</t>
         </is>
@@ -12847,127 +12883,127 @@
       <c r="Q14" s="2" t="n"/>
       <c r="R14" s="2" t="n"/>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+    <row r="15" ht="27.75" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>.138</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" s="6" t="inlineStr">
         <is>
           <t>.0997</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E15" s="6" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F15" s="6" t="inlineStr">
         <is>
           <t>.1065</t>
         </is>
       </c>
-      <c r="G15" s="3" t="inlineStr">
+      <c r="G15" s="6" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="H15" s="3" t="inlineStr">
+      <c r="H15" s="6" t="inlineStr">
         <is>
           <t>.1160</t>
         </is>
       </c>
-      <c r="I15" s="3" t="inlineStr">
+      <c r="I15" s="6" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J15" s="3" t="inlineStr">
+      <c r="J15" s="6" t="inlineStr">
         <is>
           <t>.1440</t>
         </is>
       </c>
-      <c r="K15" s="3" t="inlineStr">
+      <c r="K15" s="6" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="L15" s="3" t="inlineStr">
+      <c r="L15" s="6" t="inlineStr">
         <is>
           <t>.1495</t>
         </is>
       </c>
-      <c r="M15" s="3" t="inlineStr">
+      <c r="M15" s="6" t="inlineStr">
         <is>
           <t>7/64</t>
         </is>
       </c>
-      <c r="N15" s="3" t="inlineStr">
+      <c r="N15" s="6" t="inlineStr">
         <is>
           <t>9/32</t>
         </is>
       </c>
-      <c r="O15" s="3" t="inlineStr">
+      <c r="O15" s="6" t="inlineStr">
         <is>
           <t>.2812</t>
         </is>
       </c>
-      <c r="P15" s="3" t="inlineStr">
+      <c r="P15" s="6" t="inlineStr">
         <is>
           <t>.1580</t>
         </is>
       </c>
-      <c r="Q15" s="3" t="inlineStr">
+      <c r="Q15" s="6" t="inlineStr">
         <is>
           <t>5/64</t>
         </is>
       </c>
-      <c r="R15" s="3" t="inlineStr">
+      <c r="R15" s="6" t="inlineStr">
         <is>
           <t>.0970</t>
         </is>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="27.75" customHeight="1">
       <c r="A16" s="2" t="n"/>
       <c r="B16" s="2" t="n"/>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
         <is>
           <t>.1073</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E16" s="6" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
+      <c r="F16" s="6" t="inlineStr">
         <is>
           <t>.1130</t>
         </is>
       </c>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="G16" s="6" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="H16" s="3" t="inlineStr">
+      <c r="H16" s="6" t="inlineStr">
         <is>
           <t>.1200</t>
         </is>
@@ -12983,127 +13019,127 @@
       <c r="Q16" s="2" t="n"/>
       <c r="R16" s="2" t="n"/>
     </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+    <row r="17" ht="27.75" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="7" t="inlineStr">
         <is>
           <t>.1640</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="7" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D17" s="7" t="inlineStr">
         <is>
           <t>.1257</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="7" t="inlineStr">
         <is>
           <t>.1360</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="G17" s="7" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H17" s="4" t="inlineStr">
+      <c r="H17" s="7" t="inlineStr">
         <is>
           <t>.1440</t>
         </is>
       </c>
-      <c r="I17" s="4" t="inlineStr">
+      <c r="I17" s="7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="7" t="inlineStr">
         <is>
           <t>.1695</t>
         </is>
       </c>
-      <c r="K17" s="4" t="inlineStr">
+      <c r="K17" s="7" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="L17" s="4" t="inlineStr">
+      <c r="L17" s="7" t="inlineStr">
         <is>
           <t>.1770</t>
         </is>
       </c>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="M17" s="7" t="inlineStr">
         <is>
           <t>9/64</t>
         </is>
       </c>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="N17" s="7" t="inlineStr">
         <is>
           <t>5/16</t>
         </is>
       </c>
-      <c r="O17" s="4" t="inlineStr">
+      <c r="O17" s="7" t="inlineStr">
         <is>
           <t>.3125</t>
         </is>
       </c>
-      <c r="P17" s="4" t="inlineStr">
+      <c r="P17" s="7" t="inlineStr">
         <is>
           <t>.1880</t>
         </is>
       </c>
-      <c r="Q17" s="4" t="inlineStr">
+      <c r="Q17" s="7" t="inlineStr">
         <is>
           <t>3/32</t>
         </is>
       </c>
-      <c r="R17" s="4" t="inlineStr">
+      <c r="R17" s="7" t="inlineStr">
         <is>
           <t>.1120</t>
         </is>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="27.75" customHeight="1">
       <c r="A18" s="2" t="n"/>
       <c r="B18" s="2" t="n"/>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="7" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D18" s="7" t="inlineStr">
         <is>
           <t>.1299</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="7" t="inlineStr">
         <is>
           <t>.1360</t>
         </is>
       </c>
-      <c r="G18" s="4" t="inlineStr">
+      <c r="G18" s="7" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="H18" s="4" t="inlineStr">
+      <c r="H18" s="7" t="inlineStr">
         <is>
           <t>.1470</t>
         </is>
@@ -13119,127 +13155,127 @@
       <c r="Q18" s="2" t="n"/>
       <c r="R18" s="2" t="n"/>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+    <row r="19" ht="27.75" customHeight="1">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="6" t="inlineStr">
         <is>
           <t>.1900</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t>.1389</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="E19" s="6" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
+      <c r="F19" s="6" t="inlineStr">
         <is>
           <t>.1495</t>
         </is>
       </c>
-      <c r="G19" s="3" t="inlineStr">
+      <c r="G19" s="6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="H19" s="3" t="inlineStr">
+      <c r="H19" s="6" t="inlineStr">
         <is>
           <t>.1610</t>
         </is>
       </c>
-      <c r="I19" s="3" t="inlineStr">
+      <c r="I19" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J19" s="3" t="inlineStr">
+      <c r="J19" s="6" t="inlineStr">
         <is>
           <t>.1960</t>
         </is>
       </c>
-      <c r="K19" s="3" t="inlineStr">
+      <c r="K19" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L19" s="3" t="inlineStr">
+      <c r="L19" s="6" t="inlineStr">
         <is>
           <t>.2010</t>
         </is>
       </c>
-      <c r="M19" s="3" t="inlineStr">
+      <c r="M19" s="6" t="inlineStr">
         <is>
           <t>5/32</t>
         </is>
       </c>
-      <c r="N19" s="3" t="inlineStr">
+      <c r="N19" s="6" t="inlineStr">
         <is>
           <t>3/8</t>
         </is>
       </c>
-      <c r="O19" s="3" t="inlineStr">
+      <c r="O19" s="6" t="inlineStr">
         <is>
           <t>.3750</t>
         </is>
       </c>
-      <c r="P19" s="3" t="inlineStr">
+      <c r="P19" s="6" t="inlineStr">
         <is>
           <t>.2180</t>
         </is>
       </c>
-      <c r="Q19" s="3" t="inlineStr">
+      <c r="Q19" s="6" t="inlineStr">
         <is>
           <t>1/8</t>
         </is>
       </c>
-      <c r="R19" s="3" t="inlineStr">
+      <c r="R19" s="6" t="inlineStr">
         <is>
           <t>.1270</t>
         </is>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="27.75" customHeight="1">
       <c r="A20" s="2" t="n"/>
       <c r="B20" s="2" t="n"/>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t>.1517</t>
         </is>
       </c>
-      <c r="E20" s="3" t="inlineStr">
+      <c r="E20" s="6" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="F20" s="3" t="inlineStr">
+      <c r="F20" s="6" t="inlineStr">
         <is>
           <t>.1590</t>
         </is>
       </c>
-      <c r="G20" s="3" t="inlineStr">
+      <c r="G20" s="6" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="H20" s="3" t="inlineStr">
+      <c r="H20" s="6" t="inlineStr">
         <is>
           <t>.1695</t>
         </is>
@@ -13255,127 +13291,127 @@
       <c r="Q20" s="2" t="n"/>
       <c r="R20" s="2" t="n"/>
     </row>
-    <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+    <row r="21" ht="27.75" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="7" t="inlineStr">
         <is>
           <t>.2160</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="7" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="D21" s="4" t="inlineStr">
+      <c r="D21" s="7" t="inlineStr">
         <is>
           <t>.1649</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="7" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="7" t="inlineStr">
         <is>
           <t>.1770</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="G21" s="7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H21" s="4" t="inlineStr">
+      <c r="H21" s="7" t="inlineStr">
         <is>
           <t>.1890</t>
         </is>
       </c>
-      <c r="I21" s="4" t="inlineStr">
+      <c r="I21" s="7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="J21" s="7" t="inlineStr">
         <is>
           <t>.2210</t>
         </is>
       </c>
-      <c r="K21" s="4" t="inlineStr">
+      <c r="K21" s="7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L21" s="4" t="inlineStr">
+      <c r="L21" s="7" t="inlineStr">
         <is>
           <t>.2280</t>
         </is>
       </c>
-      <c r="M21" s="4" t="inlineStr">
+      <c r="M21" s="7" t="inlineStr">
         <is>
           <t>5/32</t>
         </is>
       </c>
-      <c r="N21" s="4" t="inlineStr">
+      <c r="N21" s="7" t="inlineStr">
         <is>
           <t>3/8</t>
         </is>
       </c>
-      <c r="O21" s="4" t="inlineStr">
+      <c r="O21" s="7" t="inlineStr">
         <is>
           <t>.3750</t>
         </is>
       </c>
-      <c r="P21" s="4" t="inlineStr">
+      <c r="P21" s="7" t="inlineStr">
         <is>
           <t>.2180</t>
         </is>
       </c>
-      <c r="Q21" s="4" t="inlineStr">
+      <c r="Q21" s="7" t="inlineStr">
         <is>
           <t>1/8</t>
         </is>
       </c>
-      <c r="R21" s="4" t="inlineStr">
+      <c r="R21" s="7" t="inlineStr">
         <is>
           <t>.1350</t>
         </is>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="27.75" customHeight="1">
       <c r="A22" s="2" t="n"/>
       <c r="B22" s="2" t="n"/>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="7" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="D22" s="4" t="inlineStr">
+      <c r="D22" s="7" t="inlineStr">
         <is>
           <t>.1722</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="7" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="7" t="inlineStr">
         <is>
           <t>.1820</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr">
+      <c r="G22" s="7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H22" s="4" t="inlineStr">
+      <c r="H22" s="7" t="inlineStr">
         <is>
           <t>.1935</t>
         </is>
@@ -13391,35 +13427,35 @@
       <c r="Q22" s="2" t="n"/>
       <c r="R22" s="2" t="n"/>
     </row>
-    <row r="23">
+    <row r="23" ht="27.75" customHeight="1">
       <c r="A23" s="2" t="n"/>
       <c r="B23" s="2" t="n"/>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="7" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="D23" s="4" t="inlineStr">
+      <c r="D23" s="7" t="inlineStr">
         <is>
           <t>.1777</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="7" t="inlineStr">
         <is>
           <t>.1850</t>
         </is>
       </c>
-      <c r="G23" s="4" t="inlineStr">
+      <c r="G23" s="7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H23" s="4" t="inlineStr">
+      <c r="H23" s="7" t="inlineStr">
         <is>
           <t>.1960</t>
         </is>
@@ -13435,127 +13471,127 @@
       <c r="Q23" s="2" t="n"/>
       <c r="R23" s="2" t="n"/>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+    <row r="24" ht="27.75" customHeight="1">
+      <c r="A24" s="6" t="inlineStr">
         <is>
           <t>1/4</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" s="6" t="inlineStr">
         <is>
           <t>.2500</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D24" s="6" t="inlineStr">
         <is>
           <t>.1887</t>
         </is>
       </c>
-      <c r="E24" s="3" t="inlineStr">
+      <c r="E24" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F24" s="3" t="inlineStr">
+      <c r="F24" s="6" t="inlineStr">
         <is>
           <t>.2010</t>
         </is>
       </c>
-      <c r="G24" s="3" t="inlineStr">
+      <c r="G24" s="6" t="inlineStr">
         <is>
           <t>7/32</t>
         </is>
       </c>
-      <c r="H24" s="3" t="inlineStr">
+      <c r="H24" s="6" t="inlineStr">
         <is>
           <t>.2188</t>
         </is>
       </c>
-      <c r="I24" s="3" t="inlineStr">
+      <c r="I24" s="6" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="J24" s="3" t="inlineStr">
+      <c r="J24" s="6" t="inlineStr">
         <is>
           <t>.2570</t>
         </is>
       </c>
-      <c r="K24" s="3" t="inlineStr">
+      <c r="K24" s="6" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="L24" s="3" t="inlineStr">
+      <c r="L24" s="6" t="inlineStr">
         <is>
           <t>.2660</t>
         </is>
       </c>
-      <c r="M24" s="3" t="inlineStr">
+      <c r="M24" s="6" t="inlineStr">
         <is>
           <t>3/16</t>
         </is>
       </c>
-      <c r="N24" s="3" t="inlineStr">
+      <c r="N24" s="6" t="inlineStr">
         <is>
           <t>7/16</t>
         </is>
       </c>
-      <c r="O24" s="3" t="inlineStr">
+      <c r="O24" s="6" t="inlineStr">
         <is>
           <t>.4375</t>
         </is>
       </c>
-      <c r="P24" s="3" t="inlineStr">
+      <c r="P24" s="6" t="inlineStr">
         <is>
           <t>.2780</t>
         </is>
       </c>
-      <c r="Q24" s="3" t="inlineStr">
+      <c r="Q24" s="6" t="inlineStr">
         <is>
           <t>5/32</t>
         </is>
       </c>
-      <c r="R24" s="3" t="inlineStr">
+      <c r="R24" s="6" t="inlineStr">
         <is>
           <t>.1610</t>
         </is>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="27.75" customHeight="1">
       <c r="A25" s="2" t="n"/>
       <c r="B25" s="2" t="n"/>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
+      <c r="D25" s="6" t="inlineStr">
         <is>
           <t>.2062</t>
         </is>
       </c>
-      <c r="E25" s="3" t="inlineStr">
+      <c r="E25" s="6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F25" s="3" t="inlineStr">
+      <c r="F25" s="6" t="inlineStr">
         <is>
           <t>.2130</t>
         </is>
       </c>
-      <c r="G25" s="3" t="inlineStr">
+      <c r="G25" s="6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H25" s="3" t="inlineStr">
+      <c r="H25" s="6" t="inlineStr">
         <is>
           <t>.2280</t>
         </is>
@@ -13571,35 +13607,35 @@
       <c r="Q25" s="2" t="n"/>
       <c r="R25" s="2" t="n"/>
     </row>
-    <row r="26">
+    <row r="26" ht="27.75" customHeight="1">
       <c r="A26" s="2" t="n"/>
       <c r="B26" s="2" t="n"/>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="D26" s="3" t="inlineStr">
+      <c r="D26" s="6" t="inlineStr">
         <is>
           <t>.2117</t>
         </is>
       </c>
-      <c r="E26" s="3" t="inlineStr">
+      <c r="E26" s="6" t="inlineStr">
         <is>
           <t>7/32</t>
         </is>
       </c>
-      <c r="F26" s="3" t="inlineStr">
+      <c r="F26" s="6" t="inlineStr">
         <is>
           <t>.2188</t>
         </is>
       </c>
-      <c r="G26" s="3" t="inlineStr">
+      <c r="G26" s="6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H26" s="3" t="inlineStr">
+      <c r="H26" s="6" t="inlineStr">
         <is>
           <t>.2280</t>
         </is>
@@ -13615,127 +13651,127 @@
       <c r="Q26" s="2" t="n"/>
       <c r="R26" s="2" t="n"/>
     </row>
-    <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+    <row r="27" ht="27.75" customHeight="1">
+      <c r="A27" s="7" t="inlineStr">
         <is>
           <t>5/16</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="7" t="inlineStr">
         <is>
           <t>.3125</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="D27" s="4" t="inlineStr">
+      <c r="D27" s="7" t="inlineStr">
         <is>
           <t>.2443</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="7" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="7" t="inlineStr">
         <is>
           <t>.2570</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="G27" s="7" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="H27" s="4" t="inlineStr">
+      <c r="H27" s="7" t="inlineStr">
         <is>
           <t>.2770</t>
         </is>
       </c>
-      <c r="I27" s="4" t="inlineStr">
+      <c r="I27" s="7" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="J27" s="4" t="inlineStr">
+      <c r="J27" s="7" t="inlineStr">
         <is>
           <t>.3230</t>
         </is>
       </c>
-      <c r="K27" s="4" t="inlineStr">
+      <c r="K27" s="7" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="L27" s="4" t="inlineStr">
+      <c r="L27" s="7" t="inlineStr">
         <is>
           <t>.3320</t>
         </is>
       </c>
-      <c r="M27" s="4" t="inlineStr">
+      <c r="M27" s="7" t="inlineStr">
         <is>
           <t>1/4</t>
         </is>
       </c>
-      <c r="N27" s="4" t="inlineStr">
+      <c r="N27" s="7" t="inlineStr">
         <is>
           <t>17/32</t>
         </is>
       </c>
-      <c r="O27" s="4" t="inlineStr">
+      <c r="O27" s="7" t="inlineStr">
         <is>
           <t>.5312</t>
         </is>
       </c>
-      <c r="P27" s="4" t="inlineStr">
+      <c r="P27" s="7" t="inlineStr">
         <is>
           <t>.3460</t>
         </is>
       </c>
-      <c r="Q27" s="4" t="inlineStr">
+      <c r="Q27" s="7" t="inlineStr">
         <is>
           <t>3/16</t>
         </is>
       </c>
-      <c r="R27" s="4" t="inlineStr">
+      <c r="R27" s="7" t="inlineStr">
         <is>
           <t>.1980</t>
         </is>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="27.75" customHeight="1">
       <c r="A28" s="2" t="n"/>
       <c r="B28" s="2" t="n"/>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="7" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="D28" s="7" t="inlineStr">
         <is>
           <t>.2614</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="7" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="7" t="inlineStr">
         <is>
           <t>.2720</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="G28" s="7" t="inlineStr">
         <is>
           <t>9/32</t>
         </is>
       </c>
-      <c r="H28" s="4" t="inlineStr">
+      <c r="H28" s="7" t="inlineStr">
         <is>
           <t>.2812</t>
         </is>
@@ -13751,35 +13787,35 @@
       <c r="Q28" s="2" t="n"/>
       <c r="R28" s="2" t="n"/>
     </row>
-    <row r="29">
+    <row r="29" ht="27.75" customHeight="1">
       <c r="A29" s="2" t="n"/>
       <c r="B29" s="2" t="n"/>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="7" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr">
+      <c r="D29" s="7" t="inlineStr">
         <is>
           <t>.2742</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="7" t="inlineStr">
         <is>
           <t>9/32</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="7" t="inlineStr">
         <is>
           <t>.2812</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="G29" s="7" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="H29" s="4" t="inlineStr">
+      <c r="H29" s="7" t="inlineStr">
         <is>
           <t>.2900</t>
         </is>
@@ -13795,127 +13831,127 @@
       <c r="Q29" s="2" t="n"/>
       <c r="R29" s="2" t="n"/>
     </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+    <row r="30" ht="27.75" customHeight="1">
+      <c r="A30" s="6" t="inlineStr">
         <is>
           <t>3/8</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B30" s="6" t="inlineStr">
         <is>
           <t>.3750</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C30" s="6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr">
+      <c r="D30" s="6" t="inlineStr">
         <is>
           <t>.2983</t>
         </is>
       </c>
-      <c r="E30" s="3" t="inlineStr">
+      <c r="E30" s="6" t="inlineStr">
         <is>
           <t>5/16</t>
         </is>
       </c>
-      <c r="F30" s="3" t="inlineStr">
+      <c r="F30" s="6" t="inlineStr">
         <is>
           <t>.3125</t>
         </is>
       </c>
-      <c r="G30" s="3" t="inlineStr">
+      <c r="G30" s="6" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="H30" s="3" t="inlineStr">
+      <c r="H30" s="6" t="inlineStr">
         <is>
           <t>.3320</t>
         </is>
       </c>
-      <c r="I30" s="3" t="inlineStr">
+      <c r="I30" s="6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="J30" s="3" t="inlineStr">
+      <c r="J30" s="6" t="inlineStr">
         <is>
           <t>.3860</t>
         </is>
       </c>
-      <c r="K30" s="3" t="inlineStr">
+      <c r="K30" s="6" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="L30" s="3" t="inlineStr">
+      <c r="L30" s="6" t="inlineStr">
         <is>
           <t>.3970</t>
         </is>
       </c>
-      <c r="M30" s="3" t="inlineStr">
+      <c r="M30" s="6" t="inlineStr">
         <is>
           <t>5/16</t>
         </is>
       </c>
-      <c r="N30" s="3" t="inlineStr">
+      <c r="N30" s="6" t="inlineStr">
         <is>
           <t>5/8</t>
         </is>
       </c>
-      <c r="O30" s="3" t="inlineStr">
+      <c r="O30" s="6" t="inlineStr">
         <is>
           <t>.6250</t>
         </is>
       </c>
-      <c r="P30" s="3" t="inlineStr">
+      <c r="P30" s="6" t="inlineStr">
         <is>
           <t>.4150</t>
         </is>
       </c>
-      <c r="Q30" s="3" t="inlineStr">
+      <c r="Q30" s="6" t="inlineStr">
         <is>
           <t>7/32</t>
         </is>
       </c>
-      <c r="R30" s="3" t="inlineStr">
+      <c r="R30" s="6" t="inlineStr">
         <is>
           <t>.2340</t>
         </is>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="27.75" customHeight="1">
       <c r="A31" s="2" t="n"/>
       <c r="B31" s="2" t="n"/>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C31" s="6" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="D31" s="3" t="inlineStr">
+      <c r="D31" s="6" t="inlineStr">
         <is>
           <t>.3239</t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr">
+      <c r="E31" s="6" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="F31" s="3" t="inlineStr">
+      <c r="F31" s="6" t="inlineStr">
         <is>
           <t>.3320</t>
         </is>
       </c>
-      <c r="G31" s="3" t="inlineStr">
+      <c r="G31" s="6" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="H31" s="3" t="inlineStr">
+      <c r="H31" s="6" t="inlineStr">
         <is>
           <t>.3480</t>
         </is>
@@ -13931,35 +13967,35 @@
       <c r="Q31" s="2" t="n"/>
       <c r="R31" s="2" t="n"/>
     </row>
-    <row r="32">
+    <row r="32" ht="27.75" customHeight="1">
       <c r="A32" s="2" t="n"/>
       <c r="B32" s="2" t="n"/>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C32" s="6" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
+      <c r="D32" s="6" t="inlineStr">
         <is>
           <t>.3367</t>
         </is>
       </c>
-      <c r="E32" s="3" t="inlineStr">
+      <c r="E32" s="6" t="inlineStr">
         <is>
           <t>11/32</t>
         </is>
       </c>
-      <c r="F32" s="3" t="inlineStr">
+      <c r="F32" s="6" t="inlineStr">
         <is>
           <t>.3438</t>
         </is>
       </c>
-      <c r="G32" s="3" t="inlineStr">
+      <c r="G32" s="6" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="H32" s="3" t="inlineStr">
+      <c r="H32" s="6" t="inlineStr">
         <is>
           <t>.3580</t>
         </is>
@@ -13975,127 +14011,127 @@
       <c r="Q32" s="2" t="n"/>
       <c r="R32" s="2" t="n"/>
     </row>
-    <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+    <row r="33" ht="27.75" customHeight="1">
+      <c r="A33" s="7" t="inlineStr">
         <is>
           <t>7/16</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="7" t="inlineStr">
         <is>
           <t>.4375</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="7" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="D33" s="4" t="inlineStr">
+      <c r="D33" s="7" t="inlineStr">
         <is>
           <t>.3499</t>
         </is>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E33" s="7" t="inlineStr">
         <is>
           <t>U</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" s="7" t="inlineStr">
         <is>
           <t>.3680</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="G33" s="7" t="inlineStr">
         <is>
           <t>25/64</t>
         </is>
       </c>
-      <c r="H33" s="4" t="inlineStr">
+      <c r="H33" s="7" t="inlineStr">
         <is>
           <t>.3906</t>
         </is>
       </c>
-      <c r="I33" s="4" t="inlineStr">
+      <c r="I33" s="7" t="inlineStr">
         <is>
           <t>29/64</t>
         </is>
       </c>
-      <c r="J33" s="4" t="inlineStr">
+      <c r="J33" s="7" t="inlineStr">
         <is>
           <t>.4531</t>
         </is>
       </c>
-      <c r="K33" s="4" t="inlineStr">
+      <c r="K33" s="7" t="inlineStr">
         <is>
           <t>15/32</t>
         </is>
       </c>
-      <c r="L33" s="4" t="inlineStr">
+      <c r="L33" s="7" t="inlineStr">
         <is>
           <t>.4688</t>
         </is>
       </c>
-      <c r="M33" s="4" t="inlineStr">
+      <c r="M33" s="7" t="inlineStr">
         <is>
           <t>3/8</t>
         </is>
       </c>
-      <c r="N33" s="4" t="inlineStr">
+      <c r="N33" s="7" t="inlineStr">
         <is>
           <t>23/32</t>
         </is>
       </c>
-      <c r="O33" s="4" t="inlineStr">
+      <c r="O33" s="7" t="inlineStr">
         <is>
           <t>.7188</t>
         </is>
       </c>
-      <c r="P33" s="4" t="inlineStr">
+      <c r="P33" s="7" t="inlineStr">
         <is>
           <t>.4830</t>
         </is>
       </c>
-      <c r="Q33" s="4" t="inlineStr">
+      <c r="Q33" s="7" t="inlineStr">
         <is>
           <t>1/4</t>
         </is>
       </c>
-      <c r="R33" s="4" t="inlineStr">
+      <c r="R33" s="7" t="inlineStr">
         <is>
           <t>.2340</t>
         </is>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="27.75" customHeight="1">
       <c r="A34" s="2" t="n"/>
       <c r="B34" s="2" t="n"/>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C34" s="7" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D34" s="4" t="inlineStr">
+      <c r="D34" s="7" t="inlineStr">
         <is>
           <t>.3762</t>
         </is>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="E34" s="7" t="inlineStr">
         <is>
           <t>25/64</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="F34" s="7" t="inlineStr">
         <is>
           <t>.3906</t>
         </is>
       </c>
-      <c r="G34" s="4" t="inlineStr">
+      <c r="G34" s="7" t="inlineStr">
         <is>
           <t>13/32</t>
         </is>
       </c>
-      <c r="H34" s="4" t="inlineStr">
+      <c r="H34" s="7" t="inlineStr">
         <is>
           <t>.4062</t>
         </is>
@@ -14111,35 +14147,35 @@
       <c r="Q34" s="2" t="n"/>
       <c r="R34" s="2" t="n"/>
     </row>
-    <row r="35">
+    <row r="35" ht="27.75" customHeight="1">
       <c r="A35" s="2" t="n"/>
       <c r="B35" s="2" t="n"/>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="7" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="D35" s="4" t="inlineStr">
+      <c r="D35" s="7" t="inlineStr">
         <is>
           <t>.3937</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E35" s="7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="7" t="inlineStr">
         <is>
           <t>.4040</t>
         </is>
       </c>
-      <c r="G35" s="4" t="inlineStr">
+      <c r="G35" s="7" t="inlineStr">
         <is>
           <t>Z</t>
         </is>
       </c>
-      <c r="H35" s="4" t="inlineStr">
+      <c r="H35" s="7" t="inlineStr">
         <is>
           <t>.4130</t>
         </is>
@@ -14155,127 +14191,127 @@
       <c r="Q35" s="2" t="n"/>
       <c r="R35" s="2" t="n"/>
     </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+    <row r="36" ht="27.75" customHeight="1">
+      <c r="A36" s="6" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B36" s="6" t="inlineStr">
         <is>
           <t>.5000</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="C36" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr">
+      <c r="D36" s="6" t="inlineStr">
         <is>
           <t>.4056</t>
         </is>
       </c>
-      <c r="E36" s="3" t="inlineStr">
+      <c r="E36" s="6" t="inlineStr">
         <is>
           <t>27/64</t>
         </is>
       </c>
-      <c r="F36" s="3" t="inlineStr">
+      <c r="F36" s="6" t="inlineStr">
         <is>
           <t>.4219</t>
         </is>
       </c>
-      <c r="G36" s="3" t="inlineStr">
+      <c r="G36" s="6" t="inlineStr">
         <is>
           <t>29/64</t>
         </is>
       </c>
-      <c r="H36" s="3" t="inlineStr">
+      <c r="H36" s="6" t="inlineStr">
         <is>
           <t>.4531</t>
         </is>
       </c>
-      <c r="I36" s="3" t="inlineStr">
+      <c r="I36" s="6" t="inlineStr">
         <is>
           <t>33/64</t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr">
+      <c r="J36" s="6" t="inlineStr">
         <is>
           <t>.5156</t>
         </is>
       </c>
-      <c r="K36" s="3" t="inlineStr">
+      <c r="K36" s="6" t="inlineStr">
         <is>
           <t>17/32</t>
         </is>
       </c>
-      <c r="L36" s="3" t="inlineStr">
+      <c r="L36" s="6" t="inlineStr">
         <is>
           <t>.5312</t>
         </is>
       </c>
-      <c r="M36" s="3" t="inlineStr">
+      <c r="M36" s="6" t="inlineStr">
         <is>
           <t>3/8</t>
         </is>
       </c>
-      <c r="N36" s="3" t="inlineStr">
+      <c r="N36" s="6" t="inlineStr">
         <is>
           <t>13/16</t>
         </is>
       </c>
-      <c r="O36" s="3" t="inlineStr">
+      <c r="O36" s="6" t="inlineStr">
         <is>
           <t>.8125</t>
         </is>
       </c>
-      <c r="P36" s="3" t="inlineStr">
+      <c r="P36" s="6" t="inlineStr">
         <is>
           <t>.5520</t>
         </is>
       </c>
-      <c r="Q36" s="3" t="inlineStr">
+      <c r="Q36" s="6" t="inlineStr">
         <is>
           <t>5/16</t>
         </is>
       </c>
-      <c r="R36" s="3" t="inlineStr">
+      <c r="R36" s="6" t="inlineStr">
         <is>
           <t>.2510</t>
         </is>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="27.75" customHeight="1">
       <c r="A37" s="2" t="n"/>
       <c r="B37" s="2" t="n"/>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="C37" s="6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D37" s="3" t="inlineStr">
+      <c r="D37" s="6" t="inlineStr">
         <is>
           <t>.4387</t>
         </is>
       </c>
-      <c r="E37" s="3" t="inlineStr">
+      <c r="E37" s="6" t="inlineStr">
         <is>
           <t>29/64</t>
         </is>
       </c>
-      <c r="F37" s="3" t="inlineStr">
+      <c r="F37" s="6" t="inlineStr">
         <is>
           <t>.4531</t>
         </is>
       </c>
-      <c r="G37" s="3" t="inlineStr">
+      <c r="G37" s="6" t="inlineStr">
         <is>
           <t>15/32</t>
         </is>
       </c>
-      <c r="H37" s="3" t="inlineStr">
+      <c r="H37" s="6" t="inlineStr">
         <is>
           <t>.4688</t>
         </is>
@@ -14291,35 +14327,35 @@
       <c r="Q37" s="2" t="n"/>
       <c r="R37" s="2" t="n"/>
     </row>
-    <row r="38">
+    <row r="38" ht="27.75" customHeight="1">
       <c r="A38" s="2" t="n"/>
       <c r="B38" s="2" t="n"/>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C38" s="6" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr">
+      <c r="D38" s="6" t="inlineStr">
         <is>
           <t>.4562</t>
         </is>
       </c>
-      <c r="E38" s="3" t="inlineStr">
+      <c r="E38" s="6" t="inlineStr">
         <is>
           <t>15/32</t>
         </is>
       </c>
-      <c r="F38" s="3" t="inlineStr">
+      <c r="F38" s="6" t="inlineStr">
         <is>
           <t>.4688</t>
         </is>
       </c>
-      <c r="G38" s="3" t="inlineStr">
+      <c r="G38" s="6" t="inlineStr">
         <is>
           <t>15/32</t>
         </is>
       </c>
-      <c r="H38" s="3" t="inlineStr">
+      <c r="H38" s="6" t="inlineStr">
         <is>
           <t>.4688</t>
         </is>
@@ -14335,119 +14371,119 @@
       <c r="Q38" s="2" t="n"/>
       <c r="R38" s="2" t="n"/>
     </row>
-    <row r="39">
-      <c r="A39" s="4" t="inlineStr">
+    <row r="39" ht="27.75" customHeight="1">
+      <c r="A39" s="7" t="inlineStr">
         <is>
           <t>9/16</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B39" s="7" t="inlineStr">
         <is>
           <t>.5625</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C39" s="7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="D39" s="4" t="inlineStr">
+      <c r="D39" s="7" t="inlineStr">
         <is>
           <t>.4603</t>
         </is>
       </c>
-      <c r="E39" s="4" t="inlineStr">
+      <c r="E39" s="7" t="inlineStr">
         <is>
           <t>31/64</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="F39" s="7" t="inlineStr">
         <is>
           <t>.4844</t>
         </is>
       </c>
-      <c r="G39" s="4" t="inlineStr">
+      <c r="G39" s="7" t="inlineStr">
         <is>
           <t>33/64</t>
         </is>
       </c>
-      <c r="H39" s="4" t="inlineStr">
+      <c r="H39" s="7" t="inlineStr">
         <is>
           <t>.5156</t>
         </is>
       </c>
-      <c r="I39" s="4" t="inlineStr">
+      <c r="I39" s="7" t="inlineStr">
         <is>
           <t>37/64</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="7" t="inlineStr">
         <is>
           <t>.5781</t>
         </is>
       </c>
-      <c r="K39" s="4" t="inlineStr">
+      <c r="K39" s="7" t="inlineStr">
         <is>
           <t>19/32</t>
         </is>
       </c>
-      <c r="L39" s="4" t="inlineStr">
+      <c r="L39" s="7" t="inlineStr">
         <is>
           <t>.5938</t>
         </is>
       </c>
-      <c r="M39" s="4" t="inlineStr">
+      <c r="M39" s="7" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="N39" s="4" t="inlineStr">
+      <c r="N39" s="7" t="inlineStr">
         <is>
           <t>29/32</t>
         </is>
       </c>
-      <c r="O39" s="4" t="inlineStr">
+      <c r="O39" s="7" t="inlineStr">
         <is>
           <t>.9062</t>
         </is>
       </c>
-      <c r="P39" s="4" t="inlineStr">
+      <c r="P39" s="7" t="inlineStr">
         <is>
           <t>.5940</t>
         </is>
       </c>
-      <c r="Q39" s="4" t="n"/>
-      <c r="R39" s="4" t="n"/>
-    </row>
-    <row r="40">
+      <c r="Q39" s="7" t="n"/>
+      <c r="R39" s="7" t="n"/>
+    </row>
+    <row r="40" ht="27.75" customHeight="1">
       <c r="A40" s="2" t="n"/>
       <c r="B40" s="2" t="n"/>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="D40" s="4" t="inlineStr">
+      <c r="D40" s="7" t="inlineStr">
         <is>
           <t>.4943</t>
         </is>
       </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="E40" s="7" t="inlineStr">
         <is>
           <t>33/64</t>
         </is>
       </c>
-      <c r="F40" s="4" t="inlineStr">
+      <c r="F40" s="7" t="inlineStr">
         <is>
           <t>.5156</t>
         </is>
       </c>
-      <c r="G40" s="4" t="inlineStr">
+      <c r="G40" s="7" t="inlineStr">
         <is>
           <t>17/32</t>
         </is>
       </c>
-      <c r="H40" s="4" t="inlineStr">
+      <c r="H40" s="7" t="inlineStr">
         <is>
           <t>.5312</t>
         </is>
@@ -14463,35 +14499,35 @@
       <c r="Q40" s="2" t="n"/>
       <c r="R40" s="2" t="n"/>
     </row>
-    <row r="41">
+    <row r="41" ht="27.75" customHeight="1">
       <c r="A41" s="2" t="n"/>
       <c r="B41" s="2" t="n"/>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="C41" s="7" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="D41" s="4" t="inlineStr">
+      <c r="D41" s="7" t="inlineStr">
         <is>
           <t>.5114</t>
         </is>
       </c>
-      <c r="E41" s="4" t="inlineStr">
+      <c r="E41" s="7" t="inlineStr">
         <is>
           <t>33/64</t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr">
+      <c r="F41" s="7" t="inlineStr">
         <is>
           <t>.5156</t>
         </is>
       </c>
-      <c r="G41" s="4" t="inlineStr">
+      <c r="G41" s="7" t="inlineStr">
         <is>
           <t>17/32</t>
         </is>
       </c>
-      <c r="H41" s="4" t="inlineStr">
+      <c r="H41" s="7" t="inlineStr">
         <is>
           <t>.5312</t>
         </is>
@@ -14507,127 +14543,127 @@
       <c r="Q41" s="2" t="n"/>
       <c r="R41" s="2" t="n"/>
     </row>
-    <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+    <row r="42" ht="27.75" customHeight="1">
+      <c r="A42" s="6" t="inlineStr">
         <is>
           <t>5/8</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B42" s="6" t="inlineStr">
         <is>
           <t>.6250</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C42" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
+      <c r="D42" s="6" t="inlineStr">
         <is>
           <t>.5135</t>
         </is>
       </c>
-      <c r="E42" s="3" t="inlineStr">
+      <c r="E42" s="6" t="inlineStr">
         <is>
           <t>17/32</t>
         </is>
       </c>
-      <c r="F42" s="3" t="inlineStr">
+      <c r="F42" s="6" t="inlineStr">
         <is>
           <t>.5312</t>
         </is>
       </c>
-      <c r="G42" s="3" t="inlineStr">
+      <c r="G42" s="6" t="inlineStr">
         <is>
           <t>9/16</t>
         </is>
       </c>
-      <c r="H42" s="3" t="inlineStr">
+      <c r="H42" s="6" t="inlineStr">
         <is>
           <t>.5625</t>
         </is>
       </c>
-      <c r="I42" s="3" t="inlineStr">
+      <c r="I42" s="6" t="inlineStr">
         <is>
           <t>41/64</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
+      <c r="J42" s="6" t="inlineStr">
         <is>
           <t>.6406</t>
         </is>
       </c>
-      <c r="K42" s="3" t="inlineStr">
+      <c r="K42" s="6" t="inlineStr">
         <is>
           <t>21/32</t>
         </is>
       </c>
-      <c r="L42" s="3" t="inlineStr">
+      <c r="L42" s="6" t="inlineStr">
         <is>
           <t>.6562</t>
         </is>
       </c>
-      <c r="M42" s="3" t="inlineStr">
+      <c r="M42" s="6" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="N42" s="3" t="inlineStr">
+      <c r="N42" s="6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O42" s="3" t="inlineStr">
+      <c r="O42" s="6" t="inlineStr">
         <is>
           <t>1.000</t>
         </is>
       </c>
-      <c r="P42" s="3" t="inlineStr">
+      <c r="P42" s="6" t="inlineStr">
         <is>
           <t>.6890</t>
         </is>
       </c>
-      <c r="Q42" s="3" t="inlineStr">
+      <c r="Q42" s="6" t="inlineStr">
         <is>
           <t>3/8</t>
         </is>
       </c>
-      <c r="R42" s="3" t="inlineStr">
+      <c r="R42" s="6" t="inlineStr">
         <is>
           <t>.3240</t>
         </is>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="27.75" customHeight="1">
       <c r="A43" s="2" t="n"/>
       <c r="B43" s="2" t="n"/>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C43" s="6" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="D43" s="6" t="inlineStr">
         <is>
           <t>.5568</t>
         </is>
       </c>
-      <c r="E43" s="3" t="inlineStr">
+      <c r="E43" s="6" t="inlineStr">
         <is>
           <t>37/64</t>
         </is>
       </c>
-      <c r="F43" s="3" t="inlineStr">
+      <c r="F43" s="6" t="inlineStr">
         <is>
           <t>.5781</t>
         </is>
       </c>
-      <c r="G43" s="3" t="inlineStr">
+      <c r="G43" s="6" t="inlineStr">
         <is>
           <t>19/32</t>
         </is>
       </c>
-      <c r="H43" s="3" t="inlineStr">
+      <c r="H43" s="6" t="inlineStr">
         <is>
           <t>.5938</t>
         </is>
@@ -14643,35 +14679,35 @@
       <c r="Q43" s="2" t="n"/>
       <c r="R43" s="2" t="n"/>
     </row>
-    <row r="44">
+    <row r="44" ht="27.75" customHeight="1">
       <c r="A44" s="2" t="n"/>
       <c r="B44" s="2" t="n"/>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C44" s="6" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="D44" s="6" t="inlineStr">
         <is>
           <t>.5739</t>
         </is>
       </c>
-      <c r="E44" s="3" t="inlineStr">
+      <c r="E44" s="6" t="inlineStr">
         <is>
           <t>37/64</t>
         </is>
       </c>
-      <c r="F44" s="3" t="inlineStr">
+      <c r="F44" s="6" t="inlineStr">
         <is>
           <t>.5781</t>
         </is>
       </c>
-      <c r="G44" s="3" t="inlineStr">
+      <c r="G44" s="6" t="inlineStr">
         <is>
           <t>19/32</t>
         </is>
       </c>
-      <c r="H44" s="3" t="inlineStr">
+      <c r="H44" s="6" t="inlineStr">
         <is>
           <t>.5938</t>
         </is>
@@ -14687,195 +14723,195 @@
       <c r="Q44" s="2" t="n"/>
       <c r="R44" s="2" t="n"/>
     </row>
-    <row r="45">
-      <c r="A45" s="4" t="inlineStr">
+    <row r="45" ht="27.75" customHeight="1">
+      <c r="A45" s="7" t="inlineStr">
         <is>
           <t>11/16</t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="B45" s="7" t="inlineStr">
         <is>
           <t>.6875</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="C45" s="7" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="D45" s="4" t="inlineStr">
+      <c r="D45" s="7" t="inlineStr">
         <is>
           <t>.6364</t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr">
+      <c r="E45" s="7" t="inlineStr">
         <is>
           <t>41/64</t>
         </is>
       </c>
-      <c r="F45" s="4" t="inlineStr">
+      <c r="F45" s="7" t="inlineStr">
         <is>
           <t>.6406</t>
         </is>
       </c>
-      <c r="G45" s="4" t="inlineStr">
+      <c r="G45" s="7" t="inlineStr">
         <is>
           <t>21/32</t>
         </is>
       </c>
-      <c r="H45" s="4" t="inlineStr">
+      <c r="H45" s="7" t="inlineStr">
         <is>
           <t>.6562</t>
         </is>
       </c>
-      <c r="I45" s="4" t="inlineStr">
+      <c r="I45" s="7" t="inlineStr">
         <is>
           <t>45/64</t>
         </is>
       </c>
-      <c r="J45" s="4" t="inlineStr">
+      <c r="J45" s="7" t="inlineStr">
         <is>
           <t>.7031</t>
         </is>
       </c>
-      <c r="K45" s="4" t="inlineStr">
+      <c r="K45" s="7" t="inlineStr">
         <is>
           <t>23/32</t>
         </is>
       </c>
-      <c r="L45" s="4" t="inlineStr">
+      <c r="L45" s="7" t="inlineStr">
         <is>
           <t>.7188</t>
         </is>
       </c>
-      <c r="M45" s="4" t="n"/>
-      <c r="N45" s="4" t="n"/>
-      <c r="O45" s="4" t="n"/>
-      <c r="P45" s="4" t="n"/>
-      <c r="Q45" s="4" t="n"/>
-      <c r="R45" s="4" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="M45" s="7" t="n"/>
+      <c r="N45" s="7" t="n"/>
+      <c r="O45" s="7" t="n"/>
+      <c r="P45" s="7" t="n"/>
+      <c r="Q45" s="7" t="n"/>
+      <c r="R45" s="7" t="n"/>
+    </row>
+    <row r="46" ht="27.75" customHeight="1">
+      <c r="A46" s="6" t="inlineStr">
         <is>
           <t>3/4</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B46" s="6" t="inlineStr">
         <is>
           <t>.7500</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="C46" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D46" s="3" t="inlineStr">
+      <c r="D46" s="6" t="inlineStr">
         <is>
           <t>.6273</t>
         </is>
       </c>
-      <c r="E46" s="3" t="inlineStr">
+      <c r="E46" s="6" t="inlineStr">
         <is>
           <t>21/32</t>
         </is>
       </c>
-      <c r="F46" s="3" t="inlineStr">
+      <c r="F46" s="6" t="inlineStr">
         <is>
           <t>.6562</t>
         </is>
       </c>
-      <c r="G46" s="3" t="inlineStr">
+      <c r="G46" s="6" t="inlineStr">
         <is>
           <t>11/16</t>
         </is>
       </c>
-      <c r="H46" s="3" t="inlineStr">
+      <c r="H46" s="6" t="inlineStr">
         <is>
           <t>.6875</t>
         </is>
       </c>
-      <c r="I46" s="3" t="inlineStr">
+      <c r="I46" s="6" t="inlineStr">
         <is>
           <t>49/64</t>
         </is>
       </c>
-      <c r="J46" s="3" t="inlineStr">
+      <c r="J46" s="6" t="inlineStr">
         <is>
           <t>.7656</t>
         </is>
       </c>
-      <c r="K46" s="3" t="inlineStr">
+      <c r="K46" s="6" t="inlineStr">
         <is>
           <t>25/32</t>
         </is>
       </c>
-      <c r="L46" s="3" t="inlineStr">
+      <c r="L46" s="6" t="inlineStr">
         <is>
           <t>.7812</t>
         </is>
       </c>
-      <c r="M46" s="3" t="inlineStr">
+      <c r="M46" s="6" t="inlineStr">
         <is>
           <t>5/8</t>
         </is>
       </c>
-      <c r="N46" s="3" t="inlineStr">
+      <c r="N46" s="6" t="inlineStr">
         <is>
           <t>1-3/16</t>
         </is>
       </c>
-      <c r="O46" s="3" t="inlineStr">
+      <c r="O46" s="6" t="inlineStr">
         <is>
           <t>1.1875</t>
         </is>
       </c>
-      <c r="P46" s="3" t="inlineStr">
+      <c r="P46" s="6" t="inlineStr">
         <is>
           <t>.8280</t>
         </is>
       </c>
-      <c r="Q46" s="3" t="inlineStr">
+      <c r="Q46" s="6" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="R46" s="3" t="inlineStr">
+      <c r="R46" s="6" t="inlineStr">
         <is>
           <t>.3960</t>
         </is>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="27.75" customHeight="1">
       <c r="A47" s="2" t="n"/>
       <c r="B47" s="2" t="n"/>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="C47" s="6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
+      <c r="D47" s="6" t="inlineStr">
         <is>
           <t>.6733</t>
         </is>
       </c>
-      <c r="E47" s="3" t="inlineStr">
+      <c r="E47" s="6" t="inlineStr">
         <is>
           <t>11/16</t>
         </is>
       </c>
-      <c r="F47" s="3" t="inlineStr">
+      <c r="F47" s="6" t="inlineStr">
         <is>
           <t>.6875</t>
         </is>
       </c>
-      <c r="G47" s="3" t="inlineStr">
+      <c r="G47" s="6" t="inlineStr">
         <is>
           <t>45/64</t>
         </is>
       </c>
-      <c r="H47" s="3" t="inlineStr">
+      <c r="H47" s="6" t="inlineStr">
         <is>
           <t>.7031</t>
         </is>
@@ -14891,35 +14927,35 @@
       <c r="Q47" s="2" t="n"/>
       <c r="R47" s="2" t="n"/>
     </row>
-    <row r="48">
+    <row r="48" ht="27.75" customHeight="1">
       <c r="A48" s="2" t="n"/>
       <c r="B48" s="2" t="n"/>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="C48" s="6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D48" s="3" t="inlineStr">
+      <c r="D48" s="6" t="inlineStr">
         <is>
           <t>.6887</t>
         </is>
       </c>
-      <c r="E48" s="3" t="inlineStr">
+      <c r="E48" s="6" t="inlineStr">
         <is>
           <t>45/64</t>
         </is>
       </c>
-      <c r="F48" s="3" t="inlineStr">
+      <c r="F48" s="6" t="inlineStr">
         <is>
           <t>.7031</t>
         </is>
       </c>
-      <c r="G48" s="3" t="inlineStr">
+      <c r="G48" s="6" t="inlineStr">
         <is>
           <t>23/32</t>
         </is>
       </c>
-      <c r="H48" s="3" t="inlineStr">
+      <c r="H48" s="6" t="inlineStr">
         <is>
           <t>.7188</t>
         </is>
@@ -14935,195 +14971,195 @@
       <c r="Q48" s="2" t="n"/>
       <c r="R48" s="2" t="n"/>
     </row>
-    <row r="49">
-      <c r="A49" s="4" t="inlineStr">
+    <row r="49" ht="27.75" customHeight="1">
+      <c r="A49" s="7" t="inlineStr">
         <is>
           <t>13/16</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="B49" s="7" t="inlineStr">
         <is>
           <t>.8125</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="C49" s="7" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D49" s="4" t="inlineStr">
+      <c r="D49" s="7" t="inlineStr">
         <is>
           <t>.7512</t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr">
+      <c r="E49" s="7" t="inlineStr">
         <is>
           <t>49/64</t>
         </is>
       </c>
-      <c r="F49" s="4" t="inlineStr">
+      <c r="F49" s="7" t="inlineStr">
         <is>
           <t>.7656</t>
         </is>
       </c>
-      <c r="G49" s="4" t="inlineStr">
+      <c r="G49" s="7" t="inlineStr">
         <is>
           <t>25/32</t>
         </is>
       </c>
-      <c r="H49" s="4" t="inlineStr">
+      <c r="H49" s="7" t="inlineStr">
         <is>
           <t>.7812</t>
         </is>
       </c>
-      <c r="I49" s="4" t="inlineStr">
+      <c r="I49" s="7" t="inlineStr">
         <is>
           <t>53/64</t>
         </is>
       </c>
-      <c r="J49" s="4" t="inlineStr">
+      <c r="J49" s="7" t="inlineStr">
         <is>
           <t>.8281</t>
         </is>
       </c>
-      <c r="K49" s="4" t="inlineStr">
+      <c r="K49" s="7" t="inlineStr">
         <is>
           <t>27/32</t>
         </is>
       </c>
-      <c r="L49" s="4" t="inlineStr">
+      <c r="L49" s="7" t="inlineStr">
         <is>
           <t>.8438</t>
         </is>
       </c>
-      <c r="M49" s="4" t="n"/>
-      <c r="N49" s="4" t="n"/>
-      <c r="O49" s="4" t="n"/>
-      <c r="P49" s="4" t="n"/>
-      <c r="Q49" s="4" t="n"/>
-      <c r="R49" s="4" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
+      <c r="M49" s="7" t="n"/>
+      <c r="N49" s="7" t="n"/>
+      <c r="O49" s="7" t="n"/>
+      <c r="P49" s="7" t="n"/>
+      <c r="Q49" s="7" t="n"/>
+      <c r="R49" s="7" t="n"/>
+    </row>
+    <row r="50" ht="27.75" customHeight="1">
+      <c r="A50" s="6" t="inlineStr">
         <is>
           <t>7/8</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B50" s="6" t="inlineStr">
         <is>
           <t>.8750</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C50" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="D50" s="3" t="inlineStr">
+      <c r="D50" s="6" t="inlineStr">
         <is>
           <t>.7387</t>
         </is>
       </c>
-      <c r="E50" s="3" t="inlineStr">
+      <c r="E50" s="6" t="inlineStr">
         <is>
           <t>49/64</t>
         </is>
       </c>
-      <c r="F50" s="3" t="inlineStr">
+      <c r="F50" s="6" t="inlineStr">
         <is>
           <t>.7656</t>
         </is>
       </c>
-      <c r="G50" s="3" t="inlineStr">
+      <c r="G50" s="6" t="inlineStr">
         <is>
           <t>51/64</t>
         </is>
       </c>
-      <c r="H50" s="3" t="inlineStr">
+      <c r="H50" s="6" t="inlineStr">
         <is>
           <t>.7969</t>
         </is>
       </c>
-      <c r="I50" s="3" t="inlineStr">
+      <c r="I50" s="6" t="inlineStr">
         <is>
           <t>57/64</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
+      <c r="J50" s="6" t="inlineStr">
         <is>
           <t>.8906</t>
         </is>
       </c>
-      <c r="K50" s="3" t="inlineStr">
+      <c r="K50" s="6" t="inlineStr">
         <is>
           <t>29/32</t>
         </is>
       </c>
-      <c r="L50" s="3" t="inlineStr">
+      <c r="L50" s="6" t="inlineStr">
         <is>
           <t>.9062</t>
         </is>
       </c>
-      <c r="M50" s="3" t="inlineStr">
+      <c r="M50" s="6" t="inlineStr">
         <is>
           <t>3/4</t>
         </is>
       </c>
-      <c r="N50" s="3" t="inlineStr">
+      <c r="N50" s="6" t="inlineStr">
         <is>
           <t>1-3/8</t>
         </is>
       </c>
-      <c r="O50" s="3" t="inlineStr">
+      <c r="O50" s="6" t="inlineStr">
         <is>
           <t>1.3750</t>
         </is>
       </c>
-      <c r="P50" s="3" t="inlineStr">
+      <c r="P50" s="6" t="inlineStr">
         <is>
           <t>.9630</t>
         </is>
       </c>
-      <c r="Q50" s="3" t="inlineStr">
+      <c r="Q50" s="6" t="inlineStr">
         <is>
           <t>9/16</t>
         </is>
       </c>
-      <c r="R50" s="3" t="inlineStr">
+      <c r="R50" s="6" t="inlineStr">
         <is>
           <t>.4680</t>
         </is>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="27.75" customHeight="1">
       <c r="A51" s="2" t="n"/>
       <c r="B51" s="2" t="n"/>
-      <c r="C51" s="3" t="inlineStr">
+      <c r="C51" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="D51" s="3" t="inlineStr">
+      <c r="D51" s="6" t="inlineStr">
         <is>
           <t>.7874</t>
         </is>
       </c>
-      <c r="E51" s="3" t="inlineStr">
+      <c r="E51" s="6" t="inlineStr">
         <is>
           <t>13/16</t>
         </is>
       </c>
-      <c r="F51" s="3" t="inlineStr">
+      <c r="F51" s="6" t="inlineStr">
         <is>
           <t>.8125</t>
         </is>
       </c>
-      <c r="G51" s="3" t="inlineStr">
+      <c r="G51" s="6" t="inlineStr">
         <is>
           <t>53/64</t>
         </is>
       </c>
-      <c r="H51" s="3" t="inlineStr">
+      <c r="H51" s="6" t="inlineStr">
         <is>
           <t>.8281</t>
         </is>
@@ -15139,35 +15175,35 @@
       <c r="Q51" s="2" t="n"/>
       <c r="R51" s="2" t="n"/>
     </row>
-    <row r="52">
+    <row r="52" ht="27.75" customHeight="1">
       <c r="A52" s="2" t="n"/>
       <c r="B52" s="2" t="n"/>
-      <c r="C52" s="3" t="inlineStr">
+      <c r="C52" s="6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D52" s="3" t="inlineStr">
+      <c r="D52" s="6" t="inlineStr">
         <is>
           <t>.8137</t>
         </is>
       </c>
-      <c r="E52" s="3" t="inlineStr">
+      <c r="E52" s="6" t="inlineStr">
         <is>
           <t>53/64</t>
         </is>
       </c>
-      <c r="F52" s="3" t="inlineStr">
+      <c r="F52" s="6" t="inlineStr">
         <is>
           <t>.8281</t>
         </is>
       </c>
-      <c r="G52" s="3" t="inlineStr">
+      <c r="G52" s="6" t="inlineStr">
         <is>
           <t>27/32</t>
         </is>
       </c>
-      <c r="H52" s="3" t="inlineStr">
+      <c r="H52" s="6" t="inlineStr">
         <is>
           <t>.8438</t>
         </is>
@@ -15183,195 +15219,195 @@
       <c r="Q52" s="2" t="n"/>
       <c r="R52" s="2" t="n"/>
     </row>
-    <row r="53">
-      <c r="A53" s="4" t="inlineStr">
+    <row r="53" ht="27.75" customHeight="1">
+      <c r="A53" s="7" t="inlineStr">
         <is>
           <t>15/16</t>
         </is>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="B53" s="7" t="inlineStr">
         <is>
           <t>.9375</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="C53" s="7" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D53" s="4" t="inlineStr">
+      <c r="D53" s="7" t="inlineStr">
         <is>
           <t>.8762</t>
         </is>
       </c>
-      <c r="E53" s="4" t="inlineStr">
+      <c r="E53" s="7" t="inlineStr">
         <is>
           <t>57/64</t>
         </is>
       </c>
-      <c r="F53" s="4" t="inlineStr">
+      <c r="F53" s="7" t="inlineStr">
         <is>
           <t>.8906</t>
         </is>
       </c>
-      <c r="G53" s="4" t="inlineStr">
+      <c r="G53" s="7" t="inlineStr">
         <is>
           <t>29/32</t>
         </is>
       </c>
-      <c r="H53" s="4" t="inlineStr">
+      <c r="H53" s="7" t="inlineStr">
         <is>
           <t>.9062</t>
         </is>
       </c>
-      <c r="I53" s="4" t="inlineStr">
+      <c r="I53" s="7" t="inlineStr">
         <is>
           <t>61/64</t>
         </is>
       </c>
-      <c r="J53" s="4" t="inlineStr">
+      <c r="J53" s="7" t="inlineStr">
         <is>
           <t>.9531</t>
         </is>
       </c>
-      <c r="K53" s="4" t="inlineStr">
+      <c r="K53" s="7" t="inlineStr">
         <is>
           <t>31/32</t>
         </is>
       </c>
-      <c r="L53" s="4" t="inlineStr">
+      <c r="L53" s="7" t="inlineStr">
         <is>
           <t>.9688</t>
         </is>
       </c>
-      <c r="M53" s="4" t="n"/>
-      <c r="N53" s="4" t="n"/>
-      <c r="O53" s="4" t="n"/>
-      <c r="P53" s="4" t="n"/>
-      <c r="Q53" s="4" t="n"/>
-      <c r="R53" s="4" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="M53" s="7" t="n"/>
+      <c r="N53" s="7" t="n"/>
+      <c r="O53" s="7" t="n"/>
+      <c r="P53" s="7" t="n"/>
+      <c r="Q53" s="7" t="n"/>
+      <c r="R53" s="7" t="n"/>
+    </row>
+    <row r="54" ht="27.75" customHeight="1">
+      <c r="A54" s="6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B54" s="6" t="inlineStr">
         <is>
           <t>1.000</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="C54" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D54" s="3" t="inlineStr">
+      <c r="D54" s="6" t="inlineStr">
         <is>
           <t>.8466</t>
         </is>
       </c>
-      <c r="E54" s="3" t="inlineStr">
+      <c r="E54" s="6" t="inlineStr">
         <is>
           <t>7/8</t>
         </is>
       </c>
-      <c r="F54" s="3" t="inlineStr">
+      <c r="F54" s="6" t="inlineStr">
         <is>
           <t>.8750</t>
         </is>
       </c>
-      <c r="G54" s="3" t="inlineStr">
+      <c r="G54" s="6" t="inlineStr">
         <is>
           <t>59/64</t>
         </is>
       </c>
-      <c r="H54" s="3" t="inlineStr">
+      <c r="H54" s="6" t="inlineStr">
         <is>
           <t>.9219</t>
         </is>
       </c>
-      <c r="I54" s="3" t="inlineStr">
+      <c r="I54" s="6" t="inlineStr">
         <is>
           <t>1-1/64</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr">
+      <c r="J54" s="6" t="inlineStr">
         <is>
           <t>1.0156</t>
         </is>
       </c>
-      <c r="K54" s="3" t="inlineStr">
+      <c r="K54" s="6" t="inlineStr">
         <is>
           <t>1-1/32</t>
         </is>
       </c>
-      <c r="L54" s="3" t="inlineStr">
+      <c r="L54" s="6" t="inlineStr">
         <is>
           <t>1.0313</t>
         </is>
       </c>
-      <c r="M54" s="3" t="inlineStr">
+      <c r="M54" s="6" t="inlineStr">
         <is>
           <t>3/4</t>
         </is>
       </c>
-      <c r="N54" s="3" t="inlineStr">
+      <c r="N54" s="6" t="inlineStr">
         <is>
           <t>1-5/8</t>
         </is>
       </c>
-      <c r="O54" s="3" t="inlineStr">
+      <c r="O54" s="6" t="inlineStr">
         <is>
           <t>1.6250</t>
         </is>
       </c>
-      <c r="P54" s="3" t="inlineStr">
+      <c r="P54" s="6" t="inlineStr">
         <is>
           <t>1.1000</t>
         </is>
       </c>
-      <c r="Q54" s="3" t="inlineStr">
+      <c r="Q54" s="6" t="inlineStr">
         <is>
           <t>5/8</t>
         </is>
       </c>
-      <c r="R54" s="3" t="inlineStr">
+      <c r="R54" s="6" t="inlineStr">
         <is>
           <t>.5400</t>
         </is>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="27.75" customHeight="1">
       <c r="A55" s="2" t="n"/>
       <c r="B55" s="2" t="n"/>
-      <c r="C55" s="3" t="inlineStr">
+      <c r="C55" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr">
+      <c r="D55" s="6" t="inlineStr">
         <is>
           <t>.8978</t>
         </is>
       </c>
-      <c r="E55" s="3" t="inlineStr">
+      <c r="E55" s="6" t="inlineStr">
         <is>
           <t>15/16</t>
         </is>
       </c>
-      <c r="F55" s="3" t="inlineStr">
+      <c r="F55" s="6" t="inlineStr">
         <is>
           <t>.9375</t>
         </is>
       </c>
-      <c r="G55" s="3" t="inlineStr">
+      <c r="G55" s="6" t="inlineStr">
         <is>
           <t>61/64</t>
         </is>
       </c>
-      <c r="H55" s="3" t="inlineStr">
+      <c r="H55" s="6" t="inlineStr">
         <is>
           <t>.9531</t>
         </is>
@@ -15387,35 +15423,35 @@
       <c r="Q55" s="2" t="n"/>
       <c r="R55" s="2" t="n"/>
     </row>
-    <row r="56">
+    <row r="56" ht="27.75" customHeight="1">
       <c r="A56" s="2" t="n"/>
       <c r="B56" s="2" t="n"/>
-      <c r="C56" s="3" t="inlineStr">
+      <c r="C56" s="6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D56" s="3" t="inlineStr">
+      <c r="D56" s="6" t="inlineStr">
         <is>
           <t>.9387</t>
         </is>
       </c>
-      <c r="E56" s="3" t="inlineStr">
+      <c r="E56" s="6" t="inlineStr">
         <is>
           <t>61/64</t>
         </is>
       </c>
-      <c r="F56" s="3" t="inlineStr">
+      <c r="F56" s="6" t="inlineStr">
         <is>
           <t>.9531</t>
         </is>
       </c>
-      <c r="G56" s="3" t="inlineStr">
+      <c r="G56" s="6" t="inlineStr">
         <is>
           <t>31/32</t>
         </is>
       </c>
-      <c r="H56" s="3" t="inlineStr">
+      <c r="H56" s="6" t="inlineStr">
         <is>
           <t>.9688</t>
         </is>
@@ -15699,48 +15735,48 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="35" customWidth="1" min="3" max="3"/>
-    <col width="35" customWidth="1" min="4" max="4"/>
-    <col width="38.5" customWidth="1" min="5" max="5"/>
-    <col width="38.5" customWidth="1" min="6" max="6"/>
-    <col width="38.5" customWidth="1" min="7" max="7"/>
-    <col width="38.5" customWidth="1" min="8" max="8"/>
-    <col width="38.5" customWidth="1" min="9" max="9"/>
-    <col width="38.5" customWidth="1" min="10" max="10"/>
-    <col width="38.5" customWidth="1" min="11" max="11"/>
-    <col width="38.5" customWidth="1" min="12" max="12"/>
-    <col width="38.5" customWidth="1" min="13" max="13"/>
-    <col width="38.5" customWidth="1" min="14" max="14"/>
-    <col width="38.5" customWidth="1" min="15" max="15"/>
-    <col width="38.5" customWidth="1" min="16" max="16"/>
-    <col width="38.5" customWidth="1" min="17" max="17"/>
-    <col width="38.5" customWidth="1" min="18" max="18"/>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="28" customWidth="1" min="2" max="2"/>
+    <col width="28" customWidth="1" min="3" max="3"/>
+    <col width="28" customWidth="1" min="4" max="4"/>
+    <col width="30.8" customWidth="1" min="5" max="5"/>
+    <col width="30.8" customWidth="1" min="6" max="6"/>
+    <col width="30.8" customWidth="1" min="7" max="7"/>
+    <col width="30.8" customWidth="1" min="8" max="8"/>
+    <col width="30.8" customWidth="1" min="9" max="9"/>
+    <col width="30.8" customWidth="1" min="10" max="10"/>
+    <col width="30.8" customWidth="1" min="11" max="11"/>
+    <col width="30.8" customWidth="1" min="12" max="12"/>
+    <col width="30.8" customWidth="1" min="13" max="13"/>
+    <col width="30.8" customWidth="1" min="14" max="14"/>
+    <col width="30.8" customWidth="1" min="15" max="15"/>
+    <col width="30.8" customWidth="1" min="16" max="16"/>
+    <col width="30.8" customWidth="1" min="17" max="17"/>
+    <col width="30.8" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="84" customHeight="1">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Screw Size</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Major Diameter</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>TPI</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>Minor Diameter</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>Tap Drill</t>
         </is>
@@ -15748,7 +15784,7 @@
       <c r="F1" s="2" t="n"/>
       <c r="G1" s="2" t="n"/>
       <c r="H1" s="2" t="n"/>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="8" t="inlineStr">
         <is>
           <t>Clearance Drill</t>
         </is>
@@ -15756,7 +15792,7 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="8" t="inlineStr">
         <is>
           <t>Socket Head Cap Screws</t>
         </is>
@@ -15764,122 +15800,122 @@
       <c r="N1" s="2" t="n"/>
       <c r="O1" s="2" t="n"/>
       <c r="P1" s="2" t="n"/>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="8" t="inlineStr">
         <is>
           <t>Flat Head Cap Screws</t>
         </is>
       </c>
       <c r="R1" s="2" t="n"/>
     </row>
-    <row r="2" ht="40" customHeight="1">
+    <row r="2" ht="112" customHeight="1">
       <c r="A2" s="2" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="2" t="n"/>
       <c r="D2" s="2" t="n"/>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" s="8" t="inlineStr">
         <is>
           <t>75% Thread for Aluminum, Brass, Plastics</t>
         </is>
       </c>
       <c r="F2" s="2" t="n"/>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="8" t="inlineStr">
         <is>
           <t>50% Thread for Stainless, Cast Iron &amp; Iron</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="I2" s="8" t="inlineStr">
         <is>
           <t>Close Fit</t>
         </is>
       </c>
       <c r="J2" s="2" t="n"/>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="K2" s="8" t="inlineStr">
         <is>
           <t>Free Fit</t>
         </is>
       </c>
       <c r="L2" s="2" t="n"/>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="M2" s="8" t="inlineStr">
         <is>
           <t>Hex</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="N2" s="8" t="inlineStr">
         <is>
           <t>Counterbore</t>
         </is>
       </c>
       <c r="O2" s="2" t="n"/>
       <c r="P2" s="2" t="n"/>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="Q2" s="8" t="inlineStr">
         <is>
           <t>Hex</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="R2" s="8" t="inlineStr">
         <is>
           <t>Countersink Depth</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
+    <row r="3" ht="56" customHeight="1">
       <c r="A3" s="2" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>Drill Size</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>Dec. Eq.</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="8" t="inlineStr">
         <is>
           <t>Drill Size</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="8" t="inlineStr">
         <is>
           <t>Dec. Eq.</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="8" t="inlineStr">
         <is>
           <t>Drill Size</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" s="8" t="inlineStr">
         <is>
           <t>Dec. Eq.</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" s="8" t="inlineStr">
         <is>
           <t>Drill Size</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="L3" s="8" t="inlineStr">
         <is>
           <t>Dec. Eq.</t>
         </is>
       </c>
       <c r="M3" s="2" t="n"/>
-      <c r="N3" s="1" t="inlineStr">
+      <c r="N3" s="8" t="inlineStr">
         <is>
           <t>Drill Size</t>
         </is>
       </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="O3" s="8" t="inlineStr">
         <is>
           <t>Dec. Eq.</t>
         </is>
       </c>
-      <c r="P3" s="1" t="inlineStr">
+      <c r="P3" s="8" t="inlineStr">
         <is>
           <t>Depth</t>
         </is>
@@ -15887,219 +15923,219 @@
       <c r="Q3" s="2" t="n"/>
       <c r="R3" s="2" t="n"/>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+    <row r="4" ht="42" customHeight="1">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="9" t="inlineStr">
         <is>
           <t>.0600</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="9" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="9" t="inlineStr">
         <is>
           <t>.0447</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="9" t="inlineStr">
         <is>
           <t>3/64</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="9" t="inlineStr">
         <is>
           <t>.0469</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G4" s="9" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="H4" s="9" t="inlineStr">
         <is>
           <t>.0520</t>
         </is>
       </c>
-      <c r="I4" s="3" t="inlineStr">
+      <c r="I4" s="9" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J4" s="9" t="inlineStr">
         <is>
           <t>.0635</t>
         </is>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="K4" s="9" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="L4" s="9" t="inlineStr">
         <is>
           <t>.0700</t>
         </is>
       </c>
-      <c r="M4" s="3" t="inlineStr">
+      <c r="M4" s="9" t="inlineStr">
         <is>
           <t>0.050</t>
         </is>
       </c>
-      <c r="N4" s="3" t="inlineStr">
+      <c r="N4" s="9" t="inlineStr">
         <is>
           <t>1/8</t>
         </is>
       </c>
-      <c r="O4" s="3" t="inlineStr">
+      <c r="O4" s="9" t="inlineStr">
         <is>
           <t>.125</t>
         </is>
       </c>
-      <c r="P4" s="3" t="inlineStr">
+      <c r="P4" s="9" t="inlineStr">
         <is>
           <t>.0740</t>
         </is>
       </c>
-      <c r="Q4" s="3" t="inlineStr">
+      <c r="Q4" s="9" t="inlineStr">
         <is>
           <t>0.035</t>
         </is>
       </c>
-      <c r="R4" s="3" t="inlineStr">
+      <c r="R4" s="9" t="inlineStr">
         <is>
           <t>.0440</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row r="5" ht="42" customHeight="1">
+      <c r="A5" s="10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>.0730</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="10" t="inlineStr">
         <is>
           <t>.0538</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="10" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="10" t="inlineStr">
         <is>
           <t>.0595</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G5" s="10" t="inlineStr">
         <is>
           <t>1/16</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="H5" s="10" t="inlineStr">
         <is>
           <t>.0625</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="I5" s="10" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="10" t="inlineStr">
         <is>
           <t>.0760</t>
         </is>
       </c>
-      <c r="K5" s="4" t="inlineStr">
+      <c r="K5" s="10" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="L5" s="4" t="inlineStr">
+      <c r="L5" s="10" t="inlineStr">
         <is>
           <t>.0810</t>
         </is>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="M5" s="10" t="inlineStr">
         <is>
           <t>1/16</t>
         </is>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="N5" s="10" t="inlineStr">
         <is>
           <t>5/32</t>
         </is>
       </c>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="O5" s="10" t="inlineStr">
         <is>
           <t>.1562</t>
         </is>
       </c>
-      <c r="P5" s="4" t="inlineStr">
+      <c r="P5" s="10" t="inlineStr">
         <is>
           <t>.0870</t>
         </is>
       </c>
-      <c r="Q5" s="4" t="inlineStr">
+      <c r="Q5" s="10" t="inlineStr">
         <is>
           <t>1/20</t>
         </is>
       </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="R5" s="10" t="inlineStr">
         <is>
           <t>.0540</t>
         </is>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="42" customHeight="1">
       <c r="A6" s="2" t="n"/>
       <c r="B6" s="2" t="n"/>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>.0560</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="10" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="10" t="inlineStr">
         <is>
           <t>.0595</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="10" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H6" s="10" t="inlineStr">
         <is>
           <t>.0635</t>
         </is>
@@ -16115,127 +16151,127 @@
       <c r="Q6" s="2" t="n"/>
       <c r="R6" s="2" t="n"/>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+    <row r="7" ht="42" customHeight="1">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
         <is>
           <t>.0860</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="9" t="inlineStr">
         <is>
           <t>.0641</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="9" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="9" t="inlineStr">
         <is>
           <t>.0700</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="9" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="H7" s="9" t="inlineStr">
         <is>
           <t>.0730</t>
         </is>
       </c>
-      <c r="I7" s="3" t="inlineStr">
+      <c r="I7" s="9" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J7" s="9" t="inlineStr">
         <is>
           <t>.0890</t>
         </is>
       </c>
-      <c r="K7" s="3" t="inlineStr">
+      <c r="K7" s="9" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="L7" s="9" t="inlineStr">
         <is>
           <t>.0960</t>
         </is>
       </c>
-      <c r="M7" s="3" t="inlineStr">
+      <c r="M7" s="9" t="inlineStr">
         <is>
           <t>5/64</t>
         </is>
       </c>
-      <c r="N7" s="3" t="inlineStr">
+      <c r="N7" s="9" t="inlineStr">
         <is>
           <t>3/16</t>
         </is>
       </c>
-      <c r="O7" s="3" t="inlineStr">
+      <c r="O7" s="9" t="inlineStr">
         <is>
           <t>.1875</t>
         </is>
       </c>
-      <c r="P7" s="3" t="inlineStr">
+      <c r="P7" s="9" t="inlineStr">
         <is>
           <t>.1020</t>
         </is>
       </c>
-      <c r="Q7" s="3" t="inlineStr">
+      <c r="Q7" s="9" t="inlineStr">
         <is>
           <t>1/20</t>
         </is>
       </c>
-      <c r="R7" s="3" t="inlineStr">
+      <c r="R7" s="9" t="inlineStr">
         <is>
           <t>.0640</t>
         </is>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="42" customHeight="1">
       <c r="A8" s="2" t="n"/>
       <c r="B8" s="2" t="n"/>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
         <is>
           <t>.0668</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="9" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="9" t="inlineStr">
         <is>
           <t>.0700</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G8" s="9" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="H8" s="3" t="inlineStr">
+      <c r="H8" s="9" t="inlineStr">
         <is>
           <t>.0760</t>
         </is>
@@ -16251,127 +16287,127 @@
       <c r="Q8" s="2" t="n"/>
       <c r="R8" s="2" t="n"/>
     </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+    <row r="9" ht="42" customHeight="1">
+      <c r="A9" s="10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="10" t="inlineStr">
         <is>
           <t>.0990</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="10" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="10" t="inlineStr">
         <is>
           <t>.0734</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="10" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="10" t="inlineStr">
         <is>
           <t>.0785</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="G9" s="10" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="H9" s="4" t="inlineStr">
+      <c r="H9" s="10" t="inlineStr">
         <is>
           <t>.0860</t>
         </is>
       </c>
-      <c r="I9" s="4" t="inlineStr">
+      <c r="I9" s="10" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="10" t="inlineStr">
         <is>
           <t>.1040</t>
         </is>
       </c>
-      <c r="K9" s="4" t="inlineStr">
+      <c r="K9" s="10" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="L9" s="4" t="inlineStr">
+      <c r="L9" s="10" t="inlineStr">
         <is>
           <t>.1100</t>
         </is>
       </c>
-      <c r="M9" s="4" t="inlineStr">
+      <c r="M9" s="10" t="inlineStr">
         <is>
           <t>5/64</t>
         </is>
       </c>
-      <c r="N9" s="4" t="inlineStr">
+      <c r="N9" s="10" t="inlineStr">
         <is>
           <t>7/32</t>
         </is>
       </c>
-      <c r="O9" s="4" t="inlineStr">
+      <c r="O9" s="10" t="inlineStr">
         <is>
           <t>.2188</t>
         </is>
       </c>
-      <c r="P9" s="4" t="inlineStr">
+      <c r="P9" s="10" t="inlineStr">
         <is>
           <t>.1150</t>
         </is>
       </c>
-      <c r="Q9" s="4" t="inlineStr">
+      <c r="Q9" s="10" t="inlineStr">
         <is>
           <t>1/16</t>
         </is>
       </c>
-      <c r="R9" s="4" t="inlineStr">
+      <c r="R9" s="10" t="inlineStr">
         <is>
           <t>.0730</t>
         </is>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="42" customHeight="1">
       <c r="A10" s="2" t="n"/>
       <c r="B10" s="2" t="n"/>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D10" s="10" t="inlineStr">
         <is>
           <t>.0771</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="10" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>.0820</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="H10" s="4" t="inlineStr">
+      <c r="H10" s="10" t="inlineStr">
         <is>
           <t>.0890</t>
         </is>
@@ -16387,127 +16423,127 @@
       <c r="Q10" s="2" t="n"/>
       <c r="R10" s="2" t="n"/>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+    <row r="11" ht="42" customHeight="1">
+      <c r="A11" s="9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>.1120</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
         <is>
           <t>.0813</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F11" s="9" t="inlineStr">
         <is>
           <t>.0890</t>
         </is>
       </c>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="G11" s="9" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="H11" s="3" t="inlineStr">
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>.0960</t>
         </is>
       </c>
-      <c r="I11" s="3" t="inlineStr">
+      <c r="I11" s="9" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="J11" s="3" t="inlineStr">
+      <c r="J11" s="9" t="inlineStr">
         <is>
           <t>.1160</t>
         </is>
       </c>
-      <c r="K11" s="3" t="inlineStr">
+      <c r="K11" s="9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="L11" s="3" t="inlineStr">
+      <c r="L11" s="9" t="inlineStr">
         <is>
           <t>.1285</t>
         </is>
       </c>
-      <c r="M11" s="3" t="inlineStr">
+      <c r="M11" s="9" t="inlineStr">
         <is>
           <t>3/32</t>
         </is>
       </c>
-      <c r="N11" s="3" t="inlineStr">
+      <c r="N11" s="9" t="inlineStr">
         <is>
           <t>7/32</t>
         </is>
       </c>
-      <c r="O11" s="3" t="inlineStr">
+      <c r="O11" s="9" t="inlineStr">
         <is>
           <t>.2188</t>
         </is>
       </c>
-      <c r="P11" s="3" t="inlineStr">
+      <c r="P11" s="9" t="inlineStr">
         <is>
           <t>.1300</t>
         </is>
       </c>
-      <c r="Q11" s="3" t="inlineStr">
+      <c r="Q11" s="9" t="inlineStr">
         <is>
           <t>1/16</t>
         </is>
       </c>
-      <c r="R11" s="3" t="inlineStr">
+      <c r="R11" s="9" t="inlineStr">
         <is>
           <t>.0830</t>
         </is>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="42" customHeight="1">
       <c r="A12" s="2" t="n"/>
       <c r="B12" s="2" t="n"/>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="9" t="inlineStr">
         <is>
           <t>.0864</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="9" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>.0935</t>
         </is>
       </c>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H12" s="3" t="inlineStr">
+      <c r="H12" s="9" t="inlineStr">
         <is>
           <t>.0980</t>
         </is>
@@ -16523,127 +16559,127 @@
       <c r="Q12" s="2" t="n"/>
       <c r="R12" s="2" t="n"/>
     </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+    <row r="13" ht="42" customHeight="1">
+      <c r="A13" s="10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="10" t="inlineStr">
         <is>
           <t>.125</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="10" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D13" s="10" t="inlineStr">
         <is>
           <t>.0943</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="10" t="inlineStr">
         <is>
           <t>.1015</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="G13" s="10" t="inlineStr">
         <is>
           <t>7/64</t>
         </is>
       </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="H13" s="10" t="inlineStr">
         <is>
           <t>.1094</t>
         </is>
       </c>
-      <c r="I13" s="4" t="inlineStr">
+      <c r="I13" s="10" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="10" t="inlineStr">
         <is>
           <t>.1285</t>
         </is>
       </c>
-      <c r="K13" s="4" t="inlineStr">
+      <c r="K13" s="10" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="L13" s="4" t="inlineStr">
+      <c r="L13" s="10" t="inlineStr">
         <is>
           <t>.1360</t>
         </is>
       </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="M13" s="10" t="inlineStr">
         <is>
           <t>3/32</t>
         </is>
       </c>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="N13" s="10" t="inlineStr">
         <is>
           <t>1/4</t>
         </is>
       </c>
-      <c r="O13" s="4" t="inlineStr">
+      <c r="O13" s="10" t="inlineStr">
         <is>
           <t>.2500</t>
         </is>
       </c>
-      <c r="P13" s="4" t="inlineStr">
+      <c r="P13" s="10" t="inlineStr">
         <is>
           <t>.1450</t>
         </is>
       </c>
-      <c r="Q13" s="4" t="inlineStr">
+      <c r="Q13" s="10" t="inlineStr">
         <is>
           <t>5/64</t>
         </is>
       </c>
-      <c r="R13" s="4" t="inlineStr">
+      <c r="R13" s="10" t="inlineStr">
         <is>
           <t>.0900</t>
         </is>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="42" customHeight="1">
       <c r="A14" s="2" t="n"/>
       <c r="B14" s="2" t="n"/>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="10" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>.0971</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="10" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="10" t="inlineStr">
         <is>
           <t>.1040</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="H14" s="4" t="inlineStr">
+      <c r="H14" s="10" t="inlineStr">
         <is>
           <t>.1100</t>
         </is>
@@ -16659,127 +16695,127 @@
       <c r="Q14" s="2" t="n"/>
       <c r="R14" s="2" t="n"/>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+    <row r="15" ht="42" customHeight="1">
+      <c r="A15" s="9" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="9" t="inlineStr">
         <is>
           <t>.138</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" s="9" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" s="9" t="inlineStr">
         <is>
           <t>.0997</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E15" s="9" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F15" s="9" t="inlineStr">
         <is>
           <t>.1065</t>
         </is>
       </c>
-      <c r="G15" s="3" t="inlineStr">
+      <c r="G15" s="9" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="H15" s="3" t="inlineStr">
+      <c r="H15" s="9" t="inlineStr">
         <is>
           <t>.1160</t>
         </is>
       </c>
-      <c r="I15" s="3" t="inlineStr">
+      <c r="I15" s="9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J15" s="3" t="inlineStr">
+      <c r="J15" s="9" t="inlineStr">
         <is>
           <t>.1440</t>
         </is>
       </c>
-      <c r="K15" s="3" t="inlineStr">
+      <c r="K15" s="9" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="L15" s="3" t="inlineStr">
+      <c r="L15" s="9" t="inlineStr">
         <is>
           <t>.1495</t>
         </is>
       </c>
-      <c r="M15" s="3" t="inlineStr">
+      <c r="M15" s="9" t="inlineStr">
         <is>
           <t>7/64</t>
         </is>
       </c>
-      <c r="N15" s="3" t="inlineStr">
+      <c r="N15" s="9" t="inlineStr">
         <is>
           <t>9/32</t>
         </is>
       </c>
-      <c r="O15" s="3" t="inlineStr">
+      <c r="O15" s="9" t="inlineStr">
         <is>
           <t>.2812</t>
         </is>
       </c>
-      <c r="P15" s="3" t="inlineStr">
+      <c r="P15" s="9" t="inlineStr">
         <is>
           <t>.1580</t>
         </is>
       </c>
-      <c r="Q15" s="3" t="inlineStr">
+      <c r="Q15" s="9" t="inlineStr">
         <is>
           <t>5/64</t>
         </is>
       </c>
-      <c r="R15" s="3" t="inlineStr">
+      <c r="R15" s="9" t="inlineStr">
         <is>
           <t>.0970</t>
         </is>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="42" customHeight="1">
       <c r="A16" s="2" t="n"/>
       <c r="B16" s="2" t="n"/>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" s="9" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D16" s="9" t="inlineStr">
         <is>
           <t>.1073</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
+      <c r="F16" s="9" t="inlineStr">
         <is>
           <t>.1130</t>
         </is>
       </c>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="G16" s="9" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="H16" s="3" t="inlineStr">
+      <c r="H16" s="9" t="inlineStr">
         <is>
           <t>.1200</t>
         </is>
@@ -16795,127 +16831,127 @@
       <c r="Q16" s="2" t="n"/>
       <c r="R16" s="2" t="n"/>
     </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+    <row r="17" ht="42" customHeight="1">
+      <c r="A17" s="10" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="10" t="inlineStr">
         <is>
           <t>.1640</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="10" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D17" s="10" t="inlineStr">
         <is>
           <t>.1257</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="10" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="10" t="inlineStr">
         <is>
           <t>.1360</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="G17" s="10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H17" s="4" t="inlineStr">
+      <c r="H17" s="10" t="inlineStr">
         <is>
           <t>.1440</t>
         </is>
       </c>
-      <c r="I17" s="4" t="inlineStr">
+      <c r="I17" s="10" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="10" t="inlineStr">
         <is>
           <t>.1695</t>
         </is>
       </c>
-      <c r="K17" s="4" t="inlineStr">
+      <c r="K17" s="10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="L17" s="4" t="inlineStr">
+      <c r="L17" s="10" t="inlineStr">
         <is>
           <t>.1770</t>
         </is>
       </c>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="M17" s="10" t="inlineStr">
         <is>
           <t>9/64</t>
         </is>
       </c>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="N17" s="10" t="inlineStr">
         <is>
           <t>5/16</t>
         </is>
       </c>
-      <c r="O17" s="4" t="inlineStr">
+      <c r="O17" s="10" t="inlineStr">
         <is>
           <t>.3125</t>
         </is>
       </c>
-      <c r="P17" s="4" t="inlineStr">
+      <c r="P17" s="10" t="inlineStr">
         <is>
           <t>.1880</t>
         </is>
       </c>
-      <c r="Q17" s="4" t="inlineStr">
+      <c r="Q17" s="10" t="inlineStr">
         <is>
           <t>3/32</t>
         </is>
       </c>
-      <c r="R17" s="4" t="inlineStr">
+      <c r="R17" s="10" t="inlineStr">
         <is>
           <t>.1120</t>
         </is>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="42" customHeight="1">
       <c r="A18" s="2" t="n"/>
       <c r="B18" s="2" t="n"/>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D18" s="10" t="inlineStr">
         <is>
           <t>.1299</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="10" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="10" t="inlineStr">
         <is>
           <t>.1360</t>
         </is>
       </c>
-      <c r="G18" s="4" t="inlineStr">
+      <c r="G18" s="10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="H18" s="4" t="inlineStr">
+      <c r="H18" s="10" t="inlineStr">
         <is>
           <t>.1470</t>
         </is>
@@ -16931,127 +16967,127 @@
       <c r="Q18" s="2" t="n"/>
       <c r="R18" s="2" t="n"/>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+    <row r="19" ht="42" customHeight="1">
+      <c r="A19" s="9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="9" t="inlineStr">
         <is>
           <t>.1900</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" s="9" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D19" s="9" t="inlineStr">
         <is>
           <t>.1389</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="E19" s="9" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
+      <c r="F19" s="9" t="inlineStr">
         <is>
           <t>.1495</t>
         </is>
       </c>
-      <c r="G19" s="3" t="inlineStr">
+      <c r="G19" s="9" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="H19" s="3" t="inlineStr">
+      <c r="H19" s="9" t="inlineStr">
         <is>
           <t>.1610</t>
         </is>
       </c>
-      <c r="I19" s="3" t="inlineStr">
+      <c r="I19" s="9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J19" s="3" t="inlineStr">
+      <c r="J19" s="9" t="inlineStr">
         <is>
           <t>.1960</t>
         </is>
       </c>
-      <c r="K19" s="3" t="inlineStr">
+      <c r="K19" s="9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L19" s="3" t="inlineStr">
+      <c r="L19" s="9" t="inlineStr">
         <is>
           <t>.2010</t>
         </is>
       </c>
-      <c r="M19" s="3" t="inlineStr">
+      <c r="M19" s="9" t="inlineStr">
         <is>
           <t>5/32</t>
         </is>
       </c>
-      <c r="N19" s="3" t="inlineStr">
+      <c r="N19" s="9" t="inlineStr">
         <is>
           <t>3/8</t>
         </is>
       </c>
-      <c r="O19" s="3" t="inlineStr">
+      <c r="O19" s="9" t="inlineStr">
         <is>
           <t>.3750</t>
         </is>
       </c>
-      <c r="P19" s="3" t="inlineStr">
+      <c r="P19" s="9" t="inlineStr">
         <is>
           <t>.2180</t>
         </is>
       </c>
-      <c r="Q19" s="3" t="inlineStr">
+      <c r="Q19" s="9" t="inlineStr">
         <is>
           <t>1/8</t>
         </is>
       </c>
-      <c r="R19" s="3" t="inlineStr">
+      <c r="R19" s="9" t="inlineStr">
         <is>
           <t>.1270</t>
         </is>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="42" customHeight="1">
       <c r="A20" s="2" t="n"/>
       <c r="B20" s="2" t="n"/>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C20" s="9" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
+      <c r="D20" s="9" t="inlineStr">
         <is>
           <t>.1517</t>
         </is>
       </c>
-      <c r="E20" s="3" t="inlineStr">
+      <c r="E20" s="9" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="F20" s="3" t="inlineStr">
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>.1590</t>
         </is>
       </c>
-      <c r="G20" s="3" t="inlineStr">
+      <c r="G20" s="9" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="H20" s="3" t="inlineStr">
+      <c r="H20" s="9" t="inlineStr">
         <is>
           <t>.1695</t>
         </is>
@@ -17067,127 +17103,127 @@
       <c r="Q20" s="2" t="n"/>
       <c r="R20" s="2" t="n"/>
     </row>
-    <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+    <row r="21" ht="42" customHeight="1">
+      <c r="A21" s="10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="10" t="inlineStr">
         <is>
           <t>.2160</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="10" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="D21" s="4" t="inlineStr">
+      <c r="D21" s="10" t="inlineStr">
         <is>
           <t>.1649</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="10" t="inlineStr">
         <is>
           <t>.1770</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="G21" s="10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H21" s="4" t="inlineStr">
+      <c r="H21" s="10" t="inlineStr">
         <is>
           <t>.1890</t>
         </is>
       </c>
-      <c r="I21" s="4" t="inlineStr">
+      <c r="I21" s="10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="J21" s="10" t="inlineStr">
         <is>
           <t>.2210</t>
         </is>
       </c>
-      <c r="K21" s="4" t="inlineStr">
+      <c r="K21" s="10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L21" s="4" t="inlineStr">
+      <c r="L21" s="10" t="inlineStr">
         <is>
           <t>.2280</t>
         </is>
       </c>
-      <c r="M21" s="4" t="inlineStr">
+      <c r="M21" s="10" t="inlineStr">
         <is>
           <t>5/32</t>
         </is>
       </c>
-      <c r="N21" s="4" t="inlineStr">
+      <c r="N21" s="10" t="inlineStr">
         <is>
           <t>3/8</t>
         </is>
       </c>
-      <c r="O21" s="4" t="inlineStr">
+      <c r="O21" s="10" t="inlineStr">
         <is>
           <t>.3750</t>
         </is>
       </c>
-      <c r="P21" s="4" t="inlineStr">
+      <c r="P21" s="10" t="inlineStr">
         <is>
           <t>.2180</t>
         </is>
       </c>
-      <c r="Q21" s="4" t="inlineStr">
+      <c r="Q21" s="10" t="inlineStr">
         <is>
           <t>1/8</t>
         </is>
       </c>
-      <c r="R21" s="4" t="inlineStr">
+      <c r="R21" s="10" t="inlineStr">
         <is>
           <t>.1350</t>
         </is>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="42" customHeight="1">
       <c r="A22" s="2" t="n"/>
       <c r="B22" s="2" t="n"/>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="10" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="D22" s="4" t="inlineStr">
+      <c r="D22" s="10" t="inlineStr">
         <is>
           <t>.1722</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="10" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="10" t="inlineStr">
         <is>
           <t>.1820</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr">
+      <c r="G22" s="10" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H22" s="4" t="inlineStr">
+      <c r="H22" s="10" t="inlineStr">
         <is>
           <t>.1935</t>
         </is>
@@ -17203,35 +17239,35 @@
       <c r="Q22" s="2" t="n"/>
       <c r="R22" s="2" t="n"/>
     </row>
-    <row r="23">
+    <row r="23" ht="42" customHeight="1">
       <c r="A23" s="2" t="n"/>
       <c r="B23" s="2" t="n"/>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="10" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="D23" s="4" t="inlineStr">
+      <c r="D23" s="10" t="inlineStr">
         <is>
           <t>.1777</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="10" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="10" t="inlineStr">
         <is>
           <t>.1850</t>
         </is>
       </c>
-      <c r="G23" s="4" t="inlineStr">
+      <c r="G23" s="10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H23" s="4" t="inlineStr">
+      <c r="H23" s="10" t="inlineStr">
         <is>
           <t>.1960</t>
         </is>
@@ -17247,127 +17283,127 @@
       <c r="Q23" s="2" t="n"/>
       <c r="R23" s="2" t="n"/>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+    <row r="24" ht="42" customHeight="1">
+      <c r="A24" s="9" t="inlineStr">
         <is>
           <t>1/4</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" s="9" t="inlineStr">
         <is>
           <t>.2500</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C24" s="9" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D24" s="9" t="inlineStr">
         <is>
           <t>.1887</t>
         </is>
       </c>
-      <c r="E24" s="3" t="inlineStr">
+      <c r="E24" s="9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F24" s="3" t="inlineStr">
+      <c r="F24" s="9" t="inlineStr">
         <is>
           <t>.2010</t>
         </is>
       </c>
-      <c r="G24" s="3" t="inlineStr">
+      <c r="G24" s="9" t="inlineStr">
         <is>
           <t>7/32</t>
         </is>
       </c>
-      <c r="H24" s="3" t="inlineStr">
+      <c r="H24" s="9" t="inlineStr">
         <is>
           <t>.2188</t>
         </is>
       </c>
-      <c r="I24" s="3" t="inlineStr">
+      <c r="I24" s="9" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="J24" s="3" t="inlineStr">
+      <c r="J24" s="9" t="inlineStr">
         <is>
           <t>.2570</t>
         </is>
       </c>
-      <c r="K24" s="3" t="inlineStr">
+      <c r="K24" s="9" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="L24" s="3" t="inlineStr">
+      <c r="L24" s="9" t="inlineStr">
         <is>
           <t>.2660</t>
         </is>
       </c>
-      <c r="M24" s="3" t="inlineStr">
+      <c r="M24" s="9" t="inlineStr">
         <is>
           <t>3/16</t>
         </is>
       </c>
-      <c r="N24" s="3" t="inlineStr">
+      <c r="N24" s="9" t="inlineStr">
         <is>
           <t>7/16</t>
         </is>
       </c>
-      <c r="O24" s="3" t="inlineStr">
+      <c r="O24" s="9" t="inlineStr">
         <is>
           <t>.4375</t>
         </is>
       </c>
-      <c r="P24" s="3" t="inlineStr">
+      <c r="P24" s="9" t="inlineStr">
         <is>
           <t>.2780</t>
         </is>
       </c>
-      <c r="Q24" s="3" t="inlineStr">
+      <c r="Q24" s="9" t="inlineStr">
         <is>
           <t>5/32</t>
         </is>
       </c>
-      <c r="R24" s="3" t="inlineStr">
+      <c r="R24" s="9" t="inlineStr">
         <is>
           <t>.1610</t>
         </is>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="42" customHeight="1">
       <c r="A25" s="2" t="n"/>
       <c r="B25" s="2" t="n"/>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C25" s="9" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
+      <c r="D25" s="9" t="inlineStr">
         <is>
           <t>.2062</t>
         </is>
       </c>
-      <c r="E25" s="3" t="inlineStr">
+      <c r="E25" s="9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F25" s="3" t="inlineStr">
+      <c r="F25" s="9" t="inlineStr">
         <is>
           <t>.2130</t>
         </is>
       </c>
-      <c r="G25" s="3" t="inlineStr">
+      <c r="G25" s="9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H25" s="3" t="inlineStr">
+      <c r="H25" s="9" t="inlineStr">
         <is>
           <t>.2280</t>
         </is>
@@ -17383,35 +17419,35 @@
       <c r="Q25" s="2" t="n"/>
       <c r="R25" s="2" t="n"/>
     </row>
-    <row r="26">
+    <row r="26" ht="42" customHeight="1">
       <c r="A26" s="2" t="n"/>
       <c r="B26" s="2" t="n"/>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C26" s="9" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="D26" s="3" t="inlineStr">
+      <c r="D26" s="9" t="inlineStr">
         <is>
           <t>.2117</t>
         </is>
       </c>
-      <c r="E26" s="3" t="inlineStr">
+      <c r="E26" s="9" t="inlineStr">
         <is>
           <t>7/32</t>
         </is>
       </c>
-      <c r="F26" s="3" t="inlineStr">
+      <c r="F26" s="9" t="inlineStr">
         <is>
           <t>.2188</t>
         </is>
       </c>
-      <c r="G26" s="3" t="inlineStr">
+      <c r="G26" s="9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H26" s="3" t="inlineStr">
+      <c r="H26" s="9" t="inlineStr">
         <is>
           <t>.2280</t>
         </is>
@@ -17427,127 +17463,127 @@
       <c r="Q26" s="2" t="n"/>
       <c r="R26" s="2" t="n"/>
     </row>
-    <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+    <row r="27" ht="42" customHeight="1">
+      <c r="A27" s="10" t="inlineStr">
         <is>
           <t>5/16</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="10" t="inlineStr">
         <is>
           <t>.3125</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="10" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="D27" s="4" t="inlineStr">
+      <c r="D27" s="10" t="inlineStr">
         <is>
           <t>.2443</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="10" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="10" t="inlineStr">
         <is>
           <t>.2570</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="G27" s="10" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="H27" s="4" t="inlineStr">
+      <c r="H27" s="10" t="inlineStr">
         <is>
           <t>.2770</t>
         </is>
       </c>
-      <c r="I27" s="4" t="inlineStr">
+      <c r="I27" s="10" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="J27" s="4" t="inlineStr">
+      <c r="J27" s="10" t="inlineStr">
         <is>
           <t>.3230</t>
         </is>
       </c>
-      <c r="K27" s="4" t="inlineStr">
+      <c r="K27" s="10" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="L27" s="4" t="inlineStr">
+      <c r="L27" s="10" t="inlineStr">
         <is>
           <t>.3320</t>
         </is>
       </c>
-      <c r="M27" s="4" t="inlineStr">
+      <c r="M27" s="10" t="inlineStr">
         <is>
           <t>1/4</t>
         </is>
       </c>
-      <c r="N27" s="4" t="inlineStr">
+      <c r="N27" s="10" t="inlineStr">
         <is>
           <t>17/32</t>
         </is>
       </c>
-      <c r="O27" s="4" t="inlineStr">
+      <c r="O27" s="10" t="inlineStr">
         <is>
           <t>.5312</t>
         </is>
       </c>
-      <c r="P27" s="4" t="inlineStr">
+      <c r="P27" s="10" t="inlineStr">
         <is>
           <t>.3460</t>
         </is>
       </c>
-      <c r="Q27" s="4" t="inlineStr">
+      <c r="Q27" s="10" t="inlineStr">
         <is>
           <t>3/16</t>
         </is>
       </c>
-      <c r="R27" s="4" t="inlineStr">
+      <c r="R27" s="10" t="inlineStr">
         <is>
           <t>.1980</t>
         </is>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="42" customHeight="1">
       <c r="A28" s="2" t="n"/>
       <c r="B28" s="2" t="n"/>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="10" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="D28" s="10" t="inlineStr">
         <is>
           <t>.2614</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="10" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="10" t="inlineStr">
         <is>
           <t>.2720</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="G28" s="10" t="inlineStr">
         <is>
           <t>9/32</t>
         </is>
       </c>
-      <c r="H28" s="4" t="inlineStr">
+      <c r="H28" s="10" t="inlineStr">
         <is>
           <t>.2812</t>
         </is>
@@ -17563,35 +17599,35 @@
       <c r="Q28" s="2" t="n"/>
       <c r="R28" s="2" t="n"/>
     </row>
-    <row r="29">
+    <row r="29" ht="42" customHeight="1">
       <c r="A29" s="2" t="n"/>
       <c r="B29" s="2" t="n"/>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="10" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr">
+      <c r="D29" s="10" t="inlineStr">
         <is>
           <t>.2742</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="10" t="inlineStr">
         <is>
           <t>9/32</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="10" t="inlineStr">
         <is>
           <t>.2812</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="G29" s="10" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="H29" s="4" t="inlineStr">
+      <c r="H29" s="10" t="inlineStr">
         <is>
           <t>.2900</t>
         </is>
@@ -17607,127 +17643,127 @@
       <c r="Q29" s="2" t="n"/>
       <c r="R29" s="2" t="n"/>
     </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+    <row r="30" ht="42" customHeight="1">
+      <c r="A30" s="9" t="inlineStr">
         <is>
           <t>3/8</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B30" s="9" t="inlineStr">
         <is>
           <t>.3750</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C30" s="9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr">
+      <c r="D30" s="9" t="inlineStr">
         <is>
           <t>.2983</t>
         </is>
       </c>
-      <c r="E30" s="3" t="inlineStr">
+      <c r="E30" s="9" t="inlineStr">
         <is>
           <t>5/16</t>
         </is>
       </c>
-      <c r="F30" s="3" t="inlineStr">
+      <c r="F30" s="9" t="inlineStr">
         <is>
           <t>.3125</t>
         </is>
       </c>
-      <c r="G30" s="3" t="inlineStr">
+      <c r="G30" s="9" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="H30" s="3" t="inlineStr">
+      <c r="H30" s="9" t="inlineStr">
         <is>
           <t>.3320</t>
         </is>
       </c>
-      <c r="I30" s="3" t="inlineStr">
+      <c r="I30" s="9" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="J30" s="3" t="inlineStr">
+      <c r="J30" s="9" t="inlineStr">
         <is>
           <t>.3860</t>
         </is>
       </c>
-      <c r="K30" s="3" t="inlineStr">
+      <c r="K30" s="9" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="L30" s="3" t="inlineStr">
+      <c r="L30" s="9" t="inlineStr">
         <is>
           <t>.3970</t>
         </is>
       </c>
-      <c r="M30" s="3" t="inlineStr">
+      <c r="M30" s="9" t="inlineStr">
         <is>
           <t>5/16</t>
         </is>
       </c>
-      <c r="N30" s="3" t="inlineStr">
+      <c r="N30" s="9" t="inlineStr">
         <is>
           <t>5/8</t>
         </is>
       </c>
-      <c r="O30" s="3" t="inlineStr">
+      <c r="O30" s="9" t="inlineStr">
         <is>
           <t>.6250</t>
         </is>
       </c>
-      <c r="P30" s="3" t="inlineStr">
+      <c r="P30" s="9" t="inlineStr">
         <is>
           <t>.4150</t>
         </is>
       </c>
-      <c r="Q30" s="3" t="inlineStr">
+      <c r="Q30" s="9" t="inlineStr">
         <is>
           <t>7/32</t>
         </is>
       </c>
-      <c r="R30" s="3" t="inlineStr">
+      <c r="R30" s="9" t="inlineStr">
         <is>
           <t>.2340</t>
         </is>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="42" customHeight="1">
       <c r="A31" s="2" t="n"/>
       <c r="B31" s="2" t="n"/>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C31" s="9" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="D31" s="3" t="inlineStr">
+      <c r="D31" s="9" t="inlineStr">
         <is>
           <t>.3239</t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr">
+      <c r="E31" s="9" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="F31" s="3" t="inlineStr">
+      <c r="F31" s="9" t="inlineStr">
         <is>
           <t>.3320</t>
         </is>
       </c>
-      <c r="G31" s="3" t="inlineStr">
+      <c r="G31" s="9" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="H31" s="3" t="inlineStr">
+      <c r="H31" s="9" t="inlineStr">
         <is>
           <t>.3480</t>
         </is>
@@ -17743,35 +17779,35 @@
       <c r="Q31" s="2" t="n"/>
       <c r="R31" s="2" t="n"/>
     </row>
-    <row r="32">
+    <row r="32" ht="42" customHeight="1">
       <c r="A32" s="2" t="n"/>
       <c r="B32" s="2" t="n"/>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C32" s="9" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
+      <c r="D32" s="9" t="inlineStr">
         <is>
           <t>.3367</t>
         </is>
       </c>
-      <c r="E32" s="3" t="inlineStr">
+      <c r="E32" s="9" t="inlineStr">
         <is>
           <t>11/32</t>
         </is>
       </c>
-      <c r="F32" s="3" t="inlineStr">
+      <c r="F32" s="9" t="inlineStr">
         <is>
           <t>.3438</t>
         </is>
       </c>
-      <c r="G32" s="3" t="inlineStr">
+      <c r="G32" s="9" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="H32" s="3" t="inlineStr">
+      <c r="H32" s="9" t="inlineStr">
         <is>
           <t>.3580</t>
         </is>
@@ -17787,127 +17823,127 @@
       <c r="Q32" s="2" t="n"/>
       <c r="R32" s="2" t="n"/>
     </row>
-    <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+    <row r="33" ht="42" customHeight="1">
+      <c r="A33" s="10" t="inlineStr">
         <is>
           <t>7/16</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="10" t="inlineStr">
         <is>
           <t>.4375</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="10" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="D33" s="4" t="inlineStr">
+      <c r="D33" s="10" t="inlineStr">
         <is>
           <t>.3499</t>
         </is>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E33" s="10" t="inlineStr">
         <is>
           <t>U</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" s="10" t="inlineStr">
         <is>
           <t>.3680</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="G33" s="10" t="inlineStr">
         <is>
           <t>25/64</t>
         </is>
       </c>
-      <c r="H33" s="4" t="inlineStr">
+      <c r="H33" s="10" t="inlineStr">
         <is>
           <t>.3906</t>
         </is>
       </c>
-      <c r="I33" s="4" t="inlineStr">
+      <c r="I33" s="10" t="inlineStr">
         <is>
           <t>29/64</t>
         </is>
       </c>
-      <c r="J33" s="4" t="inlineStr">
+      <c r="J33" s="10" t="inlineStr">
         <is>
           <t>.4531</t>
         </is>
       </c>
-      <c r="K33" s="4" t="inlineStr">
+      <c r="K33" s="10" t="inlineStr">
         <is>
           <t>15/32</t>
         </is>
       </c>
-      <c r="L33" s="4" t="inlineStr">
+      <c r="L33" s="10" t="inlineStr">
         <is>
           <t>.4688</t>
         </is>
       </c>
-      <c r="M33" s="4" t="inlineStr">
+      <c r="M33" s="10" t="inlineStr">
         <is>
           <t>3/8</t>
         </is>
       </c>
-      <c r="N33" s="4" t="inlineStr">
+      <c r="N33" s="10" t="inlineStr">
         <is>
           <t>23/32</t>
         </is>
       </c>
-      <c r="O33" s="4" t="inlineStr">
+      <c r="O33" s="10" t="inlineStr">
         <is>
           <t>.7188</t>
         </is>
       </c>
-      <c r="P33" s="4" t="inlineStr">
+      <c r="P33" s="10" t="inlineStr">
         <is>
           <t>.4830</t>
         </is>
       </c>
-      <c r="Q33" s="4" t="inlineStr">
+      <c r="Q33" s="10" t="inlineStr">
         <is>
           <t>1/4</t>
         </is>
       </c>
-      <c r="R33" s="4" t="inlineStr">
+      <c r="R33" s="10" t="inlineStr">
         <is>
           <t>.2340</t>
         </is>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="42" customHeight="1">
       <c r="A34" s="2" t="n"/>
       <c r="B34" s="2" t="n"/>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C34" s="10" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D34" s="4" t="inlineStr">
+      <c r="D34" s="10" t="inlineStr">
         <is>
           <t>.3762</t>
         </is>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="E34" s="10" t="inlineStr">
         <is>
           <t>25/64</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="F34" s="10" t="inlineStr">
         <is>
           <t>.3906</t>
         </is>
       </c>
-      <c r="G34" s="4" t="inlineStr">
+      <c r="G34" s="10" t="inlineStr">
         <is>
           <t>13/32</t>
         </is>
       </c>
-      <c r="H34" s="4" t="inlineStr">
+      <c r="H34" s="10" t="inlineStr">
         <is>
           <t>.4062</t>
         </is>
@@ -17923,35 +17959,35 @@
       <c r="Q34" s="2" t="n"/>
       <c r="R34" s="2" t="n"/>
     </row>
-    <row r="35">
+    <row r="35" ht="42" customHeight="1">
       <c r="A35" s="2" t="n"/>
       <c r="B35" s="2" t="n"/>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="10" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="D35" s="4" t="inlineStr">
+      <c r="D35" s="10" t="inlineStr">
         <is>
           <t>.3937</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E35" s="10" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="10" t="inlineStr">
         <is>
           <t>.4040</t>
         </is>
       </c>
-      <c r="G35" s="4" t="inlineStr">
+      <c r="G35" s="10" t="inlineStr">
         <is>
           <t>Z</t>
         </is>
       </c>
-      <c r="H35" s="4" t="inlineStr">
+      <c r="H35" s="10" t="inlineStr">
         <is>
           <t>.4130</t>
         </is>
@@ -17967,127 +18003,127 @@
       <c r="Q35" s="2" t="n"/>
       <c r="R35" s="2" t="n"/>
     </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+    <row r="36" ht="42" customHeight="1">
+      <c r="A36" s="9" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B36" s="9" t="inlineStr">
         <is>
           <t>.5000</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="C36" s="9" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr">
+      <c r="D36" s="9" t="inlineStr">
         <is>
           <t>.4056</t>
         </is>
       </c>
-      <c r="E36" s="3" t="inlineStr">
+      <c r="E36" s="9" t="inlineStr">
         <is>
           <t>27/64</t>
         </is>
       </c>
-      <c r="F36" s="3" t="inlineStr">
+      <c r="F36" s="9" t="inlineStr">
         <is>
           <t>.4219</t>
         </is>
       </c>
-      <c r="G36" s="3" t="inlineStr">
+      <c r="G36" s="9" t="inlineStr">
         <is>
           <t>29/64</t>
         </is>
       </c>
-      <c r="H36" s="3" t="inlineStr">
+      <c r="H36" s="9" t="inlineStr">
         <is>
           <t>.4531</t>
         </is>
       </c>
-      <c r="I36" s="3" t="inlineStr">
+      <c r="I36" s="9" t="inlineStr">
         <is>
           <t>33/64</t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr">
+      <c r="J36" s="9" t="inlineStr">
         <is>
           <t>.5156</t>
         </is>
       </c>
-      <c r="K36" s="3" t="inlineStr">
+      <c r="K36" s="9" t="inlineStr">
         <is>
           <t>17/32</t>
         </is>
       </c>
-      <c r="L36" s="3" t="inlineStr">
+      <c r="L36" s="9" t="inlineStr">
         <is>
           <t>.5312</t>
         </is>
       </c>
-      <c r="M36" s="3" t="inlineStr">
+      <c r="M36" s="9" t="inlineStr">
         <is>
           <t>3/8</t>
         </is>
       </c>
-      <c r="N36" s="3" t="inlineStr">
+      <c r="N36" s="9" t="inlineStr">
         <is>
           <t>13/16</t>
         </is>
       </c>
-      <c r="O36" s="3" t="inlineStr">
+      <c r="O36" s="9" t="inlineStr">
         <is>
           <t>.8125</t>
         </is>
       </c>
-      <c r="P36" s="3" t="inlineStr">
+      <c r="P36" s="9" t="inlineStr">
         <is>
           <t>.5520</t>
         </is>
       </c>
-      <c r="Q36" s="3" t="inlineStr">
+      <c r="Q36" s="9" t="inlineStr">
         <is>
           <t>5/16</t>
         </is>
       </c>
-      <c r="R36" s="3" t="inlineStr">
+      <c r="R36" s="9" t="inlineStr">
         <is>
           <t>.2510</t>
         </is>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="42" customHeight="1">
       <c r="A37" s="2" t="n"/>
       <c r="B37" s="2" t="n"/>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="C37" s="9" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D37" s="3" t="inlineStr">
+      <c r="D37" s="9" t="inlineStr">
         <is>
           <t>.4387</t>
         </is>
       </c>
-      <c r="E37" s="3" t="inlineStr">
+      <c r="E37" s="9" t="inlineStr">
         <is>
           <t>29/64</t>
         </is>
       </c>
-      <c r="F37" s="3" t="inlineStr">
+      <c r="F37" s="9" t="inlineStr">
         <is>
           <t>.4531</t>
         </is>
       </c>
-      <c r="G37" s="3" t="inlineStr">
+      <c r="G37" s="9" t="inlineStr">
         <is>
           <t>15/32</t>
         </is>
       </c>
-      <c r="H37" s="3" t="inlineStr">
+      <c r="H37" s="9" t="inlineStr">
         <is>
           <t>.4688</t>
         </is>
@@ -18103,35 +18139,35 @@
       <c r="Q37" s="2" t="n"/>
       <c r="R37" s="2" t="n"/>
     </row>
-    <row r="38">
+    <row r="38" ht="42" customHeight="1">
       <c r="A38" s="2" t="n"/>
       <c r="B38" s="2" t="n"/>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C38" s="9" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr">
+      <c r="D38" s="9" t="inlineStr">
         <is>
           <t>.4562</t>
         </is>
       </c>
-      <c r="E38" s="3" t="inlineStr">
+      <c r="E38" s="9" t="inlineStr">
         <is>
           <t>15/32</t>
         </is>
       </c>
-      <c r="F38" s="3" t="inlineStr">
+      <c r="F38" s="9" t="inlineStr">
         <is>
           <t>.4688</t>
         </is>
       </c>
-      <c r="G38" s="3" t="inlineStr">
+      <c r="G38" s="9" t="inlineStr">
         <is>
           <t>15/32</t>
         </is>
       </c>
-      <c r="H38" s="3" t="inlineStr">
+      <c r="H38" s="9" t="inlineStr">
         <is>
           <t>.4688</t>
         </is>
@@ -18147,119 +18183,119 @@
       <c r="Q38" s="2" t="n"/>
       <c r="R38" s="2" t="n"/>
     </row>
-    <row r="39">
-      <c r="A39" s="4" t="inlineStr">
+    <row r="39" ht="42" customHeight="1">
+      <c r="A39" s="10" t="inlineStr">
         <is>
           <t>9/16</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B39" s="10" t="inlineStr">
         <is>
           <t>.5625</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C39" s="10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="D39" s="4" t="inlineStr">
+      <c r="D39" s="10" t="inlineStr">
         <is>
           <t>.4603</t>
         </is>
       </c>
-      <c r="E39" s="4" t="inlineStr">
+      <c r="E39" s="10" t="inlineStr">
         <is>
           <t>31/64</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="F39" s="10" t="inlineStr">
         <is>
           <t>.4844</t>
         </is>
       </c>
-      <c r="G39" s="4" t="inlineStr">
+      <c r="G39" s="10" t="inlineStr">
         <is>
           <t>33/64</t>
         </is>
       </c>
-      <c r="H39" s="4" t="inlineStr">
+      <c r="H39" s="10" t="inlineStr">
         <is>
           <t>.5156</t>
         </is>
       </c>
-      <c r="I39" s="4" t="inlineStr">
+      <c r="I39" s="10" t="inlineStr">
         <is>
           <t>37/64</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="10" t="inlineStr">
         <is>
           <t>.5781</t>
         </is>
       </c>
-      <c r="K39" s="4" t="inlineStr">
+      <c r="K39" s="10" t="inlineStr">
         <is>
           <t>19/32</t>
         </is>
       </c>
-      <c r="L39" s="4" t="inlineStr">
+      <c r="L39" s="10" t="inlineStr">
         <is>
           <t>.5938</t>
         </is>
       </c>
-      <c r="M39" s="4" t="inlineStr">
+      <c r="M39" s="10" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="N39" s="4" t="inlineStr">
+      <c r="N39" s="10" t="inlineStr">
         <is>
           <t>29/32</t>
         </is>
       </c>
-      <c r="O39" s="4" t="inlineStr">
+      <c r="O39" s="10" t="inlineStr">
         <is>
           <t>.9062</t>
         </is>
       </c>
-      <c r="P39" s="4" t="inlineStr">
+      <c r="P39" s="10" t="inlineStr">
         <is>
           <t>.5940</t>
         </is>
       </c>
-      <c r="Q39" s="4" t="n"/>
-      <c r="R39" s="4" t="n"/>
-    </row>
-    <row r="40">
+      <c r="Q39" s="10" t="n"/>
+      <c r="R39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="42" customHeight="1">
       <c r="A40" s="2" t="n"/>
       <c r="B40" s="2" t="n"/>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="10" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="D40" s="4" t="inlineStr">
+      <c r="D40" s="10" t="inlineStr">
         <is>
           <t>.4943</t>
         </is>
       </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="E40" s="10" t="inlineStr">
         <is>
           <t>33/64</t>
         </is>
       </c>
-      <c r="F40" s="4" t="inlineStr">
+      <c r="F40" s="10" t="inlineStr">
         <is>
           <t>.5156</t>
         </is>
       </c>
-      <c r="G40" s="4" t="inlineStr">
+      <c r="G40" s="10" t="inlineStr">
         <is>
           <t>17/32</t>
         </is>
       </c>
-      <c r="H40" s="4" t="inlineStr">
+      <c r="H40" s="10" t="inlineStr">
         <is>
           <t>.5312</t>
         </is>
@@ -18275,35 +18311,35 @@
       <c r="Q40" s="2" t="n"/>
       <c r="R40" s="2" t="n"/>
     </row>
-    <row r="41">
+    <row r="41" ht="42" customHeight="1">
       <c r="A41" s="2" t="n"/>
       <c r="B41" s="2" t="n"/>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="C41" s="10" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="D41" s="4" t="inlineStr">
+      <c r="D41" s="10" t="inlineStr">
         <is>
           <t>.5114</t>
         </is>
       </c>
-      <c r="E41" s="4" t="inlineStr">
+      <c r="E41" s="10" t="inlineStr">
         <is>
           <t>33/64</t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr">
+      <c r="F41" s="10" t="inlineStr">
         <is>
           <t>.5156</t>
         </is>
       </c>
-      <c r="G41" s="4" t="inlineStr">
+      <c r="G41" s="10" t="inlineStr">
         <is>
           <t>17/32</t>
         </is>
       </c>
-      <c r="H41" s="4" t="inlineStr">
+      <c r="H41" s="10" t="inlineStr">
         <is>
           <t>.5312</t>
         </is>
@@ -18319,127 +18355,127 @@
       <c r="Q41" s="2" t="n"/>
       <c r="R41" s="2" t="n"/>
     </row>
-    <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+    <row r="42" ht="42" customHeight="1">
+      <c r="A42" s="9" t="inlineStr">
         <is>
           <t>5/8</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B42" s="9" t="inlineStr">
         <is>
           <t>.6250</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C42" s="9" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
+      <c r="D42" s="9" t="inlineStr">
         <is>
           <t>.5135</t>
         </is>
       </c>
-      <c r="E42" s="3" t="inlineStr">
+      <c r="E42" s="9" t="inlineStr">
         <is>
           <t>17/32</t>
         </is>
       </c>
-      <c r="F42" s="3" t="inlineStr">
+      <c r="F42" s="9" t="inlineStr">
         <is>
           <t>.5312</t>
         </is>
       </c>
-      <c r="G42" s="3" t="inlineStr">
+      <c r="G42" s="9" t="inlineStr">
         <is>
           <t>9/16</t>
         </is>
       </c>
-      <c r="H42" s="3" t="inlineStr">
+      <c r="H42" s="9" t="inlineStr">
         <is>
           <t>.5625</t>
         </is>
       </c>
-      <c r="I42" s="3" t="inlineStr">
+      <c r="I42" s="9" t="inlineStr">
         <is>
           <t>41/64</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
+      <c r="J42" s="9" t="inlineStr">
         <is>
           <t>.6406</t>
         </is>
       </c>
-      <c r="K42" s="3" t="inlineStr">
+      <c r="K42" s="9" t="inlineStr">
         <is>
           <t>21/32</t>
         </is>
       </c>
-      <c r="L42" s="3" t="inlineStr">
+      <c r="L42" s="9" t="inlineStr">
         <is>
           <t>.6562</t>
         </is>
       </c>
-      <c r="M42" s="3" t="inlineStr">
+      <c r="M42" s="9" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="N42" s="3" t="inlineStr">
+      <c r="N42" s="9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O42" s="3" t="inlineStr">
+      <c r="O42" s="9" t="inlineStr">
         <is>
           <t>1.000</t>
         </is>
       </c>
-      <c r="P42" s="3" t="inlineStr">
+      <c r="P42" s="9" t="inlineStr">
         <is>
           <t>.6890</t>
         </is>
       </c>
-      <c r="Q42" s="3" t="inlineStr">
+      <c r="Q42" s="9" t="inlineStr">
         <is>
           <t>3/8</t>
         </is>
       </c>
-      <c r="R42" s="3" t="inlineStr">
+      <c r="R42" s="9" t="inlineStr">
         <is>
           <t>.3240</t>
         </is>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="42" customHeight="1">
       <c r="A43" s="2" t="n"/>
       <c r="B43" s="2" t="n"/>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C43" s="9" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="D43" s="9" t="inlineStr">
         <is>
           <t>.5568</t>
         </is>
       </c>
-      <c r="E43" s="3" t="inlineStr">
+      <c r="E43" s="9" t="inlineStr">
         <is>
           <t>37/64</t>
         </is>
       </c>
-      <c r="F43" s="3" t="inlineStr">
+      <c r="F43" s="9" t="inlineStr">
         <is>
           <t>.5781</t>
         </is>
       </c>
-      <c r="G43" s="3" t="inlineStr">
+      <c r="G43" s="9" t="inlineStr">
         <is>
           <t>19/32</t>
         </is>
       </c>
-      <c r="H43" s="3" t="inlineStr">
+      <c r="H43" s="9" t="inlineStr">
         <is>
           <t>.5938</t>
         </is>
@@ -18455,35 +18491,35 @@
       <c r="Q43" s="2" t="n"/>
       <c r="R43" s="2" t="n"/>
     </row>
-    <row r="44">
+    <row r="44" ht="42" customHeight="1">
       <c r="A44" s="2" t="n"/>
       <c r="B44" s="2" t="n"/>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C44" s="9" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="D44" s="9" t="inlineStr">
         <is>
           <t>.5739</t>
         </is>
       </c>
-      <c r="E44" s="3" t="inlineStr">
+      <c r="E44" s="9" t="inlineStr">
         <is>
           <t>37/64</t>
         </is>
       </c>
-      <c r="F44" s="3" t="inlineStr">
+      <c r="F44" s="9" t="inlineStr">
         <is>
           <t>.5781</t>
         </is>
       </c>
-      <c r="G44" s="3" t="inlineStr">
+      <c r="G44" s="9" t="inlineStr">
         <is>
           <t>19/32</t>
         </is>
       </c>
-      <c r="H44" s="3" t="inlineStr">
+      <c r="H44" s="9" t="inlineStr">
         <is>
           <t>.5938</t>
         </is>
@@ -18499,195 +18535,195 @@
       <c r="Q44" s="2" t="n"/>
       <c r="R44" s="2" t="n"/>
     </row>
-    <row r="45">
-      <c r="A45" s="4" t="inlineStr">
+    <row r="45" ht="42" customHeight="1">
+      <c r="A45" s="10" t="inlineStr">
         <is>
           <t>11/16</t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="B45" s="10" t="inlineStr">
         <is>
           <t>.6875</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="C45" s="10" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="D45" s="4" t="inlineStr">
+      <c r="D45" s="10" t="inlineStr">
         <is>
           <t>.6364</t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr">
+      <c r="E45" s="10" t="inlineStr">
         <is>
           <t>41/64</t>
         </is>
       </c>
-      <c r="F45" s="4" t="inlineStr">
+      <c r="F45" s="10" t="inlineStr">
         <is>
           <t>.6406</t>
         </is>
       </c>
-      <c r="G45" s="4" t="inlineStr">
+      <c r="G45" s="10" t="inlineStr">
         <is>
           <t>21/32</t>
         </is>
       </c>
-      <c r="H45" s="4" t="inlineStr">
+      <c r="H45" s="10" t="inlineStr">
         <is>
           <t>.6562</t>
         </is>
       </c>
-      <c r="I45" s="4" t="inlineStr">
+      <c r="I45" s="10" t="inlineStr">
         <is>
           <t>45/64</t>
         </is>
       </c>
-      <c r="J45" s="4" t="inlineStr">
+      <c r="J45" s="10" t="inlineStr">
         <is>
           <t>.7031</t>
         </is>
       </c>
-      <c r="K45" s="4" t="inlineStr">
+      <c r="K45" s="10" t="inlineStr">
         <is>
           <t>23/32</t>
         </is>
       </c>
-      <c r="L45" s="4" t="inlineStr">
+      <c r="L45" s="10" t="inlineStr">
         <is>
           <t>.7188</t>
         </is>
       </c>
-      <c r="M45" s="4" t="n"/>
-      <c r="N45" s="4" t="n"/>
-      <c r="O45" s="4" t="n"/>
-      <c r="P45" s="4" t="n"/>
-      <c r="Q45" s="4" t="n"/>
-      <c r="R45" s="4" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="M45" s="10" t="n"/>
+      <c r="N45" s="10" t="n"/>
+      <c r="O45" s="10" t="n"/>
+      <c r="P45" s="10" t="n"/>
+      <c r="Q45" s="10" t="n"/>
+      <c r="R45" s="10" t="n"/>
+    </row>
+    <row r="46" ht="42" customHeight="1">
+      <c r="A46" s="9" t="inlineStr">
         <is>
           <t>3/4</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B46" s="9" t="inlineStr">
         <is>
           <t>.7500</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="C46" s="9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D46" s="3" t="inlineStr">
+      <c r="D46" s="9" t="inlineStr">
         <is>
           <t>.6273</t>
         </is>
       </c>
-      <c r="E46" s="3" t="inlineStr">
+      <c r="E46" s="9" t="inlineStr">
         <is>
           <t>21/32</t>
         </is>
       </c>
-      <c r="F46" s="3" t="inlineStr">
+      <c r="F46" s="9" t="inlineStr">
         <is>
           <t>.6562</t>
         </is>
       </c>
-      <c r="G46" s="3" t="inlineStr">
+      <c r="G46" s="9" t="inlineStr">
         <is>
           <t>11/16</t>
         </is>
       </c>
-      <c r="H46" s="3" t="inlineStr">
+      <c r="H46" s="9" t="inlineStr">
         <is>
           <t>.6875</t>
         </is>
       </c>
-      <c r="I46" s="3" t="inlineStr">
+      <c r="I46" s="9" t="inlineStr">
         <is>
           <t>49/64</t>
         </is>
       </c>
-      <c r="J46" s="3" t="inlineStr">
+      <c r="J46" s="9" t="inlineStr">
         <is>
           <t>.7656</t>
         </is>
       </c>
-      <c r="K46" s="3" t="inlineStr">
+      <c r="K46" s="9" t="inlineStr">
         <is>
           <t>25/32</t>
         </is>
       </c>
-      <c r="L46" s="3" t="inlineStr">
+      <c r="L46" s="9" t="inlineStr">
         <is>
           <t>.7812</t>
         </is>
       </c>
-      <c r="M46" s="3" t="inlineStr">
+      <c r="M46" s="9" t="inlineStr">
         <is>
           <t>5/8</t>
         </is>
       </c>
-      <c r="N46" s="3" t="inlineStr">
+      <c r="N46" s="9" t="inlineStr">
         <is>
           <t>1-3/16</t>
         </is>
       </c>
-      <c r="O46" s="3" t="inlineStr">
+      <c r="O46" s="9" t="inlineStr">
         <is>
           <t>1.1875</t>
         </is>
       </c>
-      <c r="P46" s="3" t="inlineStr">
+      <c r="P46" s="9" t="inlineStr">
         <is>
           <t>.8280</t>
         </is>
       </c>
-      <c r="Q46" s="3" t="inlineStr">
+      <c r="Q46" s="9" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="R46" s="3" t="inlineStr">
+      <c r="R46" s="9" t="inlineStr">
         <is>
           <t>.3960</t>
         </is>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="42" customHeight="1">
       <c r="A47" s="2" t="n"/>
       <c r="B47" s="2" t="n"/>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="C47" s="9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
+      <c r="D47" s="9" t="inlineStr">
         <is>
           <t>.6733</t>
         </is>
       </c>
-      <c r="E47" s="3" t="inlineStr">
+      <c r="E47" s="9" t="inlineStr">
         <is>
           <t>11/16</t>
         </is>
       </c>
-      <c r="F47" s="3" t="inlineStr">
+      <c r="F47" s="9" t="inlineStr">
         <is>
           <t>.6875</t>
         </is>
       </c>
-      <c r="G47" s="3" t="inlineStr">
+      <c r="G47" s="9" t="inlineStr">
         <is>
           <t>45/64</t>
         </is>
       </c>
-      <c r="H47" s="3" t="inlineStr">
+      <c r="H47" s="9" t="inlineStr">
         <is>
           <t>.7031</t>
         </is>
@@ -18703,35 +18739,35 @@
       <c r="Q47" s="2" t="n"/>
       <c r="R47" s="2" t="n"/>
     </row>
-    <row r="48">
+    <row r="48" ht="42" customHeight="1">
       <c r="A48" s="2" t="n"/>
       <c r="B48" s="2" t="n"/>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="C48" s="9" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D48" s="3" t="inlineStr">
+      <c r="D48" s="9" t="inlineStr">
         <is>
           <t>.6887</t>
         </is>
       </c>
-      <c r="E48" s="3" t="inlineStr">
+      <c r="E48" s="9" t="inlineStr">
         <is>
           <t>45/64</t>
         </is>
       </c>
-      <c r="F48" s="3" t="inlineStr">
+      <c r="F48" s="9" t="inlineStr">
         <is>
           <t>.7031</t>
         </is>
       </c>
-      <c r="G48" s="3" t="inlineStr">
+      <c r="G48" s="9" t="inlineStr">
         <is>
           <t>23/32</t>
         </is>
       </c>
-      <c r="H48" s="3" t="inlineStr">
+      <c r="H48" s="9" t="inlineStr">
         <is>
           <t>.7188</t>
         </is>
@@ -18747,195 +18783,195 @@
       <c r="Q48" s="2" t="n"/>
       <c r="R48" s="2" t="n"/>
     </row>
-    <row r="49">
-      <c r="A49" s="4" t="inlineStr">
+    <row r="49" ht="42" customHeight="1">
+      <c r="A49" s="10" t="inlineStr">
         <is>
           <t>13/16</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="B49" s="10" t="inlineStr">
         <is>
           <t>.8125</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="C49" s="10" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D49" s="4" t="inlineStr">
+      <c r="D49" s="10" t="inlineStr">
         <is>
           <t>.7512</t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr">
+      <c r="E49" s="10" t="inlineStr">
         <is>
           <t>49/64</t>
         </is>
       </c>
-      <c r="F49" s="4" t="inlineStr">
+      <c r="F49" s="10" t="inlineStr">
         <is>
           <t>.7656</t>
         </is>
       </c>
-      <c r="G49" s="4" t="inlineStr">
+      <c r="G49" s="10" t="inlineStr">
         <is>
           <t>25/32</t>
         </is>
       </c>
-      <c r="H49" s="4" t="inlineStr">
+      <c r="H49" s="10" t="inlineStr">
         <is>
           <t>.7812</t>
         </is>
       </c>
-      <c r="I49" s="4" t="inlineStr">
+      <c r="I49" s="10" t="inlineStr">
         <is>
           <t>53/64</t>
         </is>
       </c>
-      <c r="J49" s="4" t="inlineStr">
+      <c r="J49" s="10" t="inlineStr">
         <is>
           <t>.8281</t>
         </is>
       </c>
-      <c r="K49" s="4" t="inlineStr">
+      <c r="K49" s="10" t="inlineStr">
         <is>
           <t>27/32</t>
         </is>
       </c>
-      <c r="L49" s="4" t="inlineStr">
+      <c r="L49" s="10" t="inlineStr">
         <is>
           <t>.8438</t>
         </is>
       </c>
-      <c r="M49" s="4" t="n"/>
-      <c r="N49" s="4" t="n"/>
-      <c r="O49" s="4" t="n"/>
-      <c r="P49" s="4" t="n"/>
-      <c r="Q49" s="4" t="n"/>
-      <c r="R49" s="4" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
+      <c r="M49" s="10" t="n"/>
+      <c r="N49" s="10" t="n"/>
+      <c r="O49" s="10" t="n"/>
+      <c r="P49" s="10" t="n"/>
+      <c r="Q49" s="10" t="n"/>
+      <c r="R49" s="10" t="n"/>
+    </row>
+    <row r="50" ht="42" customHeight="1">
+      <c r="A50" s="9" t="inlineStr">
         <is>
           <t>7/8</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B50" s="9" t="inlineStr">
         <is>
           <t>.8750</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C50" s="9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="D50" s="3" t="inlineStr">
+      <c r="D50" s="9" t="inlineStr">
         <is>
           <t>.7387</t>
         </is>
       </c>
-      <c r="E50" s="3" t="inlineStr">
+      <c r="E50" s="9" t="inlineStr">
         <is>
           <t>49/64</t>
         </is>
       </c>
-      <c r="F50" s="3" t="inlineStr">
+      <c r="F50" s="9" t="inlineStr">
         <is>
           <t>.7656</t>
         </is>
       </c>
-      <c r="G50" s="3" t="inlineStr">
+      <c r="G50" s="9" t="inlineStr">
         <is>
           <t>51/64</t>
         </is>
       </c>
-      <c r="H50" s="3" t="inlineStr">
+      <c r="H50" s="9" t="inlineStr">
         <is>
           <t>.7969</t>
         </is>
       </c>
-      <c r="I50" s="3" t="inlineStr">
+      <c r="I50" s="9" t="inlineStr">
         <is>
           <t>57/64</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
+      <c r="J50" s="9" t="inlineStr">
         <is>
           <t>.8906</t>
         </is>
       </c>
-      <c r="K50" s="3" t="inlineStr">
+      <c r="K50" s="9" t="inlineStr">
         <is>
           <t>29/32</t>
         </is>
       </c>
-      <c r="L50" s="3" t="inlineStr">
+      <c r="L50" s="9" t="inlineStr">
         <is>
           <t>.9062</t>
         </is>
       </c>
-      <c r="M50" s="3" t="inlineStr">
+      <c r="M50" s="9" t="inlineStr">
         <is>
           <t>3/4</t>
         </is>
       </c>
-      <c r="N50" s="3" t="inlineStr">
+      <c r="N50" s="9" t="inlineStr">
         <is>
           <t>1-3/8</t>
         </is>
       </c>
-      <c r="O50" s="3" t="inlineStr">
+      <c r="O50" s="9" t="inlineStr">
         <is>
           <t>1.3750</t>
         </is>
       </c>
-      <c r="P50" s="3" t="inlineStr">
+      <c r="P50" s="9" t="inlineStr">
         <is>
           <t>.9630</t>
         </is>
       </c>
-      <c r="Q50" s="3" t="inlineStr">
+      <c r="Q50" s="9" t="inlineStr">
         <is>
           <t>9/16</t>
         </is>
       </c>
-      <c r="R50" s="3" t="inlineStr">
+      <c r="R50" s="9" t="inlineStr">
         <is>
           <t>.4680</t>
         </is>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="42" customHeight="1">
       <c r="A51" s="2" t="n"/>
       <c r="B51" s="2" t="n"/>
-      <c r="C51" s="3" t="inlineStr">
+      <c r="C51" s="9" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="D51" s="3" t="inlineStr">
+      <c r="D51" s="9" t="inlineStr">
         <is>
           <t>.7874</t>
         </is>
       </c>
-      <c r="E51" s="3" t="inlineStr">
+      <c r="E51" s="9" t="inlineStr">
         <is>
           <t>13/16</t>
         </is>
       </c>
-      <c r="F51" s="3" t="inlineStr">
+      <c r="F51" s="9" t="inlineStr">
         <is>
           <t>.8125</t>
         </is>
       </c>
-      <c r="G51" s="3" t="inlineStr">
+      <c r="G51" s="9" t="inlineStr">
         <is>
           <t>53/64</t>
         </is>
       </c>
-      <c r="H51" s="3" t="inlineStr">
+      <c r="H51" s="9" t="inlineStr">
         <is>
           <t>.8281</t>
         </is>
@@ -18951,35 +18987,35 @@
       <c r="Q51" s="2" t="n"/>
       <c r="R51" s="2" t="n"/>
     </row>
-    <row r="52">
+    <row r="52" ht="42" customHeight="1">
       <c r="A52" s="2" t="n"/>
       <c r="B52" s="2" t="n"/>
-      <c r="C52" s="3" t="inlineStr">
+      <c r="C52" s="9" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D52" s="3" t="inlineStr">
+      <c r="D52" s="9" t="inlineStr">
         <is>
           <t>.8137</t>
         </is>
       </c>
-      <c r="E52" s="3" t="inlineStr">
+      <c r="E52" s="9" t="inlineStr">
         <is>
           <t>53/64</t>
         </is>
       </c>
-      <c r="F52" s="3" t="inlineStr">
+      <c r="F52" s="9" t="inlineStr">
         <is>
           <t>.8281</t>
         </is>
       </c>
-      <c r="G52" s="3" t="inlineStr">
+      <c r="G52" s="9" t="inlineStr">
         <is>
           <t>27/32</t>
         </is>
       </c>
-      <c r="H52" s="3" t="inlineStr">
+      <c r="H52" s="9" t="inlineStr">
         <is>
           <t>.8438</t>
         </is>
@@ -18995,195 +19031,195 @@
       <c r="Q52" s="2" t="n"/>
       <c r="R52" s="2" t="n"/>
     </row>
-    <row r="53">
-      <c r="A53" s="4" t="inlineStr">
+    <row r="53" ht="42" customHeight="1">
+      <c r="A53" s="10" t="inlineStr">
         <is>
           <t>15/16</t>
         </is>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="B53" s="10" t="inlineStr">
         <is>
           <t>.9375</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="C53" s="10" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D53" s="4" t="inlineStr">
+      <c r="D53" s="10" t="inlineStr">
         <is>
           <t>.8762</t>
         </is>
       </c>
-      <c r="E53" s="4" t="inlineStr">
+      <c r="E53" s="10" t="inlineStr">
         <is>
           <t>57/64</t>
         </is>
       </c>
-      <c r="F53" s="4" t="inlineStr">
+      <c r="F53" s="10" t="inlineStr">
         <is>
           <t>.8906</t>
         </is>
       </c>
-      <c r="G53" s="4" t="inlineStr">
+      <c r="G53" s="10" t="inlineStr">
         <is>
           <t>29/32</t>
         </is>
       </c>
-      <c r="H53" s="4" t="inlineStr">
+      <c r="H53" s="10" t="inlineStr">
         <is>
           <t>.9062</t>
         </is>
       </c>
-      <c r="I53" s="4" t="inlineStr">
+      <c r="I53" s="10" t="inlineStr">
         <is>
           <t>61/64</t>
         </is>
       </c>
-      <c r="J53" s="4" t="inlineStr">
+      <c r="J53" s="10" t="inlineStr">
         <is>
           <t>.9531</t>
         </is>
       </c>
-      <c r="K53" s="4" t="inlineStr">
+      <c r="K53" s="10" t="inlineStr">
         <is>
           <t>31/32</t>
         </is>
       </c>
-      <c r="L53" s="4" t="inlineStr">
+      <c r="L53" s="10" t="inlineStr">
         <is>
           <t>.9688</t>
         </is>
       </c>
-      <c r="M53" s="4" t="n"/>
-      <c r="N53" s="4" t="n"/>
-      <c r="O53" s="4" t="n"/>
-      <c r="P53" s="4" t="n"/>
-      <c r="Q53" s="4" t="n"/>
-      <c r="R53" s="4" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="M53" s="10" t="n"/>
+      <c r="N53" s="10" t="n"/>
+      <c r="O53" s="10" t="n"/>
+      <c r="P53" s="10" t="n"/>
+      <c r="Q53" s="10" t="n"/>
+      <c r="R53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="42" customHeight="1">
+      <c r="A54" s="9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B54" s="9" t="inlineStr">
         <is>
           <t>1.000</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="C54" s="9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D54" s="3" t="inlineStr">
+      <c r="D54" s="9" t="inlineStr">
         <is>
           <t>.8466</t>
         </is>
       </c>
-      <c r="E54" s="3" t="inlineStr">
+      <c r="E54" s="9" t="inlineStr">
         <is>
           <t>7/8</t>
         </is>
       </c>
-      <c r="F54" s="3" t="inlineStr">
+      <c r="F54" s="9" t="inlineStr">
         <is>
           <t>.8750</t>
         </is>
       </c>
-      <c r="G54" s="3" t="inlineStr">
+      <c r="G54" s="9" t="inlineStr">
         <is>
           <t>59/64</t>
         </is>
       </c>
-      <c r="H54" s="3" t="inlineStr">
+      <c r="H54" s="9" t="inlineStr">
         <is>
           <t>.9219</t>
         </is>
       </c>
-      <c r="I54" s="3" t="inlineStr">
+      <c r="I54" s="9" t="inlineStr">
         <is>
           <t>1-1/64</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr">
+      <c r="J54" s="9" t="inlineStr">
         <is>
           <t>1.0156</t>
         </is>
       </c>
-      <c r="K54" s="3" t="inlineStr">
+      <c r="K54" s="9" t="inlineStr">
         <is>
           <t>1-1/32</t>
         </is>
       </c>
-      <c r="L54" s="3" t="inlineStr">
+      <c r="L54" s="9" t="inlineStr">
         <is>
           <t>1.0313</t>
         </is>
       </c>
-      <c r="M54" s="3" t="inlineStr">
+      <c r="M54" s="9" t="inlineStr">
         <is>
           <t>3/4</t>
         </is>
       </c>
-      <c r="N54" s="3" t="inlineStr">
+      <c r="N54" s="9" t="inlineStr">
         <is>
           <t>1-5/8</t>
         </is>
       </c>
-      <c r="O54" s="3" t="inlineStr">
+      <c r="O54" s="9" t="inlineStr">
         <is>
           <t>1.6250</t>
         </is>
       </c>
-      <c r="P54" s="3" t="inlineStr">
+      <c r="P54" s="9" t="inlineStr">
         <is>
           <t>1.1000</t>
         </is>
       </c>
-      <c r="Q54" s="3" t="inlineStr">
+      <c r="Q54" s="9" t="inlineStr">
         <is>
           <t>5/8</t>
         </is>
       </c>
-      <c r="R54" s="3" t="inlineStr">
+      <c r="R54" s="9" t="inlineStr">
         <is>
           <t>.5400</t>
         </is>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="42" customHeight="1">
       <c r="A55" s="2" t="n"/>
       <c r="B55" s="2" t="n"/>
-      <c r="C55" s="3" t="inlineStr">
+      <c r="C55" s="9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr">
+      <c r="D55" s="9" t="inlineStr">
         <is>
           <t>.8978</t>
         </is>
       </c>
-      <c r="E55" s="3" t="inlineStr">
+      <c r="E55" s="9" t="inlineStr">
         <is>
           <t>15/16</t>
         </is>
       </c>
-      <c r="F55" s="3" t="inlineStr">
+      <c r="F55" s="9" t="inlineStr">
         <is>
           <t>.9375</t>
         </is>
       </c>
-      <c r="G55" s="3" t="inlineStr">
+      <c r="G55" s="9" t="inlineStr">
         <is>
           <t>61/64</t>
         </is>
       </c>
-      <c r="H55" s="3" t="inlineStr">
+      <c r="H55" s="9" t="inlineStr">
         <is>
           <t>.9531</t>
         </is>
@@ -19199,35 +19235,35 @@
       <c r="Q55" s="2" t="n"/>
       <c r="R55" s="2" t="n"/>
     </row>
-    <row r="56">
+    <row r="56" ht="42" customHeight="1">
       <c r="A56" s="2" t="n"/>
       <c r="B56" s="2" t="n"/>
-      <c r="C56" s="3" t="inlineStr">
+      <c r="C56" s="9" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D56" s="3" t="inlineStr">
+      <c r="D56" s="9" t="inlineStr">
         <is>
           <t>.9387</t>
         </is>
       </c>
-      <c r="E56" s="3" t="inlineStr">
+      <c r="E56" s="9" t="inlineStr">
         <is>
           <t>61/64</t>
         </is>
       </c>
-      <c r="F56" s="3" t="inlineStr">
+      <c r="F56" s="9" t="inlineStr">
         <is>
           <t>.9531</t>
         </is>
       </c>
-      <c r="G56" s="3" t="inlineStr">
+      <c r="G56" s="9" t="inlineStr">
         <is>
           <t>31/32</t>
         </is>
       </c>
-      <c r="H56" s="3" t="inlineStr">
+      <c r="H56" s="9" t="inlineStr">
         <is>
           <t>.9688</t>
         </is>

--- a/inch_taps_drills.xlsx
+++ b/inch_taps_drills.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Letter Landscape 1pg" sheetId="1" state="visible" r:id="rId3"/>
@@ -1482,7 +1482,7 @@
   </sheetPr>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -4084,16 +4084,20 @@
   </sheetPr>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="S9" activeCellId="0" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4132,7 +4136,7 @@
       </c>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>

--- a/inch_taps_drills.xlsx
+++ b/inch_taps_drills.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Letter Landscape 1pg" sheetId="1" state="visible" r:id="rId3"/>
@@ -1533,7 +1533,7 @@
   </sheetPr>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1541,8 +1541,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1581,7 +1585,7 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4115,11 +4119,11 @@
     <mergeCell ref="R54:R56"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.511811023622047" footer="0.3"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
-    <oddFooter/>
+    <oddFooter>&amp;Chttps://github.com/jantman/machining-projects</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4131,7 +4135,7 @@
   </sheetPr>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -4139,8 +4143,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4179,7 +4187,7 @@
       </c>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -6713,11 +6721,11 @@
     <mergeCell ref="R54:R56"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.511811023622047" footer="0.3"/>
   <pageSetup paperSize="3" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
-    <oddFooter/>
+    <oddFooter>&amp;Chttps://github.com/jantman/machining-projects</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6729,7 +6737,7 @@
   </sheetPr>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -6738,7 +6746,8 @@
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="26.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6777,7 +6786,7 @@
       </c>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -9311,11 +9320,11 @@
     <mergeCell ref="R54:R56"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.511811023622047" footer="0.3"/>
   <pageSetup paperSize="3" scale="100" fitToWidth="2" fitToHeight="2" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
-    <oddFooter/>
+    <oddFooter>&amp;Chttps://github.com/jantman/machining-projects</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -9327,17 +9336,17 @@
   </sheetPr>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="61" zoomScaleNormal="61" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="27.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="32.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="33.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9376,7 +9385,7 @@
       </c>
       <c r="R1" s="10"/>
     </row>
-    <row r="2" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="108.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -11910,11 +11919,11 @@
     <mergeCell ref="R54:R56"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.511811023622047" footer="0.3"/>
   <pageSetup paperSize="3" scale="100" fitToWidth="3" fitToHeight="3" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
-    <oddFooter/>
+    <oddFooter>&amp;Chttps://github.com/jantman/machining-projects</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -11926,7 +11935,7 @@
   </sheetPr>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="32" zoomScaleNormal="32" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -11934,11 +11943,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="18.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="0" width="20.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="20.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="26.08"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="48.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -11974,7 +11987,7 @@
       </c>
       <c r="R1" s="13"/>
     </row>
-    <row r="2" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="90.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -14508,11 +14521,11 @@
     <mergeCell ref="R54:R56"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.511811023622047" footer="0.3"/>
   <pageSetup paperSize="0" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
-    <oddFooter/>
+    <oddFooter>&amp;Chttps://github.com/jantman/machining-projects</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -14524,7 +14537,7 @@
   </sheetPr>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="21" zoomScaleNormal="21" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -14533,7 +14546,8 @@
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="0" width="30.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="30.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="39.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="84" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14572,7 +14586,7 @@
       </c>
       <c r="R1" s="16"/>
     </row>
-    <row r="2" customFormat="false" ht="111.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="117.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -17106,11 +17120,11 @@
     <mergeCell ref="R54:R56"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.511811023622047" footer="0.3"/>
   <pageSetup paperSize="0" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
-    <oddFooter/>
+    <oddFooter>&amp;Chttps://github.com/jantman/machining-projects</oddFooter>
   </headerFooter>
 </worksheet>
 </file>